--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="b1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="sc3" sheetId="20" r:id="rId20"/>
     <sheet name="t1" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -4022,7 +4022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -9402,9 +9402,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -20031,7 +20039,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622374F2-DA1E-4495-98FE-79594638CE08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B541593A-EAF3-4C10-97F2-2B490E67E20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="481">
   <si>
     <t>b1_teams</t>
   </si>
@@ -1845,9 +1845,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="29" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -3538,6 +3546,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AC19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3546,9 +3566,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -5228,6 +5256,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Z21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5236,9 +5276,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -6348,6 +6396,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:X15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6356,7 +6416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18303,9 +18365,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -19711,6 +19781,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:X19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23252,9 +23334,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -24660,6 +24750,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:X19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24668,9 +24770,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -26350,6 +26460,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Z21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26358,7 +26480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
@@ -28913,9 +29035,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="34" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -31515,6 +31645,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AH25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31523,9 +31665,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="32" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -33975,6 +34125,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AF25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33983,9 +34145,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -36049,6 +36219,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AB24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36057,9 +36239,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -37739,6 +37929,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Z21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="483">
   <si>
     <t>b1_teams</t>
   </si>
@@ -122,6 +122,9 @@
     <t>X28</t>
   </si>
   <si>
+    <t>X29</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -416,9 +419,6 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X29</t>
-  </si>
-  <si>
     <t>X30</t>
   </si>
   <si>
@@ -428,6 +428,12 @@
     <t>X32</t>
   </si>
   <si>
+    <t>X33</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -513,9 +519,6 @@
   </si>
   <si>
     <t>e2_teams</t>
-  </si>
-  <si>
-    <t>X33</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -1618,13 +1621,16 @@
       <c r="AD1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -1708,15 +1714,18 @@
         <v>4.0</v>
       </c>
       <c r="AD2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
         <v>14.0</v>
@@ -1800,15 +1809,18 @@
         <v>2.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>15.0</v>
@@ -1892,15 +1904,18 @@
         <v>18.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1984,15 +1999,18 @@
         <v>9.0</v>
       </c>
       <c r="AD5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2076,15 +2094,18 @@
         <v>5.0</v>
       </c>
       <c r="AD6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -2168,15 +2189,18 @@
         <v>3.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2261,14 +2285,17 @@
       </c>
       <c r="AD8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -2352,15 +2379,18 @@
         <v>8.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -2444,15 +2474,18 @@
         <v>6.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -2537,14 +2570,17 @@
       </c>
       <c r="AD11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -2628,15 +2664,18 @@
         <v>7.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -2720,15 +2759,18 @@
         <v>14.0</v>
       </c>
       <c r="AD13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -2812,15 +2854,18 @@
         <v>11.0</v>
       </c>
       <c r="AD14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -2904,15 +2949,18 @@
         <v>17.0</v>
       </c>
       <c r="AD15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -2997,14 +3045,17 @@
       </c>
       <c r="AD16" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -3088,15 +3139,18 @@
         <v>1.0</v>
       </c>
       <c r="AD17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -3180,15 +3234,18 @@
         <v>13.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -3273,6 +3330,9 @@
       </c>
       <c r="AD19" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3351,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3368,13 +3428,16 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -3449,15 +3512,18 @@
         <v>4.0</v>
       </c>
       <c r="AA2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -3534,13 +3600,16 @@
       <c r="AA3" t="n">
         <v>11.0</v>
       </c>
+      <c r="AB3" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -3616,14 +3685,17 @@
       </c>
       <c r="AA4" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -3700,13 +3772,16 @@
       <c r="AA5" t="n">
         <v>14.0</v>
       </c>
+      <c r="AB5" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -3782,14 +3857,17 @@
       </c>
       <c r="AA6" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C7" t="n">
         <v>17.0</v>
@@ -3866,13 +3944,16 @@
       <c r="AA7" t="n">
         <v>12.0</v>
       </c>
+      <c r="AB7" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -3949,13 +4030,16 @@
       <c r="AA8" t="n">
         <v>19.0</v>
       </c>
+      <c r="AB8" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C9" t="n">
         <v>18.0</v>
@@ -4032,13 +4116,16 @@
       <c r="AA9" t="n">
         <v>18.0</v>
       </c>
+      <c r="AB9" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -4113,15 +4200,18 @@
         <v>10.0</v>
       </c>
       <c r="AA10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -4196,15 +4286,18 @@
         <v>6.0</v>
       </c>
       <c r="AA11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C12" t="n">
         <v>19.0</v>
@@ -4281,13 +4374,16 @@
       <c r="AA12" t="n">
         <v>20.0</v>
       </c>
+      <c r="AB12" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -4362,15 +4458,18 @@
         <v>8.0</v>
       </c>
       <c r="AA13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -4445,15 +4544,18 @@
         <v>7.0</v>
       </c>
       <c r="AA14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -4528,15 +4630,18 @@
         <v>2.0</v>
       </c>
       <c r="AA15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -4611,15 +4716,18 @@
         <v>9.0</v>
       </c>
       <c r="AA16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -4695,14 +4803,17 @@
       </c>
       <c r="AA17" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -4779,13 +4890,16 @@
       <c r="AA18" t="n">
         <v>13.0</v>
       </c>
+      <c r="AB18" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -4861,14 +4975,17 @@
       </c>
       <c r="AA19" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C20" t="n">
         <v>14.0</v>
@@ -4943,15 +5060,18 @@
         <v>1.0</v>
       </c>
       <c r="AA20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -5027,6 +5147,9 @@
       </c>
       <c r="AA21" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -5045,7 +5168,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5119,13 +5242,16 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5197,15 +5323,18 @@
         <v>3.0</v>
       </c>
       <c r="Z2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -5277,15 +5406,18 @@
         <v>14.0</v>
       </c>
       <c r="Z3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -5357,15 +5489,18 @@
         <v>6.0</v>
       </c>
       <c r="Z4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
@@ -5437,15 +5572,18 @@
         <v>8.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -5518,14 +5656,17 @@
       </c>
       <c r="Z6" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -5597,15 +5738,18 @@
         <v>4.0</v>
       </c>
       <c r="Z7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -5677,15 +5821,18 @@
         <v>11.0</v>
       </c>
       <c r="Z8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C9" t="n">
         <v>13.0</v>
@@ -5758,14 +5905,17 @@
       </c>
       <c r="Z9" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -5837,15 +5987,18 @@
         <v>7.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -5917,15 +6070,18 @@
         <v>1.0</v>
       </c>
       <c r="Z11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -5997,15 +6153,18 @@
         <v>5.0</v>
       </c>
       <c r="Z12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6077,15 +6236,18 @@
         <v>9.0</v>
       </c>
       <c r="Z13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -6157,15 +6319,18 @@
         <v>2.0</v>
       </c>
       <c r="Z14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -6237,6 +6402,9 @@
         <v>10.0</v>
       </c>
       <c r="Z15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -6256,7 +6424,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6336,13 +6504,16 @@
       <c r="AB1" t="s">
         <v>26</v>
       </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -6420,15 +6591,18 @@
         <v>5.0</v>
       </c>
       <c r="AB2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6506,15 +6680,18 @@
         <v>13.0</v>
       </c>
       <c r="AB3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -6594,13 +6771,16 @@
       <c r="AB4" t="n">
         <v>17.0</v>
       </c>
+      <c r="AC4" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -6678,15 +6858,18 @@
         <v>11.0</v>
       </c>
       <c r="AB5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -6765,14 +6948,17 @@
       </c>
       <c r="AB6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -6852,13 +7038,16 @@
       <c r="AB7" t="n">
         <v>19.0</v>
       </c>
+      <c r="AC7" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -6937,14 +7126,17 @@
       </c>
       <c r="AB8" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -7024,13 +7216,16 @@
       <c r="AB9" t="n">
         <v>4.0</v>
       </c>
+      <c r="AC9" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -7109,14 +7304,17 @@
       </c>
       <c r="AB10" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -7194,15 +7392,18 @@
         <v>1.0</v>
       </c>
       <c r="AB11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -7281,14 +7482,17 @@
       </c>
       <c r="AB12" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -7367,14 +7571,17 @@
       </c>
       <c r="AB13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -7454,13 +7661,16 @@
       <c r="AB14" t="n">
         <v>20.0</v>
       </c>
+      <c r="AC14" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -7540,13 +7750,16 @@
       <c r="AB15" t="n">
         <v>14.0</v>
       </c>
+      <c r="AC15" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -7624,15 +7837,18 @@
         <v>12.0</v>
       </c>
       <c r="AB16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -7712,13 +7928,16 @@
       <c r="AB17" t="n">
         <v>15.0</v>
       </c>
+      <c r="AC17" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -7796,15 +8015,18 @@
         <v>10.0</v>
       </c>
       <c r="AB18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -7882,15 +8104,18 @@
         <v>16.0</v>
       </c>
       <c r="AB19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -7970,13 +8195,16 @@
       <c r="AB20" t="n">
         <v>18.0</v>
       </c>
+      <c r="AC20" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -8054,6 +8282,9 @@
         <v>9.0</v>
       </c>
       <c r="AB21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -8073,7 +8304,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8147,13 +8378,19 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -8227,13 +8464,19 @@
       <c r="Z2" t="n">
         <v>16.0</v>
       </c>
+      <c r="AA2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -8305,15 +8548,21 @@
         <v>9.0</v>
       </c>
       <c r="Z3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -8386,14 +8635,20 @@
       </c>
       <c r="Z4" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -8466,14 +8721,20 @@
       </c>
       <c r="Z5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -8546,14 +8807,20 @@
       </c>
       <c r="Z6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -8625,15 +8892,21 @@
         <v>11.0</v>
       </c>
       <c r="Z7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -8705,15 +8978,21 @@
         <v>17.0</v>
       </c>
       <c r="Z8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -8786,14 +9065,20 @@
       </c>
       <c r="Z9" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -8866,14 +9151,20 @@
       </c>
       <c r="Z10" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -8946,14 +9237,20 @@
       </c>
       <c r="Z11" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -9026,14 +9323,20 @@
       </c>
       <c r="Z12" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -9106,14 +9409,20 @@
       </c>
       <c r="Z13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -9186,14 +9495,20 @@
       </c>
       <c r="Z14" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -9266,14 +9581,20 @@
       </c>
       <c r="Z15" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -9346,14 +9667,20 @@
       </c>
       <c r="Z16" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -9427,13 +9754,19 @@
       <c r="Z17" t="n">
         <v>20.0</v>
       </c>
+      <c r="AA17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -9505,15 +9838,21 @@
         <v>12.0</v>
       </c>
       <c r="Z18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB18" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -9585,15 +9924,21 @@
         <v>16.0</v>
       </c>
       <c r="Z19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB19" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -9667,13 +10012,19 @@
       <c r="Z20" t="n">
         <v>13.0</v>
       </c>
+      <c r="AA20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -9746,6 +10097,12 @@
       </c>
       <c r="Z21" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +10121,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9835,13 +10192,16 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -9910,15 +10270,18 @@
         <v>1.0</v>
       </c>
       <c r="Y2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -9987,15 +10350,18 @@
         <v>4.0</v>
       </c>
       <c r="Y3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -10065,14 +10431,17 @@
       </c>
       <c r="Y4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -10141,15 +10510,18 @@
         <v>3.0</v>
       </c>
       <c r="Y5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -10218,15 +10590,18 @@
         <v>16.0</v>
       </c>
       <c r="Y6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -10296,14 +10671,17 @@
       </c>
       <c r="Y7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -10372,15 +10750,18 @@
         <v>10.0</v>
       </c>
       <c r="Y8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -10450,14 +10831,17 @@
       </c>
       <c r="Y9" t="n">
         <v>11.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -10527,14 +10911,17 @@
       </c>
       <c r="Y10" t="n">
         <v>13.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -10604,14 +10991,17 @@
       </c>
       <c r="Y11" t="n">
         <v>8.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -10680,15 +11070,18 @@
         <v>2.0</v>
       </c>
       <c r="Y12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C13" t="n">
         <v>15.0</v>
@@ -10757,15 +11150,18 @@
         <v>17.0</v>
       </c>
       <c r="Y13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z13" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -10834,15 +11230,18 @@
         <v>5.0</v>
       </c>
       <c r="Y14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C15" t="n">
         <v>7.0</v>
@@ -10911,15 +11310,18 @@
         <v>7.0</v>
       </c>
       <c r="Y15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z15" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -10988,15 +11390,18 @@
         <v>6.0</v>
       </c>
       <c r="Y16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z16" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C17" t="n">
         <v>9.0</v>
@@ -11065,15 +11470,18 @@
         <v>14.0</v>
       </c>
       <c r="Y17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -11142,15 +11550,18 @@
         <v>15.0</v>
       </c>
       <c r="Y18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Z18" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -11219,6 +11630,9 @@
         <v>18.0</v>
       </c>
       <c r="Y19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Z19" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -11238,7 +11652,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11309,13 +11723,16 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -11384,15 +11801,18 @@
         <v>17.0</v>
       </c>
       <c r="Y2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -11461,15 +11881,18 @@
         <v>18.0</v>
       </c>
       <c r="Y3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -11538,15 +11961,18 @@
         <v>3.0</v>
       </c>
       <c r="Y4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -11616,14 +12042,17 @@
       </c>
       <c r="Y5" t="n">
         <v>14.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -11692,15 +12121,18 @@
         <v>6.0</v>
       </c>
       <c r="Y6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -11770,14 +12202,17 @@
       </c>
       <c r="Y7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -11846,15 +12281,18 @@
         <v>5.0</v>
       </c>
       <c r="Y8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -11923,15 +12361,18 @@
         <v>7.0</v>
       </c>
       <c r="Y9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -12000,15 +12441,18 @@
         <v>8.0</v>
       </c>
       <c r="Y10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -12078,14 +12522,17 @@
       </c>
       <c r="Y11" t="n">
         <v>17.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -12155,14 +12602,17 @@
       </c>
       <c r="Y12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -12231,15 +12681,18 @@
         <v>9.0</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z13" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -12308,15 +12761,18 @@
         <v>1.0</v>
       </c>
       <c r="Y14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -12386,14 +12842,17 @@
       </c>
       <c r="Y15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -12462,15 +12921,18 @@
         <v>4.0</v>
       </c>
       <c r="Y16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z16" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -12539,15 +13001,18 @@
         <v>2.0</v>
       </c>
       <c r="Y17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -12617,14 +13082,17 @@
       </c>
       <c r="Y18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -12694,6 +13162,9 @@
       </c>
       <c r="Y19" t="n">
         <v>13.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -12712,7 +13183,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12789,13 +13260,16 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -12872,13 +13346,16 @@
       <c r="AA2" t="n">
         <v>18.0</v>
       </c>
+      <c r="AB2" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -12953,15 +13430,18 @@
         <v>8.0</v>
       </c>
       <c r="AA3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -13036,15 +13516,18 @@
         <v>4.0</v>
       </c>
       <c r="AA4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -13119,15 +13602,18 @@
         <v>5.0</v>
       </c>
       <c r="AA5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -13202,15 +13688,18 @@
         <v>3.0</v>
       </c>
       <c r="AA6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -13287,13 +13776,16 @@
       <c r="AA7" t="n">
         <v>19.0</v>
       </c>
+      <c r="AB7" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C8" t="n">
         <v>17.0</v>
@@ -13368,15 +13860,18 @@
         <v>10.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -13451,15 +13946,18 @@
         <v>13.0</v>
       </c>
       <c r="AA9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -13534,15 +14032,18 @@
         <v>14.0</v>
       </c>
       <c r="AA10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -13619,13 +14120,16 @@
       <c r="AA11" t="n">
         <v>15.0</v>
       </c>
+      <c r="AB11" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -13702,13 +14206,16 @@
       <c r="AA12" t="n">
         <v>17.0</v>
       </c>
+      <c r="AB12" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -13785,13 +14292,16 @@
       <c r="AA13" t="n">
         <v>20.0</v>
       </c>
+      <c r="AB13" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -13866,15 +14376,18 @@
         <v>15.0</v>
       </c>
       <c r="AA14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C15" t="n">
         <v>14.0</v>
@@ -13949,15 +14462,18 @@
         <v>9.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -14032,15 +14548,18 @@
         <v>1.0</v>
       </c>
       <c r="AA16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -14115,15 +14634,18 @@
         <v>2.0</v>
       </c>
       <c r="AA17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -14200,13 +14722,16 @@
       <c r="AA18" t="n">
         <v>7.0</v>
       </c>
+      <c r="AB18" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -14281,15 +14806,18 @@
         <v>12.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -14364,15 +14892,18 @@
         <v>11.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -14447,6 +14978,9 @@
         <v>6.0</v>
       </c>
       <c r="AA21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB21" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -14466,7 +15000,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14552,13 +15086,16 @@
       <c r="AD1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -14644,13 +15181,16 @@
       <c r="AD2" t="n">
         <v>22.0</v>
       </c>
+      <c r="AE2" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -14734,15 +15274,18 @@
         <v>2.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -14828,13 +15371,16 @@
       <c r="AD4" t="n">
         <v>19.0</v>
       </c>
+      <c r="AE4" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -14920,13 +15466,16 @@
       <c r="AD5" t="n">
         <v>10.0</v>
       </c>
+      <c r="AE5" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C6" t="n">
         <v>19.0</v>
@@ -15012,13 +15561,16 @@
       <c r="AD6" t="n">
         <v>8.0</v>
       </c>
+      <c r="AE6" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C7" t="n">
         <v>20.0</v>
@@ -15104,13 +15656,16 @@
       <c r="AD7" t="n">
         <v>1.0</v>
       </c>
+      <c r="AE7" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>21.0</v>
@@ -15196,13 +15751,16 @@
       <c r="AD8" t="n">
         <v>20.0</v>
       </c>
+      <c r="AE8" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -15288,13 +15846,16 @@
       <c r="AD9" t="n">
         <v>6.0</v>
       </c>
+      <c r="AE9" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -15378,15 +15939,18 @@
         <v>14.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -15471,14 +16035,17 @@
       </c>
       <c r="AD11" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C12" t="n">
         <v>9.0</v>
@@ -15563,14 +16130,17 @@
       </c>
       <c r="AD12" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C13" t="n">
         <v>22.0</v>
@@ -15656,13 +16226,16 @@
       <c r="AD13" t="n">
         <v>13.0</v>
       </c>
+      <c r="AE13" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -15748,13 +16321,16 @@
       <c r="AD14" t="n">
         <v>14.0</v>
       </c>
+      <c r="AE14" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -15838,15 +16414,18 @@
         <v>16.0</v>
       </c>
       <c r="AD15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -15930,15 +16509,18 @@
         <v>17.0</v>
       </c>
       <c r="AD16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -16023,14 +16605,17 @@
       </c>
       <c r="AD17" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C18" t="n">
         <v>4.0</v>
@@ -16114,15 +16699,18 @@
         <v>5.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -16208,13 +16796,16 @@
       <c r="AD19" t="n">
         <v>21.0</v>
       </c>
+      <c r="AE19" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -16299,14 +16890,17 @@
       </c>
       <c r="AD20" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -16391,14 +16985,17 @@
       </c>
       <c r="AD21" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -16483,14 +17080,17 @@
       </c>
       <c r="AD22" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -16575,6 +17175,9 @@
       </c>
       <c r="AD23" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -16593,7 +17196,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16676,13 +17279,16 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -16764,14 +17370,17 @@
       </c>
       <c r="AC2" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -16852,15 +17461,18 @@
         <v>1.0</v>
       </c>
       <c r="AC3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -16941,15 +17553,18 @@
         <v>11.0</v>
       </c>
       <c r="AC4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -17030,15 +17645,18 @@
         <v>5.0</v>
       </c>
       <c r="AC5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -17119,15 +17737,18 @@
         <v>3.0</v>
       </c>
       <c r="AC6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -17208,15 +17829,18 @@
         <v>4.0</v>
       </c>
       <c r="AC7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -17298,14 +17922,17 @@
       </c>
       <c r="AC8" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17386,15 +18013,18 @@
         <v>6.0</v>
       </c>
       <c r="AC9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -17475,15 +18105,18 @@
         <v>2.0</v>
       </c>
       <c r="AC10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -17564,15 +18197,18 @@
         <v>10.0</v>
       </c>
       <c r="AC11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -17653,15 +18289,18 @@
         <v>12.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -17743,6 +18382,9 @@
       </c>
       <c r="AC13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -17761,7 +18403,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17841,13 +18483,16 @@
       <c r="AB1" t="s">
         <v>26</v>
       </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -17925,15 +18570,18 @@
         <v>2.0</v>
       </c>
       <c r="AB2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -18011,15 +18659,18 @@
         <v>7.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -18097,15 +18748,18 @@
         <v>9.0</v>
       </c>
       <c r="AB4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -18183,15 +18837,18 @@
         <v>6.0</v>
       </c>
       <c r="AB5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -18269,15 +18926,18 @@
         <v>3.0</v>
       </c>
       <c r="AB6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -18355,15 +19015,18 @@
         <v>1.0</v>
       </c>
       <c r="AB7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -18441,15 +19104,18 @@
         <v>8.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -18527,15 +19193,18 @@
         <v>5.0</v>
       </c>
       <c r="AB9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -18613,15 +19282,18 @@
         <v>10.0</v>
       </c>
       <c r="AB10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -18699,6 +19371,9 @@
         <v>4.0</v>
       </c>
       <c r="AB11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -18718,7 +19393,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18789,13 +19464,16 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -18865,14 +19543,17 @@
       </c>
       <c r="Y2" t="n">
         <v>16.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -18941,15 +19622,18 @@
         <v>1.0</v>
       </c>
       <c r="Y3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -19018,15 +19702,18 @@
         <v>16.0</v>
       </c>
       <c r="Y4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
         <v>14.0</v>
@@ -19095,15 +19782,18 @@
         <v>11.0</v>
       </c>
       <c r="Y5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -19172,15 +19862,18 @@
         <v>2.0</v>
       </c>
       <c r="Y6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -19249,15 +19942,18 @@
         <v>9.0</v>
       </c>
       <c r="Y7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -19327,14 +20023,17 @@
       </c>
       <c r="Y8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -19403,15 +20102,18 @@
         <v>4.0</v>
       </c>
       <c r="Y9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -19480,15 +20182,18 @@
         <v>18.0</v>
       </c>
       <c r="Y10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -19558,14 +20263,17 @@
       </c>
       <c r="Y11" t="n">
         <v>15.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -19634,15 +20342,18 @@
         <v>5.0</v>
       </c>
       <c r="Y12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z12" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -19711,15 +20422,18 @@
         <v>3.0</v>
       </c>
       <c r="Y13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z13" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -19789,14 +20503,17 @@
       </c>
       <c r="Y14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -19865,15 +20582,18 @@
         <v>13.0</v>
       </c>
       <c r="Y15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Z15" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -19942,15 +20662,18 @@
         <v>6.0</v>
       </c>
       <c r="Y16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z16" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -20019,15 +20742,18 @@
         <v>17.0</v>
       </c>
       <c r="Y17" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -20097,14 +20823,17 @@
       </c>
       <c r="Y18" t="n">
         <v>9.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" t="n">
         <v>6.0</v>
@@ -20173,6 +20902,9 @@
         <v>12.0</v>
       </c>
       <c r="Y19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z19" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -20192,7 +20924,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -20272,13 +21004,16 @@
       <c r="AB1" t="s">
         <v>26</v>
       </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -20356,15 +21091,18 @@
         <v>2.0</v>
       </c>
       <c r="AB2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -20442,15 +21180,18 @@
         <v>7.0</v>
       </c>
       <c r="AB3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -20528,15 +21269,18 @@
         <v>6.0</v>
       </c>
       <c r="AB4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -20614,15 +21358,18 @@
         <v>1.0</v>
       </c>
       <c r="AB5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -20701,14 +21448,17 @@
       </c>
       <c r="AB6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -20786,15 +21536,18 @@
         <v>10.0</v>
       </c>
       <c r="AB7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -20873,14 +21626,17 @@
       </c>
       <c r="AB8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -20958,15 +21714,18 @@
         <v>3.0</v>
       </c>
       <c r="AB9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -21045,14 +21804,17 @@
       </c>
       <c r="AB10" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -21131,6 +21893,9 @@
       </c>
       <c r="AB11" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -21149,7 +21914,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -21226,13 +21991,16 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -21307,15 +22075,18 @@
         <v>8.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -21390,15 +22161,18 @@
         <v>2.0</v>
       </c>
       <c r="AA3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -21473,15 +22247,18 @@
         <v>10.0</v>
       </c>
       <c r="AA4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -21556,15 +22333,18 @@
         <v>4.0</v>
       </c>
       <c r="AA5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -21639,15 +22419,18 @@
         <v>9.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21722,15 +22505,18 @@
         <v>3.0</v>
       </c>
       <c r="AA7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -21805,15 +22591,18 @@
         <v>1.0</v>
       </c>
       <c r="AA8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -21888,15 +22677,18 @@
         <v>5.0</v>
       </c>
       <c r="AA9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -21971,15 +22763,18 @@
         <v>7.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -22054,6 +22849,9 @@
         <v>6.0</v>
       </c>
       <c r="AA11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -22073,7 +22871,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -22153,13 +22951,16 @@
       <c r="AB1" t="s">
         <v>26</v>
       </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -22237,15 +23038,18 @@
         <v>4.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -22323,15 +23127,18 @@
         <v>5.0</v>
       </c>
       <c r="AB3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -22411,13 +23218,16 @@
       <c r="AB4" t="n">
         <v>19.0</v>
       </c>
+      <c r="AC4" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -22495,15 +23305,18 @@
         <v>15.0</v>
       </c>
       <c r="AB5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -22581,15 +23394,18 @@
         <v>8.0</v>
       </c>
       <c r="AB6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -22667,15 +23483,18 @@
         <v>3.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -22754,14 +23573,17 @@
       </c>
       <c r="AB8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -22840,14 +23662,17 @@
       </c>
       <c r="AB9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -22925,15 +23750,18 @@
         <v>9.0</v>
       </c>
       <c r="AB10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -23013,13 +23841,16 @@
       <c r="AB11" t="n">
         <v>17.0</v>
       </c>
+      <c r="AC11" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
@@ -23099,13 +23930,16 @@
       <c r="AB12" t="n">
         <v>16.0</v>
       </c>
+      <c r="AC12" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -23183,15 +24017,18 @@
         <v>7.0</v>
       </c>
       <c r="AB13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC13" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -23269,15 +24106,18 @@
         <v>12.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -23357,13 +24197,16 @@
       <c r="AB15" t="n">
         <v>15.0</v>
       </c>
+      <c r="AC15" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -23442,14 +24285,17 @@
       </c>
       <c r="AB16" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -23527,15 +24373,18 @@
         <v>2.0</v>
       </c>
       <c r="AB17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -23615,13 +24464,16 @@
       <c r="AB18" t="n">
         <v>18.0</v>
       </c>
+      <c r="AC18" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -23701,13 +24553,16 @@
       <c r="AB19" t="n">
         <v>12.0</v>
       </c>
+      <c r="AC19" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C20" t="n">
         <v>8.0</v>
@@ -23785,15 +24640,18 @@
         <v>1.0</v>
       </c>
       <c r="AB20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -23871,6 +24729,9 @@
         <v>20.0</v>
       </c>
       <c r="AB21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -23890,7 +24751,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -23961,13 +24822,16 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -24036,15 +24900,18 @@
         <v>3.0</v>
       </c>
       <c r="Y2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -24114,14 +24981,17 @@
       </c>
       <c r="Y3" t="n">
         <v>13.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -24190,15 +25060,18 @@
         <v>17.0</v>
       </c>
       <c r="Y4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -24268,14 +25141,17 @@
       </c>
       <c r="Y5" t="n">
         <v>14.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -24345,14 +25221,17 @@
       </c>
       <c r="Y6" t="n">
         <v>3.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -24422,14 +25301,17 @@
       </c>
       <c r="Y7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -24499,14 +25381,17 @@
       </c>
       <c r="Y8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -24575,15 +25460,18 @@
         <v>5.0</v>
       </c>
       <c r="Y9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -24653,14 +25541,17 @@
       </c>
       <c r="Y10" t="n">
         <v>10.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -24729,15 +25620,18 @@
         <v>18.0</v>
       </c>
       <c r="Y11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Z11" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -24806,15 +25700,18 @@
         <v>11.0</v>
       </c>
       <c r="Y12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z12" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -24883,15 +25780,18 @@
         <v>7.0</v>
       </c>
       <c r="Y13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z13" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -24960,15 +25860,18 @@
         <v>8.0</v>
       </c>
       <c r="Y14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z14" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" t="n">
         <v>5.0</v>
@@ -25038,14 +25941,17 @@
       </c>
       <c r="Y15" t="n">
         <v>11.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -25115,14 +26021,17 @@
       </c>
       <c r="Y16" t="n">
         <v>16.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -25191,15 +26100,18 @@
         <v>6.0</v>
       </c>
       <c r="Y17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -25269,14 +26181,17 @@
       </c>
       <c r="Y18" t="n">
         <v>4.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -25345,6 +26260,9 @@
         <v>2.0</v>
       </c>
       <c r="Y19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -25364,7 +26282,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -25441,13 +26359,16 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -25522,15 +26443,18 @@
         <v>5.0</v>
       </c>
       <c r="AA2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -25605,15 +26529,18 @@
         <v>11.0</v>
       </c>
       <c r="AA3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -25689,14 +26616,17 @@
       </c>
       <c r="AA4" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -25771,15 +26701,18 @@
         <v>9.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -25854,15 +26787,18 @@
         <v>19.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -25937,15 +26873,18 @@
         <v>3.0</v>
       </c>
       <c r="AA7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -26020,15 +26959,18 @@
         <v>13.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -26104,14 +27046,17 @@
       </c>
       <c r="AA9" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -26187,14 +27132,17 @@
       </c>
       <c r="AA10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -26269,15 +27217,18 @@
         <v>12.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -26352,15 +27303,18 @@
         <v>2.0</v>
       </c>
       <c r="AA12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -26435,15 +27389,18 @@
         <v>1.0</v>
       </c>
       <c r="AA13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -26518,15 +27475,18 @@
         <v>4.0</v>
       </c>
       <c r="AA14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -26603,13 +27563,16 @@
       <c r="AA15" t="n">
         <v>17.0</v>
       </c>
+      <c r="AB15" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -26686,13 +27649,16 @@
       <c r="AA16" t="n">
         <v>20.0</v>
       </c>
+      <c r="AB16" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -26767,15 +27733,18 @@
         <v>10.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" t="n">
         <v>8.0</v>
@@ -26850,15 +27819,18 @@
         <v>8.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" t="n">
         <v>9.0</v>
@@ -26933,15 +27905,18 @@
         <v>18.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" t="n">
         <v>10.0</v>
@@ -27016,15 +27991,18 @@
         <v>6.0</v>
       </c>
       <c r="AA20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB20" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -27099,7 +28077,10 @@
         <v>7.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -27118,7 +28099,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -27205,7 +28186,7 @@
         <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="AF1" t="s">
         <v>128</v>
@@ -27216,13 +28197,19 @@
       <c r="AH1" t="s">
         <v>130</v>
       </c>
+      <c r="AI1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -27320,13 +28307,19 @@
       <c r="AH2" t="n">
         <v>24.0</v>
       </c>
+      <c r="AI2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -27424,13 +28417,19 @@
       <c r="AH3" t="n">
         <v>19.0</v>
       </c>
+      <c r="AI3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -27527,14 +28526,20 @@
       </c>
       <c r="AH4" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -27632,13 +28637,19 @@
       <c r="AH5" t="n">
         <v>15.0</v>
       </c>
+      <c r="AI5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -27734,15 +28745,21 @@
         <v>2.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -27840,13 +28857,19 @@
       <c r="AH7" t="n">
         <v>17.0</v>
       </c>
+      <c r="AI7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -27944,13 +28967,19 @@
       <c r="AH8" t="n">
         <v>20.0</v>
       </c>
+      <c r="AI8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -28046,15 +29075,21 @@
         <v>12.0</v>
       </c>
       <c r="AH9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" t="n">
         <v>12.0</v>
@@ -28152,13 +29187,19 @@
       <c r="AH10" t="n">
         <v>16.0</v>
       </c>
+      <c r="AI10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -28254,15 +29295,21 @@
         <v>1.0</v>
       </c>
       <c r="AH11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -28360,13 +29407,19 @@
       <c r="AH12" t="n">
         <v>4.0</v>
       </c>
+      <c r="AI12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -28464,13 +29517,19 @@
       <c r="AH13" t="n">
         <v>21.0</v>
       </c>
+      <c r="AI13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -28566,15 +29625,21 @@
         <v>10.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -28670,15 +29735,21 @@
         <v>6.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -28776,13 +29847,19 @@
       <c r="AH16" t="n">
         <v>14.0</v>
       </c>
+      <c r="AI16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -28880,13 +29957,19 @@
       <c r="AH17" t="n">
         <v>10.0</v>
       </c>
+      <c r="AI17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -28984,13 +30067,19 @@
       <c r="AH18" t="n">
         <v>23.0</v>
       </c>
+      <c r="AI18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -29086,15 +30175,21 @@
         <v>11.0</v>
       </c>
       <c r="AH19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C20" t="n">
         <v>17.0</v>
@@ -29190,15 +30285,21 @@
         <v>5.0</v>
       </c>
       <c r="AH20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -29296,13 +30397,19 @@
       <c r="AH21" t="n">
         <v>22.0</v>
       </c>
+      <c r="AI21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -29398,15 +30505,21 @@
         <v>8.0</v>
       </c>
       <c r="AH22" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C23" t="n">
         <v>6.0</v>
@@ -29503,14 +30616,20 @@
       </c>
       <c r="AH23" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -29608,13 +30727,19 @@
       <c r="AH24" t="n">
         <v>18.0</v>
       </c>
+      <c r="AI24" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -29710,7 +30835,13 @@
         <v>9.0</v>
       </c>
       <c r="AH25" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -29729,7 +30860,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -29816,7 +30947,7 @@
         <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="AF1" t="s">
         <v>128</v>
@@ -29828,15 +30959,18 @@
         <v>130</v>
       </c>
       <c r="AI1" t="s">
-        <v>160</v>
+        <v>131</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="n">
         <v>19.0</v>
@@ -29935,15 +31069,18 @@
         <v>12.0</v>
       </c>
       <c r="AI2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -30042,15 +31179,18 @@
         <v>20.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -30149,15 +31289,18 @@
         <v>10.0</v>
       </c>
       <c r="AI4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -30256,15 +31399,18 @@
         <v>13.0</v>
       </c>
       <c r="AI5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -30363,15 +31509,18 @@
         <v>14.0</v>
       </c>
       <c r="AI6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -30472,13 +31621,16 @@
       <c r="AI7" t="n">
         <v>16.0</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -30577,15 +31729,18 @@
         <v>16.0</v>
       </c>
       <c r="AI8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -30686,13 +31841,16 @@
       <c r="AI9" t="n">
         <v>24.0</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" t="n">
         <v>20.0</v>
@@ -30791,15 +31949,18 @@
         <v>23.0</v>
       </c>
       <c r="AI10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" t="n">
         <v>21.0</v>
@@ -30898,15 +32059,18 @@
         <v>19.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -31005,15 +32169,18 @@
         <v>22.0</v>
       </c>
       <c r="AI12" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -31114,13 +32281,16 @@
       <c r="AI13" t="n">
         <v>9.0</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -31221,13 +32391,16 @@
       <c r="AI14" t="n">
         <v>17.0</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -31328,13 +32501,16 @@
       <c r="AI15" t="n">
         <v>3.0</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -31435,13 +32611,16 @@
       <c r="AI16" t="n">
         <v>21.0</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -31540,15 +32719,18 @@
         <v>4.0</v>
       </c>
       <c r="AI17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -31649,13 +32831,16 @@
       <c r="AI18" t="n">
         <v>5.0</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -31754,15 +32939,18 @@
         <v>11.0</v>
       </c>
       <c r="AI19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C20" t="n">
         <v>4.0</v>
@@ -31861,15 +33049,18 @@
         <v>1.0</v>
       </c>
       <c r="AI20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" t="n">
         <v>18.0</v>
@@ -31968,15 +33159,18 @@
         <v>6.0</v>
       </c>
       <c r="AI21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -32077,13 +33271,16 @@
       <c r="AI22" t="n">
         <v>18.0</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23" t="n">
         <v>5.0</v>
@@ -32182,15 +33379,18 @@
         <v>7.0</v>
       </c>
       <c r="AI23" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -32291,13 +33491,16 @@
       <c r="AI24" t="n">
         <v>2.0</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" t="n">
         <v>6.0</v>
@@ -32396,6 +33599,9 @@
         <v>8.0</v>
       </c>
       <c r="AI25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -32415,7 +33621,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -32502,7 +33708,7 @@
         <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="AF1" t="s">
         <v>128</v>
@@ -32510,13 +33716,19 @@
       <c r="AG1" t="s">
         <v>129</v>
       </c>
+      <c r="AH1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -32611,13 +33823,19 @@
       <c r="AG2" t="n">
         <v>20.0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -32710,15 +33928,21 @@
         <v>12.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -32813,13 +34037,19 @@
       <c r="AG4" t="n">
         <v>10.0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -32914,13 +34144,19 @@
       <c r="AG5" t="n">
         <v>23.0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" t="n">
         <v>12.0</v>
@@ -33015,13 +34251,19 @@
       <c r="AG6" t="n">
         <v>21.0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" t="n">
         <v>18.0</v>
@@ -33114,15 +34356,21 @@
         <v>13.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" t="n">
         <v>13.0</v>
@@ -33215,15 +34463,21 @@
         <v>3.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -33316,15 +34570,21 @@
         <v>1.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -33417,15 +34677,21 @@
         <v>14.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -33518,15 +34784,21 @@
         <v>15.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -33619,15 +34891,21 @@
         <v>16.0</v>
       </c>
       <c r="AG12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -33722,13 +35000,19 @@
       <c r="AG13" t="n">
         <v>6.0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -33821,15 +35105,21 @@
         <v>7.0</v>
       </c>
       <c r="AG14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AI14" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -33923,14 +35213,20 @@
       </c>
       <c r="AG15" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -34025,13 +35321,19 @@
       <c r="AG16" t="n">
         <v>22.0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -34126,13 +35428,19 @@
       <c r="AG17" t="n">
         <v>9.0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -34227,13 +35535,19 @@
       <c r="AG18" t="n">
         <v>17.0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C19" t="n">
         <v>15.0</v>
@@ -34326,15 +35640,21 @@
         <v>10.0</v>
       </c>
       <c r="AG19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" t="n">
         <v>22.0</v>
@@ -34429,13 +35749,19 @@
       <c r="AG20" t="n">
         <v>24.0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -34530,13 +35856,19 @@
       <c r="AG21" t="n">
         <v>19.0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -34631,13 +35963,19 @@
       <c r="AG22" t="n">
         <v>5.0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C23" t="n">
         <v>8.0</v>
@@ -34730,15 +36068,21 @@
         <v>8.0</v>
       </c>
       <c r="AG23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -34833,13 +36177,19 @@
       <c r="AG24" t="n">
         <v>2.0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C25" t="n">
         <v>24.0</v>
@@ -34933,6 +36283,12 @@
       </c>
       <c r="AG25" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -34951,7 +36307,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -35034,13 +36390,16 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -35121,15 +36480,18 @@
         <v>18.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -35210,15 +36572,18 @@
         <v>19.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -35301,13 +36666,16 @@
       <c r="AC4" t="n">
         <v>16.0</v>
       </c>
+      <c r="AD4" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -35388,15 +36756,18 @@
         <v>3.0</v>
       </c>
       <c r="AC5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -35477,15 +36848,18 @@
         <v>4.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -35566,15 +36940,18 @@
         <v>2.0</v>
       </c>
       <c r="AC7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -35655,15 +37032,18 @@
         <v>10.0</v>
       </c>
       <c r="AC8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -35746,13 +37126,16 @@
       <c r="AC9" t="n">
         <v>23.0</v>
       </c>
+      <c r="AD9" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -35835,13 +37218,16 @@
       <c r="AC10" t="n">
         <v>14.0</v>
       </c>
+      <c r="AD10" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -35922,15 +37308,18 @@
         <v>8.0</v>
       </c>
       <c r="AC11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -36011,15 +37400,18 @@
         <v>5.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -36102,13 +37494,16 @@
       <c r="AC13" t="n">
         <v>22.0</v>
       </c>
+      <c r="AD13" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -36189,15 +37584,18 @@
         <v>20.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -36279,14 +37677,17 @@
       </c>
       <c r="AC15" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -36367,15 +37768,18 @@
         <v>6.0</v>
       </c>
       <c r="AC16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -36458,13 +37862,16 @@
       <c r="AC17" t="n">
         <v>12.0</v>
       </c>
+      <c r="AD17" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -36547,13 +37954,16 @@
       <c r="AC18" t="n">
         <v>1.0</v>
       </c>
+      <c r="AD18" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -36636,13 +38046,16 @@
       <c r="AC19" t="n">
         <v>11.0</v>
       </c>
+      <c r="AD19" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" t="n">
         <v>21.0</v>
@@ -36723,15 +38136,18 @@
         <v>17.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -36814,13 +38230,16 @@
       <c r="AC21" t="n">
         <v>21.0</v>
       </c>
+      <c r="AD21" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -36902,14 +38321,17 @@
       </c>
       <c r="AC22" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" t="n">
         <v>10.0</v>
@@ -36990,15 +38412,18 @@
         <v>9.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C24" t="n">
         <v>23.0</v>
@@ -37079,6 +38504,9 @@
         <v>13.0</v>
       </c>
       <c r="AC24" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AD24" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -37098,7 +38526,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -37175,13 +38603,16 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -37257,14 +38688,17 @@
       </c>
       <c r="AA2" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" t="n">
         <v>17.0</v>
@@ -37341,13 +38775,16 @@
       <c r="AA3" t="n">
         <v>17.0</v>
       </c>
+      <c r="AB3" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -37424,13 +38861,16 @@
       <c r="AA4" t="n">
         <v>12.0</v>
       </c>
+      <c r="AB4" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -37505,15 +38945,18 @@
         <v>15.0</v>
       </c>
       <c r="AA5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C6" t="n">
         <v>6.0</v>
@@ -37589,14 +39032,17 @@
       </c>
       <c r="AA6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -37672,14 +39118,17 @@
       </c>
       <c r="AA7" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -37756,13 +39205,16 @@
       <c r="AA8" t="n">
         <v>18.0</v>
       </c>
+      <c r="AB8" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -37838,14 +39290,17 @@
       </c>
       <c r="AA9" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -37920,15 +39375,18 @@
         <v>2.0</v>
       </c>
       <c r="AA10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -38005,13 +39463,16 @@
       <c r="AA11" t="n">
         <v>19.0</v>
       </c>
+      <c r="AB11" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -38087,14 +39548,17 @@
       </c>
       <c r="AA12" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -38170,14 +39634,17 @@
       </c>
       <c r="AA13" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -38253,14 +39720,17 @@
       </c>
       <c r="AA14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -38335,15 +39805,18 @@
         <v>3.0</v>
       </c>
       <c r="AA15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -38418,15 +39891,18 @@
         <v>1.0</v>
       </c>
       <c r="AA16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -38502,14 +39978,17 @@
       </c>
       <c r="AA17" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -38585,14 +40064,17 @@
       </c>
       <c r="AA18" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C19" t="n">
         <v>16.0</v>
@@ -38669,13 +40151,16 @@
       <c r="AA19" t="n">
         <v>16.0</v>
       </c>
+      <c r="AB19" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -38752,13 +40237,16 @@
       <c r="AA20" t="n">
         <v>4.0</v>
       </c>
+      <c r="AB20" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -38833,6 +40321,9 @@
         <v>18.0</v>
       </c>
       <c r="AA21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB21" t="n">
         <v>20.0</v>
       </c>
     </row>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magut\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115EE8B-84D9-4818-86D6-05D03439A4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="829" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b1" sheetId="1" r:id="rId1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="482">
   <si>
     <t>b1_teams</t>
   </si>
@@ -1491,7 +1492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1802,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
@@ -3580,12 +3581,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -5328,17 +5337,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AA21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -6538,17 +6567,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Z15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH24" sqref="AH24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -8354,12 +8403,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AB21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
@@ -10069,12 +10130,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X25" sqref="X24:Y25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -11537,17 +11606,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Y19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -13010,17 +13099,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Y19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -14763,17 +14872,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AA21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="30" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -16889,15 +17018,27 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AD23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -18081,12 +18222,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -19032,17 +19181,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AB11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -20505,17 +20674,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Y19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -21461,17 +21650,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AB11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -22384,17 +22593,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AA11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -24200,17 +24429,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AB21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -25673,17 +25922,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Y19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -27426,17 +27695,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AA21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="AN23" sqref="AN23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="34" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -30036,17 +30325,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AH25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="35" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -32721,17 +33030,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AI25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -35256,17 +35585,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AG25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="29" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -37402,17 +37751,37 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AC24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -39155,6 +39524,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:AA21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="486">
   <si>
     <t>b1_teams</t>
   </si>
@@ -128,6 +128,9 @@
     <t>X30</t>
   </si>
   <si>
+    <t>X31</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -422,9 +425,6 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X31</t>
-  </si>
-  <si>
     <t>X32</t>
   </si>
   <si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>X36</t>
+  </si>
+  <si>
+    <t>X37</t>
   </si>
   <si>
     <t>21</t>
@@ -1633,13 +1636,16 @@
       <c r="AF1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -1730,14 +1736,17 @@
       </c>
       <c r="AF2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
         <v>14.0</v>
@@ -1828,14 +1837,17 @@
       </c>
       <c r="AF3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
         <v>15.0</v>
@@ -1925,15 +1937,18 @@
         <v>18.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -2023,15 +2038,18 @@
         <v>9.0</v>
       </c>
       <c r="AF5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2121,15 +2139,18 @@
         <v>7.0</v>
       </c>
       <c r="AF6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -2219,15 +2240,18 @@
         <v>2.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2318,14 +2342,17 @@
       </c>
       <c r="AF8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -2415,15 +2442,18 @@
         <v>8.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -2513,15 +2543,18 @@
         <v>5.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -2611,15 +2644,18 @@
         <v>11.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -2709,15 +2745,18 @@
         <v>6.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -2807,15 +2846,18 @@
         <v>13.0</v>
       </c>
       <c r="AF13" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -2905,15 +2947,18 @@
         <v>12.0</v>
       </c>
       <c r="AF14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -3003,15 +3048,18 @@
         <v>17.0</v>
       </c>
       <c r="AF15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -3101,15 +3149,18 @@
         <v>10.0</v>
       </c>
       <c r="AF16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -3199,15 +3250,18 @@
         <v>1.0</v>
       </c>
       <c r="AF17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -3297,15 +3351,18 @@
         <v>14.0</v>
       </c>
       <c r="AF18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -3396,6 +3453,9 @@
       </c>
       <c r="AF19" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3474,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3496,14 +3556,17 @@
       </c>
       <c r="AC1" t="s">
         <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -3584,15 +3647,18 @@
         <v>3.0</v>
       </c>
       <c r="AC2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -3674,14 +3740,17 @@
       </c>
       <c r="AC3" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -3762,15 +3831,18 @@
         <v>4.0</v>
       </c>
       <c r="AC4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -3852,14 +3924,17 @@
       </c>
       <c r="AC5" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -3941,14 +4016,17 @@
       </c>
       <c r="AC6" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C7" t="n">
         <v>17.0</v>
@@ -4030,14 +4108,17 @@
       </c>
       <c r="AC7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -4119,14 +4200,17 @@
       </c>
       <c r="AC8" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C9" t="n">
         <v>18.0</v>
@@ -4208,14 +4292,17 @@
       </c>
       <c r="AC9" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -4297,14 +4384,17 @@
       </c>
       <c r="AC10" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -4385,15 +4475,18 @@
         <v>6.0</v>
       </c>
       <c r="AC11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C12" t="n">
         <v>19.0</v>
@@ -4474,15 +4567,18 @@
         <v>20.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -4564,14 +4660,17 @@
       </c>
       <c r="AC13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -4653,14 +4752,17 @@
       </c>
       <c r="AC14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -4741,15 +4843,18 @@
         <v>2.0</v>
       </c>
       <c r="AC15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -4831,14 +4936,17 @@
       </c>
       <c r="AC16" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -4920,14 +5028,17 @@
       </c>
       <c r="AC17" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -5008,15 +5119,18 @@
         <v>14.0</v>
       </c>
       <c r="AC18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -5097,15 +5211,18 @@
         <v>5.0</v>
       </c>
       <c r="AC19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C20" t="n">
         <v>14.0</v>
@@ -5186,15 +5303,18 @@
         <v>1.0</v>
       </c>
       <c r="AC20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -5276,6 +5396,9 @@
       </c>
       <c r="AC21" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -5294,7 +5417,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5373,14 +5496,17 @@
       </c>
       <c r="AB1" t="s">
         <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5458,15 +5584,18 @@
         <v>3.0</v>
       </c>
       <c r="AB2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -5544,15 +5673,18 @@
         <v>14.0</v>
       </c>
       <c r="AB3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -5630,15 +5762,18 @@
         <v>4.0</v>
       </c>
       <c r="AB4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
@@ -5716,15 +5851,18 @@
         <v>7.0</v>
       </c>
       <c r="AB5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -5802,15 +5940,18 @@
         <v>12.0</v>
       </c>
       <c r="AB6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -5888,15 +6029,18 @@
         <v>5.0</v>
       </c>
       <c r="AB7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -5974,15 +6118,18 @@
         <v>11.0</v>
       </c>
       <c r="AB8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C9" t="n">
         <v>13.0</v>
@@ -6060,15 +6207,18 @@
         <v>13.0</v>
       </c>
       <c r="AB9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -6146,15 +6296,18 @@
         <v>8.0</v>
       </c>
       <c r="AB10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -6232,15 +6385,18 @@
         <v>1.0</v>
       </c>
       <c r="AB11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -6318,15 +6474,18 @@
         <v>6.0</v>
       </c>
       <c r="AB12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6404,15 +6563,18 @@
         <v>9.0</v>
       </c>
       <c r="AB13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC13" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -6490,15 +6652,18 @@
         <v>2.0</v>
       </c>
       <c r="AB14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -6576,6 +6741,9 @@
         <v>10.0</v>
       </c>
       <c r="AB15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC15" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -6595,7 +6763,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6680,14 +6848,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -6772,14 +6943,17 @@
       </c>
       <c r="AD2" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6863,15 +7037,18 @@
         <v>12.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -6955,15 +7132,18 @@
         <v>17.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -7047,15 +7227,18 @@
         <v>13.0</v>
       </c>
       <c r="AD5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -7139,15 +7322,18 @@
         <v>8.0</v>
       </c>
       <c r="AD6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -7231,15 +7417,18 @@
         <v>19.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -7324,14 +7513,17 @@
       </c>
       <c r="AD8" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -7415,15 +7607,18 @@
         <v>4.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -7507,15 +7702,18 @@
         <v>7.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -7599,15 +7797,18 @@
         <v>2.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -7692,14 +7893,17 @@
       </c>
       <c r="AD12" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -7784,14 +7988,17 @@
       </c>
       <c r="AD13" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -7875,15 +8082,18 @@
         <v>20.0</v>
       </c>
       <c r="AD14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -7967,15 +8177,18 @@
         <v>15.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -8059,15 +8272,18 @@
         <v>10.0</v>
       </c>
       <c r="AD16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -8151,15 +8367,18 @@
         <v>16.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -8243,15 +8462,18 @@
         <v>11.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -8335,15 +8557,18 @@
         <v>14.0</v>
       </c>
       <c r="AD19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -8427,15 +8652,18 @@
         <v>18.0</v>
       </c>
       <c r="AD20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE20" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -8519,6 +8747,9 @@
         <v>9.0</v>
       </c>
       <c r="AD21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE21" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -8538,7 +8769,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8623,14 +8854,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -8714,15 +8948,18 @@
         <v>16.0</v>
       </c>
       <c r="AD2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -8806,15 +9043,18 @@
         <v>8.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -8898,15 +9138,18 @@
         <v>5.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -8990,15 +9233,18 @@
         <v>2.0</v>
       </c>
       <c r="AD5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -9083,14 +9329,17 @@
       </c>
       <c r="AD6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -9174,15 +9423,18 @@
         <v>12.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -9266,15 +9518,18 @@
         <v>17.0</v>
       </c>
       <c r="AD8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -9359,14 +9614,17 @@
       </c>
       <c r="AD9" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -9450,15 +9708,18 @@
         <v>19.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -9542,15 +9803,18 @@
         <v>7.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -9634,15 +9898,18 @@
         <v>1.0</v>
       </c>
       <c r="AD12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -9726,15 +9993,18 @@
         <v>6.0</v>
       </c>
       <c r="AD13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -9819,14 +10089,17 @@
       </c>
       <c r="AD14" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -9911,14 +10184,17 @@
       </c>
       <c r="AD15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -10003,14 +10279,17 @@
       </c>
       <c r="AD16" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -10094,15 +10373,18 @@
         <v>20.0</v>
       </c>
       <c r="AD17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -10186,15 +10468,18 @@
         <v>11.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -10278,15 +10563,18 @@
         <v>15.0</v>
       </c>
       <c r="AD19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -10371,14 +10659,17 @@
       </c>
       <c r="AD20" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -10462,6 +10753,9 @@
         <v>18.0</v>
       </c>
       <c r="AD21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE21" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -10481,7 +10775,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10557,14 +10851,17 @@
       </c>
       <c r="AA1" t="s">
         <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -10639,15 +10936,18 @@
         <v>1.0</v>
       </c>
       <c r="AA2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -10722,15 +11022,18 @@
         <v>4.0</v>
       </c>
       <c r="AA3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -10805,15 +11108,18 @@
         <v>8.0</v>
       </c>
       <c r="AA4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -10888,15 +11194,18 @@
         <v>3.0</v>
       </c>
       <c r="AA5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -10971,15 +11280,18 @@
         <v>16.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -11054,15 +11366,18 @@
         <v>11.0</v>
       </c>
       <c r="AA7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -11138,14 +11453,17 @@
       </c>
       <c r="AA8" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -11220,15 +11538,18 @@
         <v>12.0</v>
       </c>
       <c r="AA9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -11303,15 +11624,18 @@
         <v>13.0</v>
       </c>
       <c r="AA10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -11387,14 +11711,17 @@
       </c>
       <c r="AA11" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -11469,15 +11796,18 @@
         <v>2.0</v>
       </c>
       <c r="AA12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C13" t="n">
         <v>15.0</v>
@@ -11552,15 +11882,18 @@
         <v>17.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -11635,15 +11968,18 @@
         <v>5.0</v>
       </c>
       <c r="AA14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C15" t="n">
         <v>7.0</v>
@@ -11719,14 +12055,17 @@
       </c>
       <c r="AA15" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -11802,14 +12141,17 @@
       </c>
       <c r="AA16" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C17" t="n">
         <v>9.0</v>
@@ -11884,15 +12226,18 @@
         <v>14.0</v>
       </c>
       <c r="AA17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -11968,14 +12313,17 @@
       </c>
       <c r="AA18" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -12050,7 +12398,10 @@
         <v>18.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -12069,7 +12420,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12145,14 +12496,17 @@
       </c>
       <c r="AA1" t="s">
         <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -12227,15 +12581,18 @@
         <v>15.0</v>
       </c>
       <c r="AA2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -12310,15 +12667,18 @@
         <v>18.0</v>
       </c>
       <c r="AA3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -12393,15 +12753,18 @@
         <v>3.0</v>
       </c>
       <c r="AA4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -12476,15 +12839,18 @@
         <v>13.0</v>
       </c>
       <c r="AA5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -12560,14 +12926,17 @@
       </c>
       <c r="AA6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -12642,15 +13011,18 @@
         <v>11.0</v>
       </c>
       <c r="AA7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -12725,15 +13097,18 @@
         <v>5.0</v>
       </c>
       <c r="AA8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -12808,15 +13183,18 @@
         <v>7.0</v>
       </c>
       <c r="AA9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -12892,14 +13270,17 @@
       </c>
       <c r="AA10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -12974,15 +13355,18 @@
         <v>16.0</v>
       </c>
       <c r="AA11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -13058,14 +13442,17 @@
       </c>
       <c r="AA12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -13141,14 +13528,17 @@
       </c>
       <c r="AA13" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -13223,15 +13613,18 @@
         <v>1.0</v>
       </c>
       <c r="AA14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -13306,15 +13699,18 @@
         <v>12.0</v>
       </c>
       <c r="AA15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -13389,15 +13785,18 @@
         <v>4.0</v>
       </c>
       <c r="AA16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -13472,15 +13871,18 @@
         <v>2.0</v>
       </c>
       <c r="AA17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -13555,15 +13957,18 @@
         <v>17.0</v>
       </c>
       <c r="AA18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB18" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -13638,6 +14043,9 @@
         <v>14.0</v>
       </c>
       <c r="AA19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB19" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -13657,7 +14065,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13739,14 +14147,17 @@
       </c>
       <c r="AC1" t="s">
         <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -13827,15 +14238,18 @@
         <v>18.0</v>
       </c>
       <c r="AC2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -13916,15 +14330,18 @@
         <v>8.0</v>
       </c>
       <c r="AC3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -14005,15 +14422,18 @@
         <v>4.0</v>
       </c>
       <c r="AC4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -14094,15 +14514,18 @@
         <v>5.0</v>
       </c>
       <c r="AC5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -14183,15 +14606,18 @@
         <v>3.0</v>
       </c>
       <c r="AC6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -14272,15 +14698,18 @@
         <v>19.0</v>
       </c>
       <c r="AC7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C8" t="n">
         <v>17.0</v>
@@ -14361,15 +14790,18 @@
         <v>10.0</v>
       </c>
       <c r="AC8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -14451,14 +14883,17 @@
       </c>
       <c r="AC9" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -14539,15 +14974,18 @@
         <v>14.0</v>
       </c>
       <c r="AC10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -14628,15 +15066,18 @@
         <v>15.0</v>
       </c>
       <c r="AC11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -14717,15 +15158,18 @@
         <v>17.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -14806,15 +15250,18 @@
         <v>20.0</v>
       </c>
       <c r="AC13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -14895,15 +15342,18 @@
         <v>16.0</v>
       </c>
       <c r="AC14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C15" t="n">
         <v>14.0</v>
@@ -14984,15 +15434,18 @@
         <v>11.0</v>
       </c>
       <c r="AC15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -15073,15 +15526,18 @@
         <v>1.0</v>
       </c>
       <c r="AC16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -15162,15 +15618,18 @@
         <v>2.0</v>
       </c>
       <c r="AC17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -15251,15 +15710,18 @@
         <v>6.0</v>
       </c>
       <c r="AC18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -15340,15 +15802,18 @@
         <v>9.0</v>
       </c>
       <c r="AC19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -15430,14 +15895,17 @@
       </c>
       <c r="AC20" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -15518,6 +15986,9 @@
         <v>7.0</v>
       </c>
       <c r="AC21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD21" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -15537,7 +16008,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15628,14 +16099,17 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -15725,15 +16199,18 @@
         <v>22.0</v>
       </c>
       <c r="AF2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -15823,15 +16300,18 @@
         <v>2.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -15921,15 +16401,18 @@
         <v>19.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -16020,14 +16503,17 @@
       </c>
       <c r="AF5" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C6" t="n">
         <v>19.0</v>
@@ -16118,14 +16604,17 @@
       </c>
       <c r="AF6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C7" t="n">
         <v>20.0</v>
@@ -16215,15 +16704,18 @@
         <v>1.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C8" t="n">
         <v>21.0</v>
@@ -16313,15 +16805,18 @@
         <v>20.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -16411,15 +16906,18 @@
         <v>6.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -16509,15 +17007,18 @@
         <v>12.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -16608,14 +17109,17 @@
       </c>
       <c r="AF11" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C12" t="n">
         <v>9.0</v>
@@ -16706,14 +17210,17 @@
       </c>
       <c r="AF12" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C13" t="n">
         <v>22.0</v>
@@ -16804,14 +17311,17 @@
       </c>
       <c r="AF13" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -16902,14 +17412,17 @@
       </c>
       <c r="AF14" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -16999,15 +17512,18 @@
         <v>17.0</v>
       </c>
       <c r="AF15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -17098,14 +17614,17 @@
       </c>
       <c r="AF16" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -17196,14 +17715,17 @@
       </c>
       <c r="AF17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C18" t="n">
         <v>4.0</v>
@@ -17293,15 +17815,18 @@
         <v>5.0</v>
       </c>
       <c r="AF18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -17391,15 +17916,18 @@
         <v>21.0</v>
       </c>
       <c r="AF19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -17490,14 +18018,17 @@
       </c>
       <c r="AF20" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -17587,15 +18118,18 @@
         <v>4.0</v>
       </c>
       <c r="AF21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -17685,15 +18219,18 @@
         <v>3.0</v>
       </c>
       <c r="AF22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG22" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -17784,6 +18321,9 @@
       </c>
       <c r="AF23" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -17802,7 +18342,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17897,10 +18437,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -17995,10 +18535,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -18093,10 +18633,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -18191,10 +18731,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -18289,10 +18829,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -18387,10 +18927,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -18485,10 +19025,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -18583,10 +19123,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -18681,10 +19221,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -18779,10 +19319,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -18877,10 +19417,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -18975,10 +19515,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -19087,7 +19627,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -19172,14 +19712,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -19263,15 +19806,18 @@
         <v>1.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -19356,14 +19902,17 @@
       </c>
       <c r="AD3" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -19447,15 +19996,18 @@
         <v>9.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -19540,14 +20092,17 @@
       </c>
       <c r="AD5" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -19631,15 +20186,18 @@
         <v>4.0</v>
       </c>
       <c r="AD6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -19723,15 +20281,18 @@
         <v>2.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -19816,14 +20377,17 @@
       </c>
       <c r="AD8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -19907,15 +20471,18 @@
         <v>3.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -19999,15 +20566,18 @@
         <v>10.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -20091,6 +20661,9 @@
         <v>5.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -20110,7 +20683,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -20186,14 +20759,17 @@
       </c>
       <c r="AA1" t="s">
         <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -20268,15 +20844,18 @@
         <v>15.0</v>
       </c>
       <c r="AA2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -20351,15 +20930,18 @@
         <v>1.0</v>
       </c>
       <c r="AA3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -20434,15 +21016,18 @@
         <v>14.0</v>
       </c>
       <c r="AA4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="n">
         <v>14.0</v>
@@ -20517,15 +21102,18 @@
         <v>11.0</v>
       </c>
       <c r="AA5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -20600,15 +21188,18 @@
         <v>2.0</v>
       </c>
       <c r="AA6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -20683,15 +21274,18 @@
         <v>10.0</v>
       </c>
       <c r="AA7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -20767,14 +21361,17 @@
       </c>
       <c r="AA8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -20849,15 +21446,18 @@
         <v>4.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -20932,15 +21532,18 @@
         <v>18.0</v>
       </c>
       <c r="AA10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -21015,15 +21618,18 @@
         <v>16.0</v>
       </c>
       <c r="AA11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -21098,15 +21704,18 @@
         <v>5.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -21181,15 +21790,18 @@
         <v>3.0</v>
       </c>
       <c r="AA13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -21264,15 +21876,18 @@
         <v>9.0</v>
       </c>
       <c r="AA14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -21347,15 +21962,18 @@
         <v>13.0</v>
       </c>
       <c r="AA15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -21430,15 +22048,18 @@
         <v>6.0</v>
       </c>
       <c r="AA16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -21513,15 +22134,18 @@
         <v>17.0</v>
       </c>
       <c r="AA17" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -21597,14 +22221,17 @@
       </c>
       <c r="AA18" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" t="n">
         <v>6.0</v>
@@ -21679,6 +22306,9 @@
         <v>12.0</v>
       </c>
       <c r="AA19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB19" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -21698,7 +22328,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -21783,14 +22413,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -21874,15 +22507,18 @@
         <v>2.0</v>
       </c>
       <c r="AD2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -21966,15 +22602,18 @@
         <v>7.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -22058,15 +22697,18 @@
         <v>6.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -22150,15 +22792,18 @@
         <v>1.0</v>
       </c>
       <c r="AD5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22242,15 +22887,18 @@
         <v>9.0</v>
       </c>
       <c r="AD6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -22334,15 +22982,18 @@
         <v>10.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -22426,15 +23077,18 @@
         <v>5.0</v>
       </c>
       <c r="AD8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -22518,15 +23172,18 @@
         <v>3.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -22610,15 +23267,18 @@
         <v>8.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -22702,6 +23362,9 @@
         <v>4.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -22721,7 +23384,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -22806,14 +23469,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -22897,15 +23563,18 @@
         <v>9.0</v>
       </c>
       <c r="AD2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -22989,15 +23658,18 @@
         <v>2.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -23081,15 +23753,18 @@
         <v>10.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -23173,15 +23848,18 @@
         <v>4.0</v>
       </c>
       <c r="AD5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -23265,15 +23943,18 @@
         <v>7.0</v>
       </c>
       <c r="AD6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -23357,15 +24038,18 @@
         <v>3.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -23449,15 +24133,18 @@
         <v>1.0</v>
       </c>
       <c r="AD8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -23541,15 +24228,18 @@
         <v>5.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -23633,15 +24323,18 @@
         <v>8.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -23725,6 +24418,9 @@
         <v>6.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -23744,7 +24440,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -23829,14 +24525,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -23921,14 +24620,17 @@
       </c>
       <c r="AD2" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -24012,15 +24714,18 @@
         <v>7.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -24105,14 +24810,17 @@
       </c>
       <c r="AD4" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -24197,14 +24905,17 @@
       </c>
       <c r="AD5" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -24289,14 +25000,17 @@
       </c>
       <c r="AD6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -24381,14 +25095,17 @@
       </c>
       <c r="AD7" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -24473,14 +25190,17 @@
       </c>
       <c r="AD8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -24565,14 +25285,17 @@
       </c>
       <c r="AD9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -24657,14 +25380,17 @@
       </c>
       <c r="AD10" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -24748,15 +25474,18 @@
         <v>15.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
@@ -24841,14 +25570,17 @@
       </c>
       <c r="AD12" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -24933,14 +25665,17 @@
       </c>
       <c r="AD13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -25024,15 +25759,18 @@
         <v>9.0</v>
       </c>
       <c r="AD14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -25116,15 +25854,18 @@
         <v>16.0</v>
       </c>
       <c r="AD15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -25209,14 +25950,17 @@
       </c>
       <c r="AD16" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -25300,15 +26044,18 @@
         <v>2.0</v>
       </c>
       <c r="AD17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -25392,15 +26139,18 @@
         <v>19.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -25484,15 +26234,18 @@
         <v>13.0</v>
       </c>
       <c r="AD19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C20" t="n">
         <v>8.0</v>
@@ -25576,15 +26329,18 @@
         <v>1.0</v>
       </c>
       <c r="AD20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -25668,6 +26424,9 @@
         <v>20.0</v>
       </c>
       <c r="AD21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AE21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -25687,7 +26446,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -25763,14 +26522,17 @@
       </c>
       <c r="AA1" t="s">
         <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -25846,14 +26608,17 @@
       </c>
       <c r="AA2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -25928,15 +26693,18 @@
         <v>14.0</v>
       </c>
       <c r="AA3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -26011,15 +26779,18 @@
         <v>17.0</v>
       </c>
       <c r="AA4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -26095,14 +26866,17 @@
       </c>
       <c r="AA5" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -26178,14 +26952,17 @@
       </c>
       <c r="AA6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -26261,14 +27038,17 @@
       </c>
       <c r="AA7" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -26344,14 +27124,17 @@
       </c>
       <c r="AA8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -26427,14 +27210,17 @@
       </c>
       <c r="AA9" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -26510,14 +27296,17 @@
       </c>
       <c r="AA10" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -26592,15 +27381,18 @@
         <v>18.0</v>
       </c>
       <c r="AA11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -26675,15 +27467,18 @@
         <v>8.0</v>
       </c>
       <c r="AA12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -26758,15 +27553,18 @@
         <v>7.0</v>
       </c>
       <c r="AA13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -26841,15 +27639,18 @@
         <v>9.0</v>
       </c>
       <c r="AA14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" t="n">
         <v>5.0</v>
@@ -26924,15 +27725,18 @@
         <v>10.0</v>
       </c>
       <c r="AA15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -27008,14 +27812,17 @@
       </c>
       <c r="AA16" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -27091,14 +27898,17 @@
       </c>
       <c r="AA17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -27174,14 +27984,17 @@
       </c>
       <c r="AA18" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -27257,6 +28070,9 @@
       </c>
       <c r="AA19" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -27275,7 +28091,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -27357,14 +28173,20 @@
       </c>
       <c r="AC1" t="s">
         <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -27445,15 +28267,21 @@
         <v>5.0</v>
       </c>
       <c r="AC2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -27535,14 +28363,20 @@
       </c>
       <c r="AC3" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -27623,15 +28457,21 @@
         <v>15.0</v>
       </c>
       <c r="AC4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -27713,14 +28553,20 @@
       </c>
       <c r="AC5" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -27802,14 +28648,20 @@
       </c>
       <c r="AC6" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -27890,15 +28742,21 @@
         <v>3.0</v>
       </c>
       <c r="AC7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -27980,14 +28838,20 @@
       </c>
       <c r="AC8" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -28068,15 +28932,21 @@
         <v>17.0</v>
       </c>
       <c r="AC9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -28157,15 +29027,21 @@
         <v>16.0</v>
       </c>
       <c r="AC10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -28246,15 +29122,21 @@
         <v>12.0</v>
       </c>
       <c r="AC11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -28335,15 +29217,21 @@
         <v>2.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -28424,15 +29312,21 @@
         <v>1.0</v>
       </c>
       <c r="AC13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -28513,15 +29407,21 @@
         <v>4.0</v>
       </c>
       <c r="AC14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -28602,15 +29502,21 @@
         <v>14.0</v>
       </c>
       <c r="AC15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -28691,15 +29597,21 @@
         <v>20.0</v>
       </c>
       <c r="AC16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -28781,14 +29693,20 @@
       </c>
       <c r="AC17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" t="n">
         <v>8.0</v>
@@ -28870,14 +29788,20 @@
       </c>
       <c r="AC18" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" t="n">
         <v>9.0</v>
@@ -28959,14 +29883,20 @@
       </c>
       <c r="AC19" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C20" t="n">
         <v>10.0</v>
@@ -29048,14 +29978,20 @@
       </c>
       <c r="AC20" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -29137,6 +30073,12 @@
       </c>
       <c r="AC21" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -29155,7 +30097,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -29248,7 +30190,7 @@
         <v>30</v>
       </c>
       <c r="AG1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="AH1" t="s">
         <v>130</v>
@@ -29264,14 +30206,17 @@
       </c>
       <c r="AL1" t="s">
         <v>134</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -29379,15 +30324,18 @@
         <v>23.0</v>
       </c>
       <c r="AL2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AM2" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -29495,15 +30443,18 @@
         <v>19.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -29612,14 +30563,17 @@
       </c>
       <c r="AL4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -29727,15 +30681,18 @@
         <v>14.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -29843,15 +30800,18 @@
         <v>2.0</v>
       </c>
       <c r="AL6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -29959,15 +30919,18 @@
         <v>20.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -30075,15 +31038,18 @@
         <v>18.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -30191,15 +31157,18 @@
         <v>11.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" t="n">
         <v>12.0</v>
@@ -30308,14 +31277,17 @@
       </c>
       <c r="AL10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -30423,15 +31395,18 @@
         <v>1.0</v>
       </c>
       <c r="AL11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -30539,15 +31514,18 @@
         <v>3.0</v>
       </c>
       <c r="AL12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AM12" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -30655,15 +31633,18 @@
         <v>21.0</v>
       </c>
       <c r="AL13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AM13" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -30772,14 +31753,17 @@
       </c>
       <c r="AL14" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -30887,15 +31871,18 @@
         <v>7.0</v>
       </c>
       <c r="AL15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -31003,15 +31990,18 @@
         <v>9.0</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -31119,15 +32109,18 @@
         <v>10.0</v>
       </c>
       <c r="AL17" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -31235,15 +32228,18 @@
         <v>24.0</v>
       </c>
       <c r="AL18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -31351,15 +32347,18 @@
         <v>12.0</v>
       </c>
       <c r="AL19" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C20" t="n">
         <v>17.0</v>
@@ -31467,15 +32466,18 @@
         <v>6.0</v>
       </c>
       <c r="AL20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -31583,15 +32585,18 @@
         <v>22.0</v>
       </c>
       <c r="AL21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AM21" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -31700,14 +32705,17 @@
       </c>
       <c r="AL22" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" t="n">
         <v>6.0</v>
@@ -31816,14 +32824,17 @@
       </c>
       <c r="AL23" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -31931,15 +32942,18 @@
         <v>17.0</v>
       </c>
       <c r="AL24" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AM24" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -32047,7 +33061,10 @@
         <v>13.0</v>
       </c>
       <c r="AL25" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -32066,7 +33083,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -32159,7 +33176,7 @@
         <v>30</v>
       </c>
       <c r="AG1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="AH1" t="s">
         <v>130</v>
@@ -32175,14 +33192,17 @@
       </c>
       <c r="AL1" t="s">
         <v>134</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" t="n">
         <v>19.0</v>
@@ -32290,15 +33310,18 @@
         <v>12.0</v>
       </c>
       <c r="AL2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AM2" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -32406,15 +33429,18 @@
         <v>19.0</v>
       </c>
       <c r="AL3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AM3" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -32522,15 +33548,18 @@
         <v>10.0</v>
       </c>
       <c r="AL4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AM4" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -32639,14 +33668,17 @@
       </c>
       <c r="AL5" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -32755,14 +33787,17 @@
       </c>
       <c r="AL6" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -32871,14 +33906,17 @@
       </c>
       <c r="AL7" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -32987,14 +34025,17 @@
       </c>
       <c r="AL8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -33102,15 +34143,18 @@
         <v>24.0</v>
       </c>
       <c r="AL9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AM9" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" t="n">
         <v>20.0</v>
@@ -33218,15 +34262,18 @@
         <v>23.0</v>
       </c>
       <c r="AL10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AM10" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" t="n">
         <v>21.0</v>
@@ -33334,15 +34381,18 @@
         <v>20.0</v>
       </c>
       <c r="AL11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -33451,14 +34501,17 @@
       </c>
       <c r="AL12" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -33566,15 +34619,18 @@
         <v>8.0</v>
       </c>
       <c r="AL13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AM13" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -33683,14 +34739,17 @@
       </c>
       <c r="AL14" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -33798,15 +34857,18 @@
         <v>3.0</v>
       </c>
       <c r="AL15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -33915,14 +34977,17 @@
       </c>
       <c r="AL16" t="n">
         <v>21.0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -34030,15 +35095,18 @@
         <v>4.0</v>
       </c>
       <c r="AL17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -34146,15 +35214,18 @@
         <v>9.0</v>
       </c>
       <c r="AL18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -34262,15 +35333,18 @@
         <v>11.0</v>
       </c>
       <c r="AL19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AM19" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" t="n">
         <v>4.0</v>
@@ -34378,15 +35452,18 @@
         <v>1.0</v>
       </c>
       <c r="AL20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" t="n">
         <v>18.0</v>
@@ -34494,15 +35571,18 @@
         <v>5.0</v>
       </c>
       <c r="AL21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AM21" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -34611,14 +35691,17 @@
       </c>
       <c r="AL22" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" t="n">
         <v>5.0</v>
@@ -34726,15 +35809,18 @@
         <v>7.0</v>
       </c>
       <c r="AL23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AM23" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -34842,15 +35928,18 @@
         <v>2.0</v>
       </c>
       <c r="AL24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AM24" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" t="n">
         <v>6.0</v>
@@ -34958,6 +36047,9 @@
         <v>6.0</v>
       </c>
       <c r="AL25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AM25" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -34977,7 +36069,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -35070,7 +36162,7 @@
         <v>30</v>
       </c>
       <c r="AG1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="AH1" t="s">
         <v>130</v>
@@ -35083,14 +36175,17 @@
       </c>
       <c r="AK1" t="s">
         <v>133</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -35195,15 +36290,18 @@
         <v>22.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -35308,15 +36406,18 @@
         <v>15.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -35421,15 +36522,18 @@
         <v>8.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -35534,15 +36638,18 @@
         <v>18.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" t="n">
         <v>12.0</v>
@@ -35647,15 +36754,18 @@
         <v>19.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C7" t="n">
         <v>18.0</v>
@@ -35760,15 +36870,18 @@
         <v>13.0</v>
       </c>
       <c r="AK7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" t="n">
         <v>13.0</v>
@@ -35873,15 +36986,18 @@
         <v>9.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -35986,15 +37102,18 @@
         <v>1.0</v>
       </c>
       <c r="AK9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -36099,15 +37218,18 @@
         <v>14.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -36212,15 +37334,18 @@
         <v>12.0</v>
       </c>
       <c r="AK11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -36325,15 +37450,18 @@
         <v>20.0</v>
       </c>
       <c r="AK12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AL12" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -36438,15 +37566,18 @@
         <v>4.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -36551,15 +37682,18 @@
         <v>5.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -36664,15 +37798,18 @@
         <v>2.0</v>
       </c>
       <c r="AK15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -36777,15 +37914,18 @@
         <v>23.0</v>
       </c>
       <c r="AK16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AL16" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -36890,15 +38030,18 @@
         <v>10.0</v>
       </c>
       <c r="AK17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -37003,15 +38146,18 @@
         <v>17.0</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" t="n">
         <v>15.0</v>
@@ -37116,15 +38262,18 @@
         <v>11.0</v>
       </c>
       <c r="AK19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AL19" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" t="n">
         <v>22.0</v>
@@ -37229,15 +38378,18 @@
         <v>24.0</v>
       </c>
       <c r="AK20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AL20" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -37342,15 +38494,18 @@
         <v>21.0</v>
       </c>
       <c r="AK21" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -37455,15 +38610,18 @@
         <v>3.0</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C23" t="n">
         <v>8.0</v>
@@ -37568,15 +38726,18 @@
         <v>7.0</v>
       </c>
       <c r="AK23" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -37681,15 +38842,18 @@
         <v>6.0</v>
       </c>
       <c r="AK24" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C25" t="n">
         <v>24.0</v>
@@ -37794,6 +38958,9 @@
         <v>16.0</v>
       </c>
       <c r="AK25" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AL25" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -37813,7 +38980,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -37904,14 +39071,17 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -38001,15 +39171,18 @@
         <v>20.0</v>
       </c>
       <c r="AF2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -38099,15 +39272,18 @@
         <v>17.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -38197,15 +39373,18 @@
         <v>15.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -38295,15 +39474,18 @@
         <v>5.0</v>
       </c>
       <c r="AF5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -38394,14 +39576,17 @@
       </c>
       <c r="AF6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -38491,15 +39676,18 @@
         <v>2.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -38589,15 +39777,18 @@
         <v>10.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -38687,15 +39878,18 @@
         <v>23.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -38785,15 +39979,18 @@
         <v>14.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -38884,14 +40081,17 @@
       </c>
       <c r="AF11" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -38981,15 +40181,18 @@
         <v>4.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -39079,15 +40282,18 @@
         <v>22.0</v>
       </c>
       <c r="AF13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -39177,15 +40383,18 @@
         <v>16.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -39276,14 +40485,17 @@
       </c>
       <c r="AF15" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -39374,14 +40586,17 @@
       </c>
       <c r="AF16" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -39471,15 +40686,18 @@
         <v>12.0</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -39569,15 +40787,18 @@
         <v>1.0</v>
       </c>
       <c r="AF18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -39667,15 +40888,18 @@
         <v>11.0</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C20" t="n">
         <v>21.0</v>
@@ -39765,15 +40989,18 @@
         <v>19.0</v>
       </c>
       <c r="AF20" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -39863,15 +41090,18 @@
         <v>21.0</v>
       </c>
       <c r="AF21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -39961,15 +41191,18 @@
         <v>18.0</v>
       </c>
       <c r="AF22" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C23" t="n">
         <v>10.0</v>
@@ -40059,15 +41292,18 @@
         <v>3.0</v>
       </c>
       <c r="AF23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG23" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C24" t="n">
         <v>23.0</v>
@@ -40157,7 +41393,10 @@
         <v>13.0</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -40176,7 +41415,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -40258,14 +41497,17 @@
       </c>
       <c r="AC1" t="s">
         <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -40346,15 +41588,18 @@
         <v>14.0</v>
       </c>
       <c r="AC2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C3" t="n">
         <v>17.0</v>
@@ -40436,14 +41681,17 @@
       </c>
       <c r="AC3" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -40524,15 +41772,18 @@
         <v>12.0</v>
       </c>
       <c r="AC4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -40613,15 +41864,18 @@
         <v>15.0</v>
       </c>
       <c r="AC5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C6" t="n">
         <v>6.0</v>
@@ -40703,14 +41957,17 @@
       </c>
       <c r="AC6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -40791,15 +42048,18 @@
         <v>7.0</v>
       </c>
       <c r="AC7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -40881,14 +42141,17 @@
       </c>
       <c r="AC8" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -40969,15 +42232,18 @@
         <v>8.0</v>
       </c>
       <c r="AC9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -41058,15 +42324,18 @@
         <v>2.0</v>
       </c>
       <c r="AC10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -41148,14 +42417,17 @@
       </c>
       <c r="AC11" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -41237,14 +42509,17 @@
       </c>
       <c r="AC12" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -41325,15 +42600,18 @@
         <v>11.0</v>
       </c>
       <c r="AC13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -41414,15 +42692,18 @@
         <v>9.0</v>
       </c>
       <c r="AC14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -41503,15 +42784,18 @@
         <v>3.0</v>
       </c>
       <c r="AC15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -41592,15 +42876,18 @@
         <v>1.0</v>
       </c>
       <c r="AC16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -41681,15 +42968,18 @@
         <v>13.0</v>
       </c>
       <c r="AC17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -41770,15 +43060,18 @@
         <v>4.0</v>
       </c>
       <c r="AC18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C19" t="n">
         <v>16.0</v>
@@ -41860,14 +43153,17 @@
       </c>
       <c r="AC19" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -41948,15 +43244,18 @@
         <v>5.0</v>
       </c>
       <c r="AC20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD20" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -42038,6 +43337,9 @@
       </c>
       <c r="AC21" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="487">
   <si>
     <t>b1_teams</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>X37</t>
+  </si>
+  <si>
+    <t>X38</t>
   </si>
   <si>
     <t>21</t>
@@ -3474,7 +3477,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3559,6 +3562,9 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -3566,7 +3572,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -3651,6 +3657,9 @@
       </c>
       <c r="AD2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -3658,7 +3667,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -3743,6 +3752,9 @@
       </c>
       <c r="AD3" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
@@ -3750,7 +3762,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -3835,6 +3847,9 @@
       </c>
       <c r="AD4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -3842,7 +3857,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -3927,6 +3942,9 @@
       </c>
       <c r="AD5" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
@@ -3934,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4019,6 +4037,9 @@
       </c>
       <c r="AD6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
@@ -4026,7 +4047,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C7" t="n">
         <v>17.0</v>
@@ -4111,6 +4132,9 @@
       </c>
       <c r="AD7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
@@ -4118,7 +4142,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -4203,6 +4227,9 @@
       </c>
       <c r="AD8" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -4210,7 +4237,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C9" t="n">
         <v>18.0</v>
@@ -4295,6 +4322,9 @@
       </c>
       <c r="AD9" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
@@ -4302,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -4387,6 +4417,9 @@
       </c>
       <c r="AD10" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
@@ -4394,7 +4427,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -4478,6 +4511,9 @@
         <v>6.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -4486,7 +4522,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
         <v>19.0</v>
@@ -4570,6 +4606,9 @@
         <v>20.0</v>
       </c>
       <c r="AD12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -4578,7 +4617,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -4662,6 +4701,9 @@
         <v>8.0</v>
       </c>
       <c r="AD13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -4670,7 +4712,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -4755,6 +4797,9 @@
       </c>
       <c r="AD14" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
@@ -4762,7 +4807,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -4846,6 +4891,9 @@
         <v>2.0</v>
       </c>
       <c r="AD15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -4854,7 +4902,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -4938,6 +4986,9 @@
         <v>7.0</v>
       </c>
       <c r="AD16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -4946,7 +4997,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -5030,6 +5081,9 @@
         <v>17.0</v>
       </c>
       <c r="AD17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -5038,7 +5092,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -5123,6 +5177,9 @@
       </c>
       <c r="AD18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
@@ -5130,7 +5187,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -5214,6 +5271,9 @@
         <v>5.0</v>
       </c>
       <c r="AD19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -5222,7 +5282,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C20" t="n">
         <v>14.0</v>
@@ -5306,6 +5366,9 @@
         <v>1.0</v>
       </c>
       <c r="AD20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -5314,7 +5377,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -5398,6 +5461,9 @@
         <v>14.0</v>
       </c>
       <c r="AD21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE21" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -5417,7 +5483,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5506,7 +5572,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5595,7 +5661,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -5684,7 +5750,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -5773,7 +5839,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
@@ -5862,7 +5928,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -5951,7 +6017,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -6040,7 +6106,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -6129,7 +6195,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C9" t="n">
         <v>13.0</v>
@@ -6218,7 +6284,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -6307,7 +6373,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -6396,7 +6462,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -6485,7 +6551,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6574,7 +6640,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -6663,7 +6729,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -6763,7 +6829,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6858,7 +6924,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -6953,7 +7019,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -7048,7 +7114,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -7143,7 +7209,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -7238,7 +7304,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -7333,7 +7399,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -7428,7 +7494,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -7523,7 +7589,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -7618,7 +7684,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -7713,7 +7779,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -7808,7 +7874,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -7903,7 +7969,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -7998,7 +8064,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -8093,7 +8159,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -8188,7 +8254,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -8283,7 +8349,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -8378,7 +8444,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -8473,7 +8539,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -8568,7 +8634,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -8663,7 +8729,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -8769,7 +8835,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8857,6 +8923,9 @@
       </c>
       <c r="AE1" t="s">
         <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -8864,7 +8933,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -8951,6 +9020,9 @@
         <v>16.0</v>
       </c>
       <c r="AE2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -8959,7 +9031,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -9047,6 +9119,9 @@
       </c>
       <c r="AE3" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -9054,7 +9129,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -9141,6 +9216,9 @@
         <v>6.0</v>
       </c>
       <c r="AE4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AF4" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -9149,7 +9227,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -9236,7 +9314,10 @@
         <v>4.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -9244,7 +9325,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -9331,6 +9412,9 @@
         <v>9.0</v>
       </c>
       <c r="AE6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -9339,7 +9423,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -9426,6 +9510,9 @@
         <v>12.0</v>
       </c>
       <c r="AE7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -9434,7 +9521,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -9521,6 +9608,9 @@
         <v>17.0</v>
       </c>
       <c r="AE8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF8" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -9529,7 +9619,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -9616,7 +9706,10 @@
         <v>1.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -9624,7 +9717,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -9711,6 +9804,9 @@
         <v>19.0</v>
       </c>
       <c r="AE10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -9719,7 +9815,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -9807,6 +9903,9 @@
       </c>
       <c r="AE11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -9814,7 +9913,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -9901,6 +10000,9 @@
         <v>2.0</v>
       </c>
       <c r="AE12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -9909,7 +10011,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -9996,7 +10098,10 @@
         <v>5.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -10004,7 +10109,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -10092,6 +10197,9 @@
       </c>
       <c r="AE14" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
@@ -10099,7 +10207,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -10186,6 +10294,9 @@
         <v>10.0</v>
       </c>
       <c r="AE15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AF15" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -10194,7 +10305,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -10282,6 +10393,9 @@
       </c>
       <c r="AE16" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -10289,7 +10403,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -10376,6 +10490,9 @@
         <v>20.0</v>
       </c>
       <c r="AE17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF17" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -10384,7 +10501,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -10471,6 +10588,9 @@
         <v>11.0</v>
       </c>
       <c r="AE18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF18" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -10479,7 +10599,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -10566,6 +10686,9 @@
         <v>15.0</v>
       </c>
       <c r="AE19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AF19" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -10574,7 +10697,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -10662,6 +10785,9 @@
       </c>
       <c r="AE20" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="21">
@@ -10669,7 +10795,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -10756,6 +10882,9 @@
         <v>18.0</v>
       </c>
       <c r="AE21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF21" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -10775,7 +10904,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10861,7 +10990,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -10947,7 +11076,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -11033,7 +11162,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -11119,7 +11248,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -11205,7 +11334,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -11291,7 +11420,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -11377,7 +11506,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -11463,7 +11592,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -11549,7 +11678,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -11635,7 +11764,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -11721,7 +11850,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -11807,7 +11936,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C13" t="n">
         <v>15.0</v>
@@ -11893,7 +12022,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -11979,7 +12108,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C15" t="n">
         <v>7.0</v>
@@ -12065,7 +12194,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -12151,7 +12280,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C17" t="n">
         <v>9.0</v>
@@ -12237,7 +12366,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -12323,7 +12452,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -12420,7 +12549,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12506,7 +12635,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -12592,7 +12721,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -12678,7 +12807,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -12764,7 +12893,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -12850,7 +12979,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -12936,7 +13065,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -13022,7 +13151,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -13108,7 +13237,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -13194,7 +13323,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -13280,7 +13409,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -13366,7 +13495,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -13452,7 +13581,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -13538,7 +13667,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -13624,7 +13753,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -13710,7 +13839,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -13796,7 +13925,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -13882,7 +14011,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -13968,7 +14097,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -14065,7 +14194,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14157,7 +14286,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -14249,7 +14378,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -14341,7 +14470,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -14433,7 +14562,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -14525,7 +14654,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -14617,7 +14746,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -14709,7 +14838,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C8" t="n">
         <v>17.0</v>
@@ -14801,7 +14930,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -14893,7 +15022,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -14985,7 +15114,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -15077,7 +15206,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -15169,7 +15298,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -15261,7 +15390,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -15353,7 +15482,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C15" t="n">
         <v>14.0</v>
@@ -15445,7 +15574,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -15537,7 +15666,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -15629,7 +15758,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -15721,7 +15850,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -15813,7 +15942,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -15905,7 +16034,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -16008,7 +16137,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16109,7 +16238,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -16210,7 +16339,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -16311,7 +16440,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -16412,7 +16541,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -16513,7 +16642,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C6" t="n">
         <v>19.0</v>
@@ -16614,7 +16743,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C7" t="n">
         <v>20.0</v>
@@ -16715,7 +16844,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C8" t="n">
         <v>21.0</v>
@@ -16816,7 +16945,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -16917,7 +17046,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -17018,7 +17147,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -17119,7 +17248,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C12" t="n">
         <v>9.0</v>
@@ -17220,7 +17349,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C13" t="n">
         <v>22.0</v>
@@ -17321,7 +17450,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -17422,7 +17551,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -17523,7 +17652,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -17624,7 +17753,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -17725,7 +17854,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C18" t="n">
         <v>4.0</v>
@@ -17826,7 +17955,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -17927,7 +18056,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -18028,7 +18157,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -18126,10 +18255,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -18227,10 +18356,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -18342,7 +18471,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18440,7 +18569,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -18538,7 +18667,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -18636,7 +18765,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -18734,7 +18863,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -18832,7 +18961,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -18930,7 +19059,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -19028,7 +19157,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -19126,7 +19255,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -19224,7 +19353,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -19322,7 +19451,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -19420,7 +19549,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -19518,7 +19647,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -19627,7 +19756,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -19722,7 +19851,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -19817,7 +19946,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -19912,7 +20041,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -20007,7 +20136,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -20102,7 +20231,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -20197,7 +20326,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -20292,7 +20421,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -20387,7 +20516,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -20482,7 +20611,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -20577,7 +20706,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -22328,7 +22457,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -22423,7 +22552,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -22518,7 +22647,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -22613,7 +22742,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -22708,7 +22837,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -22803,7 +22932,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22898,7 +23027,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -22993,7 +23122,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -23088,7 +23217,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -23183,7 +23312,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -23278,7 +23407,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -23384,7 +23513,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -23479,7 +23608,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -23574,7 +23703,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -23669,7 +23798,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -23764,7 +23893,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -23859,7 +23988,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -23954,7 +24083,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -24049,7 +24178,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -24144,7 +24273,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -24239,7 +24368,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -24334,7 +24463,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -24440,7 +24569,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -24535,7 +24664,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -24630,7 +24759,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -24725,7 +24854,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -24820,7 +24949,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -24915,7 +25044,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -25010,7 +25139,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -25105,7 +25234,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -25200,7 +25329,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -25295,7 +25424,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -25390,7 +25519,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -25485,7 +25614,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
@@ -25580,7 +25709,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -25675,7 +25804,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -25770,7 +25899,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -25865,7 +25994,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -25960,7 +26089,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -26055,7 +26184,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -26150,7 +26279,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -26245,7 +26374,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C20" t="n">
         <v>8.0</v>
@@ -26340,7 +26469,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -29793,7 +29922,7 @@
         <v>8.0</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -29983,7 +30112,7 @@
         <v>6.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
@@ -30078,7 +30207,7 @@
         <v>7.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -30210,13 +30339,16 @@
       <c r="AM1" t="s">
         <v>135</v>
       </c>
+      <c r="AN1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -30327,6 +30459,9 @@
         <v>23.0</v>
       </c>
       <c r="AM2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -30335,7 +30470,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -30446,6 +30581,9 @@
         <v>20.0</v>
       </c>
       <c r="AM3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -30454,7 +30592,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -30565,7 +30703,10 @@
         <v>4.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -30573,7 +30714,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -30684,7 +30825,10 @@
         <v>12.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -30692,7 +30836,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -30803,6 +30947,9 @@
         <v>2.0</v>
       </c>
       <c r="AM6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -30811,7 +30958,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -30922,7 +31069,10 @@
         <v>18.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
@@ -30930,7 +31080,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -31041,7 +31191,10 @@
         <v>19.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
@@ -31049,7 +31202,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -31160,7 +31313,10 @@
         <v>10.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
@@ -31168,7 +31324,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" t="n">
         <v>12.0</v>
@@ -31279,7 +31435,10 @@
         <v>15.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
@@ -31287,7 +31446,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -31398,6 +31557,9 @@
         <v>1.0</v>
       </c>
       <c r="AM11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -31406,7 +31568,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -31517,6 +31679,9 @@
         <v>3.0</v>
       </c>
       <c r="AM12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -31525,7 +31690,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -31636,6 +31801,9 @@
         <v>21.0</v>
       </c>
       <c r="AM13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -31644,7 +31812,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -31755,7 +31923,10 @@
         <v>5.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -31763,7 +31934,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -31874,7 +32045,10 @@
         <v>7.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -31882,7 +32056,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -31993,7 +32167,10 @@
         <v>11.0</v>
       </c>
       <c r="AM16" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -32001,7 +32178,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -32112,7 +32289,10 @@
         <v>9.0</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
@@ -32120,7 +32300,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -32231,6 +32411,9 @@
         <v>24.0</v>
       </c>
       <c r="AM18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AN18" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -32239,7 +32422,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -32350,7 +32533,10 @@
         <v>13.0</v>
       </c>
       <c r="AM19" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="20">
@@ -32358,7 +32544,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" t="n">
         <v>17.0</v>
@@ -32469,7 +32655,10 @@
         <v>8.0</v>
       </c>
       <c r="AM20" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
@@ -32477,7 +32666,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -32588,15 +32777,18 @@
         <v>22.0</v>
       </c>
       <c r="AM21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -32707,15 +32899,18 @@
         <v>6.0</v>
       </c>
       <c r="AM22" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
         <v>6.0</v>
@@ -32826,15 +33021,18 @@
         <v>16.0</v>
       </c>
       <c r="AM23" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -32945,15 +33143,18 @@
         <v>17.0</v>
       </c>
       <c r="AM24" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -33064,7 +33265,10 @@
         <v>14.0</v>
       </c>
       <c r="AM25" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -33083,7 +33287,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -33195,6 +33399,9 @@
       </c>
       <c r="AM1" t="s">
         <v>135</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2">
@@ -33202,7 +33409,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" t="n">
         <v>19.0</v>
@@ -33313,6 +33520,9 @@
         <v>12.0</v>
       </c>
       <c r="AM2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -33321,7 +33531,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -33432,6 +33642,9 @@
         <v>19.0</v>
       </c>
       <c r="AM3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -33440,7 +33653,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -33551,6 +33764,9 @@
         <v>11.0</v>
       </c>
       <c r="AM4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -33559,7 +33775,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -33670,6 +33886,9 @@
         <v>14.0</v>
       </c>
       <c r="AM5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -33678,7 +33897,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -33789,6 +34008,9 @@
         <v>13.0</v>
       </c>
       <c r="AM6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -33797,7 +34019,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -33908,7 +34130,10 @@
         <v>16.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
@@ -33916,7 +34141,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -34027,6 +34252,9 @@
         <v>15.0</v>
       </c>
       <c r="AM8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -34035,7 +34263,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -34146,6 +34374,9 @@
         <v>24.0</v>
       </c>
       <c r="AM9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -34154,7 +34385,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" t="n">
         <v>20.0</v>
@@ -34265,6 +34496,9 @@
         <v>23.0</v>
       </c>
       <c r="AM10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AN10" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -34273,7 +34507,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" t="n">
         <v>21.0</v>
@@ -34384,6 +34618,9 @@
         <v>20.0</v>
       </c>
       <c r="AM11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -34392,7 +34629,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -34503,6 +34740,9 @@
         <v>22.0</v>
       </c>
       <c r="AM12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -34511,7 +34751,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -34622,6 +34862,9 @@
         <v>9.0</v>
       </c>
       <c r="AM13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -34630,7 +34873,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -34741,7 +34984,10 @@
         <v>18.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
@@ -34749,7 +34995,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -34861,6 +35107,9 @@
       </c>
       <c r="AM15" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -34868,7 +35117,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -34979,6 +35228,9 @@
         <v>21.0</v>
       </c>
       <c r="AM16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -34987,7 +35239,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -35098,6 +35350,9 @@
         <v>4.0</v>
       </c>
       <c r="AM17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -35106,7 +35361,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -35218,6 +35473,9 @@
       </c>
       <c r="AM18" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
@@ -35225,7 +35483,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -35336,6 +35594,9 @@
         <v>10.0</v>
       </c>
       <c r="AM19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN19" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -35344,7 +35605,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" t="n">
         <v>4.0</v>
@@ -35455,6 +35716,9 @@
         <v>1.0</v>
       </c>
       <c r="AM20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -35463,7 +35727,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" t="n">
         <v>18.0</v>
@@ -35574,15 +35838,18 @@
         <v>7.0</v>
       </c>
       <c r="AM21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -35694,14 +35961,17 @@
       </c>
       <c r="AM22" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" t="n">
         <v>5.0</v>
@@ -35813,14 +36083,17 @@
       </c>
       <c r="AM23" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -35932,14 +36205,17 @@
       </c>
       <c r="AM24" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" t="n">
         <v>6.0</v>
@@ -36050,6 +36326,9 @@
         <v>8.0</v>
       </c>
       <c r="AM25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN25" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -36069,7 +36348,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -36178,6 +36457,9 @@
       </c>
       <c r="AL1" t="s">
         <v>134</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -36185,7 +36467,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -36293,7 +36575,10 @@
         <v>21.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
@@ -36301,7 +36586,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -36409,7 +36694,10 @@
         <v>14.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
@@ -36417,7 +36705,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -36525,6 +36813,9 @@
         <v>7.0</v>
       </c>
       <c r="AL4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AM4" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -36533,7 +36824,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -36641,6 +36932,9 @@
         <v>16.0</v>
       </c>
       <c r="AL5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AM5" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -36649,7 +36943,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" t="n">
         <v>12.0</v>
@@ -36757,7 +37051,10 @@
         <v>18.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
@@ -36765,7 +37062,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" t="n">
         <v>18.0</v>
@@ -36873,7 +37170,10 @@
         <v>13.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -36881,7 +37181,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C8" t="n">
         <v>13.0</v>
@@ -36989,6 +37289,9 @@
         <v>5.0</v>
       </c>
       <c r="AL8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AM8" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -36997,7 +37300,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -37105,6 +37408,9 @@
         <v>1.0</v>
       </c>
       <c r="AL9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -37113,7 +37419,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -37222,6 +37528,9 @@
       </c>
       <c r="AL10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
@@ -37229,7 +37538,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -37337,6 +37646,9 @@
         <v>12.0</v>
       </c>
       <c r="AL11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -37345,7 +37657,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -37453,7 +37765,10 @@
         <v>20.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="13">
@@ -37461,7 +37776,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -37569,6 +37884,9 @@
         <v>9.0</v>
       </c>
       <c r="AL13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AM13" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -37577,7 +37895,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -37685,6 +38003,9 @@
         <v>3.0</v>
       </c>
       <c r="AL14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AM14" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -37693,7 +38014,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -37801,6 +38122,9 @@
         <v>2.0</v>
       </c>
       <c r="AL15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -37809,7 +38133,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -37917,6 +38241,9 @@
         <v>23.0</v>
       </c>
       <c r="AL16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AM16" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -37925,7 +38252,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -38033,6 +38360,9 @@
         <v>10.0</v>
       </c>
       <c r="AL17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -38041,7 +38371,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -38149,7 +38479,10 @@
         <v>19.0</v>
       </c>
       <c r="AL18" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
@@ -38157,7 +38490,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" t="n">
         <v>15.0</v>
@@ -38265,6 +38598,9 @@
         <v>11.0</v>
       </c>
       <c r="AL19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AM19" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -38273,7 +38609,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" t="n">
         <v>22.0</v>
@@ -38381,6 +38717,9 @@
         <v>24.0</v>
       </c>
       <c r="AL20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AM20" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -38389,7 +38728,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -38497,15 +38836,18 @@
         <v>22.0</v>
       </c>
       <c r="AL21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AM21" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -38613,15 +38955,18 @@
         <v>8.0</v>
       </c>
       <c r="AL22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AM22" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C23" t="n">
         <v>8.0</v>
@@ -38729,15 +39074,18 @@
         <v>6.0</v>
       </c>
       <c r="AL23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AM23" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -38845,15 +39193,18 @@
         <v>4.0</v>
       </c>
       <c r="AL24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AM24" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C25" t="n">
         <v>24.0</v>
@@ -38962,6 +39313,9 @@
       </c>
       <c r="AL25" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -38980,7 +39334,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -39081,7 +39435,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -39182,7 +39536,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -39283,7 +39637,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -39376,7 +39730,7 @@
         <v>18.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
@@ -39384,7 +39738,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -39485,7 +39839,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -39586,7 +39940,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -39687,7 +40041,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -39788,7 +40142,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -39889,7 +40243,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -39982,7 +40336,7 @@
         <v>16.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
@@ -39990,7 +40344,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -40091,7 +40445,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -40184,7 +40538,7 @@
         <v>4.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -40192,7 +40546,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -40293,7 +40647,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -40394,7 +40748,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -40495,7 +40849,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -40596,7 +40950,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -40697,7 +41051,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -40798,7 +41152,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -40899,7 +41253,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" t="n">
         <v>21.0</v>
@@ -40992,7 +41346,7 @@
         <v>15.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="21">
@@ -41000,7 +41354,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -41098,10 +41452,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -41194,15 +41548,15 @@
         <v>17.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" t="n">
         <v>10.0</v>
@@ -41295,15 +41649,15 @@
         <v>3.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" t="n">
         <v>23.0</v>
@@ -41415,7 +41769,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -41507,7 +41861,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -41599,7 +41953,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3" t="n">
         <v>17.0</v>
@@ -41691,7 +42045,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -41783,7 +42137,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -41875,7 +42229,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" t="n">
         <v>6.0</v>
@@ -41967,7 +42321,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -42059,7 +42413,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -42151,7 +42505,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -42243,7 +42597,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -42335,7 +42689,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -42427,7 +42781,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -42519,7 +42873,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -42611,7 +42965,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -42703,7 +43057,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -42795,7 +43149,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -42887,7 +43241,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -42979,7 +43333,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -43071,7 +43425,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C19" t="n">
         <v>16.0</v>
@@ -43163,7 +43517,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -43255,7 +43609,7 @@
         <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="488">
   <si>
     <t>b1_teams</t>
   </si>
@@ -24403,7 +24403,7 @@
         <v>9.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -24795,7 +24795,7 @@
         <v>8.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -37391,6 +37391,9 @@
       <c r="AM1" t="s">
         <v>135</v>
       </c>
+      <c r="AN1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -37510,6 +37513,9 @@
       <c r="AM2" t="n">
         <v>21.0</v>
       </c>
+      <c r="AN2" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -37629,6 +37635,9 @@
       <c r="AM3" t="n">
         <v>15.0</v>
       </c>
+      <c r="AN3" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -37748,6 +37757,9 @@
       <c r="AM4" t="n">
         <v>3.0</v>
       </c>
+      <c r="AN4" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -37867,6 +37879,9 @@
       <c r="AM5" t="n">
         <v>17.0</v>
       </c>
+      <c r="AN5" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -37986,6 +38001,9 @@
       <c r="AM6" t="n">
         <v>20.0</v>
       </c>
+      <c r="AN6" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -38105,6 +38123,9 @@
       <c r="AM7" t="n">
         <v>13.0</v>
       </c>
+      <c r="AN7" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -38224,6 +38245,9 @@
       <c r="AM8" t="n">
         <v>2.0</v>
       </c>
+      <c r="AN8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -38343,6 +38367,9 @@
       <c r="AM9" t="n">
         <v>1.0</v>
       </c>
+      <c r="AN9" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -38462,6 +38489,9 @@
       <c r="AM10" t="n">
         <v>16.0</v>
       </c>
+      <c r="AN10" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -38581,6 +38611,9 @@
       <c r="AM11" t="n">
         <v>12.0</v>
       </c>
+      <c r="AN11" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -38700,6 +38733,9 @@
       <c r="AM12" t="n">
         <v>18.0</v>
       </c>
+      <c r="AN12" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -38819,6 +38855,9 @@
       <c r="AM13" t="n">
         <v>10.0</v>
       </c>
+      <c r="AN13" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -38938,6 +38977,9 @@
       <c r="AM14" t="n">
         <v>6.0</v>
       </c>
+      <c r="AN14" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -39057,6 +39099,9 @@
       <c r="AM15" t="n">
         <v>4.0</v>
       </c>
+      <c r="AN15" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -39176,6 +39221,9 @@
       <c r="AM16" t="n">
         <v>23.0</v>
       </c>
+      <c r="AN16" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -39295,6 +39343,9 @@
       <c r="AM17" t="n">
         <v>8.0</v>
       </c>
+      <c r="AN17" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -39414,6 +39465,9 @@
       <c r="AM18" t="n">
         <v>19.0</v>
       </c>
+      <c r="AN18" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -39533,6 +39587,9 @@
       <c r="AM19" t="n">
         <v>11.0</v>
       </c>
+      <c r="AN19" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -39652,6 +39709,9 @@
       <c r="AM20" t="n">
         <v>24.0</v>
       </c>
+      <c r="AN20" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -39771,6 +39831,9 @@
       <c r="AM21" t="n">
         <v>22.0</v>
       </c>
+      <c r="AN21" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -39890,6 +39953,9 @@
       <c r="AM22" t="n">
         <v>9.0</v>
       </c>
+      <c r="AN22" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -40009,6 +40075,9 @@
       <c r="AM23" t="n">
         <v>7.0</v>
       </c>
+      <c r="AN23" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -40128,6 +40197,9 @@
       <c r="AM24" t="n">
         <v>5.0</v>
       </c>
+      <c r="AN24" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -40245,6 +40317,9 @@
         <v>16.0</v>
       </c>
       <c r="AM25" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN25" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -40362,6 +40437,9 @@
       <c r="AH1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -40466,6 +40544,9 @@
       <c r="AH2" t="n">
         <v>20.0</v>
       </c>
+      <c r="AI2" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -40568,6 +40649,9 @@
         <v>13.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -40674,6 +40758,9 @@
       <c r="AH4" t="n">
         <v>16.0</v>
       </c>
+      <c r="AI4" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -40776,7 +40863,10 @@
         <v>5.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -40880,7 +40970,10 @@
         <v>9.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
@@ -40986,6 +41079,9 @@
       <c r="AH7" t="n">
         <v>2.0</v>
       </c>
+      <c r="AI7" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -41088,7 +41184,10 @@
         <v>10.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
@@ -41194,6 +41293,9 @@
       <c r="AH9" t="n">
         <v>23.0</v>
       </c>
+      <c r="AI9" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -41296,7 +41398,10 @@
         <v>18.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
@@ -41402,6 +41507,9 @@
       <c r="AH11" t="n">
         <v>8.0</v>
       </c>
+      <c r="AI11" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -41506,6 +41614,9 @@
       <c r="AH12" t="n">
         <v>3.0</v>
       </c>
+      <c r="AI12" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -41610,6 +41721,9 @@
       <c r="AH13" t="n">
         <v>22.0</v>
       </c>
+      <c r="AI13" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -41712,7 +41826,10 @@
         <v>19.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
@@ -41816,7 +41933,10 @@
         <v>6.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -41920,7 +42040,10 @@
         <v>8.0</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -42024,7 +42147,10 @@
         <v>12.0</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
@@ -42130,6 +42256,9 @@
       <c r="AH18" t="n">
         <v>1.0</v>
       </c>
+      <c r="AI18" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -42232,7 +42361,10 @@
         <v>11.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
@@ -42336,7 +42468,10 @@
         <v>17.0</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
@@ -42442,6 +42577,9 @@
       <c r="AH21" t="n">
         <v>21.0</v>
       </c>
+      <c r="AI21" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -42546,6 +42684,9 @@
       <c r="AH22" t="n">
         <v>15.0</v>
       </c>
+      <c r="AI22" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -42650,6 +42791,9 @@
       <c r="AH23" t="n">
         <v>4.0</v>
       </c>
+      <c r="AI23" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -42752,6 +42896,9 @@
         <v>15.0</v>
       </c>
       <c r="AH24" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AI24" t="n">
         <v>13.0</v>
       </c>
     </row>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="489">
   <si>
     <t>b1_teams</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>X39</t>
+  </si>
+  <si>
+    <t>X40</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -3537,7 +3540,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3635,7 +3638,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -3733,7 +3736,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -3831,7 +3834,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -3929,7 +3932,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -4027,7 +4030,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4125,7 +4128,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C7" t="n">
         <v>17.0</v>
@@ -4223,7 +4226,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -4321,7 +4324,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C9" t="n">
         <v>18.0</v>
@@ -4419,7 +4422,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -4517,7 +4520,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -4615,7 +4618,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C12" t="n">
         <v>19.0</v>
@@ -4713,7 +4716,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -4811,7 +4814,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -4909,7 +4912,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -5007,7 +5010,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -5105,7 +5108,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -5203,7 +5206,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -5301,7 +5304,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -5399,7 +5402,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C20" t="n">
         <v>14.0</v>
@@ -5497,7 +5500,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -5606,7 +5609,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5698,7 +5701,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5790,7 +5793,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -5882,7 +5885,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -5974,7 +5977,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
@@ -6066,7 +6069,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -6158,7 +6161,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -6250,7 +6253,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -6342,7 +6345,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C9" t="n">
         <v>13.0</v>
@@ -6434,7 +6437,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -6526,7 +6529,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -6618,7 +6621,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -6710,7 +6713,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6802,7 +6805,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -6894,7 +6897,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -6997,7 +7000,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7095,7 +7098,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -7193,7 +7196,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -7291,7 +7294,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -7389,7 +7392,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -7487,7 +7490,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -7585,7 +7588,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -7683,7 +7686,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -7781,7 +7784,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -7879,7 +7882,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -7977,7 +7980,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -8075,7 +8078,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -8173,7 +8176,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -8271,7 +8274,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -8369,7 +8372,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -8467,7 +8470,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -8565,7 +8568,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -8663,7 +8666,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -8761,7 +8764,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -8859,7 +8862,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -8957,7 +8960,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -9066,7 +9069,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9167,7 +9170,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -9268,7 +9271,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -9369,7 +9372,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -9470,7 +9473,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -9571,7 +9574,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -9672,7 +9675,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -9773,7 +9776,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -9874,7 +9877,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -9975,7 +9978,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -10076,7 +10079,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10177,7 +10180,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -10278,7 +10281,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -10379,7 +10382,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -10480,7 +10483,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -10581,7 +10584,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -10682,7 +10685,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -10783,7 +10786,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -10884,7 +10887,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -10985,7 +10988,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -11086,7 +11089,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -11198,7 +11201,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11287,7 +11290,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -11376,7 +11379,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -11465,7 +11468,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -11554,7 +11557,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -11643,7 +11646,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -11732,7 +11735,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -11821,7 +11824,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -11910,7 +11913,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -11999,7 +12002,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -12088,7 +12091,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -12177,7 +12180,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -12266,7 +12269,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C13" t="n">
         <v>15.0</v>
@@ -12355,7 +12358,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -12444,7 +12447,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C15" t="n">
         <v>7.0</v>
@@ -12533,7 +12536,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -12622,7 +12625,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" t="n">
         <v>9.0</v>
@@ -12711,7 +12714,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -12800,7 +12803,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -12900,7 +12903,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12989,7 +12992,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -13078,7 +13081,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -13167,7 +13170,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -13256,7 +13259,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -13345,7 +13348,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -13434,7 +13437,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -13523,7 +13526,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -13612,7 +13615,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -13701,7 +13704,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -13790,7 +13793,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -13879,7 +13882,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -13968,7 +13971,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -14057,7 +14060,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -14146,7 +14149,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -14235,7 +14238,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -14324,7 +14327,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -14413,7 +14416,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -14502,7 +14505,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -14602,7 +14605,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14697,7 +14700,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -14792,7 +14795,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -14887,7 +14890,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -14982,7 +14985,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -15077,7 +15080,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -15172,7 +15175,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -15267,7 +15270,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C8" t="n">
         <v>17.0</v>
@@ -15362,7 +15365,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -15457,7 +15460,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -15552,7 +15555,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -15647,7 +15650,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -15742,7 +15745,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -15837,7 +15840,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -15932,7 +15935,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C15" t="n">
         <v>14.0</v>
@@ -16027,7 +16030,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -16122,7 +16125,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -16217,7 +16220,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -16312,7 +16315,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -16407,7 +16410,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -16502,7 +16505,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -16608,7 +16611,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16705,6 +16708,9 @@
       </c>
       <c r="AH1" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -16712,7 +16718,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -16808,6 +16814,9 @@
         <v>22.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -16816,7 +16825,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -16912,6 +16921,9 @@
         <v>2.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -16920,7 +16932,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -17016,6 +17028,9 @@
         <v>20.0</v>
       </c>
       <c r="AH4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -17024,7 +17039,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -17121,6 +17136,9 @@
       </c>
       <c r="AH5" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -17128,7 +17146,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C6" t="n">
         <v>19.0</v>
@@ -17225,6 +17243,9 @@
       </c>
       <c r="AH6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -17232,7 +17253,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C7" t="n">
         <v>20.0</v>
@@ -17328,6 +17349,9 @@
         <v>1.0</v>
       </c>
       <c r="AH7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -17336,7 +17360,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C8" t="n">
         <v>21.0</v>
@@ -17432,6 +17456,9 @@
         <v>21.0</v>
       </c>
       <c r="AH8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -17440,7 +17467,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -17537,6 +17564,9 @@
       </c>
       <c r="AH9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -17544,7 +17574,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -17641,6 +17671,9 @@
       </c>
       <c r="AH10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
@@ -17648,7 +17681,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -17745,6 +17778,9 @@
       </c>
       <c r="AH11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -17752,7 +17788,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C12" t="n">
         <v>9.0</v>
@@ -17849,6 +17885,9 @@
       </c>
       <c r="AH12" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
@@ -17856,7 +17895,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C13" t="n">
         <v>22.0</v>
@@ -17953,6 +17992,9 @@
       </c>
       <c r="AH13" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
@@ -17960,7 +18002,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -18057,6 +18099,9 @@
       </c>
       <c r="AH14" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
@@ -18064,7 +18109,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -18161,6 +18206,9 @@
       </c>
       <c r="AH15" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
@@ -18168,7 +18216,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -18264,6 +18312,9 @@
         <v>17.0</v>
       </c>
       <c r="AH16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AI16" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -18272,7 +18323,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -18369,6 +18420,9 @@
       </c>
       <c r="AH17" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
@@ -18376,7 +18430,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C18" t="n">
         <v>4.0</v>
@@ -18472,6 +18526,9 @@
         <v>5.0</v>
       </c>
       <c r="AH18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -18480,7 +18537,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -18576,6 +18633,9 @@
         <v>19.0</v>
       </c>
       <c r="AH19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -18584,7 +18644,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -18681,6 +18741,9 @@
       </c>
       <c r="AH20" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
@@ -18688,7 +18751,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -18785,6 +18848,9 @@
       </c>
       <c r="AH21" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
@@ -18792,7 +18858,7 @@
         <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -18888,6 +18954,9 @@
         <v>3.0</v>
       </c>
       <c r="AH22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI22" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -18896,7 +18965,7 @@
         <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -18993,6 +19062,9 @@
       </c>
       <c r="AH23" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -19011,7 +19083,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -19112,7 +19184,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -19213,7 +19285,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -19314,7 +19386,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -19415,7 +19487,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -19516,7 +19588,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -19617,7 +19689,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -19718,7 +19790,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -19819,7 +19891,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -19920,7 +19992,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -20021,7 +20093,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -20122,7 +20194,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -20223,7 +20295,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -20335,7 +20407,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -20426,6 +20498,9 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -20433,7 +20508,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -20523,6 +20598,9 @@
         <v>2.0</v>
       </c>
       <c r="AF2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -20531,7 +20609,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -20621,6 +20699,9 @@
         <v>7.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -20629,7 +20710,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -20719,6 +20800,9 @@
         <v>9.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -20727,7 +20811,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -20817,6 +20901,9 @@
         <v>8.0</v>
       </c>
       <c r="AF5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -20825,7 +20912,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -20915,6 +21002,9 @@
         <v>4.0</v>
       </c>
       <c r="AF6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -20923,7 +21013,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21013,6 +21103,9 @@
         <v>1.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -21021,7 +21114,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -21111,6 +21204,9 @@
         <v>6.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -21119,7 +21215,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -21209,6 +21305,9 @@
         <v>3.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -21217,7 +21316,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -21307,6 +21406,9 @@
         <v>10.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -21315,7 +21417,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -21405,6 +21507,9 @@
         <v>5.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -23126,7 +23231,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -23217,6 +23322,9 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -23224,7 +23332,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -23314,6 +23422,9 @@
         <v>2.0</v>
       </c>
       <c r="AF2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -23322,7 +23433,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -23413,6 +23524,9 @@
       </c>
       <c r="AF3" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -23420,7 +23534,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -23511,6 +23625,9 @@
       </c>
       <c r="AF4" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -23518,7 +23635,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -23608,6 +23725,9 @@
         <v>1.0</v>
       </c>
       <c r="AF5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -23616,7 +23736,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -23706,6 +23826,9 @@
         <v>9.0</v>
       </c>
       <c r="AF6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -23714,7 +23837,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -23804,6 +23927,9 @@
         <v>10.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -23812,7 +23938,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -23902,6 +24028,9 @@
         <v>5.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -23910,7 +24039,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -24000,6 +24129,9 @@
         <v>3.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -24008,7 +24140,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -24098,6 +24230,9 @@
         <v>8.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -24106,7 +24241,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -24196,6 +24331,9 @@
         <v>4.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -24215,7 +24353,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -24306,6 +24444,9 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -24313,7 +24454,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -24403,6 +24544,9 @@
         <v>9.0</v>
       </c>
       <c r="AF2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -24411,7 +24555,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -24501,6 +24645,9 @@
         <v>2.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -24509,7 +24656,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -24599,6 +24746,9 @@
         <v>10.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -24607,7 +24757,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -24697,6 +24847,9 @@
         <v>4.0</v>
       </c>
       <c r="AF5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -24705,7 +24858,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -24795,6 +24948,9 @@
         <v>8.0</v>
       </c>
       <c r="AF6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -24803,7 +24959,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -24893,6 +25049,9 @@
         <v>3.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -24901,7 +25060,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -24991,6 +25150,9 @@
         <v>1.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -24999,7 +25161,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -25089,6 +25251,9 @@
         <v>5.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -25097,7 +25262,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -25187,6 +25352,9 @@
         <v>7.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -25195,7 +25363,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -25285,6 +25453,9 @@
         <v>6.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -25304,7 +25475,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -25402,7 +25573,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -25500,7 +25671,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -25598,7 +25769,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -25696,7 +25867,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -25794,7 +25965,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -25892,7 +26063,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -25990,7 +26161,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -26088,7 +26259,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -26186,7 +26357,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -26284,7 +26455,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -26382,7 +26553,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
@@ -26480,7 +26651,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -26578,7 +26749,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -26676,7 +26847,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -26774,7 +26945,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -26872,7 +27043,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -26970,7 +27141,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -27068,7 +27239,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -27166,7 +27337,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C20" t="n">
         <v>8.0</v>
@@ -27264,7 +27435,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -34261,13 +34432,16 @@
       <c r="AO1" t="s">
         <v>166</v>
       </c>
+      <c r="AP1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" t="n">
         <v>19.0</v>
@@ -34384,6 +34558,9 @@
         <v>12.0</v>
       </c>
       <c r="AO2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AP2" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -34392,7 +34569,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -34509,6 +34686,9 @@
         <v>21.0</v>
       </c>
       <c r="AO3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AP3" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -34517,7 +34697,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -34634,6 +34814,9 @@
         <v>10.0</v>
       </c>
       <c r="AO4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AP4" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -34642,7 +34825,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -34759,7 +34942,10 @@
         <v>14.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -34767,7 +34953,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -34884,7 +35070,10 @@
         <v>16.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -34892,7 +35081,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -35009,7 +35198,10 @@
         <v>15.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -35017,7 +35209,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -35134,6 +35326,9 @@
         <v>13.0</v>
       </c>
       <c r="AO8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AP8" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -35142,7 +35337,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -35259,6 +35454,9 @@
         <v>24.0</v>
       </c>
       <c r="AO9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -35267,7 +35465,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" t="n">
         <v>20.0</v>
@@ -35384,6 +35582,9 @@
         <v>23.0</v>
       </c>
       <c r="AO10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AP10" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -35392,7 +35593,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" t="n">
         <v>21.0</v>
@@ -35509,7 +35710,10 @@
         <v>19.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
@@ -35517,7 +35721,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -35634,7 +35838,10 @@
         <v>20.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
@@ -35642,7 +35849,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -35759,6 +35966,9 @@
         <v>9.0</v>
       </c>
       <c r="AO13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AP13" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -35767,7 +35977,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -35884,6 +36094,9 @@
         <v>18.0</v>
       </c>
       <c r="AO14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AP14" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -35892,7 +36105,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -36009,6 +36222,9 @@
         <v>2.0</v>
       </c>
       <c r="AO15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP15" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -36017,7 +36233,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -36134,6 +36350,9 @@
         <v>22.0</v>
       </c>
       <c r="AO16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AP16" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -36142,7 +36361,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -36259,6 +36478,9 @@
         <v>4.0</v>
       </c>
       <c r="AO17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP17" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -36267,7 +36489,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -36384,6 +36606,9 @@
         <v>5.0</v>
       </c>
       <c r="AO18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP18" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -36392,7 +36617,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -36509,6 +36734,9 @@
         <v>11.0</v>
       </c>
       <c r="AO19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AP19" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -36517,7 +36745,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" t="n">
         <v>4.0</v>
@@ -36634,6 +36862,9 @@
         <v>1.0</v>
       </c>
       <c r="AO20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -36642,7 +36873,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" t="n">
         <v>18.0</v>
@@ -36759,7 +36990,10 @@
         <v>6.0</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -36767,7 +37001,7 @@
         <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -36885,6 +37119,9 @@
       </c>
       <c r="AO22" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="23">
@@ -36892,7 +37129,7 @@
         <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" t="n">
         <v>5.0</v>
@@ -37009,7 +37246,10 @@
         <v>7.0</v>
       </c>
       <c r="AO23" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="24">
@@ -37017,7 +37257,7 @@
         <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -37134,6 +37374,9 @@
         <v>3.0</v>
       </c>
       <c r="AO24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP24" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -37142,7 +37385,7 @@
         <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" t="n">
         <v>6.0</v>
@@ -37259,6 +37502,9 @@
         <v>8.0</v>
       </c>
       <c r="AO25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AP25" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -37278,7 +37524,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -37393,6 +37639,9 @@
       </c>
       <c r="AN1" t="s">
         <v>136</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -37400,7 +37649,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -37514,6 +37763,9 @@
         <v>21.0</v>
       </c>
       <c r="AN2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AO2" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -37522,7 +37774,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -37636,7 +37888,10 @@
         <v>15.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -37644,7 +37899,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -37758,7 +38013,10 @@
         <v>3.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -37766,7 +38024,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -37880,6 +38138,9 @@
         <v>17.0</v>
       </c>
       <c r="AN5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -37888,7 +38149,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C6" t="n">
         <v>12.0</v>
@@ -38002,7 +38263,10 @@
         <v>20.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
@@ -38010,7 +38274,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C7" t="n">
         <v>18.0</v>
@@ -38124,7 +38388,10 @@
         <v>13.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
@@ -38132,7 +38399,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" t="n">
         <v>13.0</v>
@@ -38246,6 +38513,9 @@
         <v>2.0</v>
       </c>
       <c r="AN8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO8" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -38254,7 +38524,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -38368,6 +38638,9 @@
         <v>1.0</v>
       </c>
       <c r="AN9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -38376,7 +38649,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -38490,7 +38763,10 @@
         <v>16.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
@@ -38498,7 +38774,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -38612,7 +38888,10 @@
         <v>12.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
@@ -38620,7 +38899,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -38734,6 +39013,9 @@
         <v>18.0</v>
       </c>
       <c r="AN12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -38742,7 +39024,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -38856,7 +39138,10 @@
         <v>10.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -38864,7 +39149,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -38978,7 +39263,10 @@
         <v>6.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -38986,7 +39274,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -39100,7 +39388,10 @@
         <v>4.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -39108,7 +39399,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -39222,6 +39513,9 @@
         <v>23.0</v>
       </c>
       <c r="AN16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -39230,7 +39524,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -39344,7 +39638,10 @@
         <v>8.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -39352,7 +39649,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -39466,7 +39763,10 @@
         <v>19.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
@@ -39474,7 +39774,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" t="n">
         <v>15.0</v>
@@ -39588,6 +39888,9 @@
         <v>11.0</v>
       </c>
       <c r="AN19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -39596,7 +39899,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" t="n">
         <v>22.0</v>
@@ -39710,6 +40013,9 @@
         <v>24.0</v>
       </c>
       <c r="AN20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -39718,7 +40024,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -39832,6 +40138,9 @@
         <v>22.0</v>
       </c>
       <c r="AN21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -39840,7 +40149,7 @@
         <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -39954,7 +40263,10 @@
         <v>9.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
@@ -39962,7 +40274,7 @@
         <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" t="n">
         <v>8.0</v>
@@ -40076,7 +40388,10 @@
         <v>7.0</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
@@ -40084,7 +40399,7 @@
         <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -40198,7 +40513,10 @@
         <v>5.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="25">
@@ -40206,7 +40524,7 @@
         <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" t="n">
         <v>24.0</v>
@@ -40320,7 +40638,10 @@
         <v>14.0</v>
       </c>
       <c r="AN25" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
@@ -40339,7 +40660,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -40439,6 +40760,9 @@
       </c>
       <c r="AI1" t="s">
         <v>131</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -40446,7 +40770,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -40545,6 +40869,9 @@
         <v>20.0</v>
       </c>
       <c r="AI2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -40553,7 +40880,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -40652,6 +40979,9 @@
         <v>13.0</v>
       </c>
       <c r="AI3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -40660,7 +40990,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -40759,6 +41089,9 @@
         <v>16.0</v>
       </c>
       <c r="AI4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -40767,7 +41100,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -40866,7 +41199,10 @@
         <v>7.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
@@ -40874,7 +41210,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -40973,6 +41309,9 @@
         <v>10.0</v>
       </c>
       <c r="AI6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -40981,7 +41320,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -41081,6 +41420,9 @@
       </c>
       <c r="AI7" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -41088,7 +41430,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -41187,6 +41529,9 @@
         <v>9.0</v>
       </c>
       <c r="AI8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -41195,7 +41540,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -41294,6 +41639,9 @@
         <v>23.0</v>
       </c>
       <c r="AI9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -41302,7 +41650,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -41401,6 +41749,9 @@
         <v>19.0</v>
       </c>
       <c r="AI10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -41409,7 +41760,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -41508,7 +41859,10 @@
         <v>8.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -41516,7 +41870,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -41616,6 +41970,9 @@
       </c>
       <c r="AI12" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -41623,7 +41980,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -41722,7 +42079,10 @@
         <v>22.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="14">
@@ -41730,7 +42090,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -41829,7 +42189,10 @@
         <v>17.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
@@ -41837,7 +42200,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -41936,6 +42299,9 @@
         <v>6.0</v>
       </c>
       <c r="AI15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -41944,7 +42310,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -42043,6 +42409,9 @@
         <v>5.0</v>
       </c>
       <c r="AI16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -42051,7 +42420,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -42151,6 +42520,9 @@
       </c>
       <c r="AI17" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
@@ -42158,7 +42530,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -42257,6 +42629,9 @@
         <v>1.0</v>
       </c>
       <c r="AI18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -42265,7 +42640,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -42364,6 +42739,9 @@
         <v>11.0</v>
       </c>
       <c r="AI19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -42372,7 +42750,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" t="n">
         <v>21.0</v>
@@ -42471,7 +42849,10 @@
         <v>18.0</v>
       </c>
       <c r="AI20" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
@@ -42479,7 +42860,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -42578,7 +42959,10 @@
         <v>21.0</v>
       </c>
       <c r="AI21" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="22">
@@ -42586,7 +42970,7 @@
         <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -42685,6 +43069,9 @@
         <v>15.0</v>
       </c>
       <c r="AI22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -42693,7 +43080,7 @@
         <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" t="n">
         <v>10.0</v>
@@ -42793,6 +43180,9 @@
       </c>
       <c r="AI23" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -42800,7 +43190,7 @@
         <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" t="n">
         <v>23.0</v>
@@ -42899,7 +43289,10 @@
         <v>14.0</v>
       </c>
       <c r="AI24" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -42918,7 +43311,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -43013,7 +43406,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -43108,7 +43501,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" t="n">
         <v>17.0</v>
@@ -43203,7 +43596,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -43298,7 +43691,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -43393,7 +43786,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C6" t="n">
         <v>6.0</v>
@@ -43488,7 +43881,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -43583,7 +43976,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -43678,7 +44071,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -43773,7 +44166,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -43868,7 +44261,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -43963,7 +44356,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -44058,7 +44451,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -44153,7 +44546,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -44248,7 +44641,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -44343,7 +44736,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -44438,7 +44831,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -44533,7 +44926,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -44628,7 +45021,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C19" t="n">
         <v>16.0</v>
@@ -44723,7 +45116,7 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -44818,7 +45211,7 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="489">
   <si>
     <t>b1_teams</t>
   </si>
@@ -134,6 +134,9 @@
     <t>X32</t>
   </si>
   <si>
+    <t>X33</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -428,9 +431,6 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X33</t>
-  </si>
-  <si>
     <t>X34</t>
   </si>
   <si>
@@ -446,6 +446,9 @@
     <t>X38</t>
   </si>
   <si>
+    <t>X39</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -531,9 +534,6 @@
   </si>
   <si>
     <t>e2_teams</t>
-  </si>
-  <si>
-    <t>X39</t>
   </si>
   <si>
     <t>X40</t>
@@ -1651,13 +1651,16 @@
       <c r="AH1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -1753,15 +1756,18 @@
         <v>3.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
         <v>14.0</v>
@@ -1857,15 +1863,18 @@
         <v>4.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
         <v>15.0</v>
@@ -1961,15 +1970,18 @@
         <v>18.0</v>
       </c>
       <c r="AH4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -2065,15 +2077,18 @@
         <v>9.0</v>
       </c>
       <c r="AH5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2170,14 +2185,17 @@
       </c>
       <c r="AH6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -2273,15 +2291,18 @@
         <v>2.0</v>
       </c>
       <c r="AH7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2377,15 +2398,18 @@
         <v>16.0</v>
       </c>
       <c r="AH8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -2481,15 +2505,18 @@
         <v>8.0</v>
       </c>
       <c r="AH9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -2585,15 +2612,18 @@
         <v>5.0</v>
       </c>
       <c r="AH10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -2689,15 +2719,18 @@
         <v>11.0</v>
       </c>
       <c r="AH11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -2794,14 +2827,17 @@
       </c>
       <c r="AH12" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -2897,15 +2933,18 @@
         <v>13.0</v>
       </c>
       <c r="AH13" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -3001,15 +3040,18 @@
         <v>12.0</v>
       </c>
       <c r="AH14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AI14" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -3105,15 +3147,18 @@
         <v>17.0</v>
       </c>
       <c r="AH15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -3209,15 +3254,18 @@
         <v>10.0</v>
       </c>
       <c r="AH16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI16" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -3313,15 +3361,18 @@
         <v>1.0</v>
       </c>
       <c r="AH17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -3417,15 +3468,18 @@
         <v>14.0</v>
       </c>
       <c r="AH18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -3521,6 +3575,9 @@
         <v>15.0</v>
       </c>
       <c r="AH19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -3632,10 +3689,13 @@
       <c r="AF1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>263</v>
@@ -3729,11 +3789,14 @@
       </c>
       <c r="AF2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>264</v>
@@ -3827,11 +3890,14 @@
       </c>
       <c r="AF3" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>265</v>
@@ -3924,12 +3990,15 @@
         <v>3.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>266</v>
@@ -4022,12 +4091,15 @@
         <v>11.0</v>
       </c>
       <c r="AF5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>267</v>
@@ -4121,11 +4193,14 @@
       </c>
       <c r="AF6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>268</v>
@@ -4219,11 +4294,14 @@
       </c>
       <c r="AF7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>269</v>
@@ -4316,12 +4394,15 @@
         <v>19.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>270</v>
@@ -4414,12 +4495,15 @@
         <v>16.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>271</v>
@@ -4513,11 +4597,14 @@
       </c>
       <c r="AF10" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>272</v>
@@ -4611,11 +4698,14 @@
       </c>
       <c r="AF11" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>273</v>
@@ -4708,12 +4798,15 @@
         <v>20.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>274</v>
@@ -4807,11 +4900,14 @@
       </c>
       <c r="AF13" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>275</v>
@@ -4905,11 +5001,14 @@
       </c>
       <c r="AF14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>276</v>
@@ -5003,11 +5102,14 @@
       </c>
       <c r="AF15" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>277</v>
@@ -5101,11 +5203,14 @@
       </c>
       <c r="AF16" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>278</v>
@@ -5198,12 +5303,15 @@
         <v>18.0</v>
       </c>
       <c r="AF17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>279</v>
@@ -5296,12 +5404,15 @@
         <v>17.0</v>
       </c>
       <c r="AF18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>280</v>
@@ -5394,12 +5505,15 @@
         <v>5.0</v>
       </c>
       <c r="AF19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>281</v>
@@ -5492,12 +5606,15 @@
         <v>1.0</v>
       </c>
       <c r="AF20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>282</v>
@@ -5590,6 +5707,9 @@
         <v>15.0</v>
       </c>
       <c r="AF21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -5695,10 +5815,13 @@
       <c r="AD1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>284</v>
@@ -5785,12 +5908,15 @@
         <v>3.0</v>
       </c>
       <c r="AD2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>285</v>
@@ -5877,12 +6003,15 @@
         <v>14.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>286</v>
@@ -5969,12 +6098,15 @@
         <v>4.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>287</v>
@@ -6061,12 +6193,15 @@
         <v>7.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>288</v>
@@ -6153,12 +6288,15 @@
         <v>12.0</v>
       </c>
       <c r="AD6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>289</v>
@@ -6245,12 +6383,15 @@
         <v>6.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>290</v>
@@ -6337,12 +6478,15 @@
         <v>11.0</v>
       </c>
       <c r="AD8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>291</v>
@@ -6429,12 +6573,15 @@
         <v>13.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>292</v>
@@ -6521,12 +6668,15 @@
         <v>8.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>293</v>
@@ -6613,12 +6763,15 @@
         <v>1.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>294</v>
@@ -6705,12 +6858,15 @@
         <v>5.0</v>
       </c>
       <c r="AD12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>295</v>
@@ -6797,12 +6953,15 @@
         <v>9.0</v>
       </c>
       <c r="AD13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>296</v>
@@ -6889,12 +7048,15 @@
         <v>2.0</v>
       </c>
       <c r="AD14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>297</v>
@@ -6981,6 +7143,9 @@
         <v>10.0</v>
       </c>
       <c r="AD15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -7092,10 +7257,13 @@
       <c r="AF1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>299</v>
@@ -7188,12 +7356,15 @@
         <v>6.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>300</v>
@@ -7286,12 +7457,15 @@
         <v>12.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>301</v>
@@ -7384,12 +7558,15 @@
         <v>17.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>302</v>
@@ -7482,12 +7659,15 @@
         <v>13.0</v>
       </c>
       <c r="AF5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>303</v>
@@ -7580,12 +7760,15 @@
         <v>8.0</v>
       </c>
       <c r="AF6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>304</v>
@@ -7678,12 +7861,15 @@
         <v>18.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>305</v>
@@ -7776,12 +7962,15 @@
         <v>3.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>306</v>
@@ -7874,12 +8063,15 @@
         <v>4.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>307</v>
@@ -7972,12 +8164,15 @@
         <v>5.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>308</v>
@@ -8070,12 +8265,15 @@
         <v>1.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>309</v>
@@ -8168,12 +8366,15 @@
         <v>2.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>310</v>
@@ -8266,12 +8467,15 @@
         <v>7.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>311</v>
@@ -8364,12 +8568,15 @@
         <v>20.0</v>
       </c>
       <c r="AF14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>312</v>
@@ -8462,12 +8669,15 @@
         <v>16.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>313</v>
@@ -8561,11 +8771,14 @@
       </c>
       <c r="AF16" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>314</v>
@@ -8658,12 +8871,15 @@
         <v>15.0</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>315</v>
@@ -8756,12 +8972,15 @@
         <v>11.0</v>
       </c>
       <c r="AF18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>316</v>
@@ -8854,12 +9073,15 @@
         <v>14.0</v>
       </c>
       <c r="AF19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>317</v>
@@ -8952,12 +9174,15 @@
         <v>19.0</v>
       </c>
       <c r="AF20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>318</v>
@@ -9051,6 +9276,9 @@
       </c>
       <c r="AF21" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -9164,10 +9392,13 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>320</v>
@@ -9263,12 +9494,15 @@
         <v>16.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>321</v>
@@ -9365,11 +9599,14 @@
       </c>
       <c r="AG3" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>322</v>
@@ -9465,12 +9702,15 @@
         <v>6.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>323</v>
@@ -9567,11 +9807,14 @@
       </c>
       <c r="AG5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>324</v>
@@ -9667,12 +9910,15 @@
         <v>10.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>325</v>
@@ -9769,11 +10015,14 @@
       </c>
       <c r="AG7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>326</v>
@@ -9869,12 +10118,15 @@
         <v>17.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>327</v>
@@ -9970,12 +10222,15 @@
         <v>2.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>328</v>
@@ -10071,12 +10326,15 @@
         <v>19.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>329</v>
@@ -10173,11 +10431,14 @@
       </c>
       <c r="AG11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>330</v>
@@ -10274,11 +10535,14 @@
       </c>
       <c r="AG12" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>331</v>
@@ -10375,11 +10639,14 @@
       </c>
       <c r="AG13" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>332</v>
@@ -10475,12 +10742,15 @@
         <v>13.0</v>
       </c>
       <c r="AG14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>333</v>
@@ -10576,12 +10846,15 @@
         <v>9.0</v>
       </c>
       <c r="AG15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH15" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>334</v>
@@ -10678,11 +10951,14 @@
       </c>
       <c r="AG16" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>335</v>
@@ -10778,12 +11054,15 @@
         <v>20.0</v>
       </c>
       <c r="AG17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH17" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>336</v>
@@ -10880,11 +11159,14 @@
       </c>
       <c r="AG18" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>337</v>
@@ -10980,12 +11262,15 @@
         <v>15.0</v>
       </c>
       <c r="AG19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AH19" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>338</v>
@@ -11081,12 +11366,15 @@
         <v>14.0</v>
       </c>
       <c r="AG20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AH20" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>339</v>
@@ -11182,6 +11470,9 @@
         <v>18.0</v>
       </c>
       <c r="AG21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AH21" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -11284,10 +11575,13 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>341</v>
@@ -11371,12 +11665,15 @@
         <v>1.0</v>
       </c>
       <c r="AC2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>342</v>
@@ -11461,11 +11758,14 @@
       </c>
       <c r="AC3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>343</v>
@@ -11550,11 +11850,14 @@
       </c>
       <c r="AC4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>344</v>
@@ -11638,12 +11941,15 @@
         <v>3.0</v>
       </c>
       <c r="AC5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>345</v>
@@ -11727,12 +12033,15 @@
         <v>15.0</v>
       </c>
       <c r="AC6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>346</v>
@@ -11816,12 +12125,15 @@
         <v>11.0</v>
       </c>
       <c r="AC7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>347</v>
@@ -11905,12 +12217,15 @@
         <v>9.0</v>
       </c>
       <c r="AC8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>348</v>
@@ -11994,12 +12309,15 @@
         <v>12.0</v>
       </c>
       <c r="AC9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>349</v>
@@ -12083,12 +12401,15 @@
         <v>13.0</v>
       </c>
       <c r="AC10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>350</v>
@@ -12173,11 +12494,14 @@
       </c>
       <c r="AC11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>351</v>
@@ -12261,12 +12585,15 @@
         <v>2.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>352</v>
@@ -12350,12 +12677,15 @@
         <v>17.0</v>
       </c>
       <c r="AC13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>353</v>
@@ -12440,11 +12770,14 @@
       </c>
       <c r="AC14" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>354</v>
@@ -12529,11 +12862,14 @@
       </c>
       <c r="AC15" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>355</v>
@@ -12618,11 +12954,14 @@
       </c>
       <c r="AC16" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>356</v>
@@ -12706,12 +13045,15 @@
         <v>14.0</v>
       </c>
       <c r="AC17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>357</v>
@@ -12795,12 +13137,15 @@
         <v>16.0</v>
       </c>
       <c r="AC18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>358</v>
@@ -12884,6 +13229,9 @@
         <v>18.0</v>
       </c>
       <c r="AC19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -12986,10 +13334,13 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>360</v>
@@ -13073,12 +13424,15 @@
         <v>15.0</v>
       </c>
       <c r="AC2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>361</v>
@@ -13163,11 +13517,14 @@
       </c>
       <c r="AC3" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>362</v>
@@ -13251,12 +13608,15 @@
         <v>3.0</v>
       </c>
       <c r="AC4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>363</v>
@@ -13341,11 +13701,14 @@
       </c>
       <c r="AC5" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>364</v>
@@ -13429,12 +13792,15 @@
         <v>7.0</v>
       </c>
       <c r="AC6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>365</v>
@@ -13519,11 +13885,14 @@
       </c>
       <c r="AC7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>366</v>
@@ -13607,12 +13976,15 @@
         <v>5.0</v>
       </c>
       <c r="AC8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>367</v>
@@ -13696,12 +14068,15 @@
         <v>6.0</v>
       </c>
       <c r="AC9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>368</v>
@@ -13785,12 +14160,15 @@
         <v>8.0</v>
       </c>
       <c r="AC10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>369</v>
@@ -13875,11 +14253,14 @@
       </c>
       <c r="AC11" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>370</v>
@@ -13963,12 +14344,15 @@
         <v>9.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>371</v>
@@ -14053,11 +14437,14 @@
       </c>
       <c r="AC13" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>372</v>
@@ -14141,12 +14528,15 @@
         <v>1.0</v>
       </c>
       <c r="AC14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>373</v>
@@ -14230,12 +14620,15 @@
         <v>10.0</v>
       </c>
       <c r="AC15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>374</v>
@@ -14319,12 +14712,15 @@
         <v>4.0</v>
       </c>
       <c r="AC16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>375</v>
@@ -14408,12 +14804,15 @@
         <v>2.0</v>
       </c>
       <c r="AC17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>376</v>
@@ -14497,12 +14896,15 @@
         <v>16.0</v>
       </c>
       <c r="AC18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>377</v>
@@ -14587,6 +14989,9 @@
       </c>
       <c r="AC19" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -14694,10 +15099,13 @@
       <c r="AE1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>379</v>
@@ -14787,12 +15195,15 @@
         <v>19.0</v>
       </c>
       <c r="AE2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>380</v>
@@ -14882,12 +15293,15 @@
         <v>8.0</v>
       </c>
       <c r="AE3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF3" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>381</v>
@@ -14978,11 +15392,14 @@
       </c>
       <c r="AE4" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>382</v>
@@ -15073,11 +15490,14 @@
       </c>
       <c r="AE5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>383</v>
@@ -15167,12 +15587,15 @@
         <v>5.0</v>
       </c>
       <c r="AE6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>384</v>
@@ -15262,12 +15685,15 @@
         <v>18.0</v>
       </c>
       <c r="AE7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>385</v>
@@ -15357,12 +15783,15 @@
         <v>10.0</v>
       </c>
       <c r="AE8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>386</v>
@@ -15453,11 +15882,14 @@
       </c>
       <c r="AE9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>387</v>
@@ -15547,12 +15979,15 @@
         <v>12.0</v>
       </c>
       <c r="AE10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>388</v>
@@ -15642,12 +16077,15 @@
         <v>15.0</v>
       </c>
       <c r="AE11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF11" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>389</v>
@@ -15737,12 +16175,15 @@
         <v>17.0</v>
       </c>
       <c r="AE12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>390</v>
@@ -15832,12 +16273,15 @@
         <v>20.0</v>
       </c>
       <c r="AE13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF13" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>391</v>
@@ -15927,12 +16371,15 @@
         <v>16.0</v>
       </c>
       <c r="AE14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF14" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>392</v>
@@ -16022,12 +16469,15 @@
         <v>11.0</v>
       </c>
       <c r="AE15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF15" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>393</v>
@@ -16117,12 +16567,15 @@
         <v>1.0</v>
       </c>
       <c r="AE16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>394</v>
@@ -16213,11 +16666,14 @@
       </c>
       <c r="AE17" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>395</v>
@@ -16307,12 +16763,15 @@
         <v>6.0</v>
       </c>
       <c r="AE18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AF18" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>396</v>
@@ -16402,12 +16861,15 @@
         <v>9.0</v>
       </c>
       <c r="AE19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AF19" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>397</v>
@@ -16497,12 +16959,15 @@
         <v>14.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>398</v>
@@ -16592,6 +17057,9 @@
         <v>7.0</v>
       </c>
       <c r="AE21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AF21" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -16710,12 +17178,15 @@
         <v>32</v>
       </c>
       <c r="AI1" t="s">
-        <v>131</v>
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>400</v>
@@ -16817,12 +17288,15 @@
         <v>22.0</v>
       </c>
       <c r="AI2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>401</v>
@@ -16925,11 +17399,14 @@
       </c>
       <c r="AI3" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>402</v>
@@ -17032,11 +17509,14 @@
       </c>
       <c r="AI4" t="n">
         <v>21.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>403</v>
@@ -17138,12 +17618,15 @@
         <v>11.0</v>
       </c>
       <c r="AI5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>404</v>
@@ -17245,12 +17728,15 @@
         <v>7.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>405</v>
@@ -17352,12 +17838,15 @@
         <v>1.0</v>
       </c>
       <c r="AI7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>406</v>
@@ -17460,11 +17949,14 @@
       </c>
       <c r="AI8" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>407</v>
@@ -17566,12 +18058,15 @@
         <v>5.0</v>
       </c>
       <c r="AI9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>408</v>
@@ -17673,12 +18168,15 @@
         <v>15.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>409</v>
@@ -17780,12 +18278,15 @@
         <v>10.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>410</v>
@@ -17887,12 +18388,15 @@
         <v>9.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>411</v>
@@ -17995,11 +18499,14 @@
       </c>
       <c r="AI13" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>412</v>
@@ -18102,11 +18609,14 @@
       </c>
       <c r="AI14" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>413</v>
@@ -18208,12 +18718,15 @@
         <v>17.0</v>
       </c>
       <c r="AI15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>414</v>
@@ -18316,11 +18829,14 @@
       </c>
       <c r="AI16" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>415</v>
@@ -18423,11 +18939,14 @@
       </c>
       <c r="AI17" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>416</v>
@@ -18530,11 +19049,14 @@
       </c>
       <c r="AI18" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>417</v>
@@ -18637,11 +19159,14 @@
       </c>
       <c r="AI19" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>418</v>
@@ -18743,12 +19268,15 @@
         <v>18.0</v>
       </c>
       <c r="AI20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>419</v>
@@ -18850,12 +19378,15 @@
         <v>4.0</v>
       </c>
       <c r="AI21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
         <v>420</v>
@@ -18958,11 +19489,14 @@
       </c>
       <c r="AI22" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>421</v>
@@ -19065,6 +19599,9 @@
       </c>
       <c r="AI23" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -19178,10 +19715,13 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>423</v>
@@ -19278,11 +19818,14 @@
       </c>
       <c r="AG2" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>424</v>
@@ -19378,12 +19921,15 @@
         <v>1.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>425</v>
@@ -19479,12 +20025,15 @@
         <v>12.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>426</v>
@@ -19580,12 +20129,15 @@
         <v>6.0</v>
       </c>
       <c r="AG5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>427</v>
@@ -19681,12 +20233,15 @@
         <v>3.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>428</v>
@@ -19783,11 +20338,14 @@
       </c>
       <c r="AG7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>429</v>
@@ -19884,11 +20442,14 @@
       </c>
       <c r="AG8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>430</v>
@@ -19985,11 +20546,14 @@
       </c>
       <c r="AG9" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>431</v>
@@ -20085,12 +20649,15 @@
         <v>2.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>432</v>
@@ -20186,12 +20753,15 @@
         <v>8.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>433</v>
@@ -20287,12 +20857,15 @@
         <v>11.0</v>
       </c>
       <c r="AG12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AH12" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>434</v>
@@ -20389,6 +20962,9 @@
       </c>
       <c r="AG13" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -20502,10 +21078,13 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>436</v>
@@ -20601,12 +21180,15 @@
         <v>2.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>437</v>
@@ -20702,12 +21284,15 @@
         <v>8.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>438</v>
@@ -20803,12 +21388,15 @@
         <v>9.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>439</v>
@@ -20904,12 +21492,15 @@
         <v>6.0</v>
       </c>
       <c r="AG5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>440</v>
@@ -21005,12 +21596,15 @@
         <v>3.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>441</v>
@@ -21106,12 +21700,15 @@
         <v>1.0</v>
       </c>
       <c r="AG7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>442</v>
@@ -21207,12 +21804,15 @@
         <v>7.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>443</v>
@@ -21308,12 +21908,15 @@
         <v>4.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>444</v>
@@ -21409,12 +22012,15 @@
         <v>10.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>445</v>
@@ -21510,6 +22116,9 @@
         <v>5.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -21529,7 +22138,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -21611,14 +22220,17 @@
       </c>
       <c r="AC1" t="s">
         <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -21699,15 +22311,18 @@
         <v>14.0</v>
       </c>
       <c r="AC2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -21788,15 +22403,18 @@
         <v>1.0</v>
       </c>
       <c r="AC3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -21877,15 +22495,18 @@
         <v>15.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
         <v>14.0</v>
@@ -21966,15 +22587,18 @@
         <v>11.0</v>
       </c>
       <c r="AC5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22055,15 +22679,18 @@
         <v>2.0</v>
       </c>
       <c r="AC6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -22144,15 +22771,18 @@
         <v>9.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -22233,15 +22863,18 @@
         <v>7.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -22323,14 +22956,17 @@
       </c>
       <c r="AC9" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -22411,15 +23047,18 @@
         <v>18.0</v>
       </c>
       <c r="AC10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -22500,15 +23139,18 @@
         <v>16.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -22589,15 +23231,18 @@
         <v>5.0</v>
       </c>
       <c r="AC12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -22678,15 +23323,18 @@
         <v>4.0</v>
       </c>
       <c r="AC13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -22767,15 +23415,18 @@
         <v>10.0</v>
       </c>
       <c r="AC14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -22857,14 +23508,17 @@
       </c>
       <c r="AC15" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -22946,14 +23600,17 @@
       </c>
       <c r="AC16" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -23034,15 +23691,18 @@
         <v>17.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -23123,15 +23783,18 @@
         <v>8.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
         <v>6.0</v>
@@ -23213,6 +23876,9 @@
       </c>
       <c r="AC19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -23326,10 +23992,13 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>447</v>
@@ -23425,12 +24094,15 @@
         <v>2.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>448</v>
@@ -23526,12 +24198,15 @@
         <v>7.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>449</v>
@@ -23627,12 +24302,15 @@
         <v>6.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>450</v>
@@ -23728,12 +24406,15 @@
         <v>1.0</v>
       </c>
       <c r="AG5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>451</v>
@@ -23829,12 +24510,15 @@
         <v>9.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>452</v>
@@ -23930,12 +24614,15 @@
         <v>10.0</v>
       </c>
       <c r="AG7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>453</v>
@@ -24031,12 +24718,15 @@
         <v>5.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>454</v>
@@ -24132,12 +24822,15 @@
         <v>3.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>455</v>
@@ -24233,12 +24926,15 @@
         <v>8.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>456</v>
@@ -24334,6 +25030,9 @@
         <v>4.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -24448,10 +25147,13 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>458</v>
@@ -24547,12 +25249,15 @@
         <v>8.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>459</v>
@@ -24648,12 +25353,15 @@
         <v>2.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>460</v>
@@ -24749,12 +25457,15 @@
         <v>10.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>461</v>
@@ -24850,12 +25561,15 @@
         <v>4.0</v>
       </c>
       <c r="AG5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>462</v>
@@ -24951,12 +25665,15 @@
         <v>9.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>463</v>
@@ -25052,12 +25769,15 @@
         <v>3.0</v>
       </c>
       <c r="AG7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>464</v>
@@ -25153,12 +25873,15 @@
         <v>1.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>465</v>
@@ -25254,12 +25977,15 @@
         <v>5.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>466</v>
@@ -25355,12 +26081,15 @@
         <v>7.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>467</v>
@@ -25456,6 +26185,9 @@
         <v>6.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -25567,10 +26299,13 @@
       <c r="AF1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>469</v>
@@ -25664,11 +26399,14 @@
       </c>
       <c r="AF2" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>470</v>
@@ -25761,12 +26499,15 @@
         <v>5.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>471</v>
@@ -25859,12 +26600,15 @@
         <v>17.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>472</v>
@@ -25958,11 +26702,14 @@
       </c>
       <c r="AF5" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>473</v>
@@ -26055,12 +26802,15 @@
         <v>8.0</v>
       </c>
       <c r="AF6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>474</v>
@@ -26154,11 +26904,14 @@
       </c>
       <c r="AF7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>475</v>
@@ -26251,12 +27004,15 @@
         <v>3.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>476</v>
@@ -26350,11 +27106,14 @@
       </c>
       <c r="AF9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>477</v>
@@ -26448,11 +27207,14 @@
       </c>
       <c r="AF10" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>478</v>
@@ -26545,12 +27307,15 @@
         <v>15.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>479</v>
@@ -26643,12 +27408,15 @@
         <v>18.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>480</v>
@@ -26741,12 +27509,15 @@
         <v>6.0</v>
       </c>
       <c r="AF13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>481</v>
@@ -26840,11 +27611,14 @@
       </c>
       <c r="AF14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>482</v>
@@ -26938,11 +27712,14 @@
       </c>
       <c r="AF15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>483</v>
@@ -27035,12 +27812,15 @@
         <v>12.0</v>
       </c>
       <c r="AF16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>484</v>
@@ -27133,12 +27913,15 @@
         <v>2.0</v>
       </c>
       <c r="AF17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>485</v>
@@ -27231,12 +28014,15 @@
         <v>19.0</v>
       </c>
       <c r="AF18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>486</v>
@@ -27330,11 +28116,14 @@
       </c>
       <c r="AF19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>487</v>
@@ -27427,12 +28216,15 @@
         <v>1.0</v>
       </c>
       <c r="AF20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>488</v>
@@ -27525,6 +28317,9 @@
         <v>20.0</v>
       </c>
       <c r="AF21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -27544,7 +28339,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -27626,14 +28421,17 @@
       </c>
       <c r="AC1" t="s">
         <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -27714,15 +28512,18 @@
         <v>1.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -27803,15 +28604,18 @@
         <v>16.0</v>
       </c>
       <c r="AC3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -27892,15 +28696,18 @@
         <v>17.0</v>
       </c>
       <c r="AC4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -27981,15 +28788,18 @@
         <v>11.0</v>
       </c>
       <c r="AC5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -28071,14 +28881,17 @@
       </c>
       <c r="AC6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -28159,15 +28972,18 @@
         <v>12.0</v>
       </c>
       <c r="AC7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -28249,14 +29065,17 @@
       </c>
       <c r="AC8" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -28338,14 +29157,17 @@
       </c>
       <c r="AC9" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -28426,15 +29248,18 @@
         <v>14.0</v>
       </c>
       <c r="AC10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -28515,15 +29340,18 @@
         <v>18.0</v>
       </c>
       <c r="AC11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -28605,14 +29433,17 @@
       </c>
       <c r="AC12" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -28693,15 +29524,18 @@
         <v>4.0</v>
       </c>
       <c r="AC13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -28783,14 +29617,17 @@
       </c>
       <c r="AC14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" t="n">
         <v>5.0</v>
@@ -28872,14 +29709,17 @@
       </c>
       <c r="AC15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -28960,15 +29800,18 @@
         <v>15.0</v>
       </c>
       <c r="AC16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -29049,15 +29892,18 @@
         <v>5.0</v>
       </c>
       <c r="AC17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -29139,14 +29985,17 @@
       </c>
       <c r="AC18" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -29228,6 +30077,9 @@
       </c>
       <c r="AC19" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -29246,7 +30098,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -29334,14 +30186,17 @@
       </c>
       <c r="AE1" t="s">
         <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -29428,15 +30283,18 @@
         <v>4.0</v>
       </c>
       <c r="AE2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -29524,14 +30382,17 @@
       </c>
       <c r="AE3" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -29619,14 +30480,17 @@
       </c>
       <c r="AE4" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -29713,15 +30577,18 @@
         <v>11.0</v>
       </c>
       <c r="AE5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AF5" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -29808,15 +30675,18 @@
         <v>19.0</v>
       </c>
       <c r="AE6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -29903,15 +30773,18 @@
         <v>3.0</v>
       </c>
       <c r="AE7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -29998,15 +30871,18 @@
         <v>12.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -30093,15 +30969,18 @@
         <v>17.0</v>
       </c>
       <c r="AE9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF9" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -30188,15 +31067,18 @@
         <v>16.0</v>
       </c>
       <c r="AE10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -30283,15 +31165,18 @@
         <v>13.0</v>
       </c>
       <c r="AE11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF11" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -30378,15 +31263,18 @@
         <v>2.0</v>
       </c>
       <c r="AE12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -30473,15 +31361,18 @@
         <v>1.0</v>
       </c>
       <c r="AE13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF13" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -30568,15 +31459,18 @@
         <v>5.0</v>
       </c>
       <c r="AE14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AF14" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -30664,14 +31558,17 @@
       </c>
       <c r="AE15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -30758,15 +31655,18 @@
         <v>20.0</v>
       </c>
       <c r="AE16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF16" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -30854,14 +31754,17 @@
       </c>
       <c r="AE17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" t="n">
         <v>8.0</v>
@@ -30948,15 +31851,18 @@
         <v>8.0</v>
       </c>
       <c r="AE18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AF18" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C19" t="n">
         <v>9.0</v>
@@ -31043,15 +31949,18 @@
         <v>18.0</v>
       </c>
       <c r="AE19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF19" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" t="n">
         <v>10.0</v>
@@ -31138,15 +32047,18 @@
         <v>6.0</v>
       </c>
       <c r="AE20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AF20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -31233,6 +32145,9 @@
         <v>7.0</v>
       </c>
       <c r="AE21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF21" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -31252,7 +32167,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -31351,7 +32266,7 @@
         <v>32</v>
       </c>
       <c r="AI1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="AJ1" t="s">
         <v>132</v>
@@ -31367,14 +32282,17 @@
       </c>
       <c r="AN1" t="s">
         <v>136</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -31488,15 +32406,18 @@
         <v>23.0</v>
       </c>
       <c r="AN2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AO2" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -31611,14 +32532,17 @@
       </c>
       <c r="AN3" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -31732,15 +32656,18 @@
         <v>4.0</v>
       </c>
       <c r="AN4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO4" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -31854,15 +32781,18 @@
         <v>13.0</v>
       </c>
       <c r="AN5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -31976,15 +32906,18 @@
         <v>2.0</v>
       </c>
       <c r="AN6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -32099,14 +33032,17 @@
       </c>
       <c r="AN7" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -32221,14 +33157,17 @@
       </c>
       <c r="AN8" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -32342,15 +33281,18 @@
         <v>11.0</v>
       </c>
       <c r="AN9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AO9" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n">
         <v>12.0</v>
@@ -32465,14 +33407,17 @@
       </c>
       <c r="AN10" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -32586,15 +33531,18 @@
         <v>1.0</v>
       </c>
       <c r="AN11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -32708,15 +33656,18 @@
         <v>3.0</v>
       </c>
       <c r="AN12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -32830,15 +33781,18 @@
         <v>21.0</v>
       </c>
       <c r="AN13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AO13" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -32952,15 +33906,18 @@
         <v>5.0</v>
       </c>
       <c r="AN14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -33075,14 +34032,17 @@
       </c>
       <c r="AN15" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -33196,15 +34156,18 @@
         <v>9.0</v>
       </c>
       <c r="AN16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -33319,14 +34282,17 @@
       </c>
       <c r="AN17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -33440,15 +34406,18 @@
         <v>24.0</v>
       </c>
       <c r="AN18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -33563,14 +34532,17 @@
       </c>
       <c r="AN19" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n">
         <v>17.0</v>
@@ -33685,14 +34657,17 @@
       </c>
       <c r="AN20" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -33806,15 +34781,18 @@
         <v>22.0</v>
       </c>
       <c r="AN21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -33929,14 +34907,17 @@
       </c>
       <c r="AN22" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" t="n">
         <v>6.0</v>
@@ -34051,14 +35032,17 @@
       </c>
       <c r="AN23" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -34172,15 +35156,18 @@
         <v>18.0</v>
       </c>
       <c r="AN24" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AO24" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -34294,6 +35281,9 @@
         <v>12.0</v>
       </c>
       <c r="AN25" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AO25" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -34313,7 +35303,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -34412,7 +35402,7 @@
         <v>32</v>
       </c>
       <c r="AI1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="AJ1" t="s">
         <v>132</v>
@@ -34430,7 +35420,7 @@
         <v>136</v>
       </c>
       <c r="AO1" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="AP1" t="s">
         <v>167</v>
@@ -34438,7 +35428,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>168</v>
@@ -34566,7 +35556,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>169</v>
@@ -34689,12 +35679,12 @@
         <v>21.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>170</v>
@@ -34817,12 +35807,12 @@
         <v>11.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>171</v>
@@ -34950,7 +35940,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>172</v>
@@ -35073,12 +36063,12 @@
         <v>15.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>173</v>
@@ -35201,12 +36191,12 @@
         <v>14.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>174</v>
@@ -35329,12 +36319,12 @@
         <v>13.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>175</v>
@@ -35462,7 +36452,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>176</v>
@@ -35590,7 +36580,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>177</v>
@@ -35713,12 +36703,12 @@
         <v>20.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>178</v>
@@ -35841,12 +36831,12 @@
         <v>19.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>179</v>
@@ -35974,7 +36964,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>180</v>
@@ -36102,7 +37092,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>181</v>
@@ -36230,7 +37220,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>182</v>
@@ -36353,12 +37343,12 @@
         <v>22.0</v>
       </c>
       <c r="AP16" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>183</v>
@@ -36481,12 +37471,12 @@
         <v>5.0</v>
       </c>
       <c r="AP17" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>184</v>
@@ -36614,7 +37604,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>185</v>
@@ -36737,12 +37727,12 @@
         <v>10.0</v>
       </c>
       <c r="AP19" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>186</v>
@@ -36870,7 +37860,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>187</v>
@@ -36993,12 +37983,12 @@
         <v>6.0</v>
       </c>
       <c r="AP21" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
         <v>188</v>
@@ -37126,7 +38116,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>189</v>
@@ -37249,12 +38239,12 @@
         <v>7.0</v>
       </c>
       <c r="AP23" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
         <v>190</v>
@@ -37382,7 +38372,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
         <v>191</v>
@@ -37623,7 +38613,7 @@
         <v>32</v>
       </c>
       <c r="AI1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="AJ1" t="s">
         <v>132</v>
@@ -37641,12 +38631,15 @@
         <v>136</v>
       </c>
       <c r="AO1" t="s">
-        <v>166</v>
+        <v>137</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>193</v>
@@ -37766,12 +38759,15 @@
         <v>21.0</v>
       </c>
       <c r="AO2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AP2" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>194</v>
@@ -37892,11 +38888,14 @@
       </c>
       <c r="AO3" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>195</v>
@@ -38016,12 +39015,15 @@
         <v>4.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>196</v>
@@ -38142,11 +39144,14 @@
       </c>
       <c r="AO5" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>197</v>
@@ -38266,12 +39271,15 @@
         <v>19.0</v>
       </c>
       <c r="AO6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AP6" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>198</v>
@@ -38391,12 +39399,15 @@
         <v>12.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>199</v>
@@ -38516,12 +39527,15 @@
         <v>2.0</v>
       </c>
       <c r="AO8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP8" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>200</v>
@@ -38641,12 +39655,15 @@
         <v>1.0</v>
       </c>
       <c r="AO9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>201</v>
@@ -38767,11 +39784,14 @@
       </c>
       <c r="AO10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>202</v>
@@ -38891,12 +39911,15 @@
         <v>13.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
@@ -39017,11 +40040,14 @@
       </c>
       <c r="AO12" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>204</v>
@@ -39141,12 +40167,15 @@
         <v>7.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>205</v>
@@ -39266,12 +40295,15 @@
         <v>5.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>206</v>
@@ -39391,12 +40423,15 @@
         <v>3.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>207</v>
@@ -39516,12 +40551,15 @@
         <v>23.0</v>
       </c>
       <c r="AO16" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>208</v>
@@ -39641,12 +40679,15 @@
         <v>10.0</v>
       </c>
       <c r="AO17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP17" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>209</v>
@@ -39766,12 +40807,15 @@
         <v>20.0</v>
       </c>
       <c r="AO18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AP18" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>210</v>
@@ -39891,12 +40935,15 @@
         <v>11.0</v>
       </c>
       <c r="AO19" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>211</v>
@@ -40016,12 +41063,15 @@
         <v>24.0</v>
       </c>
       <c r="AO20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AP20" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>212</v>
@@ -40141,12 +41191,15 @@
         <v>22.0</v>
       </c>
       <c r="AO21" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
         <v>213</v>
@@ -40266,12 +41319,15 @@
         <v>8.0</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>214</v>
@@ -40391,12 +41447,15 @@
         <v>9.0</v>
       </c>
       <c r="AO23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AP23" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
         <v>215</v>
@@ -40516,12 +41575,15 @@
         <v>6.0</v>
       </c>
       <c r="AO24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AP24" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
         <v>216</v>
@@ -40642,6 +41704,9 @@
       </c>
       <c r="AO25" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -40759,7 +41824,7 @@
         <v>32</v>
       </c>
       <c r="AI1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="AJ1" t="s">
         <v>132</v>
@@ -40767,7 +41832,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
@@ -40877,7 +41942,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>219</v>
@@ -40987,7 +42052,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>220</v>
@@ -41097,7 +42162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>221</v>
@@ -41207,7 +42272,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>222</v>
@@ -41317,7 +42382,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>223</v>
@@ -41422,12 +42487,12 @@
         <v>2.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>224</v>
@@ -41537,7 +42602,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>225</v>
@@ -41647,7 +42712,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>226</v>
@@ -41752,12 +42817,12 @@
         <v>19.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>227</v>
@@ -41867,7 +42932,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>228</v>
@@ -41972,12 +43037,12 @@
         <v>3.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>229</v>
@@ -42087,7 +43152,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>230</v>
@@ -42192,12 +43257,12 @@
         <v>18.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>231</v>
@@ -42307,7 +43372,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>232</v>
@@ -42417,7 +43482,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>233</v>
@@ -42527,7 +43592,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>234</v>
@@ -42637,7 +43702,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>235</v>
@@ -42747,7 +43812,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>236</v>
@@ -42852,12 +43917,12 @@
         <v>17.0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>237</v>
@@ -42967,7 +44032,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
         <v>238</v>
@@ -43077,7 +44142,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>239</v>
@@ -43182,12 +44247,12 @@
         <v>4.0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
         <v>240</v>
@@ -43400,10 +44465,13 @@
       <c r="AE1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>242</v>
@@ -43493,12 +44561,15 @@
         <v>14.0</v>
       </c>
       <c r="AE2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>243</v>
@@ -43589,11 +44660,14 @@
       </c>
       <c r="AE3" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>244</v>
@@ -43684,11 +44758,14 @@
       </c>
       <c r="AE4" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>245</v>
@@ -43778,12 +44855,15 @@
         <v>15.0</v>
       </c>
       <c r="AE5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF5" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>246</v>
@@ -43874,11 +44954,14 @@
       </c>
       <c r="AE6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>247</v>
@@ -43968,12 +45051,15 @@
         <v>6.0</v>
       </c>
       <c r="AE7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>248</v>
@@ -44063,12 +45149,15 @@
         <v>17.0</v>
       </c>
       <c r="AE8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF8" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>249</v>
@@ -44159,11 +45248,14 @@
       </c>
       <c r="AE9" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>250</v>
@@ -44253,12 +45345,15 @@
         <v>3.0</v>
       </c>
       <c r="AE10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>251</v>
@@ -44349,11 +45444,14 @@
       </c>
       <c r="AE11" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>252</v>
@@ -44444,11 +45542,14 @@
       </c>
       <c r="AE12" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>253</v>
@@ -44538,12 +45639,15 @@
         <v>11.0</v>
       </c>
       <c r="AE13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF13" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>254</v>
@@ -44634,11 +45738,14 @@
       </c>
       <c r="AE14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>255</v>
@@ -44728,12 +45835,15 @@
         <v>2.0</v>
       </c>
       <c r="AE15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AF15" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>256</v>
@@ -44823,12 +45933,15 @@
         <v>1.0</v>
       </c>
       <c r="AE16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>257</v>
@@ -44919,11 +46032,14 @@
       </c>
       <c r="AE17" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>258</v>
@@ -45013,12 +46129,15 @@
         <v>4.0</v>
       </c>
       <c r="AE18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AF18" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>259</v>
@@ -45108,12 +46227,15 @@
         <v>18.0</v>
       </c>
       <c r="AE19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF19" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>260</v>
@@ -45203,12 +46325,15 @@
         <v>5.0</v>
       </c>
       <c r="AE20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AF20" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>261</v>
@@ -45298,6 +46423,9 @@
         <v>16.0</v>
       </c>
       <c r="AE21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AF21" t="n">
         <v>15.0</v>
       </c>
     </row>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="491">
   <si>
     <t>b1_teams</t>
   </si>
@@ -137,6 +137,9 @@
     <t>X33</t>
   </si>
   <si>
+    <t>X34</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -431,9 +434,6 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X34</t>
-  </si>
-  <si>
     <t>X35</t>
   </si>
   <si>
@@ -449,6 +449,12 @@
     <t>X39</t>
   </si>
   <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>X41</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -536,7 +542,7 @@
     <t>e2_teams</t>
   </si>
   <si>
-    <t>X40</t>
+    <t>X42</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -1654,13 +1660,16 @@
       <c r="AI1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -1760,14 +1769,17 @@
       </c>
       <c r="AI2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
         <v>14.0</v>
@@ -1867,14 +1879,17 @@
       </c>
       <c r="AI3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
         <v>15.0</v>
@@ -1973,15 +1988,18 @@
         <v>18.0</v>
       </c>
       <c r="AI4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -2047,7 +2065,7 @@
         <v>11.0</v>
       </c>
       <c r="X5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y5" t="n">
         <v>10.0</v>
@@ -2059,16 +2077,16 @@
         <v>8.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AF5" t="n">
         <v>9.0</v>
@@ -2080,15 +2098,18 @@
         <v>10.0</v>
       </c>
       <c r="AI5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2175,7 +2196,7 @@
         <v>5.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AF6" t="n">
         <v>6.0</v>
@@ -2188,14 +2209,17 @@
       </c>
       <c r="AI6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -2294,15 +2318,18 @@
         <v>2.0</v>
       </c>
       <c r="AI7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2374,7 +2401,7 @@
         <v>13.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA8" t="n">
         <v>14.0</v>
@@ -2401,15 +2428,18 @@
         <v>15.0</v>
       </c>
       <c r="AI8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -2484,10 +2514,10 @@
         <v>10.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC9" t="n">
         <v>8.0</v>
@@ -2508,15 +2538,18 @@
         <v>8.0</v>
       </c>
       <c r="AI9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -2615,15 +2648,18 @@
         <v>5.0</v>
       </c>
       <c r="AI10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -2701,36 +2737,39 @@
         <v>9.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AH11" t="n">
         <v>12.0</v>
       </c>
       <c r="AI11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -2817,7 +2856,7 @@
         <v>7.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF12" t="n">
         <v>7.0</v>
@@ -2830,14 +2869,17 @@
       </c>
       <c r="AI12" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -2909,7 +2951,7 @@
         <v>15.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA13" t="n">
         <v>15.0</v>
@@ -2930,21 +2972,24 @@
         <v>14.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AH13" t="n">
         <v>14.0</v>
       </c>
       <c r="AI13" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -3010,48 +3055,51 @@
         <v>10.0</v>
       </c>
       <c r="X14" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="AH14" t="n">
         <v>11.0</v>
       </c>
       <c r="AI14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -3150,15 +3198,18 @@
         <v>17.0</v>
       </c>
       <c r="AI15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -3224,16 +3275,16 @@
         <v>13.0</v>
       </c>
       <c r="X16" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB16" t="n">
         <v>12.0</v>
@@ -3242,13 +3293,13 @@
         <v>12.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AG16" t="n">
         <v>10.0</v>
@@ -3257,15 +3308,18 @@
         <v>9.0</v>
       </c>
       <c r="AI16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -3364,15 +3418,18 @@
         <v>1.0</v>
       </c>
       <c r="AI17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -3441,10 +3498,10 @@
         <v>14.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA18" t="n">
         <v>13.0</v>
@@ -3465,21 +3522,24 @@
         <v>13.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="AH18" t="n">
         <v>13.0</v>
       </c>
       <c r="AI18" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -3578,6 +3638,9 @@
         <v>16.0</v>
       </c>
       <c r="AI19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -3597,7 +3660,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3691,14 +3754,17 @@
       </c>
       <c r="AG1" t="s">
         <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -3791,15 +3857,18 @@
         <v>3.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -3893,14 +3962,17 @@
       </c>
       <c r="AG3" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -3994,14 +4066,17 @@
       </c>
       <c r="AG4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -4094,15 +4169,18 @@
         <v>14.0</v>
       </c>
       <c r="AG5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4195,15 +4273,18 @@
         <v>7.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C7" t="n">
         <v>17.0</v>
@@ -4297,14 +4378,17 @@
       </c>
       <c r="AG7" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -4397,15 +4481,18 @@
         <v>19.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C9" t="n">
         <v>18.0</v>
@@ -4499,14 +4586,17 @@
       </c>
       <c r="AG9" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -4600,14 +4690,17 @@
       </c>
       <c r="AG10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -4701,14 +4794,17 @@
       </c>
       <c r="AG11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C12" t="n">
         <v>19.0</v>
@@ -4801,15 +4897,18 @@
         <v>20.0</v>
       </c>
       <c r="AG12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH12" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -4902,15 +5001,18 @@
         <v>9.0</v>
       </c>
       <c r="AG13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AH13" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -5003,15 +5105,18 @@
         <v>10.0</v>
       </c>
       <c r="AG14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -5105,14 +5210,17 @@
       </c>
       <c r="AG15" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -5206,14 +5314,17 @@
       </c>
       <c r="AG16" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -5307,14 +5418,17 @@
       </c>
       <c r="AG17" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -5408,14 +5522,17 @@
       </c>
       <c r="AG18" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -5509,14 +5626,17 @@
       </c>
       <c r="AG19" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C20" t="n">
         <v>14.0</v>
@@ -5609,15 +5729,18 @@
         <v>1.0</v>
       </c>
       <c r="AG20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -5710,6 +5833,9 @@
         <v>15.0</v>
       </c>
       <c r="AG21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AH21" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -5729,7 +5855,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5817,14 +5943,17 @@
       </c>
       <c r="AE1" t="s">
         <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5912,14 +6041,17 @@
       </c>
       <c r="AE2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -6006,15 +6138,18 @@
         <v>14.0</v>
       </c>
       <c r="AE3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF3" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -6102,14 +6237,17 @@
       </c>
       <c r="AE4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
@@ -6196,15 +6334,18 @@
         <v>8.0</v>
       </c>
       <c r="AE5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF5" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -6291,15 +6432,18 @@
         <v>12.0</v>
       </c>
       <c r="AE6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -6386,15 +6530,18 @@
         <v>6.0</v>
       </c>
       <c r="AE7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -6481,15 +6628,18 @@
         <v>11.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C9" t="n">
         <v>13.0</v>
@@ -6576,15 +6726,18 @@
         <v>13.0</v>
       </c>
       <c r="AE9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AF9" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -6671,15 +6824,18 @@
         <v>7.0</v>
       </c>
       <c r="AE10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -6766,15 +6922,18 @@
         <v>1.0</v>
       </c>
       <c r="AE11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -6861,15 +7020,18 @@
         <v>5.0</v>
       </c>
       <c r="AE12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6956,15 +7118,18 @@
         <v>9.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -7051,15 +7216,18 @@
         <v>2.0</v>
       </c>
       <c r="AE14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -7146,7 +7314,10 @@
         <v>10.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -7165,7 +7336,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7259,14 +7430,17 @@
       </c>
       <c r="AG1" t="s">
         <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -7359,15 +7533,18 @@
         <v>6.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -7461,14 +7638,17 @@
       </c>
       <c r="AG3" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -7561,15 +7741,18 @@
         <v>17.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -7663,14 +7846,17 @@
       </c>
       <c r="AG5" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -7763,15 +7949,18 @@
         <v>8.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -7864,15 +8053,18 @@
         <v>18.0</v>
       </c>
       <c r="AG7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -7965,15 +8157,18 @@
         <v>3.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -8066,15 +8261,18 @@
         <v>4.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -8167,15 +8365,18 @@
         <v>5.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -8268,15 +8469,18 @@
         <v>1.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -8369,15 +8573,18 @@
         <v>2.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -8470,15 +8677,18 @@
         <v>7.0</v>
       </c>
       <c r="AG13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH13" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -8571,15 +8781,18 @@
         <v>20.0</v>
       </c>
       <c r="AG14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -8672,15 +8885,18 @@
         <v>16.0</v>
       </c>
       <c r="AG15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -8774,14 +8990,17 @@
       </c>
       <c r="AG16" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -8874,15 +9093,18 @@
         <v>14.0</v>
       </c>
       <c r="AG17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AH17" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -8975,15 +9197,18 @@
         <v>11.0</v>
       </c>
       <c r="AG18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AH18" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -9076,15 +9301,18 @@
         <v>15.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -9177,15 +9405,18 @@
         <v>19.0</v>
       </c>
       <c r="AG20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AH20" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -9279,6 +9510,9 @@
       </c>
       <c r="AG21" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -9297,7 +9531,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9394,14 +9628,20 @@
       </c>
       <c r="AH1" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -9497,15 +9737,21 @@
         <v>16.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -9601,15 +9847,21 @@
         <v>8.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -9706,14 +9958,20 @@
       </c>
       <c r="AH4" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -9810,14 +10068,20 @@
       </c>
       <c r="AH5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -9913,15 +10177,21 @@
         <v>10.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -10018,14 +10288,20 @@
       </c>
       <c r="AH7" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -10121,15 +10397,21 @@
         <v>17.0</v>
       </c>
       <c r="AH8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -10226,14 +10508,20 @@
       </c>
       <c r="AH9" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -10329,15 +10617,21 @@
         <v>19.0</v>
       </c>
       <c r="AH10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10433,15 +10727,21 @@
         <v>7.0</v>
       </c>
       <c r="AH11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -10538,14 +10838,20 @@
       </c>
       <c r="AH12" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -10642,14 +10948,20 @@
       </c>
       <c r="AH13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -10746,14 +11058,20 @@
       </c>
       <c r="AH14" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -10849,15 +11167,21 @@
         <v>9.0</v>
       </c>
       <c r="AH15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -10954,14 +11278,20 @@
       </c>
       <c r="AH16" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -11057,15 +11387,21 @@
         <v>20.0</v>
       </c>
       <c r="AH17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -11162,14 +11498,20 @@
       </c>
       <c r="AH18" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -11265,15 +11607,21 @@
         <v>15.0</v>
       </c>
       <c r="AH19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -11370,14 +11718,20 @@
       </c>
       <c r="AH20" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -11473,6 +11827,12 @@
         <v>18.0</v>
       </c>
       <c r="AH21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -11492,7 +11852,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11577,14 +11937,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -11668,15 +12031,18 @@
         <v>1.0</v>
       </c>
       <c r="AD2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -11761,14 +12127,17 @@
       </c>
       <c r="AD3" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -11852,15 +12221,18 @@
         <v>9.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -11944,15 +12316,18 @@
         <v>3.0</v>
       </c>
       <c r="AD5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -12036,15 +12411,18 @@
         <v>16.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -12128,15 +12506,18 @@
         <v>11.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -12220,15 +12601,18 @@
         <v>8.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -12313,14 +12697,17 @@
       </c>
       <c r="AD9" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -12404,15 +12791,18 @@
         <v>13.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -12496,15 +12886,18 @@
         <v>10.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -12588,15 +12981,18 @@
         <v>2.0</v>
       </c>
       <c r="AD12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C13" t="n">
         <v>15.0</v>
@@ -12681,14 +13077,17 @@
       </c>
       <c r="AD13" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -12773,14 +13172,17 @@
       </c>
       <c r="AD14" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C15" t="n">
         <v>7.0</v>
@@ -12865,14 +13267,17 @@
       </c>
       <c r="AD15" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -12957,14 +13362,17 @@
       </c>
       <c r="AD16" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C17" t="n">
         <v>9.0</v>
@@ -13048,15 +13456,18 @@
         <v>14.0</v>
       </c>
       <c r="AD17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -13140,15 +13551,18 @@
         <v>15.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -13233,6 +13647,9 @@
       </c>
       <c r="AD19" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -13251,7 +13668,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13336,14 +13753,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -13427,15 +13847,18 @@
         <v>15.0</v>
       </c>
       <c r="AD2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -13520,14 +13943,17 @@
       </c>
       <c r="AD3" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -13611,15 +14037,18 @@
         <v>3.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -13704,14 +14133,17 @@
       </c>
       <c r="AD5" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -13796,14 +14228,17 @@
       </c>
       <c r="AD6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -13887,15 +14322,18 @@
         <v>12.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -13979,15 +14417,18 @@
         <v>5.0</v>
       </c>
       <c r="AD8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -14071,15 +14512,18 @@
         <v>6.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -14164,14 +14608,17 @@
       </c>
       <c r="AD10" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -14256,14 +14703,17 @@
       </c>
       <c r="AD11" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -14348,14 +14798,17 @@
       </c>
       <c r="AD12" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -14439,15 +14892,18 @@
         <v>11.0</v>
       </c>
       <c r="AD13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -14531,15 +14987,18 @@
         <v>1.0</v>
       </c>
       <c r="AD14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -14624,14 +15083,17 @@
       </c>
       <c r="AD15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -14715,15 +15177,18 @@
         <v>4.0</v>
       </c>
       <c r="AD16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -14807,15 +15272,18 @@
         <v>2.0</v>
       </c>
       <c r="AD17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -14899,15 +15367,18 @@
         <v>16.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -14991,6 +15462,9 @@
         <v>14.0</v>
       </c>
       <c r="AD19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -15010,7 +15484,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15101,14 +15575,17 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -15198,15 +15675,18 @@
         <v>19.0</v>
       </c>
       <c r="AF2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -15296,15 +15776,18 @@
         <v>8.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -15394,15 +15877,18 @@
         <v>3.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -15492,15 +15978,18 @@
         <v>4.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -15590,15 +16079,18 @@
         <v>5.0</v>
       </c>
       <c r="AF6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -15689,14 +16181,17 @@
       </c>
       <c r="AF7" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C8" t="n">
         <v>17.0</v>
@@ -15787,14 +16282,17 @@
       </c>
       <c r="AF8" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -15884,15 +16382,18 @@
         <v>13.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -15983,14 +16484,17 @@
       </c>
       <c r="AF10" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -16080,15 +16584,18 @@
         <v>14.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -16178,15 +16685,18 @@
         <v>16.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -16276,15 +16786,18 @@
         <v>20.0</v>
       </c>
       <c r="AF13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -16375,14 +16888,17 @@
       </c>
       <c r="AF14" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C15" t="n">
         <v>14.0</v>
@@ -16473,14 +16989,17 @@
       </c>
       <c r="AF15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -16570,15 +17089,18 @@
         <v>1.0</v>
       </c>
       <c r="AF16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -16668,15 +17190,18 @@
         <v>2.0</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -16766,15 +17291,18 @@
         <v>6.0</v>
       </c>
       <c r="AF18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -16865,14 +17393,17 @@
       </c>
       <c r="AF19" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -16962,15 +17493,18 @@
         <v>15.0</v>
       </c>
       <c r="AF20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -17060,6 +17594,9 @@
         <v>7.0</v>
       </c>
       <c r="AF21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -17079,7 +17616,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17181,15 +17718,18 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
-        <v>132</v>
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -17291,15 +17831,18 @@
         <v>22.0</v>
       </c>
       <c r="AJ2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AK2" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -17401,15 +17944,18 @@
         <v>2.0</v>
       </c>
       <c r="AJ3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK3" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -17511,15 +18057,18 @@
         <v>21.0</v>
       </c>
       <c r="AJ4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AK4" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -17622,14 +18171,17 @@
       </c>
       <c r="AJ5" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C6" t="n">
         <v>19.0</v>
@@ -17732,14 +18284,17 @@
       </c>
       <c r="AJ6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C7" t="n">
         <v>20.0</v>
@@ -17841,15 +18396,18 @@
         <v>1.0</v>
       </c>
       <c r="AJ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C8" t="n">
         <v>21.0</v>
@@ -17951,15 +18509,18 @@
         <v>20.0</v>
       </c>
       <c r="AJ8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AK8" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -18062,14 +18623,17 @@
       </c>
       <c r="AJ9" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -18172,14 +18736,17 @@
       </c>
       <c r="AJ10" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -18282,14 +18849,17 @@
       </c>
       <c r="AJ11" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C12" t="n">
         <v>9.0</v>
@@ -18392,14 +18962,17 @@
       </c>
       <c r="AJ12" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C13" t="n">
         <v>22.0</v>
@@ -18502,14 +19075,17 @@
       </c>
       <c r="AJ13" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -18611,15 +19187,18 @@
         <v>15.0</v>
       </c>
       <c r="AJ14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AK14" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -18721,15 +19300,18 @@
         <v>18.0</v>
       </c>
       <c r="AJ15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AK15" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -18832,14 +19414,17 @@
       </c>
       <c r="AJ16" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -18941,15 +19526,18 @@
         <v>7.0</v>
       </c>
       <c r="AJ17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK17" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C18" t="n">
         <v>4.0</v>
@@ -19052,14 +19640,17 @@
       </c>
       <c r="AJ18" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -19161,15 +19752,18 @@
         <v>19.0</v>
       </c>
       <c r="AJ19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -19271,15 +19865,18 @@
         <v>17.0</v>
       </c>
       <c r="AJ20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -19382,14 +19979,17 @@
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -19491,15 +20091,18 @@
         <v>3.0</v>
       </c>
       <c r="AJ22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK22" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -19602,6 +20205,9 @@
       </c>
       <c r="AJ23" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -19620,7 +20226,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -19717,14 +20323,17 @@
       </c>
       <c r="AH1" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -19820,15 +20429,18 @@
         <v>10.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -19924,15 +20536,18 @@
         <v>1.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -20028,15 +20643,18 @@
         <v>12.0</v>
       </c>
       <c r="AH4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -20132,15 +20750,18 @@
         <v>4.0</v>
       </c>
       <c r="AH5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -20236,15 +20857,18 @@
         <v>3.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -20341,14 +20965,17 @@
       </c>
       <c r="AH7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -20445,14 +21072,17 @@
       </c>
       <c r="AH8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -20548,15 +21178,18 @@
         <v>7.0</v>
       </c>
       <c r="AH9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -20652,15 +21285,18 @@
         <v>2.0</v>
       </c>
       <c r="AH10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -20757,14 +21393,17 @@
       </c>
       <c r="AH11" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -20860,15 +21499,18 @@
         <v>11.0</v>
       </c>
       <c r="AH12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -20964,6 +21606,9 @@
         <v>9.0</v>
       </c>
       <c r="AH13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -20983,7 +21628,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -21080,14 +21725,17 @@
       </c>
       <c r="AH1" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -21183,15 +21831,18 @@
         <v>2.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -21287,15 +21938,18 @@
         <v>8.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -21391,15 +22045,18 @@
         <v>9.0</v>
       </c>
       <c r="AH4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -21496,14 +22153,17 @@
       </c>
       <c r="AH5" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -21599,15 +22259,18 @@
         <v>3.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21703,15 +22366,18 @@
         <v>1.0</v>
       </c>
       <c r="AH7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -21808,14 +22474,17 @@
       </c>
       <c r="AH8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -21911,15 +22580,18 @@
         <v>4.0</v>
       </c>
       <c r="AH9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -22015,15 +22687,18 @@
         <v>10.0</v>
       </c>
       <c r="AH10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -22119,6 +22794,9 @@
         <v>5.0</v>
       </c>
       <c r="AH11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -22138,7 +22816,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -22223,14 +22901,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -22311,18 +22992,21 @@
         <v>14.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="AD2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -22406,15 +23090,18 @@
         <v>1.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -22495,18 +23182,21 @@
         <v>15.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
         <v>14.0</v>
@@ -22584,21 +23274,24 @@
         <v>11.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AD5" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22682,15 +23375,18 @@
         <v>2.0</v>
       </c>
       <c r="AD6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -22774,15 +23470,18 @@
         <v>9.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -22866,15 +23565,18 @@
         <v>8.0</v>
       </c>
       <c r="AD8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -22952,21 +23654,24 @@
         <v>4.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC9" t="n">
         <v>4.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -23050,15 +23755,18 @@
         <v>18.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -23139,18 +23847,21 @@
         <v>16.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -23234,15 +23945,18 @@
         <v>6.0</v>
       </c>
       <c r="AD12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -23320,21 +24034,24 @@
         <v>3.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC13" t="n">
         <v>3.0</v>
       </c>
       <c r="AD13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -23418,15 +24135,18 @@
         <v>10.0</v>
       </c>
       <c r="AD14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -23504,21 +24224,24 @@
         <v>13.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="AD15" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -23602,15 +24325,18 @@
         <v>5.0</v>
       </c>
       <c r="AD16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -23691,18 +24417,21 @@
         <v>17.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AD17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -23786,15 +24515,18 @@
         <v>7.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="n">
         <v>6.0</v>
@@ -23872,12 +24604,15 @@
         <v>12.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AD19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -23897,7 +24632,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -23994,14 +24729,17 @@
       </c>
       <c r="AH1" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -24097,15 +24835,18 @@
         <v>2.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -24201,15 +24942,18 @@
         <v>6.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -24305,15 +25049,18 @@
         <v>7.0</v>
       </c>
       <c r="AH4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -24409,15 +25156,18 @@
         <v>1.0</v>
       </c>
       <c r="AH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -24513,15 +25263,18 @@
         <v>9.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -24617,15 +25370,18 @@
         <v>10.0</v>
       </c>
       <c r="AH7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -24721,15 +25477,18 @@
         <v>5.0</v>
       </c>
       <c r="AH8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -24825,15 +25584,18 @@
         <v>3.0</v>
       </c>
       <c r="AH9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -24929,15 +25691,18 @@
         <v>8.0</v>
       </c>
       <c r="AH10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -25033,6 +25798,9 @@
         <v>4.0</v>
       </c>
       <c r="AH11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -25052,7 +25820,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -25149,14 +25917,17 @@
       </c>
       <c r="AH1" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -25252,15 +26023,18 @@
         <v>8.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -25356,15 +26130,18 @@
         <v>2.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -25460,15 +26237,18 @@
         <v>10.0</v>
       </c>
       <c r="AH4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -25564,15 +26344,18 @@
         <v>4.0</v>
       </c>
       <c r="AH5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -25668,15 +26451,18 @@
         <v>9.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -25772,15 +26558,18 @@
         <v>3.0</v>
       </c>
       <c r="AH7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -25876,15 +26665,18 @@
         <v>1.0</v>
       </c>
       <c r="AH8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -25980,15 +26772,18 @@
         <v>5.0</v>
       </c>
       <c r="AH9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -26084,15 +26879,18 @@
         <v>7.0</v>
       </c>
       <c r="AH10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -26188,6 +26986,9 @@
         <v>6.0</v>
       </c>
       <c r="AH11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -26207,7 +27008,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -26301,14 +27102,17 @@
       </c>
       <c r="AG1" t="s">
         <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -26402,14 +27206,17 @@
       </c>
       <c r="AG2" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -26503,14 +27310,17 @@
       </c>
       <c r="AG3" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -26603,15 +27413,18 @@
         <v>17.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -26705,14 +27518,17 @@
       </c>
       <c r="AG5" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -26806,14 +27622,17 @@
       </c>
       <c r="AG6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -26907,14 +27726,17 @@
       </c>
       <c r="AG7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -27008,14 +27830,17 @@
       </c>
       <c r="AG8" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -27108,15 +27933,18 @@
         <v>13.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -27210,14 +28038,17 @@
       </c>
       <c r="AG10" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -27310,15 +28141,18 @@
         <v>16.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
@@ -27412,14 +28246,17 @@
       </c>
       <c r="AG12" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -27513,14 +28350,17 @@
       </c>
       <c r="AG13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -27614,14 +28454,17 @@
       </c>
       <c r="AG14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -27715,14 +28558,17 @@
       </c>
       <c r="AG15" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -27816,14 +28662,17 @@
       </c>
       <c r="AG16" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -27917,14 +28766,17 @@
       </c>
       <c r="AG17" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -28018,14 +28870,17 @@
       </c>
       <c r="AG18" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -28119,14 +28974,17 @@
       </c>
       <c r="AG19" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C20" t="n">
         <v>8.0</v>
@@ -28219,15 +29077,18 @@
         <v>1.0</v>
       </c>
       <c r="AG20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -28320,6 +29181,9 @@
         <v>20.0</v>
       </c>
       <c r="AG21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -28339,7 +29203,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -28424,14 +29288,17 @@
       </c>
       <c r="AD1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -28516,14 +29383,17 @@
       </c>
       <c r="AD2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -28607,15 +29477,18 @@
         <v>16.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -28699,15 +29572,18 @@
         <v>17.0</v>
       </c>
       <c r="AD4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -28791,15 +29667,18 @@
         <v>13.0</v>
       </c>
       <c r="AD5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -28883,15 +29762,18 @@
         <v>6.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -28975,15 +29857,18 @@
         <v>14.0</v>
       </c>
       <c r="AD7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -29068,14 +29953,17 @@
       </c>
       <c r="AD8" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -29159,15 +30047,18 @@
         <v>7.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -29251,15 +30142,18 @@
         <v>12.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -29343,15 +30237,18 @@
         <v>18.0</v>
       </c>
       <c r="AD11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -29435,15 +30332,18 @@
         <v>8.0</v>
       </c>
       <c r="AD12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -29527,15 +30427,18 @@
         <v>5.0</v>
       </c>
       <c r="AD13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -29619,15 +30522,18 @@
         <v>9.0</v>
       </c>
       <c r="AD14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" t="n">
         <v>5.0</v>
@@ -29712,14 +30618,17 @@
       </c>
       <c r="AD15" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -29803,15 +30712,18 @@
         <v>15.0</v>
       </c>
       <c r="AD16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -29896,14 +30808,17 @@
       </c>
       <c r="AD17" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -29987,15 +30902,18 @@
         <v>1.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -30080,6 +30998,9 @@
       </c>
       <c r="AD19" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -30098,7 +31019,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -30189,14 +31110,17 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -30287,14 +31211,17 @@
       </c>
       <c r="AF2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -30385,14 +31312,17 @@
       </c>
       <c r="AF3" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -30482,15 +31412,18 @@
         <v>15.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -30581,14 +31514,17 @@
       </c>
       <c r="AF5" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -30678,15 +31614,18 @@
         <v>19.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -30776,15 +31715,18 @@
         <v>3.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -30875,14 +31817,17 @@
       </c>
       <c r="AF8" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -30972,15 +31917,18 @@
         <v>17.0</v>
       </c>
       <c r="AF9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -31070,15 +32018,18 @@
         <v>16.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -31169,14 +32120,17 @@
       </c>
       <c r="AF11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -31266,15 +32220,18 @@
         <v>1.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -31364,15 +32321,18 @@
         <v>2.0</v>
       </c>
       <c r="AF13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -31462,15 +32422,18 @@
         <v>6.0</v>
       </c>
       <c r="AF14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -31560,15 +32523,18 @@
         <v>14.0</v>
       </c>
       <c r="AF15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -31658,15 +32624,18 @@
         <v>20.0</v>
       </c>
       <c r="AF16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -31757,14 +32726,17 @@
       </c>
       <c r="AF17" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C18" t="n">
         <v>8.0</v>
@@ -31855,14 +32827,17 @@
       </c>
       <c r="AF18" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" t="n">
         <v>9.0</v>
@@ -31952,15 +32927,18 @@
         <v>18.0</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" t="n">
         <v>10.0</v>
@@ -32050,15 +33028,18 @@
         <v>7.0</v>
       </c>
       <c r="AF20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -32148,6 +33129,9 @@
         <v>8.0</v>
       </c>
       <c r="AF21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -32167,7 +33151,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -32269,7 +33253,7 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="AK1" t="s">
         <v>133</v>
@@ -32285,14 +33269,20 @@
       </c>
       <c r="AO1" t="s">
         <v>137</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -32409,15 +33399,21 @@
         <v>23.0</v>
       </c>
       <c r="AO2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -32534,15 +33530,21 @@
         <v>20.0</v>
       </c>
       <c r="AO3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -32660,14 +33662,20 @@
       </c>
       <c r="AO4" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -32784,15 +33792,21 @@
         <v>13.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -32909,15 +33923,21 @@
         <v>2.0</v>
       </c>
       <c r="AO6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -33034,15 +34054,21 @@
         <v>19.0</v>
       </c>
       <c r="AO7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -33160,14 +34186,20 @@
       </c>
       <c r="AO8" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -33285,14 +34317,20 @@
       </c>
       <c r="AO9" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C10" t="n">
         <v>12.0</v>
@@ -33410,14 +34448,20 @@
       </c>
       <c r="AO10" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -33534,15 +34578,21 @@
         <v>1.0</v>
       </c>
       <c r="AO11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -33660,14 +34710,20 @@
       </c>
       <c r="AO12" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -33784,15 +34840,21 @@
         <v>21.0</v>
       </c>
       <c r="AO13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -33910,14 +34972,20 @@
       </c>
       <c r="AO14" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -34035,14 +35103,20 @@
       </c>
       <c r="AO15" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -34160,14 +35234,20 @@
       </c>
       <c r="AO16" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -34285,14 +35365,20 @@
       </c>
       <c r="AO17" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -34409,15 +35495,21 @@
         <v>24.0</v>
       </c>
       <c r="AO18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -34534,15 +35626,21 @@
         <v>14.0</v>
       </c>
       <c r="AO19" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C20" t="n">
         <v>17.0</v>
@@ -34660,14 +35758,20 @@
       </c>
       <c r="AO20" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -34784,15 +35888,21 @@
         <v>22.0</v>
       </c>
       <c r="AO21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -34910,14 +36020,20 @@
       </c>
       <c r="AO22" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C23" t="n">
         <v>6.0</v>
@@ -35034,15 +36150,21 @@
         <v>15.0</v>
       </c>
       <c r="AO23" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -35159,15 +36281,21 @@
         <v>16.0</v>
       </c>
       <c r="AO24" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -35284,7 +36412,13 @@
         <v>12.0</v>
       </c>
       <c r="AO25" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -35303,7 +36437,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -35405,7 +36539,7 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="AK1" t="s">
         <v>133</v>
@@ -35423,15 +36557,21 @@
         <v>137</v>
       </c>
       <c r="AP1" t="s">
-        <v>167</v>
+        <v>138</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" t="n">
         <v>19.0</v>
@@ -35551,15 +36691,21 @@
         <v>12.0</v>
       </c>
       <c r="AP2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AR2" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -35679,15 +36825,21 @@
         <v>21.0</v>
       </c>
       <c r="AP3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AR3" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -35807,15 +36959,21 @@
         <v>11.0</v>
       </c>
       <c r="AP4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AR4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -35935,15 +37093,21 @@
         <v>16.0</v>
       </c>
       <c r="AP5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AR5" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -36063,15 +37227,21 @@
         <v>15.0</v>
       </c>
       <c r="AP6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -36191,15 +37361,21 @@
         <v>14.0</v>
       </c>
       <c r="AP7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -36319,15 +37495,21 @@
         <v>13.0</v>
       </c>
       <c r="AP8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AR8" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -36447,15 +37629,21 @@
         <v>24.0</v>
       </c>
       <c r="AP9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C10" t="n">
         <v>20.0</v>
@@ -36575,15 +37763,21 @@
         <v>23.0</v>
       </c>
       <c r="AP10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AR10" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
         <v>21.0</v>
@@ -36703,15 +37897,21 @@
         <v>20.0</v>
       </c>
       <c r="AP11" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AR11" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -36831,15 +38031,21 @@
         <v>19.0</v>
       </c>
       <c r="AP12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AR12" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -36959,15 +38165,21 @@
         <v>9.0</v>
       </c>
       <c r="AP13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AR13" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -37087,15 +38299,21 @@
         <v>18.0</v>
       </c>
       <c r="AP14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AR14" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -37216,14 +38434,20 @@
       </c>
       <c r="AP15" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -37343,15 +38567,21 @@
         <v>22.0</v>
       </c>
       <c r="AP16" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR16" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -37472,14 +38702,20 @@
       </c>
       <c r="AP17" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -37599,15 +38835,21 @@
         <v>4.0</v>
       </c>
       <c r="AP18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AR18" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -37727,15 +38969,21 @@
         <v>10.0</v>
       </c>
       <c r="AP19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AR19" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C20" t="n">
         <v>4.0</v>
@@ -37856,14 +39104,20 @@
       </c>
       <c r="AP20" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C21" t="n">
         <v>18.0</v>
@@ -37983,15 +39237,21 @@
         <v>6.0</v>
       </c>
       <c r="AP21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AR21" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -38111,15 +39371,21 @@
         <v>17.0</v>
       </c>
       <c r="AP22" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AR22" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C23" t="n">
         <v>5.0</v>
@@ -38239,15 +39505,21 @@
         <v>7.0</v>
       </c>
       <c r="AP23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AR23" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -38368,14 +39640,20 @@
       </c>
       <c r="AP24" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C25" t="n">
         <v>6.0</v>
@@ -38496,6 +39774,12 @@
       </c>
       <c r="AP25" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -38514,7 +39798,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -38616,7 +39900,7 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="AK1" t="s">
         <v>133</v>
@@ -38634,15 +39918,18 @@
         <v>137</v>
       </c>
       <c r="AP1" t="s">
-        <v>167</v>
+        <v>138</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -38762,15 +40049,18 @@
         <v>21.0</v>
       </c>
       <c r="AP2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -38890,15 +40180,18 @@
         <v>14.0</v>
       </c>
       <c r="AP3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -39018,15 +40311,18 @@
         <v>3.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -39146,15 +40442,18 @@
         <v>17.0</v>
       </c>
       <c r="AP5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C6" t="n">
         <v>12.0</v>
@@ -39275,14 +40574,17 @@
       </c>
       <c r="AP6" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C7" t="n">
         <v>18.0</v>
@@ -39402,15 +40704,18 @@
         <v>13.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C8" t="n">
         <v>13.0</v>
@@ -39530,15 +40835,18 @@
         <v>2.0</v>
       </c>
       <c r="AP8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -39658,15 +40966,18 @@
         <v>1.0</v>
       </c>
       <c r="AP9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -39786,15 +41097,18 @@
         <v>15.0</v>
       </c>
       <c r="AP10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -39914,15 +41228,18 @@
         <v>12.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -40042,15 +41359,18 @@
         <v>18.0</v>
       </c>
       <c r="AP12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -40170,15 +41490,18 @@
         <v>6.0</v>
       </c>
       <c r="AP13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -40299,14 +41622,17 @@
       </c>
       <c r="AP14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -40426,15 +41752,18 @@
         <v>4.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -40554,15 +41883,18 @@
         <v>22.0</v>
       </c>
       <c r="AP16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -40682,15 +42014,18 @@
         <v>5.0</v>
       </c>
       <c r="AP17" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -40811,14 +42146,17 @@
       </c>
       <c r="AP18" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C19" t="n">
         <v>15.0</v>
@@ -40939,14 +42277,17 @@
       </c>
       <c r="AP19" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C20" t="n">
         <v>22.0</v>
@@ -41066,15 +42407,18 @@
         <v>24.0</v>
       </c>
       <c r="AP20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -41194,15 +42538,18 @@
         <v>23.0</v>
       </c>
       <c r="AP21" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -41323,14 +42670,17 @@
       </c>
       <c r="AP22" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C23" t="n">
         <v>8.0</v>
@@ -41451,14 +42801,17 @@
       </c>
       <c r="AP23" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -41579,14 +42932,17 @@
       </c>
       <c r="AP24" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C25" t="n">
         <v>24.0</v>
@@ -41707,6 +43063,9 @@
       </c>
       <c r="AP25" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -41725,7 +43084,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -41827,15 +43186,21 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
-        <v>132</v>
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -41937,15 +43302,21 @@
         <v>20.0</v>
       </c>
       <c r="AJ2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -42047,15 +43418,21 @@
         <v>13.0</v>
       </c>
       <c r="AJ3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -42157,15 +43534,21 @@
         <v>16.0</v>
       </c>
       <c r="AJ4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -42267,15 +43650,21 @@
         <v>8.0</v>
       </c>
       <c r="AJ5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -42378,14 +43767,20 @@
       </c>
       <c r="AJ6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -42487,15 +43882,21 @@
         <v>2.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -42597,15 +43998,21 @@
         <v>9.0</v>
       </c>
       <c r="AJ8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -42707,15 +44114,21 @@
         <v>23.0</v>
       </c>
       <c r="AJ9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -42818,14 +44231,20 @@
       </c>
       <c r="AJ10" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -42927,15 +44346,21 @@
         <v>7.0</v>
       </c>
       <c r="AJ11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -43038,14 +44463,20 @@
       </c>
       <c r="AJ12" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -43147,15 +44578,21 @@
         <v>21.0</v>
       </c>
       <c r="AJ13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AL13" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -43258,14 +44695,20 @@
       </c>
       <c r="AJ14" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -43367,15 +44810,21 @@
         <v>6.0</v>
       </c>
       <c r="AJ15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -43477,15 +44926,21 @@
         <v>5.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -43587,15 +45042,21 @@
         <v>12.0</v>
       </c>
       <c r="AJ17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -43697,15 +45158,21 @@
         <v>1.0</v>
       </c>
       <c r="AJ18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL18" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -43808,14 +45275,20 @@
       </c>
       <c r="AJ19" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C20" t="n">
         <v>21.0</v>
@@ -43918,14 +45391,20 @@
       </c>
       <c r="AJ20" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -44027,15 +45506,21 @@
         <v>22.0</v>
       </c>
       <c r="AJ21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AL21" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -44137,15 +45622,21 @@
         <v>15.0</v>
       </c>
       <c r="AJ22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AL22" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C23" t="n">
         <v>10.0</v>
@@ -44247,15 +45738,21 @@
         <v>4.0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" t="n">
         <v>23.0</v>
@@ -44357,6 +45854,12 @@
         <v>14.0</v>
       </c>
       <c r="AJ24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AL24" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -44376,7 +45879,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -44467,14 +45970,17 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -44564,15 +46070,18 @@
         <v>14.0</v>
       </c>
       <c r="AF2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C3" t="n">
         <v>17.0</v>
@@ -44662,15 +46171,18 @@
         <v>20.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -44760,15 +46272,18 @@
         <v>13.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -44859,14 +46374,17 @@
       </c>
       <c r="AF5" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C6" t="n">
         <v>6.0</v>
@@ -44957,14 +46475,17 @@
       </c>
       <c r="AF6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -45055,14 +46576,17 @@
       </c>
       <c r="AF7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -45153,14 +46677,17 @@
       </c>
       <c r="AF8" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -45251,14 +46778,17 @@
       </c>
       <c r="AF9" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -45348,15 +46878,18 @@
         <v>2.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -45446,15 +46979,18 @@
         <v>19.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -45545,14 +47081,17 @@
       </c>
       <c r="AF12" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -45642,15 +47181,18 @@
         <v>11.0</v>
       </c>
       <c r="AF13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -45741,14 +47283,17 @@
       </c>
       <c r="AF14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -45838,15 +47383,18 @@
         <v>4.0</v>
       </c>
       <c r="AF15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -45936,15 +47484,18 @@
         <v>1.0</v>
       </c>
       <c r="AF16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -46034,15 +47585,18 @@
         <v>12.0</v>
       </c>
       <c r="AF17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -46132,15 +47686,18 @@
         <v>3.0</v>
       </c>
       <c r="AF18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C19" t="n">
         <v>16.0</v>
@@ -46230,15 +47787,18 @@
         <v>18.0</v>
       </c>
       <c r="AF19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -46328,15 +47888,18 @@
         <v>5.0</v>
       </c>
       <c r="AF20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -46426,6 +47989,9 @@
         <v>15.0</v>
       </c>
       <c r="AF21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>15.0</v>
       </c>
     </row>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -3964,7 +3964,7 @@
         <v>11.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
@@ -4380,7 +4380,7 @@
         <v>9.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
@@ -4692,7 +4692,7 @@
         <v>7.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
@@ -5212,7 +5212,7 @@
         <v>3.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -5316,7 +5316,7 @@
         <v>8.0</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -5628,7 +5628,7 @@
         <v>5.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -7640,7 +7640,7 @@
         <v>12.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
@@ -9304,7 +9304,7 @@
         <v>15.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
@@ -9963,7 +9963,7 @@
         <v>6.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -10073,7 +10073,7 @@
         <v>5.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -11283,7 +11283,7 @@
         <v>4.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -16991,7 +16991,7 @@
         <v>10.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -17395,7 +17395,7 @@
         <v>9.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
@@ -17947,7 +17947,7 @@
         <v>3.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -20094,7 +20094,7 @@
         <v>2.0</v>
       </c>
       <c r="AK22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -27520,7 +27520,7 @@
         <v>9.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -28456,7 +28456,7 @@
         <v>10.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
@@ -34715,7 +34715,7 @@
         <v>3.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -35370,7 +35370,7 @@
         <v>6.0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -36965,7 +36965,7 @@
         <v>10.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
@@ -37099,7 +37099,7 @@
         <v>16.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
@@ -38975,7 +38975,7 @@
         <v>11.0</v>
       </c>
       <c r="AR19" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
@@ -39377,7 +39377,7 @@
         <v>17.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="495">
   <si>
     <t>b1_teams</t>
   </si>
@@ -365,6 +365,9 @@
     <t>e0_teams</t>
   </si>
   <si>
+    <t>X35</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -434,9 +437,6 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X35</t>
-  </si>
-  <si>
     <t>X36</t>
   </si>
   <si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>X44</t>
+  </si>
+  <si>
+    <t>X45</t>
   </si>
   <si>
     <t>21</t>
@@ -551,7 +554,7 @@
     <t>e2_teams</t>
   </si>
   <si>
-    <t>X45</t>
+    <t>X46</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -3669,7 +3672,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3774,7 +3777,10 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -3782,7 +3788,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -3887,6 +3893,9 @@
         <v>2.0</v>
       </c>
       <c r="AK2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -3895,7 +3904,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -4001,6 +4010,9 @@
       </c>
       <c r="AK3" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
@@ -4008,7 +4020,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -4113,6 +4125,9 @@
         <v>3.0</v>
       </c>
       <c r="AK4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -4121,7 +4136,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -4227,6 +4242,9 @@
       </c>
       <c r="AK5" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
@@ -4234,7 +4252,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4340,6 +4358,9 @@
       </c>
       <c r="AK6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -4347,7 +4368,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C7" t="n">
         <v>17.0</v>
@@ -4453,6 +4474,9 @@
       </c>
       <c r="AK7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -4460,7 +4484,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -4565,6 +4589,9 @@
         <v>19.0</v>
       </c>
       <c r="AK8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -4573,7 +4600,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C9" t="n">
         <v>18.0</v>
@@ -4679,6 +4706,9 @@
       </c>
       <c r="AK9" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
@@ -4686,7 +4716,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -4792,6 +4822,9 @@
       </c>
       <c r="AK10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -4799,7 +4832,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -4905,6 +4938,9 @@
       </c>
       <c r="AK11" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -4912,7 +4948,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C12" t="n">
         <v>19.0</v>
@@ -5017,6 +5053,9 @@
         <v>20.0</v>
       </c>
       <c r="AK12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AL12" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -5025,7 +5064,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -5131,6 +5170,9 @@
       </c>
       <c r="AK13" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -5138,7 +5180,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -5244,6 +5286,9 @@
       </c>
       <c r="AK14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
@@ -5251,7 +5296,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -5356,6 +5401,9 @@
         <v>4.0</v>
       </c>
       <c r="AK15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -5364,7 +5412,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -5470,6 +5518,9 @@
       </c>
       <c r="AK16" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
@@ -5477,7 +5528,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -5583,6 +5634,9 @@
       </c>
       <c r="AK17" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
@@ -5590,7 +5644,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -5695,6 +5749,9 @@
         <v>18.0</v>
       </c>
       <c r="AK18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AL18" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -5703,7 +5760,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -5808,15 +5865,18 @@
         <v>5.0</v>
       </c>
       <c r="AK19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL19" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C20" t="n">
         <v>14.0</v>
@@ -5921,15 +5981,18 @@
         <v>1.0</v>
       </c>
       <c r="AK20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -6035,6 +6098,9 @@
       </c>
       <c r="AK21" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
@@ -6053,7 +6119,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6147,6 +6213,9 @@
       </c>
       <c r="AG1" t="s">
         <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -6154,7 +6223,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -6247,7 +6316,10 @@
         <v>4.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -6255,7 +6327,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -6348,6 +6420,9 @@
         <v>14.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -6356,7 +6431,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -6449,7 +6524,10 @@
         <v>3.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -6457,7 +6535,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
@@ -6550,6 +6628,9 @@
         <v>8.0</v>
       </c>
       <c r="AG5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -6558,7 +6639,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -6651,6 +6732,9 @@
         <v>12.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -6659,7 +6743,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -6752,6 +6836,9 @@
         <v>6.0</v>
       </c>
       <c r="AG7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -6760,7 +6847,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -6853,6 +6940,9 @@
         <v>9.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -6861,7 +6951,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C9" t="n">
         <v>13.0</v>
@@ -6954,6 +7044,9 @@
         <v>13.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -6962,7 +7055,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -7055,6 +7148,9 @@
         <v>7.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -7063,7 +7159,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -7156,6 +7252,9 @@
         <v>1.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -7164,7 +7263,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -7257,7 +7356,10 @@
         <v>5.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -7265,7 +7367,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -7358,7 +7460,10 @@
         <v>11.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
@@ -7366,7 +7471,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -7459,6 +7564,9 @@
         <v>2.0</v>
       </c>
       <c r="AG14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -7467,7 +7575,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -7560,7 +7668,10 @@
         <v>10.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7690,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7682,6 +7793,9 @@
       </c>
       <c r="AJ1" t="s">
         <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -7689,7 +7803,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -7792,6 +7906,9 @@
       </c>
       <c r="AJ2" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -7799,7 +7916,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -7902,6 +8019,9 @@
       </c>
       <c r="AJ3" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
@@ -7909,7 +8029,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -8012,6 +8132,9 @@
       </c>
       <c r="AJ4" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
@@ -8019,7 +8142,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -8121,6 +8244,9 @@
         <v>14.0</v>
       </c>
       <c r="AJ5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -8129,7 +8255,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -8232,6 +8358,9 @@
       </c>
       <c r="AJ6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -8239,7 +8368,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -8342,6 +8471,9 @@
       </c>
       <c r="AJ7" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
@@ -8349,7 +8481,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -8451,6 +8583,9 @@
         <v>1.0</v>
       </c>
       <c r="AJ8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK8" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -8459,7 +8594,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -8561,6 +8696,9 @@
         <v>4.0</v>
       </c>
       <c r="AJ9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK9" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -8569,7 +8707,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -8672,6 +8810,9 @@
       </c>
       <c r="AJ10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -8679,7 +8820,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -8781,6 +8922,9 @@
         <v>2.0</v>
       </c>
       <c r="AJ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -8789,7 +8933,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -8891,6 +9035,9 @@
         <v>3.0</v>
       </c>
       <c r="AJ12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -8899,7 +9046,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -9002,6 +9149,9 @@
       </c>
       <c r="AJ13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -9009,7 +9159,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -9112,6 +9262,9 @@
       </c>
       <c r="AJ14" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
@@ -9119,7 +9272,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -9222,6 +9375,9 @@
       </c>
       <c r="AJ15" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
@@ -9229,7 +9385,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -9332,6 +9488,9 @@
       </c>
       <c r="AJ16" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
@@ -9339,7 +9498,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -9442,6 +9601,9 @@
       </c>
       <c r="AJ17" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
@@ -9449,7 +9611,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -9552,6 +9714,9 @@
       </c>
       <c r="AJ18" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
@@ -9559,7 +9724,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -9662,14 +9827,17 @@
       </c>
       <c r="AJ19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -9771,15 +9939,18 @@
         <v>20.0</v>
       </c>
       <c r="AJ20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -9881,6 +10052,9 @@
         <v>9.0</v>
       </c>
       <c r="AJ21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -9900,7 +10074,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10005,10 +10179,13 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="AL1" t="s">
         <v>134</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -10016,7 +10193,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -10124,6 +10301,9 @@
         <v>16.0</v>
       </c>
       <c r="AL2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AM2" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -10132,7 +10312,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -10240,6 +10420,9 @@
         <v>7.0</v>
       </c>
       <c r="AL3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AM3" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -10248,7 +10431,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -10357,6 +10540,9 @@
       </c>
       <c r="AL4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -10364,7 +10550,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -10473,6 +10659,9 @@
       </c>
       <c r="AL5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -10480,7 +10669,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10588,6 +10777,9 @@
         <v>10.0</v>
       </c>
       <c r="AL6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AM6" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -10596,7 +10788,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -10705,6 +10897,9 @@
       </c>
       <c r="AL7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -10712,7 +10907,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -10820,6 +11015,9 @@
         <v>17.0</v>
       </c>
       <c r="AL8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AM8" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -10828,7 +11026,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -10937,6 +11135,9 @@
       </c>
       <c r="AL9" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -10944,7 +11145,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -11052,6 +11253,9 @@
         <v>19.0</v>
       </c>
       <c r="AL10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AM10" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -11060,7 +11264,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -11168,6 +11372,9 @@
         <v>8.0</v>
       </c>
       <c r="AL11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -11176,7 +11383,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -11284,6 +11491,9 @@
         <v>2.0</v>
       </c>
       <c r="AL12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -11292,7 +11502,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -11401,6 +11611,9 @@
       </c>
       <c r="AL13" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -11408,7 +11621,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -11517,6 +11730,9 @@
       </c>
       <c r="AL14" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
@@ -11524,7 +11740,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -11632,6 +11848,9 @@
         <v>9.0</v>
       </c>
       <c r="AL15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -11640,7 +11859,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -11749,6 +11968,9 @@
       </c>
       <c r="AL16" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -11756,7 +11978,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -11864,6 +12086,9 @@
         <v>20.0</v>
       </c>
       <c r="AL17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -11872,7 +12097,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -11980,6 +12205,9 @@
         <v>12.0</v>
       </c>
       <c r="AL18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -11988,7 +12216,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -12096,15 +12324,18 @@
         <v>15.0</v>
       </c>
       <c r="AL19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AM19" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -12212,15 +12443,18 @@
         <v>11.0</v>
       </c>
       <c r="AL20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AM20" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -12328,6 +12562,9 @@
         <v>18.0</v>
       </c>
       <c r="AL21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AM21" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -12347,7 +12584,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12438,6 +12675,9 @@
       </c>
       <c r="AF1" t="s">
         <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -12445,7 +12685,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -12535,6 +12775,9 @@
         <v>1.0</v>
       </c>
       <c r="AF2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -12543,7 +12786,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -12633,6 +12876,9 @@
         <v>5.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -12641,7 +12887,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -12731,6 +12977,9 @@
         <v>12.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -12739,7 +12988,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -12829,6 +13078,9 @@
         <v>3.0</v>
       </c>
       <c r="AF5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -12837,7 +13089,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -12928,6 +13180,9 @@
       </c>
       <c r="AF6" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -12935,7 +13190,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -13025,6 +13280,9 @@
         <v>8.0</v>
       </c>
       <c r="AF7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -13033,7 +13291,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -13123,6 +13381,9 @@
         <v>9.0</v>
       </c>
       <c r="AF8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -13131,7 +13392,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -13222,6 +13483,9 @@
       </c>
       <c r="AF9" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -13229,7 +13493,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -13319,6 +13583,9 @@
         <v>13.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -13327,7 +13594,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -13418,6 +13685,9 @@
       </c>
       <c r="AF11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -13425,7 +13695,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -13515,6 +13785,9 @@
         <v>2.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -13523,7 +13796,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C13" t="n">
         <v>15.0</v>
@@ -13614,6 +13887,9 @@
       </c>
       <c r="AF13" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
@@ -13621,7 +13897,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C14" t="n">
         <v>16.0</v>
@@ -13711,6 +13987,9 @@
         <v>4.0</v>
       </c>
       <c r="AF14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -13719,7 +13998,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C15" t="n">
         <v>7.0</v>
@@ -13809,6 +14088,9 @@
         <v>7.0</v>
       </c>
       <c r="AF15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -13817,7 +14099,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -13907,6 +14189,9 @@
         <v>6.0</v>
       </c>
       <c r="AF16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -13915,7 +14200,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C17" t="n">
         <v>9.0</v>
@@ -14006,6 +14291,9 @@
       </c>
       <c r="AF17" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
@@ -14013,7 +14301,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -14104,6 +14392,9 @@
       </c>
       <c r="AF18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
@@ -14111,7 +14402,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -14202,6 +14493,9 @@
       </c>
       <c r="AF19" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -14220,7 +14514,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14314,6 +14608,9 @@
       </c>
       <c r="AG1" t="s">
         <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -14321,7 +14618,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -14414,6 +14711,9 @@
         <v>15.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -14422,7 +14722,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -14515,6 +14815,9 @@
         <v>18.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -14523,7 +14826,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -14616,6 +14919,9 @@
         <v>3.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -14624,7 +14930,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -14718,6 +15024,9 @@
       </c>
       <c r="AG5" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
@@ -14725,7 +15034,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -14819,6 +15128,9 @@
       </c>
       <c r="AG6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
@@ -14826,7 +15138,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -14920,6 +15232,9 @@
       </c>
       <c r="AG7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -14927,7 +15242,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -15020,6 +15335,9 @@
         <v>5.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -15028,7 +15346,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -15121,6 +15439,9 @@
         <v>6.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -15129,7 +15450,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -15223,6 +15544,9 @@
       </c>
       <c r="AG10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
@@ -15230,7 +15554,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -15324,6 +15648,9 @@
       </c>
       <c r="AG11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
@@ -15331,7 +15658,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -15425,6 +15752,9 @@
       </c>
       <c r="AG12" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
@@ -15432,7 +15762,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -15526,6 +15856,9 @@
       </c>
       <c r="AG13" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
@@ -15533,7 +15866,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -15626,6 +15959,9 @@
         <v>1.0</v>
       </c>
       <c r="AG14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -15634,7 +15970,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -15728,6 +16064,9 @@
       </c>
       <c r="AG15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
@@ -15735,7 +16074,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -15828,6 +16167,9 @@
         <v>4.0</v>
       </c>
       <c r="AG16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH16" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -15836,7 +16178,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -15929,6 +16271,9 @@
         <v>2.0</v>
       </c>
       <c r="AG17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH17" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -15937,7 +16282,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -16031,6 +16376,9 @@
       </c>
       <c r="AG18" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
@@ -16038,7 +16386,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -16132,6 +16480,9 @@
       </c>
       <c r="AG19" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -16150,7 +16501,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16250,6 +16601,9 @@
       </c>
       <c r="AI1" t="s">
         <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -16257,7 +16611,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -16356,6 +16710,9 @@
         <v>19.0</v>
       </c>
       <c r="AI2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -16364,7 +16721,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -16463,6 +16820,9 @@
         <v>8.0</v>
       </c>
       <c r="AI3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -16471,7 +16831,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -16570,6 +16930,9 @@
         <v>2.0</v>
       </c>
       <c r="AI4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -16578,7 +16941,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -16677,6 +17040,9 @@
         <v>3.0</v>
       </c>
       <c r="AI5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -16685,7 +17051,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -16784,6 +17150,9 @@
         <v>5.0</v>
       </c>
       <c r="AI6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -16792,7 +17161,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -16892,6 +17261,9 @@
       </c>
       <c r="AI7" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
@@ -16899,7 +17271,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C8" t="n">
         <v>17.0</v>
@@ -16998,6 +17370,9 @@
         <v>11.0</v>
       </c>
       <c r="AI8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -17006,7 +17381,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -17106,6 +17481,9 @@
       </c>
       <c r="AI9" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
@@ -17113,7 +17491,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -17213,6 +17591,9 @@
       </c>
       <c r="AI10" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
@@ -17220,7 +17601,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -17319,6 +17700,9 @@
         <v>15.0</v>
       </c>
       <c r="AI11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -17327,7 +17711,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -17426,6 +17810,9 @@
         <v>18.0</v>
       </c>
       <c r="AI12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -17434,7 +17821,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -17533,6 +17920,9 @@
         <v>20.0</v>
       </c>
       <c r="AI13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -17541,7 +17931,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -17641,6 +18031,9 @@
       </c>
       <c r="AI14" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
@@ -17648,7 +18041,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C15" t="n">
         <v>14.0</v>
@@ -17747,6 +18140,9 @@
         <v>9.0</v>
       </c>
       <c r="AI15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -17755,7 +18151,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -17854,6 +18250,9 @@
         <v>1.0</v>
       </c>
       <c r="AI16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -17862,7 +18261,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -17961,6 +18360,9 @@
         <v>4.0</v>
       </c>
       <c r="AI17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -17969,7 +18371,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -18068,6 +18470,9 @@
         <v>6.0</v>
       </c>
       <c r="AI18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -18076,7 +18481,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -18175,15 +18580,18 @@
         <v>10.0</v>
       </c>
       <c r="AI19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -18282,15 +18690,18 @@
         <v>14.0</v>
       </c>
       <c r="AI20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -18389,6 +18800,9 @@
         <v>7.0</v>
       </c>
       <c r="AI21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -18408,7 +18822,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18513,13 +18927,16 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="AL1" t="s">
         <v>134</v>
       </c>
       <c r="AM1" t="s">
         <v>135</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2">
@@ -18527,7 +18944,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -18638,6 +19055,9 @@
         <v>22.0</v>
       </c>
       <c r="AM2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -18646,7 +19066,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -18757,6 +19177,9 @@
         <v>2.0</v>
       </c>
       <c r="AM3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -18765,7 +19188,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -18876,6 +19299,9 @@
         <v>19.0</v>
       </c>
       <c r="AM4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -18884,7 +19310,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -18996,6 +19422,9 @@
       </c>
       <c r="AM5" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
@@ -19003,7 +19432,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C6" t="n">
         <v>19.0</v>
@@ -19114,6 +19543,9 @@
         <v>10.0</v>
       </c>
       <c r="AM6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -19122,7 +19554,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C7" t="n">
         <v>20.0</v>
@@ -19233,6 +19665,9 @@
         <v>1.0</v>
       </c>
       <c r="AM7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -19241,7 +19676,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C8" t="n">
         <v>21.0</v>
@@ -19352,6 +19787,9 @@
         <v>21.0</v>
       </c>
       <c r="AM8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -19360,7 +19798,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -19471,6 +19909,9 @@
         <v>5.0</v>
       </c>
       <c r="AM9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -19479,7 +19920,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -19591,6 +20032,9 @@
       </c>
       <c r="AM10" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
@@ -19598,7 +20042,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -19710,6 +20154,9 @@
       </c>
       <c r="AM11" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
@@ -19717,7 +20164,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C12" t="n">
         <v>9.0</v>
@@ -19828,6 +20275,9 @@
         <v>7.0</v>
       </c>
       <c r="AM12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -19836,7 +20286,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C13" t="n">
         <v>22.0</v>
@@ -19948,6 +20398,9 @@
       </c>
       <c r="AM13" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
@@ -19955,7 +20408,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -20066,6 +20519,9 @@
         <v>16.0</v>
       </c>
       <c r="AM14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -20074,7 +20530,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -20185,6 +20641,9 @@
         <v>17.0</v>
       </c>
       <c r="AM15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AN15" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -20193,7 +20652,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -20304,6 +20763,9 @@
         <v>14.0</v>
       </c>
       <c r="AM16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -20312,7 +20774,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -20423,6 +20885,9 @@
         <v>6.0</v>
       </c>
       <c r="AM17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -20431,7 +20896,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C18" t="n">
         <v>4.0</v>
@@ -20542,6 +21007,9 @@
         <v>8.0</v>
       </c>
       <c r="AM18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN18" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -20550,7 +21018,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -20661,15 +21129,18 @@
         <v>20.0</v>
       </c>
       <c r="AM19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AN19" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -20780,15 +21251,18 @@
         <v>18.0</v>
       </c>
       <c r="AM20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -20899,15 +21373,18 @@
         <v>4.0</v>
       </c>
       <c r="AM21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -21018,15 +21495,18 @@
         <v>3.0</v>
       </c>
       <c r="AM22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN22" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -21138,6 +21618,9 @@
       </c>
       <c r="AM23" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -21156,7 +21639,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -21259,6 +21742,9 @@
       </c>
       <c r="AJ1" t="s">
         <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -21266,7 +21752,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -21368,6 +21854,9 @@
         <v>9.0</v>
       </c>
       <c r="AJ2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK2" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -21376,7 +21865,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -21478,6 +21967,9 @@
         <v>1.0</v>
       </c>
       <c r="AJ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK3" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -21486,7 +21978,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -21588,6 +22080,9 @@
         <v>12.0</v>
       </c>
       <c r="AJ4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AK4" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -21596,7 +22091,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -21698,6 +22193,9 @@
         <v>4.0</v>
       </c>
       <c r="AJ5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -21706,7 +22204,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -21808,6 +22306,9 @@
         <v>3.0</v>
       </c>
       <c r="AJ6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK6" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -21816,7 +22317,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -21919,6 +22420,9 @@
       </c>
       <c r="AJ7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -21926,7 +22430,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -22029,6 +22533,9 @@
       </c>
       <c r="AJ8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -22036,7 +22543,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -22139,6 +22646,9 @@
       </c>
       <c r="AJ9" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
@@ -22146,7 +22656,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -22248,6 +22758,9 @@
         <v>2.0</v>
       </c>
       <c r="AJ10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK10" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -22256,7 +22769,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -22359,6 +22872,9 @@
       </c>
       <c r="AJ11" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -22366,7 +22882,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -22468,6 +22984,9 @@
         <v>11.0</v>
       </c>
       <c r="AJ12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -22476,7 +22995,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -22578,6 +23097,9 @@
         <v>10.0</v>
       </c>
       <c r="AJ13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AK13" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -22597,7 +23119,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -22702,7 +23224,10 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -22710,7 +23235,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -22815,6 +23340,9 @@
         <v>2.0</v>
       </c>
       <c r="AK2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -22823,7 +23351,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -22928,6 +23456,9 @@
         <v>8.0</v>
       </c>
       <c r="AK3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -22936,7 +23467,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -23041,6 +23572,9 @@
         <v>9.0</v>
       </c>
       <c r="AK4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -23049,7 +23583,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -23154,6 +23688,9 @@
         <v>6.0</v>
       </c>
       <c r="AK5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -23162,7 +23699,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -23267,6 +23804,9 @@
         <v>3.0</v>
       </c>
       <c r="AK6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AL6" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -23275,7 +23815,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -23380,6 +23920,9 @@
         <v>1.0</v>
       </c>
       <c r="AK7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -23388,7 +23931,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -23493,6 +24036,9 @@
         <v>7.0</v>
       </c>
       <c r="AK8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -23501,7 +24047,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -23606,6 +24152,9 @@
         <v>4.0</v>
       </c>
       <c r="AK9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -23614,7 +24163,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -23719,6 +24268,9 @@
         <v>10.0</v>
       </c>
       <c r="AK10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AL10" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -23727,7 +24279,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -23832,6 +24384,9 @@
         <v>5.0</v>
       </c>
       <c r="AK11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -23946,6 +24501,9 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -24047,6 +24605,9 @@
       <c r="AG2" t="n">
         <v>14.0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -24148,6 +24709,9 @@
       <c r="AG3" t="n">
         <v>1.0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -24249,6 +24813,9 @@
       <c r="AG4" t="n">
         <v>17.0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -24350,6 +24917,9 @@
       <c r="AG5" t="n">
         <v>13.0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -24451,6 +25021,9 @@
       <c r="AG6" t="n">
         <v>2.0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -24552,6 +25125,9 @@
       <c r="AG7" t="n">
         <v>9.0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -24653,6 +25229,9 @@
       <c r="AG8" t="n">
         <v>7.0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -24754,6 +25333,9 @@
       <c r="AG9" t="n">
         <v>5.0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -24855,6 +25437,9 @@
       <c r="AG10" t="n">
         <v>18.0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -24956,6 +25541,9 @@
       <c r="AG11" t="n">
         <v>15.0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -25057,6 +25645,9 @@
       <c r="AG12" t="n">
         <v>8.0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -25158,6 +25749,9 @@
       <c r="AG13" t="n">
         <v>3.0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -25259,6 +25853,9 @@
       <c r="AG14" t="n">
         <v>10.0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -25360,6 +25957,9 @@
       <c r="AG15" t="n">
         <v>11.0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -25461,6 +26061,9 @@
       <c r="AG16" t="n">
         <v>4.0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -25562,6 +26165,9 @@
       <c r="AG17" t="n">
         <v>16.0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -25663,6 +26269,9 @@
       <c r="AG18" t="n">
         <v>6.0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -25763,6 +26372,9 @@
       </c>
       <c r="AG19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -25781,7 +26393,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -25886,7 +26498,10 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -25894,7 +26509,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -25999,6 +26614,9 @@
         <v>2.0</v>
       </c>
       <c r="AK2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -26007,7 +26625,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -26113,6 +26731,9 @@
       </c>
       <c r="AK3" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -26120,7 +26741,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -26225,6 +26846,9 @@
         <v>7.0</v>
       </c>
       <c r="AK4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -26233,7 +26857,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -26338,6 +26962,9 @@
         <v>1.0</v>
       </c>
       <c r="AK5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -26346,7 +26973,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -26451,6 +27078,9 @@
         <v>9.0</v>
       </c>
       <c r="AK6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AL6" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -26459,7 +27089,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -26564,6 +27194,9 @@
         <v>10.0</v>
       </c>
       <c r="AK7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -26572,7 +27205,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -26678,6 +27311,9 @@
       </c>
       <c r="AK8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -26685,7 +27321,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -26790,6 +27426,9 @@
         <v>3.0</v>
       </c>
       <c r="AK9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -26798,7 +27437,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -26903,6 +27542,9 @@
         <v>8.0</v>
       </c>
       <c r="AK10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AL10" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -26911,7 +27553,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -27016,6 +27658,9 @@
         <v>4.0</v>
       </c>
       <c r="AK11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -27035,7 +27680,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -27140,7 +27785,10 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -27148,7 +27796,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -27254,6 +27902,9 @@
       </c>
       <c r="AK2" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,7 +27912,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -27367,6 +28018,9 @@
       </c>
       <c r="AK3" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -27374,7 +28028,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -27479,6 +28133,9 @@
         <v>10.0</v>
       </c>
       <c r="AK4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -27487,7 +28144,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -27592,6 +28249,9 @@
         <v>4.0</v>
       </c>
       <c r="AK5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -27600,7 +28260,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -27706,6 +28366,9 @@
       </c>
       <c r="AK6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -27713,7 +28376,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -27819,6 +28482,9 @@
       </c>
       <c r="AK7" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -27826,7 +28492,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -27931,6 +28597,9 @@
         <v>1.0</v>
       </c>
       <c r="AK8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -27939,7 +28608,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -28044,6 +28713,9 @@
         <v>5.0</v>
       </c>
       <c r="AK9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -28052,7 +28724,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -28157,6 +28829,9 @@
         <v>7.0</v>
       </c>
       <c r="AK10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AL10" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -28165,7 +28840,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -28270,6 +28945,9 @@
         <v>6.0</v>
       </c>
       <c r="AK11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -28289,7 +28967,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -28392,6 +29070,9 @@
       </c>
       <c r="AJ1" t="s">
         <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -28399,7 +29080,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -28502,6 +29183,9 @@
       </c>
       <c r="AJ2" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -28509,7 +29193,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -28612,6 +29296,9 @@
       </c>
       <c r="AJ3" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -28619,7 +29306,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -28721,6 +29408,9 @@
         <v>17.0</v>
       </c>
       <c r="AJ4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AK4" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -28729,7 +29419,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -28832,6 +29522,9 @@
       </c>
       <c r="AJ5" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -28839,7 +29532,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -28942,6 +29635,9 @@
       </c>
       <c r="AJ6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -28949,7 +29645,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -29051,6 +29747,9 @@
         <v>4.0</v>
       </c>
       <c r="AJ7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK7" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -29059,7 +29758,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -29161,6 +29860,9 @@
         <v>2.0</v>
       </c>
       <c r="AJ8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK8" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -29169,7 +29871,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -29272,6 +29974,9 @@
       </c>
       <c r="AJ9" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
@@ -29279,7 +29984,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -29382,6 +30087,9 @@
       </c>
       <c r="AJ10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
@@ -29389,7 +30097,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -29492,6 +30200,9 @@
       </c>
       <c r="AJ11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
@@ -29499,7 +30210,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
@@ -29601,6 +30312,9 @@
         <v>19.0</v>
       </c>
       <c r="AJ12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -29609,7 +30323,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -29711,6 +30425,9 @@
         <v>9.0</v>
       </c>
       <c r="AJ13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AK13" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -29719,7 +30436,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -29822,6 +30539,9 @@
       </c>
       <c r="AJ14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
@@ -29829,7 +30549,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -29932,6 +30652,9 @@
       </c>
       <c r="AJ15" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -29939,7 +30662,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -30042,6 +30765,9 @@
       </c>
       <c r="AJ16" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -30049,7 +30775,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -30151,6 +30877,9 @@
         <v>3.0</v>
       </c>
       <c r="AJ17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK17" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -30159,7 +30888,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -30261,6 +30990,9 @@
         <v>18.0</v>
       </c>
       <c r="AJ18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -30269,7 +31001,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -30372,14 +31104,17 @@
       </c>
       <c r="AJ19" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C20" t="n">
         <v>8.0</v>
@@ -30481,15 +31216,18 @@
         <v>1.0</v>
       </c>
       <c r="AJ20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -30591,6 +31329,9 @@
         <v>20.0</v>
       </c>
       <c r="AJ21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -30705,6 +31446,9 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -30806,6 +31550,9 @@
       <c r="AG2" t="n">
         <v>3.0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -30907,6 +31654,9 @@
       <c r="AG3" t="n">
         <v>16.0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -31008,6 +31758,9 @@
       <c r="AG4" t="n">
         <v>17.0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -31109,6 +31862,9 @@
       <c r="AG5" t="n">
         <v>13.0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -31210,6 +31966,9 @@
       <c r="AG6" t="n">
         <v>5.0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -31311,6 +32070,9 @@
       <c r="AG7" t="n">
         <v>15.0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -31412,6 +32174,9 @@
       <c r="AG8" t="n">
         <v>10.0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -31513,6 +32278,9 @@
       <c r="AG9" t="n">
         <v>8.0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -31614,6 +32382,9 @@
       <c r="AG10" t="n">
         <v>11.0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -31715,6 +32486,9 @@
       <c r="AG11" t="n">
         <v>18.0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -31816,6 +32590,9 @@
       <c r="AG12" t="n">
         <v>9.0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -31917,6 +32694,9 @@
       <c r="AG13" t="n">
         <v>6.0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -32018,6 +32798,9 @@
       <c r="AG14" t="n">
         <v>7.0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -32119,6 +32902,9 @@
       <c r="AG15" t="n">
         <v>12.0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -32220,6 +33006,9 @@
       <c r="AG16" t="n">
         <v>14.0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -32321,6 +33110,9 @@
       <c r="AG17" t="n">
         <v>2.0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -32422,6 +33214,9 @@
       <c r="AG18" t="n">
         <v>4.0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -32522,6 +33317,9 @@
       </c>
       <c r="AG19" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -32644,13 +33442,16 @@
       <c r="AJ1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -32752,6 +33553,9 @@
         <v>4.0</v>
       </c>
       <c r="AJ2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK2" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -32760,7 +33564,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -32862,7 +33666,10 @@
         <v>14.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
@@ -32870,7 +33677,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -32972,7 +33779,10 @@
         <v>12.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
@@ -32980,7 +33790,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -33082,7 +33892,10 @@
         <v>11.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -33090,7 +33903,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -33192,7 +34005,10 @@
         <v>17.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
@@ -33200,7 +34016,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -33302,6 +34118,9 @@
         <v>3.0</v>
       </c>
       <c r="AJ7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK7" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -33310,7 +34129,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -33412,7 +34231,10 @@
         <v>15.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
@@ -33420,7 +34242,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -33522,6 +34344,9 @@
         <v>18.0</v>
       </c>
       <c r="AJ9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AK9" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -33530,7 +34355,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -33632,7 +34457,10 @@
         <v>16.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
@@ -33640,7 +34468,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -33742,7 +34570,10 @@
         <v>10.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -33750,7 +34581,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -33852,6 +34683,9 @@
         <v>2.0</v>
       </c>
       <c r="AJ12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -33860,7 +34694,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -33962,6 +34796,9 @@
         <v>1.0</v>
       </c>
       <c r="AJ13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -33970,7 +34807,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -34072,6 +34909,9 @@
         <v>6.0</v>
       </c>
       <c r="AJ14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK14" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -34080,7 +34920,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -34182,7 +35022,10 @@
         <v>9.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -34190,7 +35033,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -34292,6 +35135,9 @@
         <v>20.0</v>
       </c>
       <c r="AJ16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -34300,7 +35146,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -34402,7 +35248,10 @@
         <v>13.0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
@@ -34410,7 +35259,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" t="n">
         <v>8.0</v>
@@ -34512,6 +35361,9 @@
         <v>5.0</v>
       </c>
       <c r="AJ18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -34520,7 +35372,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" t="n">
         <v>9.0</v>
@@ -34622,15 +35474,18 @@
         <v>19.0</v>
       </c>
       <c r="AJ19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" t="n">
         <v>10.0</v>
@@ -34732,15 +35587,18 @@
         <v>7.0</v>
       </c>
       <c r="AJ20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -34842,6 +35700,9 @@
         <v>8.0</v>
       </c>
       <c r="AJ21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -34861,7 +35722,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -34966,7 +35827,7 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="AL1" t="s">
         <v>134</v>
@@ -34994,6 +35855,9 @@
       </c>
       <c r="AT1" t="s">
         <v>142</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
@@ -35001,7 +35865,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -35133,6 +35997,9 @@
         <v>24.0</v>
       </c>
       <c r="AT2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AU2" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -35141,7 +36008,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -35274,6 +36141,9 @@
       </c>
       <c r="AT3" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="4">
@@ -35281,7 +36151,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -35414,6 +36284,9 @@
       </c>
       <c r="AT4" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -35421,7 +36294,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -35554,6 +36427,9 @@
       </c>
       <c r="AT5" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
@@ -35561,7 +36437,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -35693,6 +36569,9 @@
         <v>2.0</v>
       </c>
       <c r="AT6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU6" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -35701,7 +36580,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -35833,6 +36712,9 @@
         <v>17.0</v>
       </c>
       <c r="AT7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AU7" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -35841,7 +36723,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -35974,6 +36856,9 @@
       </c>
       <c r="AT8" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -35981,7 +36866,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -36114,6 +36999,9 @@
       </c>
       <c r="AT9" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
@@ -36121,7 +37009,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
         <v>12.0</v>
@@ -36253,6 +37141,9 @@
         <v>18.0</v>
       </c>
       <c r="AT10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AU10" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -36261,7 +37152,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -36393,6 +37284,9 @@
         <v>1.0</v>
       </c>
       <c r="AT11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -36401,7 +37295,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -36533,6 +37427,9 @@
         <v>3.0</v>
       </c>
       <c r="AT12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU12" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -36541,7 +37438,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -36674,6 +37571,9 @@
       </c>
       <c r="AT13" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
@@ -36681,7 +37581,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -36813,6 +37713,9 @@
         <v>4.0</v>
       </c>
       <c r="AT14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AU14" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -36821,7 +37724,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -36953,6 +37856,9 @@
         <v>9.0</v>
       </c>
       <c r="AT15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AU15" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -36961,7 +37867,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -37094,6 +38000,9 @@
       </c>
       <c r="AT16" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -37101,7 +38010,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -37233,6 +38142,9 @@
         <v>5.0</v>
       </c>
       <c r="AT17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AU17" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -37241,7 +38153,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
         <v>20.0</v>
@@ -37373,6 +38285,9 @@
         <v>23.0</v>
       </c>
       <c r="AT18" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AU18" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -37381,7 +38296,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -37514,14 +38429,17 @@
       </c>
       <c r="AT19" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="n">
         <v>17.0</v>
@@ -37654,14 +38572,17 @@
       </c>
       <c r="AT20" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -37794,14 +38715,17 @@
       </c>
       <c r="AT21" t="n">
         <v>21.0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -37933,15 +38857,18 @@
         <v>7.0</v>
       </c>
       <c r="AT22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AU22" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
         <v>6.0</v>
@@ -38074,14 +39001,17 @@
       </c>
       <c r="AT23" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -38214,14 +39144,17 @@
       </c>
       <c r="AT24" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -38354,6 +39287,9 @@
       </c>
       <c r="AT25" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -38372,7 +39308,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -38477,7 +39413,7 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="AL1" t="s">
         <v>134</v>
@@ -38507,7 +39443,10 @@
         <v>142</v>
       </c>
       <c r="AU1" t="s">
-        <v>172</v>
+        <v>143</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -38515,7 +39454,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" t="n">
         <v>19.0</v>
@@ -38651,6 +39590,9 @@
       </c>
       <c r="AU2" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
@@ -38658,7 +39600,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -38794,6 +39736,9 @@
       </c>
       <c r="AU3" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
@@ -38801,7 +39746,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -38937,6 +39882,9 @@
       </c>
       <c r="AU4" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -38944,7 +39892,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -39079,6 +40027,9 @@
         <v>16.0</v>
       </c>
       <c r="AU5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AV5" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -39087,7 +40038,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -39222,6 +40173,9 @@
         <v>14.0</v>
       </c>
       <c r="AU6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AV6" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -39230,7 +40184,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -39366,6 +40320,9 @@
       </c>
       <c r="AU7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -39373,7 +40330,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -39508,6 +40465,9 @@
         <v>15.0</v>
       </c>
       <c r="AU8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AV8" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -39516,7 +40476,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -39651,6 +40611,9 @@
         <v>24.0</v>
       </c>
       <c r="AU9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AV9" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -39659,7 +40622,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" t="n">
         <v>20.0</v>
@@ -39795,6 +40758,9 @@
       </c>
       <c r="AU10" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="11">
@@ -39802,7 +40768,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" t="n">
         <v>21.0</v>
@@ -39937,6 +40903,9 @@
         <v>21.0</v>
       </c>
       <c r="AU11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AV11" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -39945,7 +40914,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -40080,6 +41049,9 @@
         <v>20.0</v>
       </c>
       <c r="AU12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AV12" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -40088,7 +41060,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -40223,6 +41195,9 @@
         <v>11.0</v>
       </c>
       <c r="AU13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AV13" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -40231,7 +41206,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -40367,6 +41342,9 @@
       </c>
       <c r="AU14" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
@@ -40374,7 +41352,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -40509,6 +41487,9 @@
         <v>2.0</v>
       </c>
       <c r="AU15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AV15" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -40517,7 +41498,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -40652,6 +41633,9 @@
         <v>19.0</v>
       </c>
       <c r="AU16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AV16" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -40660,7 +41644,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -40795,6 +41779,9 @@
         <v>8.0</v>
       </c>
       <c r="AU17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AV17" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -40803,7 +41790,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -40939,6 +41926,9 @@
       </c>
       <c r="AU18" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
@@ -40946,7 +41936,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -41082,14 +42072,17 @@
       </c>
       <c r="AU19" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="n">
         <v>4.0</v>
@@ -41224,15 +42217,18 @@
         <v>3.0</v>
       </c>
       <c r="AU20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV20" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="n">
         <v>18.0</v>
@@ -41367,15 +42363,18 @@
         <v>5.0</v>
       </c>
       <c r="AU21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AV21" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -41511,14 +42510,17 @@
       </c>
       <c r="AU22" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" t="n">
         <v>5.0</v>
@@ -41653,15 +42655,18 @@
         <v>6.0</v>
       </c>
       <c r="AU23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AV23" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -41796,15 +42801,18 @@
         <v>1.0</v>
       </c>
       <c r="AU24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV24" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C25" t="n">
         <v>6.0</v>
@@ -41940,6 +42948,9 @@
       </c>
       <c r="AU25" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -41958,7 +42969,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -42063,7 +43074,7 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="AL1" t="s">
         <v>134</v>
@@ -42091,6 +43102,9 @@
       </c>
       <c r="AT1" t="s">
         <v>142</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
@@ -42098,7 +43112,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C2" t="n">
         <v>16.0</v>
@@ -42230,6 +43244,9 @@
         <v>21.0</v>
       </c>
       <c r="AT2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AU2" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -42238,7 +43255,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -42371,6 +43388,9 @@
       </c>
       <c r="AT3" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -42378,7 +43398,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -42511,6 +43531,9 @@
       </c>
       <c r="AT4" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -42518,7 +43541,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -42651,6 +43674,9 @@
       </c>
       <c r="AT5" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -42658,7 +43684,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" t="n">
         <v>12.0</v>
@@ -42791,6 +43817,9 @@
       </c>
       <c r="AT6" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
@@ -42798,7 +43827,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" t="n">
         <v>18.0</v>
@@ -42930,6 +43959,9 @@
         <v>12.0</v>
       </c>
       <c r="AT7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AU7" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -42938,7 +43970,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C8" t="n">
         <v>13.0</v>
@@ -43070,6 +44102,9 @@
         <v>2.0</v>
       </c>
       <c r="AT8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -43078,7 +44113,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -43210,6 +44245,9 @@
         <v>1.0</v>
       </c>
       <c r="AT9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU9" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -43218,7 +44256,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -43351,6 +44389,9 @@
       </c>
       <c r="AT10" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
@@ -43358,7 +44399,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -43491,6 +44532,9 @@
       </c>
       <c r="AT11" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
@@ -43498,7 +44542,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -43630,6 +44674,9 @@
         <v>13.0</v>
       </c>
       <c r="AT12" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AU12" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -43638,7 +44685,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -43771,6 +44818,9 @@
       </c>
       <c r="AT13" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -43778,7 +44828,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -43910,6 +44960,9 @@
         <v>9.0</v>
       </c>
       <c r="AT14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AU14" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -43918,7 +44971,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -44051,6 +45104,9 @@
       </c>
       <c r="AT15" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -44058,7 +45114,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -44190,6 +45246,9 @@
         <v>23.0</v>
       </c>
       <c r="AT16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AU16" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -44198,7 +45257,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -44331,6 +45390,9 @@
       </c>
       <c r="AT17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -44338,7 +45400,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -44470,6 +45532,9 @@
         <v>18.0</v>
       </c>
       <c r="AT18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AU18" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -44478,7 +45543,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" t="n">
         <v>15.0</v>
@@ -44611,14 +45676,17 @@
       </c>
       <c r="AT19" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C20" t="n">
         <v>22.0</v>
@@ -44750,15 +45818,18 @@
         <v>24.0</v>
       </c>
       <c r="AT20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AU20" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -44890,15 +45961,18 @@
         <v>22.0</v>
       </c>
       <c r="AT21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AU21" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -45031,14 +46105,17 @@
       </c>
       <c r="AT22" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C23" t="n">
         <v>8.0</v>
@@ -45171,14 +46248,17 @@
       </c>
       <c r="AT23" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -45311,14 +46391,17 @@
       </c>
       <c r="AT24" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C25" t="n">
         <v>24.0</v>
@@ -45451,6 +46534,9 @@
       </c>
       <c r="AT25" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
@@ -45469,7 +46555,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -45574,7 +46660,7 @@
         <v>34</v>
       </c>
       <c r="AK1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="AL1" t="s">
         <v>134</v>
@@ -45587,6 +46673,12 @@
       </c>
       <c r="AO1" t="s">
         <v>137</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -45594,7 +46686,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -45712,6 +46804,12 @@
       </c>
       <c r="AO2" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="3">
@@ -45719,7 +46817,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -45836,7 +46934,13 @@
         <v>15.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -45844,7 +46948,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -45961,7 +47065,13 @@
         <v>18.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
@@ -45969,7 +47079,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -46086,6 +47196,12 @@
         <v>9.0</v>
       </c>
       <c r="AO5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -46094,7 +47210,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -46211,7 +47327,13 @@
         <v>11.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
@@ -46219,7 +47341,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -46337,6 +47459,12 @@
       </c>
       <c r="AO7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -46344,7 +47472,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -46461,6 +47589,12 @@
         <v>8.0</v>
       </c>
       <c r="AO8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -46469,7 +47603,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -46586,6 +47720,12 @@
         <v>23.0</v>
       </c>
       <c r="AO9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -46594,7 +47734,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -46712,6 +47852,12 @@
       </c>
       <c r="AO10" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
@@ -46719,7 +47865,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -46836,6 +47982,12 @@
         <v>6.0</v>
       </c>
       <c r="AO11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -46844,7 +47996,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -46961,6 +48113,12 @@
         <v>3.0</v>
       </c>
       <c r="AO12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -46969,7 +48127,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -47086,6 +48244,12 @@
         <v>21.0</v>
       </c>
       <c r="AO13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -47094,7 +48258,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -47211,6 +48375,12 @@
         <v>16.0</v>
       </c>
       <c r="AO14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -47219,7 +48389,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -47336,7 +48506,13 @@
         <v>7.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -47344,7 +48520,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -47461,6 +48637,12 @@
         <v>4.0</v>
       </c>
       <c r="AO16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -47469,7 +48651,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -47586,6 +48768,12 @@
         <v>13.0</v>
       </c>
       <c r="AO17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -47594,7 +48782,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -47711,6 +48899,12 @@
         <v>1.0</v>
       </c>
       <c r="AO18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -47719,7 +48913,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -47836,15 +49030,21 @@
         <v>10.0</v>
       </c>
       <c r="AO19" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C20" t="n">
         <v>21.0</v>
@@ -47961,15 +49161,21 @@
         <v>17.0</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -48086,15 +49292,21 @@
         <v>22.0</v>
       </c>
       <c r="AO21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -48211,15 +49423,21 @@
         <v>14.0</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C23" t="n">
         <v>10.0</v>
@@ -48336,15 +49554,21 @@
         <v>2.0</v>
       </c>
       <c r="AO23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" t="n">
         <v>23.0</v>
@@ -48461,6 +49685,12 @@
         <v>12.0</v>
       </c>
       <c r="AO24" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -48480,7 +49710,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -48583,6 +49813,9 @@
       </c>
       <c r="AJ1" t="s">
         <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -48590,7 +49823,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -48693,6 +49926,9 @@
       </c>
       <c r="AJ2" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
@@ -48700,7 +49936,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C3" t="n">
         <v>17.0</v>
@@ -48802,6 +50038,9 @@
         <v>19.0</v>
       </c>
       <c r="AJ3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AK3" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -48810,7 +50049,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -48912,6 +50151,9 @@
         <v>11.0</v>
       </c>
       <c r="AJ4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AK4" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -48920,7 +50162,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -49023,6 +50265,9 @@
       </c>
       <c r="AJ5" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -49030,7 +50275,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C6" t="n">
         <v>6.0</v>
@@ -49133,6 +50378,9 @@
       </c>
       <c r="AJ6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -49140,7 +50388,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -49242,6 +50490,9 @@
         <v>9.0</v>
       </c>
       <c r="AJ7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK7" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -49250,7 +50501,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -49353,6 +50604,9 @@
       </c>
       <c r="AJ8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
@@ -49360,7 +50614,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -49463,6 +50717,9 @@
       </c>
       <c r="AJ9" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
@@ -49470,7 +50727,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -49572,6 +50829,9 @@
         <v>2.0</v>
       </c>
       <c r="AJ10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK10" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -49580,7 +50840,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -49682,6 +50942,9 @@
         <v>20.0</v>
       </c>
       <c r="AJ11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AK11" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -49690,7 +50953,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -49792,6 +51055,9 @@
         <v>3.0</v>
       </c>
       <c r="AJ12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -49800,7 +51066,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -49902,6 +51168,9 @@
         <v>12.0</v>
       </c>
       <c r="AJ13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AK13" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -49910,7 +51179,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -50012,6 +51281,9 @@
         <v>10.0</v>
       </c>
       <c r="AJ14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AK14" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -50020,7 +51292,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -50122,6 +51394,9 @@
         <v>6.0</v>
       </c>
       <c r="AJ15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK15" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -50130,7 +51405,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -50232,6 +51507,9 @@
         <v>1.0</v>
       </c>
       <c r="AJ16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -50240,7 +51518,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -50342,6 +51620,9 @@
         <v>13.0</v>
       </c>
       <c r="AJ17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AK17" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -50350,7 +51631,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -50452,6 +51733,9 @@
         <v>4.0</v>
       </c>
       <c r="AJ18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -50460,7 +51744,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C19" t="n">
         <v>16.0</v>
@@ -50562,15 +51846,18 @@
         <v>18.0</v>
       </c>
       <c r="AJ19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -50672,15 +51959,18 @@
         <v>5.0</v>
       </c>
       <c r="AJ20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -50783,6 +52073,9 @@
       </c>
       <c r="AJ21" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="495">
   <si>
     <t>b1_teams</t>
   </si>
@@ -371,6 +371,12 @@
     <t>X36</t>
   </si>
   <si>
+    <t>X37</t>
+  </si>
+  <si>
+    <t>X38</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -438,12 +444,6 @@
   </si>
   <si>
     <t>e1_teams</t>
-  </si>
-  <si>
-    <t>X37</t>
-  </si>
-  <si>
-    <t>X38</t>
   </si>
   <si>
     <t>X39</t>
@@ -3783,7 +3783,10 @@
         <v>111</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -3904,6 +3907,9 @@
       <c r="AM2" t="n">
         <v>2.0</v>
       </c>
+      <c r="AN2" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4023,6 +4029,9 @@
       <c r="AM3" t="n">
         <v>13.0</v>
       </c>
+      <c r="AN3" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4142,6 +4151,9 @@
       <c r="AM4" t="n">
         <v>3.0</v>
       </c>
+      <c r="AN4" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4261,6 +4273,9 @@
       <c r="AM5" t="n">
         <v>15.0</v>
       </c>
+      <c r="AN5" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4380,6 +4395,9 @@
       <c r="AM6" t="n">
         <v>7.0</v>
       </c>
+      <c r="AN6" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4499,6 +4517,9 @@
       <c r="AM7" t="n">
         <v>10.0</v>
       </c>
+      <c r="AN7" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4618,6 +4639,9 @@
       <c r="AM8" t="n">
         <v>19.0</v>
       </c>
+      <c r="AN8" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4737,6 +4761,9 @@
       <c r="AM9" t="n">
         <v>14.0</v>
       </c>
+      <c r="AN9" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4856,6 +4883,9 @@
       <c r="AM10" t="n">
         <v>6.0</v>
       </c>
+      <c r="AN10" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4975,6 +5005,9 @@
       <c r="AM11" t="n">
         <v>8.0</v>
       </c>
+      <c r="AN11" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -5094,6 +5127,9 @@
       <c r="AM12" t="n">
         <v>20.0</v>
       </c>
+      <c r="AN12" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5213,6 +5249,9 @@
       <c r="AM13" t="n">
         <v>9.0</v>
       </c>
+      <c r="AN13" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -5332,6 +5371,9 @@
       <c r="AM14" t="n">
         <v>11.0</v>
       </c>
+      <c r="AN14" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -5451,6 +5493,9 @@
       <c r="AM15" t="n">
         <v>4.0</v>
       </c>
+      <c r="AN15" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -5570,6 +5615,9 @@
       <c r="AM16" t="n">
         <v>12.0</v>
       </c>
+      <c r="AN16" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -5689,6 +5737,9 @@
       <c r="AM17" t="n">
         <v>18.0</v>
       </c>
+      <c r="AN17" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -5808,6 +5859,9 @@
       <c r="AM18" t="n">
         <v>17.0</v>
       </c>
+      <c r="AN18" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -5927,10 +5981,13 @@
       <c r="AM19" t="n">
         <v>5.0</v>
       </c>
+      <c r="AN19" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>287</v>
@@ -6044,12 +6101,15 @@
         <v>1.0</v>
       </c>
       <c r="AM20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>288</v>
@@ -6163,6 +6223,9 @@
         <v>16.0</v>
       </c>
       <c r="AM21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -6283,6 +6346,12 @@
       <c r="AI1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -6390,6 +6459,12 @@
       <c r="AI2" t="n">
         <v>4.0</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -6497,6 +6572,12 @@
       <c r="AI3" t="n">
         <v>14.0</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -6604,6 +6685,12 @@
       <c r="AI4" t="n">
         <v>5.0</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -6711,6 +6798,12 @@
       <c r="AI5" t="n">
         <v>9.0</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -6818,6 +6911,12 @@
       <c r="AI6" t="n">
         <v>12.0</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -6925,6 +7024,12 @@
       <c r="AI7" t="n">
         <v>6.0</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -7032,6 +7137,12 @@
       <c r="AI8" t="n">
         <v>8.0</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -7139,6 +7250,12 @@
       <c r="AI9" t="n">
         <v>13.0</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -7246,6 +7363,12 @@
       <c r="AI10" t="n">
         <v>7.0</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -7353,6 +7476,12 @@
       <c r="AI11" t="n">
         <v>1.0</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -7460,6 +7589,12 @@
       <c r="AI12" t="n">
         <v>3.0</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -7565,7 +7700,13 @@
         <v>10.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -7674,6 +7815,12 @@
       <c r="AI14" t="n">
         <v>2.0</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -7779,7 +7926,13 @@
         <v>11.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -7908,6 +8061,12 @@
       <c r="AL1" t="s">
         <v>111</v>
       </c>
+      <c r="AM1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -8024,6 +8183,12 @@
       <c r="AL2" t="n">
         <v>6.0</v>
       </c>
+      <c r="AM2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -8140,6 +8305,12 @@
       <c r="AL3" t="n">
         <v>13.0</v>
       </c>
+      <c r="AM3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -8256,6 +8427,12 @@
       <c r="AL4" t="n">
         <v>18.0</v>
       </c>
+      <c r="AM4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -8372,6 +8549,12 @@
       <c r="AL5" t="n">
         <v>14.0</v>
       </c>
+      <c r="AM5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -8488,6 +8671,12 @@
       <c r="AL6" t="n">
         <v>7.0</v>
       </c>
+      <c r="AM6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -8604,6 +8793,12 @@
       <c r="AL7" t="n">
         <v>19.0</v>
       </c>
+      <c r="AM7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -8720,6 +8915,12 @@
       <c r="AL8" t="n">
         <v>2.0</v>
       </c>
+      <c r="AM8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -8836,6 +9037,12 @@
       <c r="AL9" t="n">
         <v>4.0</v>
       </c>
+      <c r="AM9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -8952,6 +9159,12 @@
       <c r="AL10" t="n">
         <v>5.0</v>
       </c>
+      <c r="AM10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -9068,6 +9281,12 @@
       <c r="AL11" t="n">
         <v>1.0</v>
       </c>
+      <c r="AM11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -9184,6 +9403,12 @@
       <c r="AL12" t="n">
         <v>3.0</v>
       </c>
+      <c r="AM12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -9300,6 +9525,12 @@
       <c r="AL13" t="n">
         <v>8.0</v>
       </c>
+      <c r="AM13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -9416,6 +9647,12 @@
       <c r="AL14" t="n">
         <v>17.0</v>
       </c>
+      <c r="AM14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -9532,6 +9769,12 @@
       <c r="AL15" t="n">
         <v>15.0</v>
       </c>
+      <c r="AM15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -9648,6 +9891,12 @@
       <c r="AL16" t="n">
         <v>10.0</v>
       </c>
+      <c r="AM16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -9764,6 +10013,12 @@
       <c r="AL17" t="n">
         <v>16.0</v>
       </c>
+      <c r="AM17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -9880,6 +10135,12 @@
       <c r="AL18" t="n">
         <v>11.0</v>
       </c>
+      <c r="AM18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -9996,10 +10257,16 @@
       <c r="AL19" t="n">
         <v>12.0</v>
       </c>
+      <c r="AM19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>323</v>
@@ -10110,12 +10377,18 @@
         <v>20.0</v>
       </c>
       <c r="AL20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>324</v>
@@ -10226,6 +10499,12 @@
         <v>9.0</v>
       </c>
       <c r="AL21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -10356,10 +10635,10 @@
         <v>111</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -12560,7 +12839,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>344</v>
@@ -12682,7 +12961,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>345</v>
@@ -12919,6 +13198,9 @@
       <c r="AI1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -13026,6 +13308,9 @@
       <c r="AI2" t="n">
         <v>1.0</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -13133,6 +13418,9 @@
       <c r="AI3" t="n">
         <v>5.0</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -13240,6 +13528,9 @@
       <c r="AI4" t="n">
         <v>10.0</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -13347,6 +13638,9 @@
       <c r="AI5" t="n">
         <v>3.0</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -13454,6 +13748,9 @@
       <c r="AI6" t="n">
         <v>15.0</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -13561,6 +13858,9 @@
       <c r="AI7" t="n">
         <v>11.0</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -13668,6 +13968,9 @@
       <c r="AI8" t="n">
         <v>12.0</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -13775,6 +14078,9 @@
       <c r="AI9" t="n">
         <v>8.0</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -13882,6 +14188,9 @@
       <c r="AI10" t="n">
         <v>14.0</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -13989,6 +14298,9 @@
       <c r="AI11" t="n">
         <v>9.0</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -14096,6 +14408,9 @@
       <c r="AI12" t="n">
         <v>2.0</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -14203,6 +14518,9 @@
       <c r="AI13" t="n">
         <v>16.0</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -14310,6 +14628,9 @@
       <c r="AI14" t="n">
         <v>4.0</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -14417,6 +14738,9 @@
       <c r="AI15" t="n">
         <v>7.0</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -14524,6 +14848,9 @@
       <c r="AI16" t="n">
         <v>6.0</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -14631,6 +14958,9 @@
       <c r="AI17" t="n">
         <v>13.0</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -14738,6 +15068,9 @@
       <c r="AI18" t="n">
         <v>17.0</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -14843,6 +15176,9 @@
         <v>18.0</v>
       </c>
       <c r="AI19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -14963,6 +15299,9 @@
       <c r="AI1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -15070,6 +15409,9 @@
       <c r="AI2" t="n">
         <v>15.0</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -15177,6 +15519,9 @@
       <c r="AI3" t="n">
         <v>18.0</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -15284,6 +15629,9 @@
       <c r="AI4" t="n">
         <v>3.0</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -15391,6 +15739,9 @@
       <c r="AI5" t="n">
         <v>11.0</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -15498,6 +15849,9 @@
       <c r="AI6" t="n">
         <v>8.0</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -15605,6 +15959,9 @@
       <c r="AI7" t="n">
         <v>12.0</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -15712,6 +16069,9 @@
       <c r="AI8" t="n">
         <v>5.0</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -15819,6 +16179,9 @@
       <c r="AI9" t="n">
         <v>6.0</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -15926,6 +16289,9 @@
       <c r="AI10" t="n">
         <v>9.0</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -16033,6 +16399,9 @@
       <c r="AI11" t="n">
         <v>17.0</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -16140,6 +16509,9 @@
       <c r="AI12" t="n">
         <v>10.0</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -16247,6 +16619,9 @@
       <c r="AI13" t="n">
         <v>13.0</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -16354,6 +16729,9 @@
       <c r="AI14" t="n">
         <v>1.0</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -16461,6 +16839,9 @@
       <c r="AI15" t="n">
         <v>7.0</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -16568,6 +16949,9 @@
       <c r="AI16" t="n">
         <v>4.0</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -16675,6 +17059,9 @@
       <c r="AI17" t="n">
         <v>2.0</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -16782,6 +17169,9 @@
       <c r="AI18" t="n">
         <v>16.0</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -16887,6 +17277,9 @@
         <v>14.0</v>
       </c>
       <c r="AI19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -17016,6 +17409,12 @@
       <c r="AL1" t="s">
         <v>111</v>
       </c>
+      <c r="AM1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -17132,6 +17531,12 @@
       <c r="AL2" t="n">
         <v>19.0</v>
       </c>
+      <c r="AM2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -17248,6 +17653,12 @@
       <c r="AL3" t="n">
         <v>8.0</v>
       </c>
+      <c r="AM3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -17364,6 +17775,12 @@
       <c r="AL4" t="n">
         <v>3.0</v>
       </c>
+      <c r="AM4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -17480,6 +17897,12 @@
       <c r="AL5" t="n">
         <v>2.0</v>
       </c>
+      <c r="AM5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -17596,6 +18019,12 @@
       <c r="AL6" t="n">
         <v>5.0</v>
       </c>
+      <c r="AM6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -17712,6 +18141,12 @@
       <c r="AL7" t="n">
         <v>17.0</v>
       </c>
+      <c r="AM7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -17828,6 +18263,12 @@
       <c r="AL8" t="n">
         <v>11.0</v>
       </c>
+      <c r="AM8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -17944,6 +18385,12 @@
       <c r="AL9" t="n">
         <v>14.0</v>
       </c>
+      <c r="AM9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -18060,6 +18507,12 @@
       <c r="AL10" t="n">
         <v>13.0</v>
       </c>
+      <c r="AM10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -18176,6 +18629,12 @@
       <c r="AL11" t="n">
         <v>15.0</v>
       </c>
+      <c r="AM11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -18292,6 +18751,12 @@
       <c r="AL12" t="n">
         <v>16.0</v>
       </c>
+      <c r="AM12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -18408,6 +18873,12 @@
       <c r="AL13" t="n">
         <v>20.0</v>
       </c>
+      <c r="AM13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -18524,6 +18995,12 @@
       <c r="AL14" t="n">
         <v>18.0</v>
       </c>
+      <c r="AM14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -18640,6 +19117,12 @@
       <c r="AL15" t="n">
         <v>9.0</v>
       </c>
+      <c r="AM15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -18756,6 +19239,12 @@
       <c r="AL16" t="n">
         <v>1.0</v>
       </c>
+      <c r="AM16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -18872,6 +19361,12 @@
       <c r="AL17" t="n">
         <v>4.0</v>
       </c>
+      <c r="AM17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -18988,6 +19483,12 @@
       <c r="AL18" t="n">
         <v>6.0</v>
       </c>
+      <c r="AM18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -19104,10 +19605,16 @@
       <c r="AL19" t="n">
         <v>10.0</v>
       </c>
+      <c r="AM19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>403</v>
@@ -19219,11 +19726,17 @@
       </c>
       <c r="AL20" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>404</v>
@@ -19334,6 +19847,12 @@
         <v>7.0</v>
       </c>
       <c r="AL21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -19464,13 +19983,19 @@
         <v>111</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO1" t="s">
         <v>137</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -19597,6 +20122,12 @@
       <c r="AO2" t="n">
         <v>22.0</v>
       </c>
+      <c r="AP2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -19722,6 +20253,12 @@
       <c r="AO3" t="n">
         <v>1.0</v>
       </c>
+      <c r="AP3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -19847,6 +20384,12 @@
       <c r="AO4" t="n">
         <v>20.0</v>
       </c>
+      <c r="AP4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -19972,6 +20515,12 @@
       <c r="AO5" t="n">
         <v>12.0</v>
       </c>
+      <c r="AP5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -20097,6 +20646,12 @@
       <c r="AO6" t="n">
         <v>9.0</v>
       </c>
+      <c r="AP6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -20222,6 +20777,12 @@
       <c r="AO7" t="n">
         <v>2.0</v>
       </c>
+      <c r="AP7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -20347,6 +20908,12 @@
       <c r="AO8" t="n">
         <v>21.0</v>
       </c>
+      <c r="AP8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -20472,6 +21039,12 @@
       <c r="AO9" t="n">
         <v>5.0</v>
       </c>
+      <c r="AP9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -20597,6 +21170,12 @@
       <c r="AO10" t="n">
         <v>11.0</v>
       </c>
+      <c r="AP10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -20722,6 +21301,12 @@
       <c r="AO11" t="n">
         <v>10.0</v>
       </c>
+      <c r="AP11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -20847,6 +21432,12 @@
       <c r="AO12" t="n">
         <v>8.0</v>
       </c>
+      <c r="AP12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -20972,6 +21563,12 @@
       <c r="AO13" t="n">
         <v>13.0</v>
       </c>
+      <c r="AP13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -21097,6 +21694,12 @@
       <c r="AO14" t="n">
         <v>15.0</v>
       </c>
+      <c r="AP14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -21222,6 +21825,12 @@
       <c r="AO15" t="n">
         <v>17.0</v>
       </c>
+      <c r="AP15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -21347,6 +21956,12 @@
       <c r="AO16" t="n">
         <v>16.0</v>
       </c>
+      <c r="AP16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -21472,6 +22087,12 @@
       <c r="AO17" t="n">
         <v>6.0</v>
       </c>
+      <c r="AP17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -21597,6 +22218,12 @@
       <c r="AO18" t="n">
         <v>7.0</v>
       </c>
+      <c r="AP18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -21722,10 +22349,16 @@
       <c r="AO19" t="n">
         <v>19.0</v>
       </c>
+      <c r="AP19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>424</v>
@@ -21846,11 +22479,17 @@
       </c>
       <c r="AO20" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>425</v>
@@ -21970,6 +22609,12 @@
         <v>4.0</v>
       </c>
       <c r="AO21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -22097,6 +22742,12 @@
       <c r="AO22" t="n">
         <v>3.0</v>
       </c>
+      <c r="AP22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -22221,6 +22872,12 @@
       </c>
       <c r="AO23" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -22350,7 +23007,10 @@
         <v>111</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -22471,6 +23131,9 @@
       <c r="AM2" t="n">
         <v>10.0</v>
       </c>
+      <c r="AN2" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -22590,6 +23253,9 @@
       <c r="AM3" t="n">
         <v>1.0</v>
       </c>
+      <c r="AN3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -22709,6 +23375,9 @@
       <c r="AM4" t="n">
         <v>12.0</v>
       </c>
+      <c r="AN4" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -22828,6 +23497,9 @@
       <c r="AM5" t="n">
         <v>6.0</v>
       </c>
+      <c r="AN5" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -22947,6 +23619,9 @@
       <c r="AM6" t="n">
         <v>3.0</v>
       </c>
+      <c r="AN6" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -23066,6 +23741,9 @@
       <c r="AM7" t="n">
         <v>8.0</v>
       </c>
+      <c r="AN7" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -23185,6 +23863,9 @@
       <c r="AM8" t="n">
         <v>4.0</v>
       </c>
+      <c r="AN8" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -23304,6 +23985,9 @@
       <c r="AM9" t="n">
         <v>5.0</v>
       </c>
+      <c r="AN9" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -23423,6 +24107,9 @@
       <c r="AM10" t="n">
         <v>2.0</v>
       </c>
+      <c r="AN10" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -23542,6 +24229,9 @@
       <c r="AM11" t="n">
         <v>9.0</v>
       </c>
+      <c r="AN11" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -23661,6 +24351,9 @@
       <c r="AM12" t="n">
         <v>11.0</v>
       </c>
+      <c r="AN12" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -23779,6 +24472,9 @@
       </c>
       <c r="AM13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -25185,6 +25881,9 @@
       <c r="AI1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -25292,6 +25991,9 @@
       <c r="AI2" t="n">
         <v>14.0</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -25399,6 +26101,9 @@
       <c r="AI3" t="n">
         <v>1.0</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -25506,6 +26211,9 @@
       <c r="AI4" t="n">
         <v>17.0</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -25613,6 +26321,9 @@
       <c r="AI5" t="n">
         <v>10.0</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -25720,6 +26431,9 @@
       <c r="AI6" t="n">
         <v>2.0</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -25827,6 +26541,9 @@
       <c r="AI7" t="n">
         <v>12.0</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -25934,6 +26651,9 @@
       <c r="AI8" t="n">
         <v>7.0</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -26041,6 +26761,9 @@
       <c r="AI9" t="n">
         <v>5.0</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -26148,6 +26871,9 @@
       <c r="AI10" t="n">
         <v>18.0</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -26255,6 +26981,9 @@
       <c r="AI11" t="n">
         <v>15.0</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -26362,6 +27091,9 @@
       <c r="AI12" t="n">
         <v>8.0</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -26469,6 +27201,9 @@
       <c r="AI13" t="n">
         <v>3.0</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -26576,6 +27311,9 @@
       <c r="AI14" t="n">
         <v>9.0</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -26683,6 +27421,9 @@
       <c r="AI15" t="n">
         <v>11.0</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -26790,6 +27531,9 @@
       <c r="AI16" t="n">
         <v>4.0</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -26897,6 +27641,9 @@
       <c r="AI17" t="n">
         <v>16.0</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -27004,6 +27751,9 @@
       <c r="AI18" t="n">
         <v>6.0</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -27109,6 +27859,9 @@
         <v>13.0</v>
       </c>
       <c r="AI19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -29812,6 +30565,12 @@
       <c r="AL1" t="s">
         <v>111</v>
       </c>
+      <c r="AM1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -29928,6 +30687,12 @@
       <c r="AL2" t="n">
         <v>9.0</v>
       </c>
+      <c r="AM2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -30044,6 +30809,12 @@
       <c r="AL3" t="n">
         <v>5.0</v>
       </c>
+      <c r="AM3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -30160,6 +30931,12 @@
       <c r="AL4" t="n">
         <v>18.0</v>
       </c>
+      <c r="AM4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -30276,6 +31053,12 @@
       <c r="AL5" t="n">
         <v>7.0</v>
       </c>
+      <c r="AM5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -30392,6 +31175,12 @@
       <c r="AL6" t="n">
         <v>8.0</v>
       </c>
+      <c r="AM6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -30508,6 +31297,12 @@
       <c r="AL7" t="n">
         <v>4.0</v>
       </c>
+      <c r="AM7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -30624,6 +31419,12 @@
       <c r="AL8" t="n">
         <v>2.0</v>
       </c>
+      <c r="AM8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -30740,6 +31541,12 @@
       <c r="AL9" t="n">
         <v>12.0</v>
       </c>
+      <c r="AM9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -30856,6 +31663,12 @@
       <c r="AL10" t="n">
         <v>16.0</v>
       </c>
+      <c r="AM10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -30972,6 +31785,12 @@
       <c r="AL11" t="n">
         <v>14.0</v>
       </c>
+      <c r="AM11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -31088,6 +31907,12 @@
       <c r="AL12" t="n">
         <v>19.0</v>
       </c>
+      <c r="AM12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -31204,6 +32029,12 @@
       <c r="AL13" t="n">
         <v>10.0</v>
       </c>
+      <c r="AM13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -31320,6 +32151,12 @@
       <c r="AL14" t="n">
         <v>6.0</v>
       </c>
+      <c r="AM14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -31436,6 +32273,12 @@
       <c r="AL15" t="n">
         <v>11.0</v>
       </c>
+      <c r="AM15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -31552,6 +32395,12 @@
       <c r="AL16" t="n">
         <v>15.0</v>
       </c>
+      <c r="AM16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -31668,6 +32517,12 @@
       <c r="AL17" t="n">
         <v>3.0</v>
       </c>
+      <c r="AM17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -31784,6 +32639,12 @@
       <c r="AL18" t="n">
         <v>17.0</v>
       </c>
+      <c r="AM18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -31900,10 +32761,16 @@
       <c r="AL19" t="n">
         <v>13.0</v>
       </c>
+      <c r="AM19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>493</v>
@@ -32014,12 +32881,18 @@
         <v>1.0</v>
       </c>
       <c r="AL20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>494</v>
@@ -32130,6 +33003,12 @@
         <v>20.0</v>
       </c>
       <c r="AL21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -32250,6 +33129,9 @@
       <c r="AI1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -32357,6 +33239,9 @@
       <c r="AI2" t="n">
         <v>3.0</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -32464,6 +33349,9 @@
       <c r="AI3" t="n">
         <v>16.0</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -32571,6 +33459,9 @@
       <c r="AI4" t="n">
         <v>17.0</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -32678,6 +33569,9 @@
       <c r="AI5" t="n">
         <v>10.0</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -32785,6 +33679,9 @@
       <c r="AI6" t="n">
         <v>4.0</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -32892,6 +33789,9 @@
       <c r="AI7" t="n">
         <v>14.0</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -32999,6 +33899,9 @@
       <c r="AI8" t="n">
         <v>11.0</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -33106,6 +34009,9 @@
       <c r="AI9" t="n">
         <v>8.0</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -33213,6 +34119,9 @@
       <c r="AI10" t="n">
         <v>9.0</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -33320,6 +34229,9 @@
       <c r="AI11" t="n">
         <v>18.0</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -33427,6 +34339,9 @@
       <c r="AI12" t="n">
         <v>12.0</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -33534,6 +34449,9 @@
       <c r="AI13" t="n">
         <v>6.0</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -33641,6 +34559,9 @@
       <c r="AI14" t="n">
         <v>7.0</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -33748,6 +34669,9 @@
       <c r="AI15" t="n">
         <v>13.0</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -33855,6 +34779,9 @@
       <c r="AI16" t="n">
         <v>15.0</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -33962,6 +34889,9 @@
       <c r="AI17" t="n">
         <v>1.0</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -34069,6 +34999,9 @@
       <c r="AI18" t="n">
         <v>5.0</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -34174,6 +35107,9 @@
         <v>3.0</v>
       </c>
       <c r="AI19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -34303,13 +35239,19 @@
       <c r="AL1" t="s">
         <v>111</v>
       </c>
+      <c r="AM1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -34417,7 +35359,13 @@
         <v>4.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -34425,7 +35373,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -34534,6 +35482,12 @@
       </c>
       <c r="AL3" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -34541,7 +35495,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -34649,6 +35603,12 @@
         <v>12.0</v>
       </c>
       <c r="AL4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -34657,7 +35617,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -34765,6 +35725,12 @@
         <v>9.0</v>
       </c>
       <c r="AL5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -34773,7 +35739,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -34882,6 +35848,12 @@
       </c>
       <c r="AL6" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
@@ -34889,7 +35861,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -34997,6 +35969,12 @@
         <v>3.0</v>
       </c>
       <c r="AL7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -35005,7 +35983,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -35113,7 +36091,13 @@
         <v>10.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
@@ -35121,7 +36105,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -35229,6 +36213,12 @@
         <v>16.0</v>
       </c>
       <c r="AL9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -35237,7 +36227,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -35346,6 +36336,12 @@
       </c>
       <c r="AL10" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
@@ -35353,7 +36349,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -35461,7 +36457,13 @@
         <v>14.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -35469,7 +36471,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -35577,6 +36579,12 @@
         <v>1.0</v>
       </c>
       <c r="AL12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -35585,7 +36593,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -35693,6 +36701,12 @@
         <v>2.0</v>
       </c>
       <c r="AL13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -35701,7 +36715,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -35809,6 +36823,12 @@
         <v>6.0</v>
       </c>
       <c r="AL14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -35817,7 +36837,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -35926,6 +36946,12 @@
       </c>
       <c r="AL15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
@@ -35933,7 +36959,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -36041,6 +37067,12 @@
         <v>20.0</v>
       </c>
       <c r="AL16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -36049,7 +37081,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -36157,6 +37189,12 @@
         <v>15.0</v>
       </c>
       <c r="AL17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -36165,7 +37203,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C18" t="n">
         <v>8.0</v>
@@ -36273,7 +37311,13 @@
         <v>5.0</v>
       </c>
       <c r="AL18" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -36281,7 +37325,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C19" t="n">
         <v>9.0</v>
@@ -36389,15 +37433,21 @@
         <v>19.0</v>
       </c>
       <c r="AL19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AN19" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C20" t="n">
         <v>10.0</v>
@@ -36505,15 +37555,21 @@
         <v>7.0</v>
       </c>
       <c r="AL20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -36622,6 +37678,12 @@
       </c>
       <c r="AL21" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -36640,7 +37702,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -36751,10 +37813,10 @@
         <v>111</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO1" t="s">
         <v>137</v>
@@ -39411,7 +40473,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>167</v>
@@ -39557,7 +40619,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>168</v>
@@ -40412,10 +41474,10 @@
         <v>111</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO1" t="s">
         <v>137</v>
@@ -43072,7 +44134,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>192</v>
@@ -43218,7 +44280,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>193</v>
@@ -44073,10 +45135,10 @@
         <v>111</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO1" t="s">
         <v>137</v>
@@ -46733,7 +47795,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>217</v>
@@ -46879,7 +47941,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>218</v>
@@ -47734,10 +48796,10 @@
         <v>111</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO1" t="s">
         <v>137</v>
@@ -47750,6 +48812,9 @@
       </c>
       <c r="AR1" t="s">
         <v>140</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -47885,6 +48950,9 @@
       <c r="AR2" t="n">
         <v>20.0</v>
       </c>
+      <c r="AS2" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -48019,6 +49087,9 @@
       <c r="AR3" t="n">
         <v>14.0</v>
       </c>
+      <c r="AS3" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -48151,7 +49222,10 @@
         <v>17.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
@@ -48287,6 +49361,9 @@
       <c r="AR5" t="n">
         <v>9.0</v>
       </c>
+      <c r="AS5" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -48419,7 +49496,10 @@
         <v>11.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
@@ -48555,6 +49635,9 @@
       <c r="AR7" t="n">
         <v>7.0</v>
       </c>
+      <c r="AS7" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -48689,6 +49772,9 @@
       <c r="AR8" t="n">
         <v>8.0</v>
       </c>
+      <c r="AS8" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -48823,6 +49909,9 @@
       <c r="AR9" t="n">
         <v>23.0</v>
       </c>
+      <c r="AS9" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -48957,6 +50046,9 @@
       <c r="AR10" t="n">
         <v>19.0</v>
       </c>
+      <c r="AS10" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -49091,6 +50183,9 @@
       <c r="AR11" t="n">
         <v>6.0</v>
       </c>
+      <c r="AS11" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -49223,7 +50318,10 @@
         <v>3.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -49359,6 +50457,9 @@
       <c r="AR13" t="n">
         <v>21.0</v>
       </c>
+      <c r="AS13" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -49491,7 +50592,10 @@
         <v>16.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
@@ -49627,6 +50731,9 @@
       <c r="AR15" t="n">
         <v>5.0</v>
       </c>
+      <c r="AS15" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -49759,7 +50866,10 @@
         <v>4.0</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -49893,7 +51003,10 @@
         <v>12.0</v>
       </c>
       <c r="AR17" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
@@ -50029,6 +51142,9 @@
       <c r="AR18" t="n">
         <v>1.0</v>
       </c>
+      <c r="AS18" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -50161,12 +51277,15 @@
         <v>10.0</v>
       </c>
       <c r="AR19" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>242</v>
@@ -50295,12 +51414,15 @@
         <v>18.0</v>
       </c>
       <c r="AR20" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
@@ -50429,6 +51551,9 @@
         <v>22.0</v>
       </c>
       <c r="AR21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AS21" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -50563,7 +51688,10 @@
         <v>15.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="23">
@@ -50699,6 +51827,9 @@
       <c r="AR23" t="n">
         <v>2.0</v>
       </c>
+      <c r="AS23" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -50831,7 +51962,10 @@
         <v>13.0</v>
       </c>
       <c r="AR24" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -50960,6 +52094,12 @@
       <c r="AL1" t="s">
         <v>111</v>
       </c>
+      <c r="AM1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -51076,6 +52216,12 @@
       <c r="AL2" t="n">
         <v>14.0</v>
       </c>
+      <c r="AM2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -51192,6 +52338,12 @@
       <c r="AL3" t="n">
         <v>20.0</v>
       </c>
+      <c r="AM3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -51308,6 +52460,12 @@
       <c r="AL4" t="n">
         <v>11.0</v>
       </c>
+      <c r="AM4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -51424,6 +52582,12 @@
       <c r="AL5" t="n">
         <v>16.0</v>
       </c>
+      <c r="AM5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -51540,6 +52704,12 @@
       <c r="AL6" t="n">
         <v>7.0</v>
       </c>
+      <c r="AM6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -51656,6 +52826,12 @@
       <c r="AL7" t="n">
         <v>10.0</v>
       </c>
+      <c r="AM7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -51772,6 +52948,12 @@
       <c r="AL8" t="n">
         <v>17.0</v>
       </c>
+      <c r="AM8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -51888,6 +53070,12 @@
       <c r="AL9" t="n">
         <v>8.0</v>
       </c>
+      <c r="AM9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -52004,6 +53192,12 @@
       <c r="AL10" t="n">
         <v>2.0</v>
       </c>
+      <c r="AM10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -52120,6 +53314,12 @@
       <c r="AL11" t="n">
         <v>19.0</v>
       </c>
+      <c r="AM11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -52236,6 +53436,12 @@
       <c r="AL12" t="n">
         <v>3.0</v>
       </c>
+      <c r="AM12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -52352,6 +53558,12 @@
       <c r="AL13" t="n">
         <v>12.0</v>
       </c>
+      <c r="AM13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -52468,6 +53680,12 @@
       <c r="AL14" t="n">
         <v>9.0</v>
       </c>
+      <c r="AM14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -52584,6 +53802,12 @@
       <c r="AL15" t="n">
         <v>4.0</v>
       </c>
+      <c r="AM15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -52700,6 +53924,12 @@
       <c r="AL16" t="n">
         <v>1.0</v>
       </c>
+      <c r="AM16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -52816,6 +54046,12 @@
       <c r="AL17" t="n">
         <v>13.0</v>
       </c>
+      <c r="AM17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -52932,6 +54168,12 @@
       <c r="AL18" t="n">
         <v>5.0</v>
       </c>
+      <c r="AM18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -53048,10 +54290,16 @@
       <c r="AL19" t="n">
         <v>18.0</v>
       </c>
+      <c r="AM19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>266</v>
@@ -53162,12 +54410,18 @@
         <v>6.0</v>
       </c>
       <c r="AL20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>267</v>
@@ -53278,6 +54532,12 @@
         <v>14.0</v>
       </c>
       <c r="AL21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>15.0</v>
       </c>
     </row>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="495">
   <si>
     <t>b1_teams</t>
   </si>
@@ -19997,6 +19997,9 @@
       <c r="AQ1" t="s">
         <v>139</v>
       </c>
+      <c r="AR1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -20128,6 +20131,9 @@
       <c r="AQ2" t="n">
         <v>22.0</v>
       </c>
+      <c r="AR2" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -20259,6 +20265,9 @@
       <c r="AQ3" t="n">
         <v>1.0</v>
       </c>
+      <c r="AR3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -20390,6 +20399,9 @@
       <c r="AQ4" t="n">
         <v>19.0</v>
       </c>
+      <c r="AR4" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -20521,6 +20533,9 @@
       <c r="AQ5" t="n">
         <v>10.0</v>
       </c>
+      <c r="AR5" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -20652,6 +20667,9 @@
       <c r="AQ6" t="n">
         <v>9.0</v>
       </c>
+      <c r="AR6" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -20783,6 +20801,9 @@
       <c r="AQ7" t="n">
         <v>2.0</v>
       </c>
+      <c r="AR7" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -20914,6 +20935,9 @@
       <c r="AQ8" t="n">
         <v>21.0</v>
       </c>
+      <c r="AR8" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -21045,6 +21069,9 @@
       <c r="AQ9" t="n">
         <v>5.0</v>
       </c>
+      <c r="AR9" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -21176,6 +21203,9 @@
       <c r="AQ10" t="n">
         <v>11.0</v>
       </c>
+      <c r="AR10" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -21307,6 +21337,9 @@
       <c r="AQ11" t="n">
         <v>14.0</v>
       </c>
+      <c r="AR11" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -21438,6 +21471,9 @@
       <c r="AQ12" t="n">
         <v>6.0</v>
       </c>
+      <c r="AR12" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -21569,6 +21605,9 @@
       <c r="AQ13" t="n">
         <v>12.0</v>
       </c>
+      <c r="AR13" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -21700,6 +21739,9 @@
       <c r="AQ14" t="n">
         <v>16.0</v>
       </c>
+      <c r="AR14" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -21831,6 +21873,9 @@
       <c r="AQ15" t="n">
         <v>18.0</v>
       </c>
+      <c r="AR15" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -21962,6 +22007,9 @@
       <c r="AQ16" t="n">
         <v>15.0</v>
       </c>
+      <c r="AR16" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -22093,6 +22141,9 @@
       <c r="AQ17" t="n">
         <v>7.0</v>
       </c>
+      <c r="AR17" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -22224,6 +22275,9 @@
       <c r="AQ18" t="n">
         <v>8.0</v>
       </c>
+      <c r="AR18" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -22355,6 +22409,9 @@
       <c r="AQ19" t="n">
         <v>20.0</v>
       </c>
+      <c r="AR19" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -22486,6 +22543,9 @@
       <c r="AQ20" t="n">
         <v>17.0</v>
       </c>
+      <c r="AR20" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -22617,6 +22677,9 @@
       <c r="AQ21" t="n">
         <v>4.0</v>
       </c>
+      <c r="AR21" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -22748,6 +22811,9 @@
       <c r="AQ22" t="n">
         <v>3.0</v>
       </c>
+      <c r="AR22" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -22878,6 +22944,9 @@
       </c>
       <c r="AQ23" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -27,12 +27,13 @@
     <sheet name="sc1" r:id="rId21" sheetId="19"/>
     <sheet name="sc2" r:id="rId22" sheetId="20"/>
     <sheet name="sc3" r:id="rId23" sheetId="21"/>
+    <sheet name="t1" r:id="rId24" sheetId="22"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="461">
   <si>
     <t>b1_teams</t>
   </si>
@@ -64,6 +65,9 @@
     <t>X9</t>
   </si>
   <si>
+    <t>X10</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -358,7 +362,10 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X10</t>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
   </si>
   <si>
     <t>21</t>
@@ -1349,6 +1356,66 @@
   </si>
   <si>
     <t>Stranraer</t>
+  </si>
+  <si>
+    <t>t1_teams</t>
+  </si>
+  <si>
+    <t>Ad. Demirspor</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Ankaragucu</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>Besiktas</t>
+  </si>
+  <si>
+    <t>Buyuksehyr</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
+    <t>Giresunspor</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Istanbulspor</t>
+  </si>
+  <si>
+    <t>Karagumruk</t>
+  </si>
+  <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Umraniyespor</t>
   </si>
 </sst>
 </file>
@@ -1431,13 +1498,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -1465,14 +1535,17 @@
       </c>
       <c r="K2" t="n">
         <v>8.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1499,15 +1572,18 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -1536,13 +1612,16 @@
       <c r="K4" t="n">
         <v>15.0</v>
       </c>
+      <c r="L4" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1571,13 +1650,16 @@
       <c r="K5" t="n">
         <v>10.0</v>
       </c>
+      <c r="L5" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1604,15 +1686,18 @@
         <v>2.0</v>
       </c>
       <c r="K6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -1641,13 +1726,16 @@
       <c r="K7" t="n">
         <v>16.0</v>
       </c>
+      <c r="L7" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -1676,13 +1764,16 @@
       <c r="K8" t="n">
         <v>2.0</v>
       </c>
+      <c r="L8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
         <v>8.0</v>
@@ -1711,13 +1802,16 @@
       <c r="K9" t="n">
         <v>7.0</v>
       </c>
+      <c r="L9" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -1746,13 +1840,16 @@
       <c r="K10" t="n">
         <v>14.0</v>
       </c>
+      <c r="L10" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -1781,13 +1878,16 @@
       <c r="K11" t="n">
         <v>12.0</v>
       </c>
+      <c r="L11" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -1816,13 +1916,16 @@
       <c r="K12" t="n">
         <v>13.0</v>
       </c>
+      <c r="L12" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -1850,14 +1953,17 @@
       </c>
       <c r="K13" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -1886,13 +1992,16 @@
       <c r="K14" t="n">
         <v>17.0</v>
       </c>
+      <c r="L14" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="n">
         <v>9.0</v>
@@ -1921,13 +2030,16 @@
       <c r="K15" t="n">
         <v>9.0</v>
       </c>
+      <c r="L15" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -1955,14 +2067,17 @@
       </c>
       <c r="K16" t="n">
         <v>5.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -1991,13 +2106,16 @@
       <c r="K17" t="n">
         <v>6.0</v>
       </c>
+      <c r="L17" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -2026,13 +2144,16 @@
       <c r="K18" t="n">
         <v>18.0</v>
       </c>
+      <c r="L18" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -2060,6 +2181,9 @@
       </c>
       <c r="K19" t="n">
         <v>11.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2202,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2107,13 +2231,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
         <v>15.0</v>
@@ -2142,13 +2269,16 @@
       <c r="K2" t="n">
         <v>3.0</v>
       </c>
+      <c r="L2" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -2177,13 +2307,16 @@
       <c r="K3" t="n">
         <v>16.0</v>
       </c>
+      <c r="L3" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -2212,13 +2345,16 @@
       <c r="K4" t="n">
         <v>7.0</v>
       </c>
+      <c r="L4" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -2246,14 +2382,17 @@
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -2281,14 +2420,17 @@
       </c>
       <c r="K6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2316,14 +2458,17 @@
       </c>
       <c r="K7" t="n">
         <v>10.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2350,15 +2495,18 @@
         <v>14.0</v>
       </c>
       <c r="K8" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -2385,15 +2533,18 @@
         <v>6.0</v>
       </c>
       <c r="K9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -2420,15 +2571,18 @@
         <v>16.0</v>
       </c>
       <c r="K10" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -2457,13 +2611,16 @@
       <c r="K11" t="n">
         <v>2.0</v>
       </c>
+      <c r="L11" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -2491,14 +2648,17 @@
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -2527,13 +2687,16 @@
       <c r="K13" t="n">
         <v>18.0</v>
       </c>
+      <c r="L13" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -2562,13 +2725,16 @@
       <c r="K14" t="n">
         <v>19.0</v>
       </c>
+      <c r="L14" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -2595,15 +2761,18 @@
         <v>11.0</v>
       </c>
       <c r="K15" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -2630,15 +2799,18 @@
         <v>18.0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -2667,13 +2839,16 @@
       <c r="K17" t="n">
         <v>20.0</v>
       </c>
+      <c r="L17" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -2702,13 +2877,16 @@
       <c r="K18" t="n">
         <v>17.0</v>
       </c>
+      <c r="L18" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -2737,13 +2915,16 @@
       <c r="K19" t="n">
         <v>1.0</v>
       </c>
+      <c r="L19" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -2770,15 +2951,18 @@
         <v>12.0</v>
       </c>
       <c r="K20" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -2805,7 +2989,10 @@
         <v>7.0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +3011,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2841,13 +3028,16 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -2863,14 +3053,17 @@
       </c>
       <c r="G2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -2886,14 +3079,17 @@
       </c>
       <c r="G3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -2908,15 +3104,18 @@
         <v>10.0</v>
       </c>
       <c r="G4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -2932,14 +3131,17 @@
       </c>
       <c r="G5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -2955,14 +3157,17 @@
       </c>
       <c r="G6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -2979,13 +3184,16 @@
       <c r="G7" t="n">
         <v>14.0</v>
       </c>
+      <c r="H7" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -3001,14 +3209,17 @@
       </c>
       <c r="G8" t="n">
         <v>12.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -3025,13 +3236,16 @@
       <c r="G9" t="n">
         <v>13.0</v>
       </c>
+      <c r="H9" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -3048,13 +3262,16 @@
       <c r="G10" t="n">
         <v>11.0</v>
       </c>
+      <c r="H10" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -3070,14 +3287,17 @@
       </c>
       <c r="G11" t="n">
         <v>6.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3092,15 +3312,18 @@
         <v>1.0</v>
       </c>
       <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -3117,13 +3340,16 @@
       <c r="G13" t="n">
         <v>8.0</v>
       </c>
+      <c r="H13" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -3139,14 +3365,17 @@
       </c>
       <c r="G14" t="n">
         <v>2.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3162,6 +3391,9 @@
       </c>
       <c r="G15" t="n">
         <v>7.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -3180,7 +3412,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3203,13 +3435,16 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3230,15 +3465,18 @@
         <v>1.0</v>
       </c>
       <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -3261,13 +3499,16 @@
       <c r="I3" t="n">
         <v>15.0</v>
       </c>
+      <c r="J3" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -3290,13 +3531,16 @@
       <c r="I4" t="n">
         <v>19.0</v>
       </c>
+      <c r="J4" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -3319,13 +3563,16 @@
       <c r="I5" t="n">
         <v>13.0</v>
       </c>
+      <c r="J5" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -3347,14 +3594,17 @@
       </c>
       <c r="I6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -3376,14 +3626,17 @@
       </c>
       <c r="I7" t="n">
         <v>7.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -3405,14 +3658,17 @@
       </c>
       <c r="I8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -3433,15 +3689,18 @@
         <v>7.0</v>
       </c>
       <c r="I9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C10" t="n">
         <v>14.0</v>
@@ -3464,13 +3723,16 @@
       <c r="I10" t="n">
         <v>16.0</v>
       </c>
+      <c r="J10" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -3491,15 +3753,18 @@
         <v>2.0</v>
       </c>
       <c r="I11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J11" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -3522,13 +3787,16 @@
       <c r="I12" t="n">
         <v>18.0</v>
       </c>
+      <c r="J12" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -3549,15 +3817,18 @@
         <v>3.0</v>
       </c>
       <c r="I13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -3578,15 +3849,18 @@
         <v>4.0</v>
       </c>
       <c r="I14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J14" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -3609,13 +3883,16 @@
       <c r="I15" t="n">
         <v>14.0</v>
       </c>
+      <c r="J15" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -3638,13 +3915,16 @@
       <c r="I16" t="n">
         <v>20.0</v>
       </c>
+      <c r="J16" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -3667,13 +3947,16 @@
       <c r="I17" t="n">
         <v>11.0</v>
       </c>
+      <c r="J17" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -3696,13 +3979,16 @@
       <c r="I18" t="n">
         <v>12.0</v>
       </c>
+      <c r="J18" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C19" t="n">
         <v>10.0</v>
@@ -3724,14 +4010,17 @@
       </c>
       <c r="I19" t="n">
         <v>9.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -3754,13 +4043,16 @@
       <c r="I20" t="n">
         <v>3.0</v>
       </c>
+      <c r="J20" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -3782,6 +4074,9 @@
       </c>
       <c r="I21" t="n">
         <v>17.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -3800,7 +4095,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3820,13 +4115,16 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3845,14 +4143,17 @@
       </c>
       <c r="H2" t="n">
         <v>10.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -3871,14 +4172,17 @@
       </c>
       <c r="H3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -3898,13 +4202,16 @@
       <c r="H4" t="n">
         <v>13.0</v>
       </c>
+      <c r="I4" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -3923,14 +4230,17 @@
       </c>
       <c r="H5" t="n">
         <v>1.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -3949,14 +4259,17 @@
       </c>
       <c r="H6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -3975,14 +4288,17 @@
       </c>
       <c r="H7" t="n">
         <v>11.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -4002,13 +4318,16 @@
       <c r="H8" t="n">
         <v>18.0</v>
       </c>
+      <c r="I8" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -4027,14 +4346,17 @@
       </c>
       <c r="H9" t="n">
         <v>12.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -4053,14 +4375,17 @@
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -4079,14 +4404,17 @@
       </c>
       <c r="H11" t="n">
         <v>5.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4106,13 +4434,16 @@
       <c r="H12" t="n">
         <v>19.0</v>
       </c>
+      <c r="I12" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -4132,13 +4463,16 @@
       <c r="H13" t="n">
         <v>14.0</v>
       </c>
+      <c r="I13" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -4158,13 +4492,16 @@
       <c r="H14" t="n">
         <v>8.0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -4184,13 +4521,16 @@
       <c r="H15" t="n">
         <v>17.0</v>
       </c>
+      <c r="I15" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -4210,13 +4550,16 @@
       <c r="H16" t="n">
         <v>20.0</v>
       </c>
+      <c r="I16" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -4235,14 +4578,17 @@
       </c>
       <c r="H17" t="n">
         <v>2.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -4262,13 +4608,16 @@
       <c r="H18" t="n">
         <v>9.0</v>
       </c>
+      <c r="I18" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -4288,13 +4637,16 @@
       <c r="H19" t="n">
         <v>15.0</v>
       </c>
+      <c r="I19" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -4314,13 +4666,16 @@
       <c r="H20" t="n">
         <v>7.0</v>
       </c>
+      <c r="I20" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -4339,6 +4694,9 @@
       </c>
       <c r="H21" t="n">
         <v>16.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -4357,7 +4715,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4380,13 +4738,16 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4408,14 +4769,17 @@
       </c>
       <c r="I2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -4437,14 +4801,17 @@
       </c>
       <c r="I3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -4467,13 +4834,16 @@
       <c r="I4" t="n">
         <v>16.0</v>
       </c>
+      <c r="J4" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -4495,14 +4865,17 @@
       </c>
       <c r="I5" t="n">
         <v>8.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -4525,13 +4898,16 @@
       <c r="I6" t="n">
         <v>17.0</v>
       </c>
+      <c r="J6" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -4552,15 +4928,18 @@
         <v>2.0</v>
       </c>
       <c r="I7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -4583,13 +4962,16 @@
       <c r="I8" t="n">
         <v>18.0</v>
       </c>
+      <c r="J8" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -4612,13 +4994,16 @@
       <c r="I9" t="n">
         <v>13.0</v>
       </c>
+      <c r="J9" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C10" t="n">
         <v>7.0</v>
@@ -4641,13 +5026,16 @@
       <c r="I10" t="n">
         <v>11.0</v>
       </c>
+      <c r="J10" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -4668,15 +5056,18 @@
         <v>7.0</v>
       </c>
       <c r="I11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J11" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -4699,13 +5090,16 @@
       <c r="I12" t="n">
         <v>12.0</v>
       </c>
+      <c r="J12" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -4727,14 +5121,17 @@
       </c>
       <c r="I13" t="n">
         <v>2.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C14" t="n">
         <v>9.0</v>
@@ -4757,13 +5154,16 @@
       <c r="I14" t="n">
         <v>7.0</v>
       </c>
+      <c r="J14" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -4784,15 +5184,18 @@
         <v>5.0</v>
       </c>
       <c r="I15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J15" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -4815,13 +5218,16 @@
       <c r="I16" t="n">
         <v>9.0</v>
       </c>
+      <c r="J16" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -4844,13 +5250,16 @@
       <c r="I17" t="n">
         <v>14.0</v>
       </c>
+      <c r="J17" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -4873,13 +5282,16 @@
       <c r="I18" t="n">
         <v>15.0</v>
       </c>
+      <c r="J18" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -4901,6 +5313,9 @@
       </c>
       <c r="I19" t="n">
         <v>10.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +5334,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4942,13 +5357,16 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -4970,14 +5388,17 @@
       </c>
       <c r="I2" t="n">
         <v>11.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -4998,15 +5419,18 @@
         <v>1.0</v>
       </c>
       <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -5028,14 +5452,17 @@
       </c>
       <c r="I4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -5058,13 +5485,16 @@
       <c r="I5" t="n">
         <v>6.0</v>
       </c>
+      <c r="J5" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -5087,13 +5517,16 @@
       <c r="I6" t="n">
         <v>12.0</v>
       </c>
+      <c r="J6" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -5115,14 +5548,17 @@
       </c>
       <c r="I7" t="n">
         <v>7.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -5145,13 +5581,16 @@
       <c r="I8" t="n">
         <v>16.0</v>
       </c>
+      <c r="J8" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -5173,14 +5612,17 @@
       </c>
       <c r="I9" t="n">
         <v>10.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -5202,14 +5644,17 @@
       </c>
       <c r="I10" t="n">
         <v>8.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -5232,13 +5677,16 @@
       <c r="I11" t="n">
         <v>18.0</v>
       </c>
+      <c r="J11" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -5261,13 +5709,16 @@
       <c r="I12" t="n">
         <v>17.0</v>
       </c>
+      <c r="J12" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -5290,13 +5741,16 @@
       <c r="I13" t="n">
         <v>5.0</v>
       </c>
+      <c r="J13" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -5318,14 +5772,17 @@
       </c>
       <c r="I14" t="n">
         <v>3.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -5348,13 +5805,16 @@
       <c r="I15" t="n">
         <v>13.0</v>
       </c>
+      <c r="J15" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5377,13 +5837,16 @@
       <c r="I16" t="n">
         <v>14.0</v>
       </c>
+      <c r="J16" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -5405,14 +5868,17 @@
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -5435,13 +5901,16 @@
       <c r="I18" t="n">
         <v>9.0</v>
       </c>
+      <c r="J18" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -5463,6 +5932,9 @@
       </c>
       <c r="I19" t="n">
         <v>15.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -5481,7 +5953,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5501,13 +5973,16 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -5527,13 +6002,16 @@
       <c r="H2" t="n">
         <v>16.0</v>
       </c>
+      <c r="I2" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -5552,14 +6030,17 @@
       </c>
       <c r="H3" t="n">
         <v>4.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -5578,14 +6059,17 @@
       </c>
       <c r="H4" t="n">
         <v>7.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -5604,14 +6088,17 @@
       </c>
       <c r="H5" t="n">
         <v>2.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -5630,14 +6117,17 @@
       </c>
       <c r="H6" t="n">
         <v>3.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -5657,13 +6147,16 @@
       <c r="H7" t="n">
         <v>19.0</v>
       </c>
+      <c r="I7" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -5683,13 +6176,16 @@
       <c r="H8" t="n">
         <v>11.0</v>
       </c>
+      <c r="I8" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -5709,13 +6205,16 @@
       <c r="H9" t="n">
         <v>20.0</v>
       </c>
+      <c r="I9" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -5735,13 +6234,16 @@
       <c r="H10" t="n">
         <v>17.0</v>
       </c>
+      <c r="I10" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -5761,13 +6263,16 @@
       <c r="H11" t="n">
         <v>12.0</v>
       </c>
+      <c r="I11" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C12" t="n">
         <v>18.0</v>
@@ -5787,13 +6292,16 @@
       <c r="H12" t="n">
         <v>13.0</v>
       </c>
+      <c r="I12" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -5813,13 +6321,16 @@
       <c r="H13" t="n">
         <v>10.0</v>
       </c>
+      <c r="I13" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -5838,14 +6349,17 @@
       </c>
       <c r="H14" t="n">
         <v>5.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -5864,14 +6378,17 @@
       </c>
       <c r="H15" t="n">
         <v>1.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -5891,13 +6408,16 @@
       <c r="H16" t="n">
         <v>15.0</v>
       </c>
+      <c r="I16" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -5916,14 +6436,17 @@
       </c>
       <c r="H17" t="n">
         <v>8.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -5943,13 +6466,16 @@
       <c r="H18" t="n">
         <v>9.0</v>
       </c>
+      <c r="I18" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -5969,13 +6495,16 @@
       <c r="H19" t="n">
         <v>18.0</v>
       </c>
+      <c r="I19" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -5995,13 +6524,16 @@
       <c r="H20" t="n">
         <v>14.0</v>
       </c>
+      <c r="I20" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -6020,6 +6552,9 @@
       </c>
       <c r="H21" t="n">
         <v>6.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -6038,7 +6573,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6058,13 +6593,19 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -6082,15 +6623,21 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6109,14 +6656,20 @@
       </c>
       <c r="H3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -6136,13 +6689,19 @@
       <c r="H4" t="n">
         <v>6.0</v>
       </c>
+      <c r="I4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -6161,14 +6720,20 @@
       </c>
       <c r="H5" t="n">
         <v>7.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -6188,13 +6753,19 @@
       <c r="H6" t="n">
         <v>2.0</v>
       </c>
+      <c r="I6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -6213,14 +6784,20 @@
       </c>
       <c r="H7" t="n">
         <v>8.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -6239,14 +6816,20 @@
       </c>
       <c r="H8" t="n">
         <v>3.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -6266,13 +6849,19 @@
       <c r="H9" t="n">
         <v>15.0</v>
       </c>
+      <c r="I9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -6292,13 +6881,19 @@
       <c r="H10" t="n">
         <v>16.0</v>
       </c>
+      <c r="I10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -6317,14 +6912,20 @@
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -6344,13 +6945,19 @@
       <c r="H12" t="n">
         <v>19.0</v>
       </c>
+      <c r="I12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -6370,13 +6977,19 @@
       <c r="H13" t="n">
         <v>10.0</v>
       </c>
+      <c r="I13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -6396,13 +7009,19 @@
       <c r="H14" t="n">
         <v>17.0</v>
       </c>
+      <c r="I14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C15" t="n">
         <v>19.0</v>
@@ -6422,13 +7041,19 @@
       <c r="H15" t="n">
         <v>21.0</v>
       </c>
+      <c r="I15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -6448,13 +7073,19 @@
       <c r="H16" t="n">
         <v>22.0</v>
       </c>
+      <c r="I16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -6474,13 +7105,19 @@
       <c r="H17" t="n">
         <v>12.0</v>
       </c>
+      <c r="I17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -6500,13 +7137,19 @@
       <c r="H18" t="n">
         <v>11.0</v>
       </c>
+      <c r="I18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -6526,13 +7169,19 @@
       <c r="H19" t="n">
         <v>20.0</v>
       </c>
+      <c r="I19" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -6552,13 +7201,19 @@
       <c r="H20" t="n">
         <v>13.0</v>
       </c>
+      <c r="I20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -6578,13 +7233,19 @@
       <c r="H21" t="n">
         <v>18.0</v>
       </c>
+      <c r="I21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -6604,13 +7265,19 @@
       <c r="H22" t="n">
         <v>9.0</v>
       </c>
+      <c r="I22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C23" t="n">
         <v>14.0</v>
@@ -6629,6 +7296,12 @@
       </c>
       <c r="H23" t="n">
         <v>14.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +7320,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6670,13 +7343,19 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -6698,14 +7377,20 @@
       </c>
       <c r="I2" t="n">
         <v>7.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -6726,15 +7411,21 @@
         <v>1.0</v>
       </c>
       <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -6755,15 +7446,21 @@
         <v>12.0</v>
       </c>
       <c r="I4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -6785,14 +7482,20 @@
       </c>
       <c r="I5" t="n">
         <v>3.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -6814,14 +7517,20 @@
       </c>
       <c r="I6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -6843,14 +7552,20 @@
       </c>
       <c r="I7" t="n">
         <v>11.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -6872,14 +7587,20 @@
       </c>
       <c r="I8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -6901,14 +7622,20 @@
       </c>
       <c r="I9" t="n">
         <v>8.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -6929,15 +7656,21 @@
         <v>2.0</v>
       </c>
       <c r="I10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -6959,14 +7692,20 @@
       </c>
       <c r="I11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -6987,15 +7726,21 @@
         <v>9.0</v>
       </c>
       <c r="I12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K12" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -7017,6 +7762,12 @@
       </c>
       <c r="I13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -7035,7 +7786,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7058,13 +7809,19 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -7086,14 +7843,20 @@
       </c>
       <c r="I2" t="n">
         <v>9.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -7115,14 +7878,20 @@
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -7144,14 +7913,20 @@
       </c>
       <c r="I4" t="n">
         <v>10.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -7172,15 +7947,21 @@
         <v>3.0</v>
       </c>
       <c r="I5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K5" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -7202,14 +7983,20 @@
       </c>
       <c r="I6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -7230,15 +8017,21 @@
         <v>5.0</v>
       </c>
       <c r="I7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C8" t="n">
         <v>7.0</v>
@@ -7259,15 +8052,21 @@
         <v>6.0</v>
       </c>
       <c r="I8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K8" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -7289,14 +8088,20 @@
       </c>
       <c r="I9" t="n">
         <v>2.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -7318,14 +8123,20 @@
       </c>
       <c r="I10" t="n">
         <v>3.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -7347,6 +8158,12 @@
       </c>
       <c r="I11" t="n">
         <v>6.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -7365,7 +8182,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7388,13 +8205,16 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -7417,13 +8237,16 @@
       <c r="I2" t="n">
         <v>10.0</v>
       </c>
+      <c r="J2" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -7445,14 +8268,17 @@
       </c>
       <c r="I3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -7475,13 +8301,16 @@
       <c r="I4" t="n">
         <v>18.0</v>
       </c>
+      <c r="J4" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -7503,14 +8332,17 @@
       </c>
       <c r="I5" t="n">
         <v>2.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -7533,13 +8365,16 @@
       <c r="I6" t="n">
         <v>7.0</v>
       </c>
+      <c r="J6" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -7561,14 +8396,17 @@
       </c>
       <c r="I7" t="n">
         <v>9.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -7590,14 +8428,17 @@
       </c>
       <c r="I8" t="n">
         <v>3.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -7620,13 +8461,16 @@
       <c r="I9" t="n">
         <v>13.0</v>
       </c>
+      <c r="J9" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -7649,13 +8493,16 @@
       <c r="I10" t="n">
         <v>4.0</v>
       </c>
+      <c r="J10" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -7678,13 +8525,16 @@
       <c r="I11" t="n">
         <v>15.0</v>
       </c>
+      <c r="J11" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -7706,14 +8556,17 @@
       </c>
       <c r="I12" t="n">
         <v>8.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -7735,14 +8588,17 @@
       </c>
       <c r="I13" t="n">
         <v>6.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -7763,15 +8619,18 @@
         <v>10.0</v>
       </c>
       <c r="I14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J14" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -7794,13 +8653,16 @@
       <c r="I15" t="n">
         <v>14.0</v>
       </c>
+      <c r="J15" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7823,13 +8685,16 @@
       <c r="I16" t="n">
         <v>16.0</v>
       </c>
+      <c r="J16" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -7851,14 +8716,17 @@
       </c>
       <c r="I17" t="n">
         <v>1.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -7880,14 +8748,17 @@
       </c>
       <c r="I18" t="n">
         <v>11.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
         <v>11.0</v>
@@ -7909,6 +8780,9 @@
       </c>
       <c r="I19" t="n">
         <v>17.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -7927,7 +8801,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7950,13 +8824,19 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -7978,14 +8858,20 @@
       </c>
       <c r="I2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -8007,14 +8893,20 @@
       </c>
       <c r="I3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -8035,15 +8927,21 @@
         <v>7.0</v>
       </c>
       <c r="I4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -8065,14 +8963,20 @@
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -8094,14 +8998,20 @@
       </c>
       <c r="I6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -8123,14 +9033,20 @@
       </c>
       <c r="I7" t="n">
         <v>4.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -8151,15 +9067,21 @@
         <v>9.0</v>
       </c>
       <c r="I8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K8" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -8181,14 +9103,20 @@
       </c>
       <c r="I9" t="n">
         <v>6.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -8209,15 +9137,21 @@
         <v>10.0</v>
       </c>
       <c r="I10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -8238,6 +9172,12 @@
         <v>8.0</v>
       </c>
       <c r="I11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K11" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -8257,7 +9197,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8283,13 +9223,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -8313,15 +9256,18 @@
         <v>10.0</v>
       </c>
       <c r="J2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K2" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -8346,14 +9292,17 @@
       </c>
       <c r="J3" t="n">
         <v>7.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -8378,14 +9327,17 @@
       </c>
       <c r="J4" t="n">
         <v>5.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -8409,15 +9361,18 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -8441,15 +9396,18 @@
         <v>2.0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -8474,14 +9432,17 @@
       </c>
       <c r="J7" t="n">
         <v>8.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -8505,15 +9466,18 @@
         <v>8.0</v>
       </c>
       <c r="J8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K8" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -8537,15 +9501,18 @@
         <v>5.0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -8569,39 +9536,696 @@
         <v>3.0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="B10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="I11" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -8620,7 +10244,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8649,13 +10273,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -8684,13 +10311,16 @@
       <c r="K2" t="n">
         <v>14.0</v>
       </c>
+      <c r="L2" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -8719,13 +10349,16 @@
       <c r="K3" t="n">
         <v>15.0</v>
       </c>
+      <c r="L3" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -8754,13 +10387,16 @@
       <c r="K4" t="n">
         <v>3.0</v>
       </c>
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -8788,14 +10424,17 @@
       </c>
       <c r="K5" t="n">
         <v>6.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -8824,13 +10463,16 @@
       <c r="K6" t="n">
         <v>17.0</v>
       </c>
+      <c r="L6" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -8857,15 +10499,18 @@
         <v>2.0</v>
       </c>
       <c r="K7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -8894,13 +10539,16 @@
       <c r="K8" t="n">
         <v>4.0</v>
       </c>
+      <c r="L8" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -8929,13 +10577,16 @@
       <c r="K9" t="n">
         <v>8.0</v>
       </c>
+      <c r="L9" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -8963,14 +10614,17 @@
       </c>
       <c r="K10" t="n">
         <v>5.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -8999,13 +10653,16 @@
       <c r="K11" t="n">
         <v>9.0</v>
       </c>
+      <c r="L11" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -9032,15 +10689,18 @@
         <v>7.0</v>
       </c>
       <c r="K12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L12" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -9069,13 +10729,16 @@
       <c r="K13" t="n">
         <v>10.0</v>
       </c>
+      <c r="L13" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -9104,13 +10767,16 @@
       <c r="K14" t="n">
         <v>18.0</v>
       </c>
+      <c r="L14" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -9139,13 +10805,16 @@
       <c r="K15" t="n">
         <v>12.0</v>
       </c>
+      <c r="L15" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -9173,14 +10842,17 @@
       </c>
       <c r="K16" t="n">
         <v>2.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -9209,13 +10881,16 @@
       <c r="K17" t="n">
         <v>11.0</v>
       </c>
+      <c r="L17" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -9244,13 +10919,16 @@
       <c r="K18" t="n">
         <v>16.0</v>
       </c>
+      <c r="L18" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -9278,6 +10956,9 @@
       </c>
       <c r="K19" t="n">
         <v>13.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -9296,7 +10977,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9319,13 +11000,16 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -9346,15 +11030,18 @@
         <v>1.0</v>
       </c>
       <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
         <v>13.0</v>
@@ -9377,13 +11064,16 @@
       <c r="I3" t="n">
         <v>13.0</v>
       </c>
+      <c r="J3" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -9404,15 +11094,18 @@
         <v>11.0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -9434,14 +11127,17 @@
       </c>
       <c r="I5" t="n">
         <v>8.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -9462,15 +11158,18 @@
         <v>4.0</v>
       </c>
       <c r="I6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -9491,15 +11190,18 @@
         <v>6.0</v>
       </c>
       <c r="I7" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -9522,13 +11224,16 @@
       <c r="I8" t="n">
         <v>16.0</v>
       </c>
+      <c r="J8" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -9551,13 +11256,16 @@
       <c r="I9" t="n">
         <v>14.0</v>
       </c>
+      <c r="J9" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -9578,15 +11286,18 @@
         <v>9.0</v>
       </c>
       <c r="I10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -9608,14 +11319,17 @@
       </c>
       <c r="I11" t="n">
         <v>11.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -9638,13 +11352,16 @@
       <c r="I12" t="n">
         <v>20.0</v>
       </c>
+      <c r="J12" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -9665,15 +11382,18 @@
         <v>8.0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -9694,15 +11414,18 @@
         <v>2.0</v>
       </c>
       <c r="I14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -9723,15 +11446,18 @@
         <v>5.0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -9753,14 +11479,17 @@
       </c>
       <c r="I16" t="n">
         <v>12.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -9783,13 +11512,16 @@
       <c r="I17" t="n">
         <v>18.0</v>
       </c>
+      <c r="J17" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -9812,13 +11544,16 @@
       <c r="I18" t="n">
         <v>15.0</v>
       </c>
+      <c r="J18" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -9839,15 +11574,18 @@
         <v>3.0</v>
       </c>
       <c r="I19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -9870,13 +11608,16 @@
       <c r="I20" t="n">
         <v>19.0</v>
       </c>
+      <c r="J20" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -9898,6 +11639,9 @@
       </c>
       <c r="I21" t="n">
         <v>17.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -9916,7 +11660,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9946,15 +11690,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -9986,13 +11736,19 @@
       <c r="L2" t="n">
         <v>14.0</v>
       </c>
+      <c r="M2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -10022,15 +11778,21 @@
         <v>4.0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -10062,13 +11824,19 @@
       <c r="L4" t="n">
         <v>18.0</v>
       </c>
+      <c r="M4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -10098,15 +11866,21 @@
         <v>6.0</v>
       </c>
       <c r="L5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -10136,15 +11910,21 @@
         <v>3.0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -10176,13 +11956,19 @@
       <c r="L7" t="n">
         <v>19.0</v>
       </c>
+      <c r="M7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -10214,13 +12000,19 @@
       <c r="L8" t="n">
         <v>24.0</v>
       </c>
+      <c r="M8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" t="n">
         <v>19.0</v>
@@ -10252,13 +12044,19 @@
       <c r="L9" t="n">
         <v>23.0</v>
       </c>
+      <c r="M9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -10290,13 +12088,19 @@
       <c r="L10" t="n">
         <v>20.0</v>
       </c>
+      <c r="M10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10326,15 +12130,21 @@
         <v>19.0</v>
       </c>
       <c r="L11" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -10366,13 +12176,19 @@
       <c r="L12" t="n">
         <v>21.0</v>
       </c>
+      <c r="M12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -10404,13 +12220,19 @@
       <c r="L13" t="n">
         <v>12.0</v>
       </c>
+      <c r="M13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" t="n">
         <v>20.0</v>
@@ -10440,15 +12262,21 @@
         <v>2.0</v>
       </c>
       <c r="L14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -10480,13 +12308,19 @@
       <c r="L15" t="n">
         <v>15.0</v>
       </c>
+      <c r="M15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C16" t="n">
         <v>21.0</v>
@@ -10516,15 +12350,21 @@
         <v>7.0</v>
       </c>
       <c r="L16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C17" t="n">
         <v>22.0</v>
@@ -10554,15 +12394,21 @@
         <v>5.0</v>
       </c>
       <c r="L17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -10592,15 +12438,21 @@
         <v>9.0</v>
       </c>
       <c r="L18" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C19" t="n">
         <v>23.0</v>
@@ -10630,15 +12482,21 @@
         <v>1.0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C20" t="n">
         <v>24.0</v>
@@ -10670,13 +12528,19 @@
       <c r="L20" t="n">
         <v>16.0</v>
       </c>
+      <c r="M20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -10706,15 +12570,21 @@
         <v>8.0</v>
       </c>
       <c r="L21" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -10746,13 +12616,19 @@
       <c r="L22" t="n">
         <v>17.0</v>
       </c>
+      <c r="M22" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -10782,15 +12658,21 @@
         <v>10.0</v>
       </c>
       <c r="L23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N23" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C24" t="n">
         <v>16.0</v>
@@ -10822,13 +12704,19 @@
       <c r="L24" t="n">
         <v>22.0</v>
       </c>
+      <c r="M24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C25" t="n">
         <v>17.0</v>
@@ -10859,6 +12747,12 @@
       </c>
       <c r="L25" t="n">
         <v>13.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -10877,7 +12771,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10906,13 +12800,19 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -10941,13 +12841,19 @@
       <c r="K2" t="n">
         <v>17.0</v>
       </c>
+      <c r="L2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" t="n">
         <v>18.0</v>
@@ -10976,13 +12882,19 @@
       <c r="K3" t="n">
         <v>6.0</v>
       </c>
+      <c r="L3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -11010,14 +12922,20 @@
       </c>
       <c r="K4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C5" t="n">
         <v>19.0</v>
@@ -11046,13 +12964,19 @@
       <c r="K5" t="n">
         <v>20.0</v>
       </c>
+      <c r="L5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -11081,13 +13005,19 @@
       <c r="K6" t="n">
         <v>24.0</v>
       </c>
+      <c r="L6" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -11115,14 +13045,20 @@
       </c>
       <c r="K7" t="n">
         <v>8.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -11151,13 +13087,19 @@
       <c r="K8" t="n">
         <v>14.0</v>
       </c>
+      <c r="L8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" t="n">
         <v>21.0</v>
@@ -11186,13 +13128,19 @@
       <c r="K9" t="n">
         <v>21.0</v>
       </c>
+      <c r="L9" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -11220,14 +13168,20 @@
       </c>
       <c r="K10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C11" t="n">
         <v>11.0</v>
@@ -11256,13 +13210,19 @@
       <c r="K11" t="n">
         <v>15.0</v>
       </c>
+      <c r="L11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
         <v>22.0</v>
@@ -11291,13 +13251,19 @@
       <c r="K12" t="n">
         <v>10.0</v>
       </c>
+      <c r="L12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -11326,13 +13292,19 @@
       <c r="K13" t="n">
         <v>22.0</v>
       </c>
+      <c r="L13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -11360,14 +13332,20 @@
       </c>
       <c r="K14" t="n">
         <v>1.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -11396,13 +13374,19 @@
       <c r="K15" t="n">
         <v>9.0</v>
       </c>
+      <c r="L15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C16" t="n">
         <v>23.0</v>
@@ -11431,13 +13415,19 @@
       <c r="K16" t="n">
         <v>18.0</v>
       </c>
+      <c r="L16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -11466,13 +13456,19 @@
       <c r="K17" t="n">
         <v>23.0</v>
       </c>
+      <c r="L17" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C18" t="n">
         <v>24.0</v>
@@ -11501,13 +13497,19 @@
       <c r="K18" t="n">
         <v>19.0</v>
       </c>
+      <c r="L18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C19" t="n">
         <v>4.0</v>
@@ -11535,14 +13537,20 @@
       </c>
       <c r="K19" t="n">
         <v>11.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -11571,13 +13579,19 @@
       <c r="K20" t="n">
         <v>3.0</v>
       </c>
+      <c r="L20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -11606,13 +13620,19 @@
       <c r="K21" t="n">
         <v>12.0</v>
       </c>
+      <c r="L21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -11641,13 +13661,19 @@
       <c r="K22" t="n">
         <v>2.0</v>
       </c>
+      <c r="L22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C23" t="n">
         <v>16.0</v>
@@ -11676,13 +13702,19 @@
       <c r="K23" t="n">
         <v>5.0</v>
       </c>
+      <c r="L23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C24" t="n">
         <v>17.0</v>
@@ -11711,13 +13743,19 @@
       <c r="K24" t="n">
         <v>13.0</v>
       </c>
+      <c r="L24" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -11745,6 +13783,12 @@
       </c>
       <c r="K25" t="n">
         <v>16.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -11763,7 +13807,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11792,13 +13836,22 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -11827,13 +13880,22 @@
       <c r="K2" t="n">
         <v>16.0</v>
       </c>
+      <c r="L2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -11860,15 +13922,24 @@
         <v>3.0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -11897,13 +13968,22 @@
       <c r="K4" t="n">
         <v>5.0</v>
       </c>
+      <c r="L4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -11932,13 +14012,22 @@
       <c r="K5" t="n">
         <v>13.0</v>
       </c>
+      <c r="L5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -11967,13 +14056,22 @@
       <c r="K6" t="n">
         <v>20.0</v>
       </c>
+      <c r="L6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -12002,13 +14100,22 @@
       <c r="K7" t="n">
         <v>21.0</v>
       </c>
+      <c r="L7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -12036,14 +14143,23 @@
       </c>
       <c r="K8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -12071,14 +14187,23 @@
       </c>
       <c r="K9" t="n">
         <v>10.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C10" t="n">
         <v>17.0</v>
@@ -12107,13 +14232,22 @@
       <c r="K10" t="n">
         <v>22.0</v>
       </c>
+      <c r="L10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -12142,13 +14276,22 @@
       <c r="K11" t="n">
         <v>9.0</v>
       </c>
+      <c r="L11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -12177,13 +14320,22 @@
       <c r="K12" t="n">
         <v>17.0</v>
       </c>
+      <c r="L12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C13" t="n">
         <v>19.0</v>
@@ -12212,13 +14364,22 @@
       <c r="K13" t="n">
         <v>23.0</v>
       </c>
+      <c r="L13" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -12245,15 +14406,24 @@
         <v>1.0</v>
       </c>
       <c r="K14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C15" t="n">
         <v>20.0</v>
@@ -12282,13 +14452,22 @@
       <c r="K15" t="n">
         <v>7.0</v>
       </c>
+      <c r="L15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C16" t="n">
         <v>13.0</v>
@@ -12317,13 +14496,22 @@
       <c r="K16" t="n">
         <v>19.0</v>
       </c>
+      <c r="L16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -12350,15 +14538,24 @@
         <v>5.0</v>
       </c>
       <c r="K17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -12387,13 +14584,22 @@
       <c r="K18" t="n">
         <v>24.0</v>
       </c>
+      <c r="L18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -12420,15 +14626,24 @@
         <v>6.0</v>
       </c>
       <c r="K19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N19" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C20" t="n">
         <v>9.0</v>
@@ -12456,14 +14671,23 @@
       </c>
       <c r="K20" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -12492,13 +14716,22 @@
       <c r="K21" t="n">
         <v>18.0</v>
       </c>
+      <c r="L21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -12527,13 +14760,22 @@
       <c r="K22" t="n">
         <v>11.0</v>
       </c>
+      <c r="L22" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C23" t="n">
         <v>23.0</v>
@@ -12562,13 +14804,22 @@
       <c r="K23" t="n">
         <v>12.0</v>
       </c>
+      <c r="L23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -12597,13 +14848,22 @@
       <c r="K24" t="n">
         <v>14.0</v>
       </c>
+      <c r="L24" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C25" t="n">
         <v>10.0</v>
@@ -12630,6 +14890,15 @@
         <v>14.0</v>
       </c>
       <c r="K25" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N25" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -12649,7 +14918,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12678,13 +14947,22 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C2" t="n">
         <v>17.0</v>
@@ -12713,13 +14991,22 @@
       <c r="K2" t="n">
         <v>17.0</v>
       </c>
+      <c r="L2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -12748,13 +15035,22 @@
       <c r="K3" t="n">
         <v>23.0</v>
       </c>
+      <c r="L3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -12782,14 +15078,23 @@
       </c>
       <c r="K4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -12817,14 +15122,23 @@
       </c>
       <c r="K5" t="n">
         <v>3.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C6" t="n">
         <v>18.0</v>
@@ -12853,13 +15167,22 @@
       <c r="K6" t="n">
         <v>6.0</v>
       </c>
+      <c r="L6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -12887,14 +15210,23 @@
       </c>
       <c r="K7" t="n">
         <v>1.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -12923,13 +15255,22 @@
       <c r="K8" t="n">
         <v>12.0</v>
       </c>
+      <c r="L8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -12958,13 +15299,22 @@
       <c r="K9" t="n">
         <v>10.0</v>
       </c>
+      <c r="L9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C10" t="n">
         <v>19.0</v>
@@ -12993,13 +15343,22 @@
       <c r="K10" t="n">
         <v>13.0</v>
       </c>
+      <c r="L10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -13028,13 +15387,22 @@
       <c r="K11" t="n">
         <v>22.0</v>
       </c>
+      <c r="L11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C12" t="n">
         <v>20.0</v>
@@ -13063,13 +15431,22 @@
       <c r="K12" t="n">
         <v>19.0</v>
       </c>
+      <c r="L12" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C13" t="n">
         <v>21.0</v>
@@ -13098,13 +15475,22 @@
       <c r="K13" t="n">
         <v>16.0</v>
       </c>
+      <c r="L13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -13133,13 +15519,22 @@
       <c r="K14" t="n">
         <v>14.0</v>
       </c>
+      <c r="L14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -13167,14 +15562,23 @@
       </c>
       <c r="K15" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C16" t="n">
         <v>15.0</v>
@@ -13203,13 +15607,22 @@
       <c r="K16" t="n">
         <v>15.0</v>
       </c>
+      <c r="L16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -13238,13 +15651,22 @@
       <c r="K17" t="n">
         <v>24.0</v>
       </c>
+      <c r="L17" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -13272,14 +15694,23 @@
       </c>
       <c r="K18" t="n">
         <v>5.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -13308,13 +15739,22 @@
       <c r="K19" t="n">
         <v>18.0</v>
       </c>
+      <c r="L19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C20" t="n">
         <v>16.0</v>
@@ -13343,13 +15783,22 @@
       <c r="K20" t="n">
         <v>20.0</v>
       </c>
+      <c r="L20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -13378,13 +15827,22 @@
       <c r="K21" t="n">
         <v>7.0</v>
       </c>
+      <c r="L21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -13413,13 +15871,22 @@
       <c r="K22" t="n">
         <v>11.0</v>
       </c>
+      <c r="L22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -13448,13 +15915,22 @@
       <c r="K23" t="n">
         <v>2.0</v>
       </c>
+      <c r="L23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -13483,13 +15959,22 @@
       <c r="K24" t="n">
         <v>21.0</v>
       </c>
+      <c r="L24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C25" t="n">
         <v>8.0</v>
@@ -13517,6 +16002,15 @@
       </c>
       <c r="K25" t="n">
         <v>8.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -13535,7 +16029,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13561,13 +16055,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -13593,13 +16090,16 @@
       <c r="J2" t="n">
         <v>20.0</v>
       </c>
+      <c r="K2" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -13625,13 +16125,16 @@
       <c r="J3" t="n">
         <v>12.0</v>
       </c>
+      <c r="K3" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C4" t="n">
         <v>14.0</v>
@@ -13657,13 +16160,16 @@
       <c r="J4" t="n">
         <v>15.0</v>
       </c>
+      <c r="K4" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C5" t="n">
         <v>15.0</v>
@@ -13689,13 +16195,16 @@
       <c r="J5" t="n">
         <v>18.0</v>
       </c>
+      <c r="K5" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C6" t="n">
         <v>16.0</v>
@@ -13721,13 +16230,16 @@
       <c r="J6" t="n">
         <v>10.0</v>
       </c>
+      <c r="K6" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -13751,15 +16263,18 @@
         <v>3.0</v>
       </c>
       <c r="J7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -13784,14 +16299,17 @@
       </c>
       <c r="J8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -13815,15 +16333,18 @@
         <v>4.0</v>
       </c>
       <c r="J9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -13848,14 +16369,17 @@
       </c>
       <c r="J10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -13879,15 +16403,18 @@
         <v>1.0</v>
       </c>
       <c r="J11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -13913,13 +16440,16 @@
       <c r="J12" t="n">
         <v>5.0</v>
       </c>
+      <c r="K12" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -13945,13 +16475,16 @@
       <c r="J13" t="n">
         <v>8.0</v>
       </c>
+      <c r="K13" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -13977,13 +16510,16 @@
       <c r="J14" t="n">
         <v>16.0</v>
       </c>
+      <c r="K14" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -14009,13 +16545,16 @@
       <c r="J15" t="n">
         <v>13.0</v>
       </c>
+      <c r="K15" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -14039,15 +16578,18 @@
         <v>2.0</v>
       </c>
       <c r="J16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -14073,13 +16615,16 @@
       <c r="J17" t="n">
         <v>17.0</v>
       </c>
+      <c r="K17" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -14105,13 +16650,16 @@
       <c r="J18" t="n">
         <v>9.0</v>
       </c>
+      <c r="K18" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -14137,13 +16685,16 @@
       <c r="J19" t="n">
         <v>19.0</v>
       </c>
+      <c r="K19" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -14169,13 +16720,16 @@
       <c r="J20" t="n">
         <v>14.0</v>
       </c>
+      <c r="K20" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -14200,6 +16754,9 @@
       </c>
       <c r="J21" t="n">
         <v>11.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="465">
   <si>
     <t>b1_teams</t>
   </si>
@@ -77,6 +77,9 @@
     <t>X13</t>
   </si>
   <si>
+    <t>X14</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -371,10 +374,10 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X14</t>
-  </si>
-  <si>
     <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
   </si>
   <si>
     <t>21</t>
@@ -1519,13 +1522,16 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -1565,14 +1571,17 @@
       </c>
       <c r="O2" t="n">
         <v>9.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1611,15 +1620,18 @@
         <v>2.0</v>
       </c>
       <c r="O3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -1659,14 +1671,17 @@
       </c>
       <c r="O4" t="n">
         <v>12.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1706,14 +1721,17 @@
       </c>
       <c r="O5" t="n">
         <v>10.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1752,15 +1770,18 @@
         <v>3.0</v>
       </c>
       <c r="O6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -1800,14 +1821,17 @@
       </c>
       <c r="O7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -1846,15 +1870,18 @@
         <v>1.0</v>
       </c>
       <c r="O8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>8.0</v>
@@ -1894,14 +1921,17 @@
       </c>
       <c r="O9" t="n">
         <v>6.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -1941,14 +1971,17 @@
       </c>
       <c r="O10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -1988,14 +2021,17 @@
       </c>
       <c r="O11" t="n">
         <v>13.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -2035,14 +2071,17 @@
       </c>
       <c r="O12" t="n">
         <v>16.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -2082,14 +2121,17 @@
       </c>
       <c r="O13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -2128,15 +2170,18 @@
         <v>15.0</v>
       </c>
       <c r="O14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P14" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
         <v>9.0</v>
@@ -2175,15 +2220,18 @@
         <v>10.0</v>
       </c>
       <c r="O15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -2222,15 +2270,18 @@
         <v>4.0</v>
       </c>
       <c r="O16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P16" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -2270,14 +2321,17 @@
       </c>
       <c r="O17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -2316,15 +2370,18 @@
         <v>18.0</v>
       </c>
       <c r="O18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P18" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -2364,6 +2421,9 @@
       </c>
       <c r="O19" t="n">
         <v>8.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2442,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2420,13 +2480,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" t="n">
         <v>15.0</v>
@@ -2463,14 +2526,17 @@
       </c>
       <c r="N2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -2508,13 +2574,16 @@
       <c r="N3" t="n">
         <v>16.0</v>
       </c>
+      <c r="O3" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -2550,15 +2619,18 @@
         <v>8.0</v>
       </c>
       <c r="N4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -2594,15 +2666,18 @@
         <v>2.0</v>
       </c>
       <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -2638,15 +2713,18 @@
         <v>6.0</v>
       </c>
       <c r="N6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O6" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2683,14 +2761,17 @@
       </c>
       <c r="N7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2727,14 +2808,17 @@
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -2770,15 +2854,18 @@
         <v>7.0</v>
       </c>
       <c r="N9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -2815,14 +2902,17 @@
       </c>
       <c r="N10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -2859,14 +2949,17 @@
       </c>
       <c r="N11" t="n">
         <v>3.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -2903,14 +2996,17 @@
       </c>
       <c r="N12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -2948,13 +3044,16 @@
       <c r="N13" t="n">
         <v>18.0</v>
       </c>
+      <c r="O13" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -2992,13 +3091,16 @@
       <c r="N14" t="n">
         <v>20.0</v>
       </c>
+      <c r="O14" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -3034,15 +3136,18 @@
         <v>11.0</v>
       </c>
       <c r="N15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O15" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -3080,13 +3185,16 @@
       <c r="N16" t="n">
         <v>12.0</v>
       </c>
+      <c r="O16" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -3124,13 +3232,16 @@
       <c r="N17" t="n">
         <v>13.0</v>
       </c>
+      <c r="O17" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -3168,13 +3279,16 @@
       <c r="N18" t="n">
         <v>17.0</v>
       </c>
+      <c r="O18" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -3212,13 +3326,16 @@
       <c r="N19" t="n">
         <v>4.0</v>
       </c>
+      <c r="O19" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -3256,13 +3373,16 @@
       <c r="N20" t="n">
         <v>19.0</v>
       </c>
+      <c r="O20" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -3299,6 +3419,9 @@
       </c>
       <c r="N21" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -3317,7 +3440,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3343,13 +3466,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3373,15 +3499,18 @@
         <v>2.0</v>
       </c>
       <c r="J2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -3405,15 +3534,18 @@
         <v>7.0</v>
       </c>
       <c r="J3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -3437,15 +3569,18 @@
         <v>9.0</v>
       </c>
       <c r="J4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -3469,15 +3604,18 @@
         <v>6.0</v>
       </c>
       <c r="J5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K5" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -3501,15 +3639,18 @@
         <v>11.0</v>
       </c>
       <c r="J6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K6" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -3534,14 +3675,17 @@
       </c>
       <c r="J7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -3565,15 +3709,18 @@
         <v>10.0</v>
       </c>
       <c r="J8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K8" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -3598,14 +3745,17 @@
       </c>
       <c r="J9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -3629,15 +3779,18 @@
         <v>12.0</v>
       </c>
       <c r="J10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K10" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -3662,14 +3815,17 @@
       </c>
       <c r="J11" t="n">
         <v>5.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3693,15 +3849,18 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -3725,15 +3884,18 @@
         <v>8.0</v>
       </c>
       <c r="J13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K13" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -3758,14 +3920,17 @@
       </c>
       <c r="J14" t="n">
         <v>4.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3789,6 +3954,9 @@
         <v>4.0</v>
       </c>
       <c r="J15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3808,7 +3976,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3840,13 +4008,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3877,14 +4048,17 @@
       </c>
       <c r="L2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -3915,14 +4089,17 @@
       </c>
       <c r="L3" t="n">
         <v>17.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -3954,13 +4131,16 @@
       <c r="L4" t="n">
         <v>19.0</v>
       </c>
+      <c r="M4" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -3991,14 +4171,17 @@
       </c>
       <c r="L5" t="n">
         <v>10.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4029,14 +4212,17 @@
       </c>
       <c r="L6" t="n">
         <v>12.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -4067,14 +4253,17 @@
       </c>
       <c r="L7" t="n">
         <v>7.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -4104,15 +4293,18 @@
         <v>8.0</v>
       </c>
       <c r="L8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -4143,14 +4335,17 @@
       </c>
       <c r="L9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C10" t="n">
         <v>14.0</v>
@@ -4182,13 +4377,16 @@
       <c r="L10" t="n">
         <v>16.0</v>
       </c>
+      <c r="M10" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -4219,14 +4417,17 @@
       </c>
       <c r="L11" t="n">
         <v>3.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -4258,13 +4459,16 @@
       <c r="L12" t="n">
         <v>13.0</v>
       </c>
+      <c r="M12" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -4294,15 +4498,18 @@
         <v>1.0</v>
       </c>
       <c r="L13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -4333,14 +4540,17 @@
       </c>
       <c r="L14" t="n">
         <v>4.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -4371,14 +4581,17 @@
       </c>
       <c r="L15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -4410,13 +4623,16 @@
       <c r="L16" t="n">
         <v>20.0</v>
       </c>
+      <c r="M16" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -4446,15 +4662,18 @@
         <v>9.0</v>
       </c>
       <c r="L17" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M17" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -4485,14 +4704,17 @@
       </c>
       <c r="L18" t="n">
         <v>15.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C19" t="n">
         <v>10.0</v>
@@ -4523,14 +4745,17 @@
       </c>
       <c r="L19" t="n">
         <v>11.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -4562,13 +4787,16 @@
       <c r="L20" t="n">
         <v>6.0</v>
       </c>
+      <c r="M20" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -4599,6 +4827,9 @@
       </c>
       <c r="L21" t="n">
         <v>18.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +4848,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4646,13 +4877,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4680,14 +4914,17 @@
       </c>
       <c r="K2" t="n">
         <v>10.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -4715,14 +4952,17 @@
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -4750,14 +4990,17 @@
       </c>
       <c r="K4" t="n">
         <v>15.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -4784,15 +5027,18 @@
         <v>3.0</v>
       </c>
       <c r="K5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L5" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -4820,14 +5066,17 @@
       </c>
       <c r="K6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -4854,15 +5103,18 @@
         <v>13.0</v>
       </c>
       <c r="K7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -4891,13 +5143,16 @@
       <c r="K8" t="n">
         <v>19.0</v>
       </c>
+      <c r="L8" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -4925,14 +5180,17 @@
       </c>
       <c r="K9" t="n">
         <v>12.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -4960,14 +5218,17 @@
       </c>
       <c r="K10" t="n">
         <v>3.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -4995,14 +5256,17 @@
       </c>
       <c r="K11" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5031,13 +5295,16 @@
       <c r="K12" t="n">
         <v>11.0</v>
       </c>
+      <c r="L12" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -5065,14 +5332,17 @@
       </c>
       <c r="K13" t="n">
         <v>16.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -5100,14 +5370,17 @@
       </c>
       <c r="K14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -5136,13 +5409,16 @@
       <c r="K15" t="n">
         <v>20.0</v>
       </c>
+      <c r="L15" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -5171,13 +5447,16 @@
       <c r="K16" t="n">
         <v>18.0</v>
       </c>
+      <c r="L16" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -5204,15 +5483,18 @@
         <v>2.0</v>
       </c>
       <c r="K17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L17" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -5240,14 +5522,17 @@
       </c>
       <c r="K18" t="n">
         <v>14.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -5276,13 +5561,16 @@
       <c r="K19" t="n">
         <v>9.0</v>
       </c>
+      <c r="L19" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -5311,13 +5599,16 @@
       <c r="K20" t="n">
         <v>1.0</v>
       </c>
+      <c r="L20" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -5345,6 +5636,9 @@
       </c>
       <c r="K21" t="n">
         <v>17.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5657,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5395,13 +5689,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5431,15 +5728,18 @@
         <v>2.0</v>
       </c>
       <c r="L2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -5470,14 +5770,17 @@
       </c>
       <c r="L3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -5508,14 +5811,17 @@
       </c>
       <c r="L4" t="n">
         <v>14.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -5546,14 +5852,17 @@
       </c>
       <c r="L5" t="n">
         <v>11.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -5583,15 +5892,18 @@
         <v>16.0</v>
       </c>
       <c r="L6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M6" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -5622,14 +5934,17 @@
       </c>
       <c r="L7" t="n">
         <v>4.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -5660,14 +5975,17 @@
       </c>
       <c r="L8" t="n">
         <v>10.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -5698,14 +6016,17 @@
       </c>
       <c r="L9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C10" t="n">
         <v>7.0</v>
@@ -5736,14 +6057,17 @@
       </c>
       <c r="L10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -5774,14 +6098,17 @@
       </c>
       <c r="L11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -5812,14 +6139,17 @@
       </c>
       <c r="L12" t="n">
         <v>12.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -5850,14 +6180,17 @@
       </c>
       <c r="L13" t="n">
         <v>2.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C14" t="n">
         <v>9.0</v>
@@ -5888,14 +6221,17 @@
       </c>
       <c r="L14" t="n">
         <v>6.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -5925,15 +6261,18 @@
         <v>5.0</v>
       </c>
       <c r="L15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M15" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -5964,14 +6303,17 @@
       </c>
       <c r="L16" t="n">
         <v>9.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -6002,14 +6344,17 @@
       </c>
       <c r="L17" t="n">
         <v>16.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -6039,15 +6384,18 @@
         <v>18.0</v>
       </c>
       <c r="L18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M18" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -6078,6 +6426,9 @@
       </c>
       <c r="L19" t="n">
         <v>8.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6447,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6125,13 +6476,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -6159,14 +6513,17 @@
       </c>
       <c r="K2" t="n">
         <v>10.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -6193,15 +6550,18 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -6229,14 +6589,17 @@
       </c>
       <c r="K4" t="n">
         <v>5.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -6264,14 +6627,17 @@
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -6299,14 +6665,17 @@
       </c>
       <c r="K6" t="n">
         <v>11.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -6334,14 +6703,17 @@
       </c>
       <c r="K7" t="n">
         <v>7.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -6369,14 +6741,17 @@
       </c>
       <c r="K8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -6404,14 +6779,17 @@
       </c>
       <c r="K9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -6439,14 +6817,17 @@
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -6474,14 +6855,17 @@
       </c>
       <c r="K11" t="n">
         <v>18.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -6509,14 +6893,17 @@
       </c>
       <c r="K12" t="n">
         <v>17.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -6544,14 +6931,17 @@
       </c>
       <c r="K13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -6578,15 +6968,18 @@
         <v>2.0</v>
       </c>
       <c r="K14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -6614,14 +7007,17 @@
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6648,15 +7044,18 @@
         <v>16.0</v>
       </c>
       <c r="K16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L16" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -6683,15 +7082,18 @@
         <v>3.0</v>
       </c>
       <c r="K17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -6719,14 +7121,17 @@
       </c>
       <c r="K18" t="n">
         <v>6.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -6754,6 +7159,9 @@
       </c>
       <c r="K19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -6772,7 +7180,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6804,13 +7212,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -6841,14 +7252,17 @@
       </c>
       <c r="L2" t="n">
         <v>12.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -6878,15 +7292,18 @@
         <v>6.0</v>
       </c>
       <c r="L3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -6917,14 +7334,17 @@
       </c>
       <c r="L4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -6954,15 +7374,18 @@
         <v>2.0</v>
       </c>
       <c r="L5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -6992,15 +7415,18 @@
         <v>4.0</v>
       </c>
       <c r="L6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M6" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -7032,13 +7458,16 @@
       <c r="L7" t="n">
         <v>19.0</v>
       </c>
+      <c r="M7" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -7068,15 +7497,18 @@
         <v>11.0</v>
       </c>
       <c r="L8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -7108,13 +7540,16 @@
       <c r="L9" t="n">
         <v>20.0</v>
       </c>
+      <c r="M9" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -7144,15 +7579,18 @@
         <v>12.0</v>
       </c>
       <c r="L10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -7184,13 +7622,16 @@
       <c r="L11" t="n">
         <v>16.0</v>
       </c>
+      <c r="M11" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C12" t="n">
         <v>18.0</v>
@@ -7220,15 +7661,18 @@
         <v>16.0</v>
       </c>
       <c r="L12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -7259,14 +7703,17 @@
       </c>
       <c r="L13" t="n">
         <v>17.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -7297,14 +7744,17 @@
       </c>
       <c r="L14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -7334,15 +7784,18 @@
         <v>1.0</v>
       </c>
       <c r="L15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -7374,13 +7827,16 @@
       <c r="L16" t="n">
         <v>14.0</v>
       </c>
+      <c r="M16" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -7411,14 +7867,17 @@
       </c>
       <c r="L17" t="n">
         <v>3.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -7449,14 +7908,17 @@
       </c>
       <c r="L18" t="n">
         <v>8.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -7488,13 +7950,16 @@
       <c r="L19" t="n">
         <v>11.0</v>
       </c>
+      <c r="M19" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -7524,15 +7989,18 @@
         <v>10.0</v>
       </c>
       <c r="L20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M20" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -7563,6 +8031,9 @@
       </c>
       <c r="L21" t="n">
         <v>9.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -7581,7 +8052,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7616,13 +8087,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -7655,15 +8129,18 @@
         <v>2.0</v>
       </c>
       <c r="M2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -7697,14 +8174,17 @@
       </c>
       <c r="M3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -7738,14 +8218,17 @@
       </c>
       <c r="M4" t="n">
         <v>11.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -7778,15 +8261,18 @@
         <v>3.0</v>
       </c>
       <c r="M5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -7820,14 +8306,17 @@
       </c>
       <c r="M6" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -7861,14 +8350,17 @@
       </c>
       <c r="M7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -7902,14 +8394,17 @@
       </c>
       <c r="M8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -7943,14 +8438,17 @@
       </c>
       <c r="M9" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -7985,13 +8483,16 @@
       <c r="M10" t="n">
         <v>17.0</v>
       </c>
+      <c r="N10" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -8024,15 +8525,18 @@
         <v>1.0</v>
       </c>
       <c r="M11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -8067,13 +8571,16 @@
       <c r="M12" t="n">
         <v>18.0</v>
       </c>
+      <c r="N12" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -8107,14 +8614,17 @@
       </c>
       <c r="M13" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -8149,13 +8659,16 @@
       <c r="M14" t="n">
         <v>20.0</v>
       </c>
+      <c r="N14" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C15" t="n">
         <v>19.0</v>
@@ -8190,13 +8703,16 @@
       <c r="M15" t="n">
         <v>21.0</v>
       </c>
+      <c r="N15" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -8231,13 +8747,16 @@
       <c r="M16" t="n">
         <v>22.0</v>
       </c>
+      <c r="N16" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -8272,13 +8791,16 @@
       <c r="M17" t="n">
         <v>19.0</v>
       </c>
+      <c r="N17" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -8312,14 +8834,17 @@
       </c>
       <c r="M18" t="n">
         <v>15.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -8354,13 +8879,16 @@
       <c r="M19" t="n">
         <v>16.0</v>
       </c>
+      <c r="N19" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -8394,14 +8922,17 @@
       </c>
       <c r="M20" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -8436,13 +8967,16 @@
       <c r="M21" t="n">
         <v>12.0</v>
       </c>
+      <c r="N21" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -8476,14 +9010,17 @@
       </c>
       <c r="M22" t="n">
         <v>13.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C23" t="n">
         <v>14.0</v>
@@ -8517,6 +9054,9 @@
       </c>
       <c r="M23" t="n">
         <v>14.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -8535,7 +9075,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8570,13 +9110,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -8610,14 +9153,17 @@
       </c>
       <c r="M2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -8650,15 +9196,18 @@
         <v>1.0</v>
       </c>
       <c r="M3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -8691,15 +9240,18 @@
         <v>10.0</v>
       </c>
       <c r="M4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -8732,15 +9284,18 @@
         <v>6.0</v>
       </c>
       <c r="M5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -8774,14 +9329,17 @@
       </c>
       <c r="M6" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -8814,15 +9372,18 @@
         <v>12.0</v>
       </c>
       <c r="M7" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -8855,15 +9416,18 @@
         <v>4.0</v>
       </c>
       <c r="M8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -8896,15 +9460,18 @@
         <v>8.0</v>
       </c>
       <c r="M9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -8937,15 +9504,18 @@
         <v>2.0</v>
       </c>
       <c r="M10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -8978,15 +9548,18 @@
         <v>11.0</v>
       </c>
       <c r="M11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -9019,15 +9592,18 @@
         <v>9.0</v>
       </c>
       <c r="M12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N12" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -9061,6 +9637,9 @@
       </c>
       <c r="M13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -9079,7 +9658,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9114,13 +9693,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -9153,15 +9735,18 @@
         <v>9.0</v>
       </c>
       <c r="M2" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -9195,14 +9780,17 @@
       </c>
       <c r="M3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -9235,15 +9823,18 @@
         <v>8.0</v>
       </c>
       <c r="M4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N4" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -9277,14 +9868,17 @@
       </c>
       <c r="M5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -9317,15 +9911,18 @@
         <v>10.0</v>
       </c>
       <c r="M6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -9358,15 +9955,18 @@
         <v>1.0</v>
       </c>
       <c r="M7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C8" t="n">
         <v>7.0</v>
@@ -9400,14 +10000,17 @@
       </c>
       <c r="M8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -9440,15 +10043,18 @@
         <v>4.0</v>
       </c>
       <c r="M9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -9482,14 +10088,17 @@
       </c>
       <c r="M10" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -9522,6 +10131,9 @@
         <v>7.0</v>
       </c>
       <c r="M11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -9541,7 +10153,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9573,13 +10185,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -9609,15 +10224,18 @@
         <v>9.0</v>
       </c>
       <c r="L2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -9647,15 +10265,18 @@
         <v>3.0</v>
       </c>
       <c r="L3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -9686,14 +10307,17 @@
       </c>
       <c r="L4" t="n">
         <v>18.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -9724,14 +10348,17 @@
       </c>
       <c r="L5" t="n">
         <v>6.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -9761,15 +10388,18 @@
         <v>7.0</v>
       </c>
       <c r="L6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M6" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -9800,14 +10430,17 @@
       </c>
       <c r="L7" t="n">
         <v>7.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -9837,15 +10470,18 @@
         <v>2.0</v>
       </c>
       <c r="L8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -9876,14 +10512,17 @@
       </c>
       <c r="L9" t="n">
         <v>14.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -9914,14 +10553,17 @@
       </c>
       <c r="L10" t="n">
         <v>5.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -9951,15 +10593,18 @@
         <v>15.0</v>
       </c>
       <c r="L11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M11" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -9990,14 +10635,17 @@
       </c>
       <c r="L12" t="n">
         <v>9.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -10028,14 +10676,17 @@
       </c>
       <c r="L13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -10065,15 +10716,18 @@
         <v>12.0</v>
       </c>
       <c r="L14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M14" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -10104,14 +10758,17 @@
       </c>
       <c r="L15" t="n">
         <v>17.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -10141,15 +10798,18 @@
         <v>17.0</v>
       </c>
       <c r="L16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M16" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -10179,15 +10839,18 @@
         <v>1.0</v>
       </c>
       <c r="L17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -10217,15 +10880,18 @@
         <v>6.0</v>
       </c>
       <c r="L18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M18" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="n">
         <v>11.0</v>
@@ -10256,6 +10922,9 @@
       </c>
       <c r="L19" t="n">
         <v>13.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -10274,7 +10943,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10309,13 +10978,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -10349,14 +11021,17 @@
       </c>
       <c r="M2" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -10389,15 +11064,18 @@
         <v>5.0</v>
       </c>
       <c r="M3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N3" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -10430,15 +11108,18 @@
         <v>9.0</v>
       </c>
       <c r="M4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -10471,15 +11152,18 @@
         <v>1.0</v>
       </c>
       <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -10513,14 +11197,17 @@
       </c>
       <c r="M6" t="n">
         <v>2.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -10554,14 +11241,17 @@
       </c>
       <c r="M7" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -10595,14 +11285,17 @@
       </c>
       <c r="M8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -10635,15 +11328,18 @@
         <v>4.0</v>
       </c>
       <c r="M9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -10676,15 +11372,18 @@
         <v>10.0</v>
       </c>
       <c r="M10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10718,6 +11417,9 @@
       </c>
       <c r="M11" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -10736,7 +11438,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10774,10 +11476,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -10815,10 +11517,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -10856,10 +11558,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -10897,10 +11599,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -10938,10 +11640,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -10979,10 +11681,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -11020,10 +11722,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -11061,10 +11763,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -11102,10 +11804,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -11143,10 +11845,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -11198,7 +11900,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11227,13 +11929,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -11261,14 +11966,17 @@
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -11296,14 +12004,17 @@
       </c>
       <c r="K3" t="n">
         <v>11.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -11331,14 +12042,17 @@
       </c>
       <c r="K4" t="n">
         <v>16.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -11366,14 +12080,17 @@
       </c>
       <c r="K5" t="n">
         <v>17.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11401,14 +12118,17 @@
       </c>
       <c r="K6" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -11436,14 +12156,17 @@
       </c>
       <c r="K7" t="n">
         <v>2.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -11471,14 +12194,17 @@
       </c>
       <c r="K8" t="n">
         <v>3.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -11506,14 +12232,17 @@
       </c>
       <c r="K9" t="n">
         <v>7.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -11540,15 +12269,18 @@
         <v>9.0</v>
       </c>
       <c r="K10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L10" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -11576,14 +12308,17 @@
       </c>
       <c r="K11" t="n">
         <v>14.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -11612,13 +12347,16 @@
       <c r="K12" t="n">
         <v>18.0</v>
       </c>
+      <c r="L12" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -11646,14 +12384,17 @@
       </c>
       <c r="K13" t="n">
         <v>15.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -11681,14 +12422,17 @@
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -11717,13 +12461,16 @@
       <c r="K15" t="n">
         <v>10.0</v>
       </c>
+      <c r="L15" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -11752,13 +12499,16 @@
       <c r="K16" t="n">
         <v>8.0</v>
       </c>
+      <c r="L16" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -11786,14 +12536,17 @@
       </c>
       <c r="K17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -11821,14 +12574,17 @@
       </c>
       <c r="K18" t="n">
         <v>12.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -11856,14 +12612,17 @@
       </c>
       <c r="K19" t="n">
         <v>6.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -11890,6 +12649,9 @@
         <v>19.0</v>
       </c>
       <c r="K20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="L20" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -11909,7 +12671,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11947,13 +12709,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -11990,14 +12755,17 @@
       </c>
       <c r="N2" t="n">
         <v>18.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -12034,14 +12802,17 @@
       </c>
       <c r="N3" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12077,15 +12848,18 @@
         <v>2.0</v>
       </c>
       <c r="N4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -12122,14 +12896,17 @@
       </c>
       <c r="N5" t="n">
         <v>7.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -12166,14 +12943,17 @@
       </c>
       <c r="N6" t="n">
         <v>16.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -12210,14 +12990,17 @@
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -12254,14 +13037,17 @@
       </c>
       <c r="N8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -12297,15 +13083,18 @@
         <v>10.0</v>
       </c>
       <c r="N9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -12342,14 +13131,17 @@
       </c>
       <c r="N10" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12386,14 +13178,17 @@
       </c>
       <c r="N11" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -12430,14 +13225,17 @@
       </c>
       <c r="N12" t="n">
         <v>9.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -12474,14 +13272,17 @@
       </c>
       <c r="N13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -12518,14 +13319,17 @@
       </c>
       <c r="N14" t="n">
         <v>17.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -12562,14 +13366,17 @@
       </c>
       <c r="N15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -12606,14 +13413,17 @@
       </c>
       <c r="N16" t="n">
         <v>3.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -12650,14 +13460,17 @@
       </c>
       <c r="N17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -12694,14 +13507,17 @@
       </c>
       <c r="N18" t="n">
         <v>15.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -12738,6 +13554,9 @@
       </c>
       <c r="N19" t="n">
         <v>13.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -12756,7 +13575,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12791,13 +13610,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -12830,15 +13652,18 @@
         <v>1.0</v>
       </c>
       <c r="M2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="n">
         <v>13.0</v>
@@ -12872,14 +13697,17 @@
       </c>
       <c r="M3" t="n">
         <v>16.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -12913,14 +13741,17 @@
       </c>
       <c r="M4" t="n">
         <v>11.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -12953,15 +13784,18 @@
         <v>9.0</v>
       </c>
       <c r="M5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -12995,14 +13829,17 @@
       </c>
       <c r="M6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13035,15 +13872,18 @@
         <v>4.0</v>
       </c>
       <c r="M7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N7" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -13077,14 +13917,17 @@
       </c>
       <c r="M8" t="n">
         <v>12.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -13117,15 +13960,18 @@
         <v>15.0</v>
       </c>
       <c r="M9" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -13159,14 +14005,17 @@
       </c>
       <c r="M10" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -13200,14 +14049,17 @@
       </c>
       <c r="M11" t="n">
         <v>17.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -13240,15 +14092,18 @@
         <v>20.0</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -13282,14 +14137,17 @@
       </c>
       <c r="M13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -13322,15 +14180,18 @@
         <v>2.0</v>
       </c>
       <c r="M14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -13365,13 +14226,16 @@
       <c r="M15" t="n">
         <v>5.0</v>
       </c>
+      <c r="N15" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -13405,14 +14269,17 @@
       </c>
       <c r="M16" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -13445,15 +14312,18 @@
         <v>19.0</v>
       </c>
       <c r="M17" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -13486,15 +14356,18 @@
         <v>13.0</v>
       </c>
       <c r="M18" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -13527,15 +14400,18 @@
         <v>3.0</v>
       </c>
       <c r="M19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N19" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -13568,15 +14444,18 @@
         <v>14.0</v>
       </c>
       <c r="M20" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -13609,7 +14488,10 @@
         <v>18.0</v>
       </c>
       <c r="M21" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -13628,7 +14510,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13670,18 +14552,21 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
         <v>113</v>
       </c>
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -13728,13 +14613,16 @@
       <c r="Q2" t="n">
         <v>13.0</v>
       </c>
+      <c r="R2" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -13779,15 +14667,18 @@
         <v>3.0</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -13832,15 +14723,18 @@
         <v>19.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -13887,13 +14781,16 @@
       <c r="Q5" t="n">
         <v>11.0</v>
       </c>
+      <c r="R5" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -13938,15 +14835,18 @@
         <v>1.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13991,15 +14891,18 @@
         <v>17.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -14046,13 +14949,16 @@
       <c r="Q8" t="n">
         <v>23.0</v>
       </c>
+      <c r="R8" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
         <v>19.0</v>
@@ -14099,13 +15005,16 @@
       <c r="Q9" t="n">
         <v>24.0</v>
       </c>
+      <c r="R9" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -14150,15 +15059,18 @@
         <v>20.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14205,13 +15117,16 @@
       <c r="Q11" t="n">
         <v>5.0</v>
       </c>
+      <c r="R11" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -14258,13 +15173,16 @@
       <c r="Q12" t="n">
         <v>21.0</v>
       </c>
+      <c r="R12" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -14311,13 +15229,16 @@
       <c r="Q13" t="n">
         <v>8.0</v>
       </c>
+      <c r="R13" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
         <v>20.0</v>
@@ -14364,13 +15285,16 @@
       <c r="Q14" t="n">
         <v>6.0</v>
       </c>
+      <c r="R14" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -14416,14 +15340,17 @@
       </c>
       <c r="Q15" t="n">
         <v>9.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
         <v>21.0</v>
@@ -14470,13 +15397,16 @@
       <c r="Q16" t="n">
         <v>2.0</v>
       </c>
+      <c r="R16" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
         <v>22.0</v>
@@ -14523,13 +15453,16 @@
       <c r="Q17" t="n">
         <v>10.0</v>
       </c>
+      <c r="R17" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -14576,13 +15509,16 @@
       <c r="Q18" t="n">
         <v>12.0</v>
       </c>
+      <c r="R18" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n">
         <v>23.0</v>
@@ -14629,13 +15565,16 @@
       <c r="Q19" t="n">
         <v>4.0</v>
       </c>
+      <c r="R19" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="n">
         <v>24.0</v>
@@ -14680,15 +15619,18 @@
         <v>14.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -14734,14 +15676,17 @@
       </c>
       <c r="Q21" t="n">
         <v>14.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -14788,13 +15733,16 @@
       <c r="Q22" t="n">
         <v>7.0</v>
       </c>
+      <c r="R22" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -14840,14 +15788,17 @@
       </c>
       <c r="Q23" t="n">
         <v>15.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
         <v>16.0</v>
@@ -14894,13 +15845,16 @@
       <c r="Q24" t="n">
         <v>22.0</v>
       </c>
+      <c r="R24" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
         <v>17.0</v>
@@ -14945,7 +15899,10 @@
         <v>15.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -14964,7 +15921,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15006,15 +15963,18 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -15056,15 +16016,18 @@
         <v>13.0</v>
       </c>
       <c r="P2" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" t="n">
         <v>18.0</v>
@@ -15106,15 +16069,18 @@
         <v>6.0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -15156,15 +16122,18 @@
         <v>7.0</v>
       </c>
       <c r="P4" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
         <v>19.0</v>
@@ -15206,15 +16175,18 @@
         <v>10.0</v>
       </c>
       <c r="P5" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -15256,15 +16228,18 @@
         <v>23.0</v>
       </c>
       <c r="P6" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -15306,15 +16281,18 @@
         <v>14.0</v>
       </c>
       <c r="P7" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -15356,15 +16334,18 @@
         <v>15.0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
         <v>21.0</v>
@@ -15408,13 +16389,16 @@
       <c r="P9" t="n">
         <v>19.0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -15456,15 +16440,18 @@
         <v>9.0</v>
       </c>
       <c r="P10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
         <v>11.0</v>
@@ -15506,15 +16493,18 @@
         <v>11.0</v>
       </c>
       <c r="P11" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
         <v>22.0</v>
@@ -15556,15 +16546,18 @@
         <v>16.0</v>
       </c>
       <c r="P12" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -15606,15 +16599,18 @@
         <v>21.0</v>
       </c>
       <c r="P13" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -15656,15 +16652,18 @@
         <v>2.0</v>
       </c>
       <c r="P14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -15706,15 +16705,18 @@
         <v>12.0</v>
       </c>
       <c r="P15" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" t="n">
         <v>23.0</v>
@@ -15756,15 +16758,18 @@
         <v>22.0</v>
       </c>
       <c r="P16" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -15808,13 +16813,16 @@
       <c r="P17" t="n">
         <v>24.0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>24.0</v>
@@ -15858,13 +16866,16 @@
       <c r="P18" t="n">
         <v>20.0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" t="n">
         <v>4.0</v>
@@ -15906,15 +16917,18 @@
         <v>4.0</v>
       </c>
       <c r="P19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -15956,15 +16970,18 @@
         <v>1.0</v>
       </c>
       <c r="P20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -16006,15 +17023,18 @@
         <v>17.0</v>
       </c>
       <c r="P21" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -16056,15 +17076,18 @@
         <v>5.0</v>
       </c>
       <c r="P22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" t="n">
         <v>16.0</v>
@@ -16106,15 +17129,18 @@
         <v>3.0</v>
       </c>
       <c r="P23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" t="n">
         <v>17.0</v>
@@ -16156,15 +17182,18 @@
         <v>8.0</v>
       </c>
       <c r="P24" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -16206,7 +17235,10 @@
         <v>20.0</v>
       </c>
       <c r="P25" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -16225,7 +17257,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16267,15 +17299,18 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -16317,15 +17352,18 @@
         <v>16.0</v>
       </c>
       <c r="P2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -16367,15 +17405,18 @@
         <v>8.0</v>
       </c>
       <c r="P3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -16418,14 +17459,17 @@
       </c>
       <c r="P4" t="n">
         <v>5.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -16468,14 +17512,17 @@
       </c>
       <c r="P5" t="n">
         <v>6.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -16517,15 +17564,18 @@
         <v>21.0</v>
       </c>
       <c r="P6" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -16567,15 +17617,18 @@
         <v>22.0</v>
       </c>
       <c r="P7" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -16617,15 +17670,18 @@
         <v>13.0</v>
       </c>
       <c r="P8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -16667,15 +17723,18 @@
         <v>10.0</v>
       </c>
       <c r="P9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" t="n">
         <v>17.0</v>
@@ -16717,15 +17776,18 @@
         <v>17.0</v>
       </c>
       <c r="P10" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -16767,15 +17829,18 @@
         <v>12.0</v>
       </c>
       <c r="P11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -16817,15 +17882,18 @@
         <v>19.0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" t="n">
         <v>19.0</v>
@@ -16869,13 +17937,16 @@
       <c r="P13" t="n">
         <v>24.0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -16917,15 +17988,18 @@
         <v>2.0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" t="n">
         <v>20.0</v>
@@ -16969,13 +18043,16 @@
       <c r="P15" t="n">
         <v>4.0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" t="n">
         <v>13.0</v>
@@ -17017,15 +18094,18 @@
         <v>20.0</v>
       </c>
       <c r="P16" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -17067,15 +18147,18 @@
         <v>3.0</v>
       </c>
       <c r="P17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -17117,15 +18200,18 @@
         <v>24.0</v>
       </c>
       <c r="P18" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -17168,14 +18254,17 @@
       </c>
       <c r="P19" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" t="n">
         <v>9.0</v>
@@ -17217,15 +18306,18 @@
         <v>1.0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -17267,15 +18359,18 @@
         <v>18.0</v>
       </c>
       <c r="P21" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -17319,13 +18414,16 @@
       <c r="P22" t="n">
         <v>14.0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" t="n">
         <v>23.0</v>
@@ -17367,15 +18465,18 @@
         <v>11.0</v>
       </c>
       <c r="P23" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -17419,13 +18520,16 @@
       <c r="P24" t="n">
         <v>10.0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" t="n">
         <v>10.0</v>
@@ -17467,6 +18571,9 @@
         <v>15.0</v>
       </c>
       <c r="P25" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -17486,7 +18593,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17528,15 +18635,18 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="n">
         <v>17.0</v>
@@ -17578,15 +18688,18 @@
         <v>22.0</v>
       </c>
       <c r="P2" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -17628,15 +18741,18 @@
         <v>16.0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -17678,15 +18794,18 @@
         <v>12.0</v>
       </c>
       <c r="P4" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -17728,15 +18847,18 @@
         <v>3.0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" t="n">
         <v>18.0</v>
@@ -17778,15 +18900,18 @@
         <v>4.0</v>
       </c>
       <c r="P6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -17828,15 +18953,18 @@
         <v>5.0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -17878,15 +19006,18 @@
         <v>11.0</v>
       </c>
       <c r="P8" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17928,15 +19059,18 @@
         <v>13.0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C10" t="n">
         <v>19.0</v>
@@ -17978,15 +19112,18 @@
         <v>9.0</v>
       </c>
       <c r="P10" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -18028,15 +19165,18 @@
         <v>19.0</v>
       </c>
       <c r="P11" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C12" t="n">
         <v>20.0</v>
@@ -18078,15 +19218,18 @@
         <v>20.0</v>
       </c>
       <c r="P12" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C13" t="n">
         <v>21.0</v>
@@ -18128,15 +19271,18 @@
         <v>14.0</v>
       </c>
       <c r="P13" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -18178,15 +19324,18 @@
         <v>21.0</v>
       </c>
       <c r="P14" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -18228,15 +19377,18 @@
         <v>1.0</v>
       </c>
       <c r="P15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C16" t="n">
         <v>15.0</v>
@@ -18278,15 +19430,18 @@
         <v>17.0</v>
       </c>
       <c r="P16" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -18330,13 +19485,16 @@
       <c r="P17" t="n">
         <v>23.0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -18378,15 +19536,18 @@
         <v>6.0</v>
       </c>
       <c r="P18" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -18428,15 +19589,18 @@
         <v>15.0</v>
       </c>
       <c r="P19" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" t="n">
         <v>16.0</v>
@@ -18480,13 +19644,16 @@
       <c r="P20" t="n">
         <v>24.0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -18528,15 +19695,18 @@
         <v>10.0</v>
       </c>
       <c r="P21" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -18578,15 +19748,18 @@
         <v>8.0</v>
       </c>
       <c r="P22" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -18628,15 +19801,18 @@
         <v>2.0</v>
       </c>
       <c r="P23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -18678,15 +19854,18 @@
         <v>18.0</v>
       </c>
       <c r="P24" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" t="n">
         <v>8.0</v>
@@ -18728,7 +19907,10 @@
         <v>7.0</v>
       </c>
       <c r="P25" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -18747,7 +19929,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18782,13 +19964,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -18823,13 +20008,16 @@
       <c r="M2" t="n">
         <v>17.0</v>
       </c>
+      <c r="N2" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -18864,13 +20052,16 @@
       <c r="M3" t="n">
         <v>18.0</v>
       </c>
+      <c r="N3" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C4" t="n">
         <v>14.0</v>
@@ -18904,14 +20095,17 @@
       </c>
       <c r="M4" t="n">
         <v>15.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C5" t="n">
         <v>15.0</v>
@@ -18946,13 +20140,16 @@
       <c r="M5" t="n">
         <v>20.0</v>
       </c>
+      <c r="N5" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C6" t="n">
         <v>16.0</v>
@@ -18985,15 +20182,18 @@
         <v>7.0</v>
       </c>
       <c r="M6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N6" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -19027,14 +20227,17 @@
       </c>
       <c r="M7" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -19068,14 +20271,17 @@
       </c>
       <c r="M8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -19109,14 +20315,17 @@
       </c>
       <c r="M9" t="n">
         <v>2.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -19150,14 +20359,17 @@
       </c>
       <c r="M10" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -19191,14 +20403,17 @@
       </c>
       <c r="M11" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -19232,14 +20447,17 @@
       </c>
       <c r="M12" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -19273,14 +20491,17 @@
       </c>
       <c r="M13" t="n">
         <v>11.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -19315,13 +20536,16 @@
       <c r="M14" t="n">
         <v>14.0</v>
       </c>
+      <c r="N14" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -19355,14 +20579,17 @@
       </c>
       <c r="M15" t="n">
         <v>12.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -19395,15 +20622,18 @@
         <v>1.0</v>
       </c>
       <c r="M16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -19438,13 +20668,16 @@
       <c r="M17" t="n">
         <v>16.0</v>
       </c>
+      <c r="N17" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -19478,14 +20711,17 @@
       </c>
       <c r="M18" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -19520,13 +20756,16 @@
       <c r="M19" t="n">
         <v>19.0</v>
       </c>
+      <c r="N19" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -19560,14 +20799,17 @@
       </c>
       <c r="M20" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -19601,6 +20843,9 @@
       </c>
       <c r="M21" t="n">
         <v>13.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="466">
   <si>
     <t>b1_teams</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
   </si>
   <si>
     <t>21</t>
@@ -2442,7 +2445,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2489,7 +2492,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" t="n">
         <v>15.0</v>
@@ -2536,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -2583,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -2630,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -2677,7 +2680,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -2724,7 +2727,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2771,7 +2774,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2818,7 +2821,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -2865,7 +2868,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -2912,7 +2915,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -2959,7 +2962,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3006,7 +3009,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -3053,7 +3056,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -3100,7 +3103,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -3147,7 +3150,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -3194,7 +3197,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -3241,7 +3244,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -3288,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -3335,7 +3338,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -3382,7 +3385,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -3440,7 +3443,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3475,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3510,7 +3513,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -3545,7 +3548,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -3580,7 +3583,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -3615,7 +3618,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -3650,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -3685,7 +3688,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -3720,7 +3723,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -3755,7 +3758,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -3790,7 +3793,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -3825,7 +3828,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3860,7 +3863,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -3895,7 +3898,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -3930,7 +3933,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3976,7 +3979,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4017,7 +4020,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4058,7 +4061,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -4099,7 +4102,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -4140,7 +4143,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -4181,7 +4184,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4222,7 +4225,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -4263,7 +4266,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -4304,7 +4307,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -4345,7 +4348,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C10" t="n">
         <v>14.0</v>
@@ -4386,7 +4389,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -4427,7 +4430,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -4468,7 +4471,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -4509,7 +4512,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -4550,7 +4553,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -4591,7 +4594,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -4632,7 +4635,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -4673,7 +4676,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -4714,7 +4717,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C19" t="n">
         <v>10.0</v>
@@ -4755,7 +4758,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -4796,7 +4799,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -4848,7 +4851,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4886,7 +4889,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4924,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -4962,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -5000,7 +5003,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -5038,7 +5041,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -5076,7 +5079,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -5114,7 +5117,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -5152,7 +5155,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -5190,7 +5193,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -5228,7 +5231,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -5266,7 +5269,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5304,7 +5307,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -5342,7 +5345,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -5380,7 +5383,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -5418,7 +5421,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -5456,7 +5459,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -5494,7 +5497,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -5532,7 +5535,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -5570,7 +5573,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -5608,7 +5611,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -5657,7 +5660,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5698,7 +5701,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5739,7 +5742,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -5780,7 +5783,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -5821,7 +5824,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -5862,7 +5865,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -5903,7 +5906,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -5944,7 +5947,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -5985,7 +5988,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -6026,7 +6029,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C10" t="n">
         <v>7.0</v>
@@ -6067,7 +6070,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -6108,7 +6111,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -6149,7 +6152,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -6190,7 +6193,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C14" t="n">
         <v>9.0</v>
@@ -6231,7 +6234,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -6272,7 +6275,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -6313,7 +6316,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -6354,7 +6357,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -6395,7 +6398,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -6447,7 +6450,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6485,7 +6488,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -6523,7 +6526,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -6561,7 +6564,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -6599,7 +6602,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -6637,7 +6640,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -6675,7 +6678,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -6713,7 +6716,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -6751,7 +6754,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -6789,7 +6792,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -6827,7 +6830,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -6865,7 +6868,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -6903,7 +6906,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -6941,7 +6944,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -6979,7 +6982,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -7017,7 +7020,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7055,7 +7058,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -7093,7 +7096,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -7131,7 +7134,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -7180,7 +7183,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7221,7 +7224,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -7262,7 +7265,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -7303,7 +7306,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -7344,7 +7347,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -7385,7 +7388,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -7426,7 +7429,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -7467,7 +7470,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -7508,7 +7511,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -7549,7 +7552,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -7590,7 +7593,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -7631,7 +7634,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" t="n">
         <v>18.0</v>
@@ -7672,7 +7675,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -7713,7 +7716,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -7754,7 +7757,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -7795,7 +7798,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -7836,7 +7839,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -7877,7 +7880,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -7918,7 +7921,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -7959,7 +7962,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -8000,7 +8003,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -8052,7 +8055,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8096,7 +8099,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -8140,7 +8143,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -8184,7 +8187,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -8228,7 +8231,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -8272,7 +8275,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -8316,7 +8319,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -8360,7 +8363,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -8404,7 +8407,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -8448,7 +8451,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -8492,7 +8495,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -8536,7 +8539,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -8580,7 +8583,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -8624,7 +8627,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -8668,7 +8671,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C15" t="n">
         <v>19.0</v>
@@ -8712,7 +8715,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -8756,7 +8759,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -8800,7 +8803,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -8844,7 +8847,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -8888,7 +8891,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -8932,7 +8935,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -8973,10 +8976,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -9017,10 +9020,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C23" t="n">
         <v>14.0</v>
@@ -9075,7 +9078,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9119,7 +9122,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -9163,7 +9166,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -9207,7 +9210,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -9251,7 +9254,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -9295,7 +9298,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -9339,7 +9342,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -9383,7 +9386,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -9427,7 +9430,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -9471,7 +9474,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -9515,7 +9518,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -9559,7 +9562,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -9603,7 +9606,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -9658,7 +9661,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9702,7 +9705,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -9746,7 +9749,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -9782,7 +9785,7 @@
         <v>3.0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -9790,7 +9793,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -9834,7 +9837,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -9878,7 +9881,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -9922,7 +9925,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -9958,7 +9961,7 @@
         <v>1.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -9966,7 +9969,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C8" t="n">
         <v>7.0</v>
@@ -10010,7 +10013,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -10046,7 +10049,7 @@
         <v>2.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -10054,7 +10057,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -10090,7 +10093,7 @@
         <v>6.0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -10098,7 +10101,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10943,7 +10946,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10987,7 +10990,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -11031,7 +11034,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -11075,7 +11078,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -11119,7 +11122,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -11163,7 +11166,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -11207,7 +11210,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11251,7 +11254,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -11295,7 +11298,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -11339,7 +11342,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -11383,7 +11386,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -11438,7 +11441,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11479,7 +11482,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -11520,7 +11523,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -11561,7 +11564,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -11602,7 +11605,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -11643,7 +11646,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -11684,7 +11687,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -11725,7 +11728,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -11766,7 +11769,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -11807,7 +11810,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -11848,7 +11851,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -11900,7 +11903,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11938,7 +11941,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -11976,7 +11979,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -12014,7 +12017,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -12052,7 +12055,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -12090,7 +12093,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12128,7 +12131,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -12166,7 +12169,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -12204,7 +12207,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -12242,7 +12245,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -12280,7 +12283,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -12318,7 +12321,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -12356,7 +12359,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -12394,7 +12397,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -12432,7 +12435,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -12470,7 +12473,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -12508,7 +12511,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -12546,7 +12549,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -12584,7 +12587,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -12622,7 +12625,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -14560,13 +14563,16 @@
       <c r="R1" t="s">
         <v>114</v>
       </c>
+      <c r="S1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -14614,6 +14620,9 @@
         <v>13.0</v>
       </c>
       <c r="R2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S2" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -14622,7 +14631,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -14671,6 +14680,9 @@
       </c>
       <c r="R3" t="n">
         <v>1.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -14678,7 +14690,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -14726,6 +14738,9 @@
         <v>16.0</v>
       </c>
       <c r="R4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S4" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -14734,7 +14749,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -14782,7 +14797,10 @@
         <v>11.0</v>
       </c>
       <c r="R5" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -14790,7 +14808,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -14839,6 +14857,9 @@
       </c>
       <c r="R6" t="n">
         <v>3.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -14846,7 +14867,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14894,6 +14915,9 @@
         <v>19.0</v>
       </c>
       <c r="R7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -14902,7 +14926,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -14950,7 +14974,10 @@
         <v>23.0</v>
       </c>
       <c r="R8" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
@@ -14958,7 +14985,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n">
         <v>19.0</v>
@@ -15006,6 +15033,9 @@
         <v>24.0</v>
       </c>
       <c r="R9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S9" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -15014,7 +15044,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -15062,6 +15092,9 @@
         <v>20.0</v>
       </c>
       <c r="R10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -15070,7 +15103,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15118,6 +15151,9 @@
         <v>5.0</v>
       </c>
       <c r="R11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S11" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -15126,7 +15162,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -15174,7 +15210,10 @@
         <v>21.0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="13">
@@ -15182,7 +15221,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15230,6 +15269,9 @@
         <v>8.0</v>
       </c>
       <c r="R13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S13" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -15238,7 +15280,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="n">
         <v>20.0</v>
@@ -15286,6 +15328,9 @@
         <v>6.0</v>
       </c>
       <c r="R14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -15294,7 +15339,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -15342,6 +15387,9 @@
         <v>9.0</v>
       </c>
       <c r="R15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -15350,7 +15398,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="n">
         <v>21.0</v>
@@ -15399,6 +15447,9 @@
       </c>
       <c r="R16" t="n">
         <v>2.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -15406,7 +15457,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
         <v>22.0</v>
@@ -15454,6 +15505,9 @@
         <v>10.0</v>
       </c>
       <c r="R17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -15462,7 +15516,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -15510,7 +15564,10 @@
         <v>12.0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="19">
@@ -15518,7 +15575,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="n">
         <v>23.0</v>
@@ -15566,6 +15623,9 @@
         <v>4.0</v>
       </c>
       <c r="R19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S19" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -15574,7 +15634,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="n">
         <v>24.0</v>
@@ -15622,6 +15682,9 @@
         <v>17.0</v>
       </c>
       <c r="R20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S20" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -15630,7 +15693,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -15678,15 +15741,18 @@
         <v>14.0</v>
       </c>
       <c r="R21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S21" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -15736,13 +15802,16 @@
       <c r="R22" t="n">
         <v>4.0</v>
       </c>
+      <c r="S22" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -15790,15 +15859,18 @@
         <v>15.0</v>
       </c>
       <c r="R23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S23" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n">
         <v>16.0</v>
@@ -15848,13 +15920,16 @@
       <c r="R24" t="n">
         <v>23.0</v>
       </c>
+      <c r="S24" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n">
         <v>17.0</v>
@@ -15902,6 +15977,9 @@
         <v>18.0</v>
       </c>
       <c r="R25" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S25" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -15921,7 +15999,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15967,6 +16045,9 @@
       </c>
       <c r="Q1" t="s">
         <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -15974,7 +16055,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -16019,7 +16100,10 @@
         <v>16.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="3">
@@ -16027,7 +16111,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" t="n">
         <v>18.0</v>
@@ -16072,7 +16156,10 @@
         <v>7.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -16080,7 +16167,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -16125,7 +16212,10 @@
         <v>5.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -16133,7 +16223,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" t="n">
         <v>19.0</v>
@@ -16178,6 +16268,9 @@
         <v>12.0</v>
       </c>
       <c r="Q5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -16186,7 +16279,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -16231,7 +16324,10 @@
         <v>21.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -16239,7 +16335,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -16284,7 +16380,10 @@
         <v>17.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -16292,7 +16391,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -16337,6 +16436,9 @@
         <v>13.0</v>
       </c>
       <c r="Q8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -16345,7 +16447,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" t="n">
         <v>21.0</v>
@@ -16390,7 +16492,10 @@
         <v>19.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
@@ -16398,7 +16503,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -16443,7 +16548,10 @@
         <v>10.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
@@ -16451,7 +16559,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" t="n">
         <v>11.0</v>
@@ -16496,7 +16604,10 @@
         <v>8.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -16504,7 +16615,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" t="n">
         <v>22.0</v>
@@ -16549,6 +16660,9 @@
         <v>18.0</v>
       </c>
       <c r="Q12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R12" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -16557,7 +16671,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -16602,7 +16716,10 @@
         <v>22.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="14">
@@ -16610,7 +16727,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -16655,6 +16772,9 @@
         <v>2.0</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -16663,7 +16783,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -16708,7 +16828,10 @@
         <v>15.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
@@ -16716,7 +16839,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" t="n">
         <v>23.0</v>
@@ -16761,7 +16884,10 @@
         <v>23.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="17">
@@ -16769,7 +16895,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -16814,7 +16940,10 @@
         <v>24.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
@@ -16822,7 +16951,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" t="n">
         <v>24.0</v>
@@ -16867,6 +16996,9 @@
         <v>20.0</v>
       </c>
       <c r="Q18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R18" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -16875,7 +17007,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" t="n">
         <v>4.0</v>
@@ -16920,6 +17052,9 @@
         <v>6.0</v>
       </c>
       <c r="Q19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R19" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -16928,7 +17063,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -16973,6 +17108,9 @@
         <v>1.0</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -16981,7 +17119,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -17026,15 +17164,18 @@
         <v>14.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -17079,15 +17220,18 @@
         <v>4.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="n">
         <v>16.0</v>
@@ -17132,15 +17276,18 @@
         <v>3.0</v>
       </c>
       <c r="Q23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R23" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C24" t="n">
         <v>17.0</v>
@@ -17185,15 +17332,18 @@
         <v>9.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -17238,7 +17388,10 @@
         <v>11.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -17257,7 +17410,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17303,6 +17456,9 @@
       </c>
       <c r="Q1" t="s">
         <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -17310,7 +17466,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -17356,6 +17512,9 @@
       </c>
       <c r="Q2" t="n">
         <v>16.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
@@ -17363,7 +17522,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -17408,7 +17567,10 @@
         <v>11.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -17416,7 +17578,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -17461,7 +17623,10 @@
         <v>5.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -17469,7 +17634,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -17514,7 +17679,10 @@
         <v>6.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -17522,7 +17690,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -17567,6 +17735,9 @@
         <v>23.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -17575,7 +17746,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -17620,7 +17791,10 @@
         <v>19.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
@@ -17628,7 +17802,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -17674,6 +17848,9 @@
       </c>
       <c r="Q8" t="n">
         <v>13.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
@@ -17681,7 +17858,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17726,6 +17903,9 @@
         <v>12.0</v>
       </c>
       <c r="Q9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R9" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -17734,7 +17914,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" t="n">
         <v>17.0</v>
@@ -17779,7 +17959,10 @@
         <v>18.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
@@ -17787,7 +17970,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -17832,7 +18015,10 @@
         <v>8.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -17840,7 +18026,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -17885,6 +18071,9 @@
         <v>20.0</v>
       </c>
       <c r="Q12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R12" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -17893,7 +18082,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" t="n">
         <v>19.0</v>
@@ -17938,6 +18127,9 @@
         <v>24.0</v>
       </c>
       <c r="Q13" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R13" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -17946,7 +18138,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -17991,6 +18183,9 @@
         <v>1.0</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -17999,7 +18194,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
         <v>20.0</v>
@@ -18044,6 +18239,9 @@
         <v>4.0</v>
       </c>
       <c r="Q15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R15" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -18052,7 +18250,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" t="n">
         <v>13.0</v>
@@ -18097,6 +18295,9 @@
         <v>17.0</v>
       </c>
       <c r="Q16" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R16" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -18105,7 +18306,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -18150,6 +18351,9 @@
         <v>3.0</v>
       </c>
       <c r="Q17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R17" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -18158,7 +18362,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -18203,6 +18407,9 @@
         <v>22.0</v>
       </c>
       <c r="Q18" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R18" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -18211,7 +18418,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -18256,7 +18463,10 @@
         <v>7.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -18264,7 +18474,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" t="n">
         <v>9.0</v>
@@ -18309,6 +18519,9 @@
         <v>2.0</v>
       </c>
       <c r="Q20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R20" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -18317,7 +18530,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -18362,15 +18575,18 @@
         <v>21.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -18417,13 +18633,16 @@
       <c r="Q22" t="n">
         <v>14.0</v>
       </c>
+      <c r="R22" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" t="n">
         <v>23.0</v>
@@ -18468,15 +18687,18 @@
         <v>9.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -18521,15 +18743,18 @@
         <v>10.0</v>
       </c>
       <c r="Q24" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R24" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" t="n">
         <v>10.0</v>
@@ -18575,6 +18800,9 @@
       </c>
       <c r="Q25" t="n">
         <v>15.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -18593,7 +18821,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18639,6 +18867,9 @@
       </c>
       <c r="Q1" t="s">
         <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -18646,7 +18877,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" t="n">
         <v>17.0</v>
@@ -18691,7 +18922,10 @@
         <v>18.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="3">
@@ -18699,7 +18933,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -18744,7 +18978,10 @@
         <v>19.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
@@ -18752,7 +18989,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -18797,7 +19034,10 @@
         <v>9.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
@@ -18805,7 +19045,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -18851,6 +19091,9 @@
       </c>
       <c r="Q5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -18858,7 +19101,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" t="n">
         <v>18.0</v>
@@ -18903,6 +19146,9 @@
         <v>6.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -18911,7 +19157,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -18956,6 +19202,9 @@
         <v>3.0</v>
       </c>
       <c r="Q7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R7" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -18964,7 +19213,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -19009,7 +19258,10 @@
         <v>12.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -19017,7 +19269,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -19062,7 +19314,10 @@
         <v>10.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
@@ -19070,7 +19325,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" t="n">
         <v>19.0</v>
@@ -19115,7 +19370,10 @@
         <v>13.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
@@ -19123,7 +19381,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -19168,7 +19426,10 @@
         <v>21.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="12">
@@ -19176,7 +19437,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C12" t="n">
         <v>20.0</v>
@@ -19221,7 +19482,10 @@
         <v>17.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
@@ -19229,7 +19493,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C13" t="n">
         <v>21.0</v>
@@ -19274,7 +19538,10 @@
         <v>15.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
@@ -19282,7 +19549,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -19327,7 +19594,10 @@
         <v>22.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
@@ -19335,7 +19605,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -19380,6 +19650,9 @@
         <v>1.0</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -19388,7 +19661,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C16" t="n">
         <v>15.0</v>
@@ -19433,7 +19706,10 @@
         <v>16.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
@@ -19441,7 +19717,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -19486,7 +19762,10 @@
         <v>23.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
@@ -19494,7 +19773,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -19539,7 +19818,10 @@
         <v>5.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -19547,7 +19829,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -19592,7 +19874,10 @@
         <v>11.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
@@ -19600,7 +19885,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" t="n">
         <v>16.0</v>
@@ -19645,6 +19930,9 @@
         <v>24.0</v>
       </c>
       <c r="Q20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R20" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -19653,7 +19941,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -19698,15 +19986,18 @@
         <v>14.0</v>
       </c>
       <c r="Q21" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R21" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -19753,13 +20044,16 @@
       <c r="Q22" t="n">
         <v>7.0</v>
       </c>
+      <c r="R22" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -19804,15 +20098,18 @@
         <v>2.0</v>
       </c>
       <c r="Q23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R23" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -19857,15 +20154,18 @@
         <v>20.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" t="n">
         <v>8.0</v>
@@ -19910,7 +20210,10 @@
         <v>8.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -19929,7 +20232,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -19973,7 +20276,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -20017,7 +20320,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -20061,7 +20364,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C4" t="n">
         <v>14.0</v>
@@ -20105,7 +20408,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C5" t="n">
         <v>15.0</v>
@@ -20149,7 +20452,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" t="n">
         <v>16.0</v>
@@ -20193,7 +20496,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -20237,7 +20540,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -20281,7 +20584,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -20325,7 +20628,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -20369,7 +20672,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -20413,7 +20716,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -20457,7 +20760,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -20501,7 +20804,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -20545,7 +20848,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -20589,7 +20892,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -20633,7 +20936,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -20677,7 +20980,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -20721,7 +21024,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -20765,7 +21068,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -20809,7 +21112,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="468">
   <si>
     <t>b1_teams</t>
   </si>
@@ -80,6 +80,9 @@
     <t>X14</t>
   </si>
   <si>
+    <t>X15</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -374,13 +377,16 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X15</t>
-  </si>
-  <si>
     <t>X16</t>
   </si>
   <si>
     <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
   </si>
   <si>
     <t>21</t>
@@ -1528,13 +1534,16 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -1577,14 +1586,17 @@
       </c>
       <c r="P2" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1626,15 +1638,18 @@
         <v>2.0</v>
       </c>
       <c r="P3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -1677,14 +1692,17 @@
       </c>
       <c r="P4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1727,14 +1745,17 @@
       </c>
       <c r="P5" t="n">
         <v>13.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1776,15 +1797,18 @@
         <v>3.0</v>
       </c>
       <c r="P6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -1826,15 +1850,18 @@
         <v>14.0</v>
       </c>
       <c r="P7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -1876,15 +1903,18 @@
         <v>1.0</v>
       </c>
       <c r="P8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>8.0</v>
@@ -1927,14 +1957,17 @@
       </c>
       <c r="P9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -1976,15 +2009,18 @@
         <v>15.0</v>
       </c>
       <c r="P10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -2027,14 +2063,17 @@
       </c>
       <c r="P11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -2076,15 +2115,18 @@
         <v>16.0</v>
       </c>
       <c r="P12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -2127,14 +2169,17 @@
       </c>
       <c r="P13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -2176,15 +2221,18 @@
         <v>17.0</v>
       </c>
       <c r="P14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
         <v>9.0</v>
@@ -2227,14 +2275,17 @@
       </c>
       <c r="P15" t="n">
         <v>11.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -2276,15 +2327,18 @@
         <v>4.0</v>
       </c>
       <c r="P16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -2327,14 +2381,17 @@
       </c>
       <c r="P17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -2376,15 +2433,18 @@
         <v>18.0</v>
       </c>
       <c r="P18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -2427,6 +2487,9 @@
       </c>
       <c r="P19" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2508,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2489,10 +2552,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C2" t="n">
         <v>15.0</v>
@@ -2536,10 +2599,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -2583,10 +2646,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -2630,10 +2693,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -2677,10 +2740,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -2724,10 +2787,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2771,10 +2834,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2818,10 +2881,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -2865,10 +2928,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -2912,10 +2975,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -2959,10 +3022,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3006,10 +3069,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -3053,10 +3116,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -3100,10 +3163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -3147,10 +3210,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -3194,10 +3257,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -3241,10 +3304,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -3288,10 +3351,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -3335,10 +3398,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -3382,10 +3445,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -3443,7 +3506,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3472,13 +3535,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3505,15 +3571,18 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -3540,15 +3609,18 @@
         <v>6.0</v>
       </c>
       <c r="K3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -3575,15 +3647,18 @@
         <v>9.0</v>
       </c>
       <c r="K4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -3611,14 +3686,17 @@
       </c>
       <c r="K5" t="n">
         <v>7.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -3646,14 +3724,17 @@
       </c>
       <c r="K6" t="n">
         <v>11.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -3681,14 +3762,17 @@
       </c>
       <c r="K7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -3716,14 +3800,17 @@
       </c>
       <c r="K8" t="n">
         <v>10.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -3751,14 +3838,17 @@
       </c>
       <c r="K9" t="n">
         <v>14.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -3785,15 +3875,18 @@
         <v>12.0</v>
       </c>
       <c r="K10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L10" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -3821,14 +3914,17 @@
       </c>
       <c r="K11" t="n">
         <v>4.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3855,15 +3951,18 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -3891,14 +3990,17 @@
       </c>
       <c r="K13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -3925,15 +4027,18 @@
         <v>4.0</v>
       </c>
       <c r="K14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3961,6 +4066,9 @@
       </c>
       <c r="K15" t="n">
         <v>3.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -3979,7 +4087,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4014,13 +4122,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4054,14 +4165,17 @@
       </c>
       <c r="M2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -4095,14 +4209,17 @@
       </c>
       <c r="M3" t="n">
         <v>13.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -4137,13 +4254,16 @@
       <c r="M4" t="n">
         <v>20.0</v>
       </c>
+      <c r="N4" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -4177,14 +4297,17 @@
       </c>
       <c r="M5" t="n">
         <v>12.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4218,14 +4341,17 @@
       </c>
       <c r="M6" t="n">
         <v>14.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -4259,14 +4385,17 @@
       </c>
       <c r="M7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -4300,14 +4429,17 @@
       </c>
       <c r="M8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -4341,14 +4473,17 @@
       </c>
       <c r="M9" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C10" t="n">
         <v>14.0</v>
@@ -4383,13 +4518,16 @@
       <c r="M10" t="n">
         <v>17.0</v>
       </c>
+      <c r="N10" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -4423,14 +4561,17 @@
       </c>
       <c r="M11" t="n">
         <v>2.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -4465,13 +4606,16 @@
       <c r="M12" t="n">
         <v>15.0</v>
       </c>
+      <c r="N12" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -4504,15 +4648,18 @@
         <v>1.0</v>
       </c>
       <c r="M13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -4546,14 +4693,17 @@
       </c>
       <c r="M14" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -4587,14 +4737,17 @@
       </c>
       <c r="M15" t="n">
         <v>11.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -4629,13 +4782,16 @@
       <c r="M16" t="n">
         <v>18.0</v>
       </c>
+      <c r="N16" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -4669,14 +4825,17 @@
       </c>
       <c r="M17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -4709,15 +4868,18 @@
         <v>15.0</v>
       </c>
       <c r="M18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N18" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C19" t="n">
         <v>10.0</v>
@@ -4751,14 +4913,17 @@
       </c>
       <c r="M19" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -4793,13 +4958,16 @@
       <c r="M20" t="n">
         <v>7.0</v>
       </c>
+      <c r="N20" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -4833,6 +5001,9 @@
       </c>
       <c r="M21" t="n">
         <v>19.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -4851,7 +5022,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4883,13 +5054,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4920,14 +5094,17 @@
       </c>
       <c r="L2" t="n">
         <v>9.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -4957,15 +5134,18 @@
         <v>2.0</v>
       </c>
       <c r="L3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M3" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -4996,14 +5176,17 @@
       </c>
       <c r="L4" t="n">
         <v>16.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -5034,14 +5217,17 @@
       </c>
       <c r="L5" t="n">
         <v>6.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -5071,15 +5257,18 @@
         <v>8.0</v>
       </c>
       <c r="L6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -5110,14 +5299,17 @@
       </c>
       <c r="L7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -5149,13 +5341,16 @@
       <c r="L8" t="n">
         <v>17.0</v>
       </c>
+      <c r="M8" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -5186,14 +5381,17 @@
       </c>
       <c r="L9" t="n">
         <v>14.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -5223,15 +5421,18 @@
         <v>3.0</v>
       </c>
       <c r="L10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -5261,15 +5462,18 @@
         <v>4.0</v>
       </c>
       <c r="L11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5301,13 +5505,16 @@
       <c r="L12" t="n">
         <v>12.0</v>
       </c>
+      <c r="M12" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -5338,14 +5545,17 @@
       </c>
       <c r="L13" t="n">
         <v>18.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -5376,14 +5586,17 @@
       </c>
       <c r="L14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -5415,13 +5628,16 @@
       <c r="L15" t="n">
         <v>20.0</v>
       </c>
+      <c r="M15" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -5453,13 +5669,16 @@
       <c r="L16" t="n">
         <v>15.0</v>
       </c>
+      <c r="M16" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -5490,14 +5709,17 @@
       </c>
       <c r="L17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -5528,14 +5750,17 @@
       </c>
       <c r="L18" t="n">
         <v>11.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -5567,13 +5792,16 @@
       <c r="L19" t="n">
         <v>7.0</v>
       </c>
+      <c r="M19" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -5605,13 +5833,16 @@
       <c r="L20" t="n">
         <v>3.0</v>
       </c>
+      <c r="M20" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -5641,6 +5872,9 @@
         <v>17.0</v>
       </c>
       <c r="L21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="M21" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -5660,7 +5894,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5695,13 +5929,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5734,15 +5971,18 @@
         <v>1.0</v>
       </c>
       <c r="M2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -5776,14 +6016,17 @@
       </c>
       <c r="M3" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -5816,15 +6059,18 @@
         <v>14.0</v>
       </c>
       <c r="M4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N4" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -5857,15 +6103,18 @@
         <v>11.0</v>
       </c>
       <c r="M5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -5898,15 +6147,18 @@
         <v>17.0</v>
       </c>
       <c r="M6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N6" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -5940,14 +6192,17 @@
       </c>
       <c r="M7" t="n">
         <v>2.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -5981,14 +6236,17 @@
       </c>
       <c r="M8" t="n">
         <v>11.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -6022,14 +6280,17 @@
       </c>
       <c r="M9" t="n">
         <v>15.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C10" t="n">
         <v>7.0</v>
@@ -6063,14 +6324,17 @@
       </c>
       <c r="M10" t="n">
         <v>12.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -6104,14 +6368,17 @@
       </c>
       <c r="M11" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -6145,14 +6412,17 @@
       </c>
       <c r="M12" t="n">
         <v>13.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -6186,14 +6456,17 @@
       </c>
       <c r="M13" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C14" t="n">
         <v>9.0</v>
@@ -6227,14 +6500,17 @@
       </c>
       <c r="M14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -6268,14 +6544,17 @@
       </c>
       <c r="M15" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -6309,14 +6588,17 @@
       </c>
       <c r="M16" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -6350,14 +6632,17 @@
       </c>
       <c r="M17" t="n">
         <v>14.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -6390,15 +6675,18 @@
         <v>18.0</v>
       </c>
       <c r="M18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N18" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -6431,6 +6719,9 @@
         <v>8.0</v>
       </c>
       <c r="M19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N19" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -6450,7 +6741,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6482,13 +6773,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -6519,14 +6813,17 @@
       </c>
       <c r="L2" t="n">
         <v>11.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -6556,15 +6853,18 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -6594,15 +6894,18 @@
         <v>5.0</v>
       </c>
       <c r="L4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M4" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -6633,14 +6936,17 @@
       </c>
       <c r="L5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -6671,14 +6977,17 @@
       </c>
       <c r="L6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -6708,15 +7017,18 @@
         <v>7.0</v>
       </c>
       <c r="L7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M7" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -6746,15 +7058,18 @@
         <v>15.0</v>
       </c>
       <c r="L8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -6784,15 +7099,18 @@
         <v>13.0</v>
       </c>
       <c r="L9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M9" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -6823,14 +7141,17 @@
       </c>
       <c r="L10" t="n">
         <v>6.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -6860,15 +7181,18 @@
         <v>18.0</v>
       </c>
       <c r="L11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M11" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -6898,15 +7222,18 @@
         <v>17.0</v>
       </c>
       <c r="L12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -6936,15 +7263,18 @@
         <v>8.0</v>
       </c>
       <c r="L13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M13" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -6975,14 +7305,17 @@
       </c>
       <c r="L14" t="n">
         <v>2.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -7012,15 +7345,18 @@
         <v>14.0</v>
       </c>
       <c r="L15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M15" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7050,15 +7386,18 @@
         <v>16.0</v>
       </c>
       <c r="L16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M16" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -7089,14 +7428,17 @@
       </c>
       <c r="L17" t="n">
         <v>3.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -7127,14 +7469,17 @@
       </c>
       <c r="L18" t="n">
         <v>4.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -7164,6 +7509,9 @@
         <v>12.0</v>
       </c>
       <c r="L19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M19" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -7183,7 +7531,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7218,13 +7566,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -7258,14 +7609,17 @@
       </c>
       <c r="M2" t="n">
         <v>14.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -7298,15 +7652,18 @@
         <v>6.0</v>
       </c>
       <c r="M3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -7339,15 +7696,18 @@
         <v>4.0</v>
       </c>
       <c r="M4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -7380,15 +7740,18 @@
         <v>2.0</v>
       </c>
       <c r="M5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -7422,14 +7785,17 @@
       </c>
       <c r="M6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -7464,13 +7830,16 @@
       <c r="M7" t="n">
         <v>19.0</v>
       </c>
+      <c r="N7" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -7504,14 +7873,17 @@
       </c>
       <c r="M8" t="n">
         <v>13.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -7546,13 +7918,16 @@
       <c r="M9" t="n">
         <v>20.0</v>
       </c>
+      <c r="N9" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -7586,14 +7961,17 @@
       </c>
       <c r="M10" t="n">
         <v>15.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -7628,13 +8006,16 @@
       <c r="M11" t="n">
         <v>16.0</v>
       </c>
+      <c r="N11" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C12" t="n">
         <v>18.0</v>
@@ -7667,15 +8048,18 @@
         <v>18.0</v>
       </c>
       <c r="M12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -7709,14 +8093,17 @@
       </c>
       <c r="M13" t="n">
         <v>12.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -7750,14 +8137,17 @@
       </c>
       <c r="M14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -7790,15 +8180,18 @@
         <v>1.0</v>
       </c>
       <c r="M15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N15" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -7833,13 +8226,16 @@
       <c r="M16" t="n">
         <v>17.0</v>
       </c>
+      <c r="N16" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -7873,14 +8269,17 @@
       </c>
       <c r="M17" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -7914,14 +8313,17 @@
       </c>
       <c r="M18" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -7956,13 +8358,16 @@
       <c r="M19" t="n">
         <v>11.0</v>
       </c>
+      <c r="N19" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -7996,14 +8401,17 @@
       </c>
       <c r="M20" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -8037,6 +8445,9 @@
       </c>
       <c r="M21" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8466,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8093,13 +8504,19 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -8136,14 +8553,20 @@
       </c>
       <c r="N2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -8180,14 +8603,20 @@
       </c>
       <c r="N3" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -8224,14 +8653,20 @@
       </c>
       <c r="N4" t="n">
         <v>12.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -8268,14 +8703,20 @@
       </c>
       <c r="N5" t="n">
         <v>3.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -8311,15 +8752,21 @@
         <v>4.0</v>
       </c>
       <c r="N6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -8356,14 +8803,20 @@
       </c>
       <c r="N7" t="n">
         <v>7.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -8400,14 +8853,20 @@
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -8443,15 +8902,21 @@
         <v>9.0</v>
       </c>
       <c r="N9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P9" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -8489,13 +8954,19 @@
       <c r="N10" t="n">
         <v>20.0</v>
       </c>
+      <c r="O10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -8532,14 +9003,20 @@
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -8577,13 +9054,19 @@
       <c r="N12" t="n">
         <v>14.0</v>
       </c>
+      <c r="O12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -8620,14 +9103,20 @@
       </c>
       <c r="N13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -8665,13 +9154,19 @@
       <c r="N14" t="n">
         <v>19.0</v>
       </c>
+      <c r="O14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C15" t="n">
         <v>19.0</v>
@@ -8709,13 +9204,19 @@
       <c r="N15" t="n">
         <v>21.0</v>
       </c>
+      <c r="O15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -8753,13 +9254,19 @@
       <c r="N16" t="n">
         <v>22.0</v>
       </c>
+      <c r="O16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -8797,13 +9304,19 @@
       <c r="N17" t="n">
         <v>15.0</v>
       </c>
+      <c r="O17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -8840,14 +9353,20 @@
       </c>
       <c r="N18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -8885,13 +9404,19 @@
       <c r="N19" t="n">
         <v>17.0</v>
       </c>
+      <c r="O19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -8928,14 +9453,20 @@
       </c>
       <c r="N20" t="n">
         <v>9.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -8973,13 +9504,19 @@
       <c r="N21" t="n">
         <v>13.0</v>
       </c>
+      <c r="O21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -9016,14 +9553,20 @@
       </c>
       <c r="N22" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C23" t="n">
         <v>14.0</v>
@@ -9060,6 +9603,12 @@
       </c>
       <c r="N23" t="n">
         <v>18.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -9078,7 +9627,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9116,13 +9665,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -9158,15 +9710,18 @@
         <v>4.0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -9202,15 +9757,18 @@
         <v>1.0</v>
       </c>
       <c r="N3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -9246,15 +9804,18 @@
         <v>11.0</v>
       </c>
       <c r="N4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O4" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -9290,15 +9851,18 @@
         <v>7.0</v>
       </c>
       <c r="N5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -9334,15 +9898,18 @@
         <v>3.0</v>
       </c>
       <c r="N6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -9378,15 +9945,18 @@
         <v>10.0</v>
       </c>
       <c r="N7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -9423,14 +9993,17 @@
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -9466,15 +10039,18 @@
         <v>8.0</v>
       </c>
       <c r="N9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -9510,15 +10086,18 @@
         <v>2.0</v>
       </c>
       <c r="N10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -9554,15 +10133,18 @@
         <v>12.0</v>
       </c>
       <c r="N11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -9598,15 +10180,18 @@
         <v>9.0</v>
       </c>
       <c r="N12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O12" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -9642,7 +10227,10 @@
         <v>5.0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -9661,7 +10249,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9699,13 +10287,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -9742,14 +10333,17 @@
       </c>
       <c r="N2" t="n">
         <v>9.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -9785,15 +10379,18 @@
         <v>3.0</v>
       </c>
       <c r="N3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -9829,15 +10426,18 @@
         <v>8.0</v>
       </c>
       <c r="N4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O4" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -9874,14 +10474,17 @@
       </c>
       <c r="N5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -9918,14 +10521,17 @@
       </c>
       <c r="N6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -9961,15 +10567,18 @@
         <v>1.0</v>
       </c>
       <c r="N7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C8" t="n">
         <v>7.0</v>
@@ -10006,14 +10615,17 @@
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -10050,14 +10662,17 @@
       </c>
       <c r="N9" t="n">
         <v>3.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -10093,15 +10708,18 @@
         <v>6.0</v>
       </c>
       <c r="N10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10137,6 +10755,9 @@
         <v>7.0</v>
       </c>
       <c r="N11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -10156,7 +10777,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10191,13 +10812,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -10230,15 +10854,18 @@
         <v>12.0</v>
       </c>
       <c r="M2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N2" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -10271,15 +10898,18 @@
         <v>2.0</v>
       </c>
       <c r="M3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10312,15 +10942,18 @@
         <v>18.0</v>
       </c>
       <c r="M4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -10354,14 +10987,17 @@
       </c>
       <c r="M5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -10395,14 +11031,17 @@
       </c>
       <c r="M6" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -10436,14 +11075,17 @@
       </c>
       <c r="M7" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -10476,15 +11118,18 @@
         <v>3.0</v>
       </c>
       <c r="M8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -10518,14 +11163,17 @@
       </c>
       <c r="M9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -10558,15 +11206,18 @@
         <v>5.0</v>
       </c>
       <c r="M10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N10" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -10600,14 +11251,17 @@
       </c>
       <c r="M11" t="n">
         <v>15.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -10641,14 +11295,17 @@
       </c>
       <c r="M12" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -10682,14 +11339,17 @@
       </c>
       <c r="M13" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -10723,14 +11383,17 @@
       </c>
       <c r="M14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -10763,15 +11426,18 @@
         <v>17.0</v>
       </c>
       <c r="M15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N15" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -10805,14 +11471,17 @@
       </c>
       <c r="M16" t="n">
         <v>16.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -10845,15 +11514,18 @@
         <v>1.0</v>
       </c>
       <c r="M17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -10887,14 +11559,17 @@
       </c>
       <c r="M18" t="n">
         <v>11.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="n">
         <v>11.0</v>
@@ -10928,6 +11603,9 @@
       </c>
       <c r="M19" t="n">
         <v>14.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -10946,7 +11624,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10984,13 +11662,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -11027,14 +11708,17 @@
       </c>
       <c r="N2" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -11071,14 +11755,17 @@
       </c>
       <c r="N3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -11114,15 +11801,18 @@
         <v>9.0</v>
       </c>
       <c r="N4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -11158,15 +11848,18 @@
         <v>1.0</v>
       </c>
       <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -11202,15 +11895,18 @@
         <v>2.0</v>
       </c>
       <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11246,15 +11942,18 @@
         <v>3.0</v>
       </c>
       <c r="N7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -11291,14 +11990,17 @@
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -11335,14 +12037,17 @@
       </c>
       <c r="N9" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -11378,15 +12083,18 @@
         <v>10.0</v>
       </c>
       <c r="N10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -11423,6 +12131,9 @@
       </c>
       <c r="N11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -11441,7 +12152,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11476,13 +12187,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -11516,14 +12230,17 @@
       </c>
       <c r="M2" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -11557,14 +12274,17 @@
       </c>
       <c r="M3" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -11598,14 +12318,17 @@
       </c>
       <c r="M4" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -11638,15 +12361,18 @@
         <v>1.0</v>
       </c>
       <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -11679,15 +12405,18 @@
         <v>5.0</v>
       </c>
       <c r="M6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -11720,15 +12449,18 @@
         <v>4.0</v>
       </c>
       <c r="M7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N7" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -11761,15 +12493,18 @@
         <v>10.0</v>
       </c>
       <c r="M8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -11802,15 +12537,18 @@
         <v>3.0</v>
       </c>
       <c r="M9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -11843,15 +12581,18 @@
         <v>2.0</v>
       </c>
       <c r="M10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -11885,6 +12626,9 @@
       </c>
       <c r="M11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -11903,7 +12647,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11935,13 +12679,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -11971,15 +12718,18 @@
         <v>1.0</v>
       </c>
       <c r="L2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -12010,14 +12760,17 @@
       </c>
       <c r="L3" t="n">
         <v>10.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -12048,14 +12801,17 @@
       </c>
       <c r="L4" t="n">
         <v>17.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -12086,14 +12842,17 @@
       </c>
       <c r="L5" t="n">
         <v>13.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12123,15 +12882,18 @@
         <v>4.0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -12161,15 +12923,18 @@
         <v>2.0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -12199,15 +12964,18 @@
         <v>3.0</v>
       </c>
       <c r="L8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -12237,15 +13005,18 @@
         <v>7.0</v>
       </c>
       <c r="L9" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -12276,14 +13047,17 @@
       </c>
       <c r="L10" t="n">
         <v>9.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -12314,14 +13088,17 @@
       </c>
       <c r="L11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -12353,13 +13130,16 @@
       <c r="L12" t="n">
         <v>14.0</v>
       </c>
+      <c r="M12" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -12389,15 +13169,18 @@
         <v>15.0</v>
       </c>
       <c r="L13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M13" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -12428,14 +13211,17 @@
       </c>
       <c r="L14" t="n">
         <v>12.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -12467,13 +13253,16 @@
       <c r="L15" t="n">
         <v>11.0</v>
       </c>
+      <c r="M15" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -12503,15 +13292,18 @@
         <v>8.0</v>
       </c>
       <c r="L16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -12541,15 +13333,18 @@
         <v>5.0</v>
       </c>
       <c r="L17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -12580,14 +13375,17 @@
       </c>
       <c r="L18" t="n">
         <v>15.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -12617,15 +13415,18 @@
         <v>6.0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -12655,6 +13456,9 @@
         <v>19.0</v>
       </c>
       <c r="L20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="M20" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -12674,7 +13478,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12715,13 +13519,16 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -12761,14 +13568,17 @@
       </c>
       <c r="O2" t="n">
         <v>17.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -12808,14 +13618,17 @@
       </c>
       <c r="O3" t="n">
         <v>11.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12854,15 +13667,18 @@
         <v>1.0</v>
       </c>
       <c r="O4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -12901,15 +13717,18 @@
         <v>7.0</v>
       </c>
       <c r="O5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -12949,14 +13768,17 @@
       </c>
       <c r="O6" t="n">
         <v>18.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -12996,14 +13818,17 @@
       </c>
       <c r="O7" t="n">
         <v>3.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -13043,14 +13868,17 @@
       </c>
       <c r="O8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -13090,14 +13918,17 @@
       </c>
       <c r="O9" t="n">
         <v>12.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -13137,14 +13968,17 @@
       </c>
       <c r="O10" t="n">
         <v>4.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13183,15 +14017,18 @@
         <v>6.0</v>
       </c>
       <c r="O11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -13230,15 +14067,18 @@
         <v>9.0</v>
       </c>
       <c r="O12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -13278,14 +14118,17 @@
       </c>
       <c r="O13" t="n">
         <v>10.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -13324,15 +14167,18 @@
         <v>17.0</v>
       </c>
       <c r="O14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P14" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -13371,15 +14217,18 @@
         <v>14.0</v>
       </c>
       <c r="O15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -13419,14 +14268,17 @@
       </c>
       <c r="O16" t="n">
         <v>2.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -13465,15 +14317,18 @@
         <v>11.0</v>
       </c>
       <c r="O17" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P17" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -13513,14 +14368,17 @@
       </c>
       <c r="O18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -13559,6 +14417,9 @@
         <v>13.0</v>
       </c>
       <c r="O19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P19" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -13578,7 +14439,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13616,13 +14477,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -13658,15 +14522,18 @@
         <v>1.0</v>
       </c>
       <c r="N2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
         <v>13.0</v>
@@ -13702,15 +14569,18 @@
         <v>16.0</v>
       </c>
       <c r="N3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -13747,14 +14617,17 @@
       </c>
       <c r="N4" t="n">
         <v>12.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -13791,14 +14664,17 @@
       </c>
       <c r="N5" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -13834,15 +14710,18 @@
         <v>8.0</v>
       </c>
       <c r="N6" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13879,14 +14758,17 @@
       </c>
       <c r="N7" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -13923,14 +14805,17 @@
       </c>
       <c r="N8" t="n">
         <v>13.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -13967,14 +14852,17 @@
       </c>
       <c r="N9" t="n">
         <v>14.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -14010,15 +14898,18 @@
         <v>9.0</v>
       </c>
       <c r="N10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -14054,15 +14945,18 @@
         <v>17.0</v>
       </c>
       <c r="N11" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -14100,13 +14994,16 @@
       <c r="N12" t="n">
         <v>17.0</v>
       </c>
+      <c r="O12" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -14142,15 +15039,18 @@
         <v>7.0</v>
       </c>
       <c r="N13" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -14186,15 +15086,18 @@
         <v>2.0</v>
       </c>
       <c r="N14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -14232,13 +15135,16 @@
       <c r="N15" t="n">
         <v>6.0</v>
       </c>
+      <c r="O15" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -14275,14 +15181,17 @@
       </c>
       <c r="N16" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -14318,15 +15227,18 @@
         <v>18.0</v>
       </c>
       <c r="N17" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -14363,14 +15275,17 @@
       </c>
       <c r="N18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -14406,15 +15321,18 @@
         <v>3.0</v>
       </c>
       <c r="N19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -14452,13 +15370,16 @@
       <c r="N20" t="n">
         <v>11.0</v>
       </c>
+      <c r="O20" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -14494,7 +15415,10 @@
         <v>19.0</v>
       </c>
       <c r="N21" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -14513,7 +15437,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14558,7 +15482,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>114</v>
@@ -14566,13 +15490,19 @@
       <c r="S1" t="s">
         <v>115</v>
       </c>
+      <c r="T1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -14623,15 +15553,21 @@
         <v>14.0</v>
       </c>
       <c r="S2" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -14682,15 +15618,21 @@
         <v>1.0</v>
       </c>
       <c r="S3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -14741,15 +15683,21 @@
         <v>17.0</v>
       </c>
       <c r="S4" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -14800,15 +15748,21 @@
         <v>13.0</v>
       </c>
       <c r="S5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -14859,15 +15813,21 @@
         <v>3.0</v>
       </c>
       <c r="S6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14918,15 +15878,21 @@
         <v>20.0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -14979,13 +15945,19 @@
       <c r="S8" t="n">
         <v>21.0</v>
       </c>
+      <c r="T8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" t="n">
         <v>19.0</v>
@@ -15036,15 +16008,21 @@
         <v>24.0</v>
       </c>
       <c r="S9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="U9" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -15095,15 +16073,21 @@
         <v>15.0</v>
       </c>
       <c r="S10" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15154,15 +16138,21 @@
         <v>9.0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -15215,13 +16205,19 @@
       <c r="S12" t="n">
         <v>22.0</v>
       </c>
+      <c r="T12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15272,15 +16268,21 @@
         <v>5.0</v>
       </c>
       <c r="S13" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" t="n">
         <v>20.0</v>
@@ -15331,15 +16333,21 @@
         <v>7.0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -15390,15 +16398,21 @@
         <v>11.0</v>
       </c>
       <c r="S15" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C16" t="n">
         <v>21.0</v>
@@ -15451,13 +16465,19 @@
       <c r="S16" t="n">
         <v>3.0</v>
       </c>
+      <c r="T16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C17" t="n">
         <v>22.0</v>
@@ -15508,15 +16528,21 @@
         <v>8.0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -15567,15 +16593,21 @@
         <v>12.0</v>
       </c>
       <c r="S18" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C19" t="n">
         <v>23.0</v>
@@ -15626,15 +16658,21 @@
         <v>6.0</v>
       </c>
       <c r="S19" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C20" t="n">
         <v>24.0</v>
@@ -15685,15 +16723,21 @@
         <v>18.0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -15744,15 +16788,21 @@
         <v>16.0</v>
       </c>
       <c r="S21" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -15803,15 +16853,21 @@
         <v>4.0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -15862,15 +16918,21 @@
         <v>10.0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C24" t="n">
         <v>16.0</v>
@@ -15921,15 +16983,21 @@
         <v>23.0</v>
       </c>
       <c r="S24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U24" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C25" t="n">
         <v>17.0</v>
@@ -15980,7 +17048,13 @@
         <v>19.0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
@@ -15999,7 +17073,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16044,18 +17118,21 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>114</v>
       </c>
+      <c r="S1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -16103,15 +17180,18 @@
         <v>18.0</v>
       </c>
       <c r="R2" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" t="n">
         <v>18.0</v>
@@ -16159,15 +17239,18 @@
         <v>9.0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -16215,15 +17298,18 @@
         <v>5.0</v>
       </c>
       <c r="R4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S4" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n">
         <v>19.0</v>
@@ -16271,15 +17357,18 @@
         <v>14.0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -16329,13 +17418,16 @@
       <c r="R6" t="n">
         <v>23.0</v>
       </c>
+      <c r="S6" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -16383,15 +17475,18 @@
         <v>19.0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -16439,15 +17534,18 @@
         <v>7.0</v>
       </c>
       <c r="R8" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" t="n">
         <v>21.0</v>
@@ -16495,15 +17593,18 @@
         <v>16.0</v>
       </c>
       <c r="R9" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -16551,15 +17652,18 @@
         <v>10.0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C11" t="n">
         <v>11.0</v>
@@ -16607,15 +17711,18 @@
         <v>8.0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" t="n">
         <v>22.0</v>
@@ -16663,15 +17770,18 @@
         <v>17.0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -16719,15 +17829,18 @@
         <v>21.0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -16775,15 +17888,18 @@
         <v>2.0</v>
       </c>
       <c r="R14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -16831,15 +17947,18 @@
         <v>11.0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" t="n">
         <v>23.0</v>
@@ -16887,15 +18006,18 @@
         <v>22.0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -16945,13 +18067,16 @@
       <c r="R17" t="n">
         <v>24.0</v>
       </c>
+      <c r="S17" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C18" t="n">
         <v>24.0</v>
@@ -16999,15 +18124,18 @@
         <v>20.0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" t="n">
         <v>4.0</v>
@@ -17055,15 +18183,18 @@
         <v>4.0</v>
       </c>
       <c r="R19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S19" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -17111,15 +18242,18 @@
         <v>1.0</v>
       </c>
       <c r="R20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -17167,15 +18301,18 @@
         <v>15.0</v>
       </c>
       <c r="R21" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -17225,13 +18362,16 @@
       <c r="R22" t="n">
         <v>6.0</v>
       </c>
+      <c r="S22" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" t="n">
         <v>16.0</v>
@@ -17279,15 +18419,18 @@
         <v>3.0</v>
       </c>
       <c r="R23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C24" t="n">
         <v>17.0</v>
@@ -17337,13 +18480,16 @@
       <c r="R24" t="n">
         <v>12.0</v>
       </c>
+      <c r="S24" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -17391,6 +18537,9 @@
         <v>13.0</v>
       </c>
       <c r="R25" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S25" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -17410,7 +18559,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17455,18 +18604,21 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>114</v>
       </c>
+      <c r="S1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -17514,15 +18666,18 @@
         <v>16.0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -17570,15 +18725,18 @@
         <v>8.0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -17626,15 +18784,18 @@
         <v>7.0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -17682,15 +18843,18 @@
         <v>9.0</v>
       </c>
       <c r="R5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -17738,15 +18902,18 @@
         <v>23.0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -17796,13 +18963,16 @@
       <c r="R7" t="n">
         <v>19.0</v>
       </c>
+      <c r="S7" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -17850,15 +19020,18 @@
         <v>13.0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17906,15 +19079,18 @@
         <v>12.0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C10" t="n">
         <v>17.0</v>
@@ -17964,13 +19140,16 @@
       <c r="R10" t="n">
         <v>20.0</v>
       </c>
+      <c r="S10" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -18018,15 +19197,18 @@
         <v>10.0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -18076,13 +19258,16 @@
       <c r="R12" t="n">
         <v>21.0</v>
       </c>
+      <c r="S12" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C13" t="n">
         <v>19.0</v>
@@ -18130,15 +19315,18 @@
         <v>24.0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -18186,15 +19374,18 @@
         <v>1.0</v>
       </c>
       <c r="R14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C15" t="n">
         <v>20.0</v>
@@ -18242,15 +19433,18 @@
         <v>4.0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" t="n">
         <v>13.0</v>
@@ -18300,13 +19494,16 @@
       <c r="R16" t="n">
         <v>18.0</v>
       </c>
+      <c r="S16" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -18354,15 +19551,18 @@
         <v>3.0</v>
       </c>
       <c r="R17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -18410,15 +19610,18 @@
         <v>22.0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -18466,15 +19669,18 @@
         <v>5.0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C20" t="n">
         <v>9.0</v>
@@ -18522,15 +19728,18 @@
         <v>2.0</v>
       </c>
       <c r="R20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S20" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -18578,15 +19787,18 @@
         <v>18.0</v>
       </c>
       <c r="R21" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -18634,15 +19846,18 @@
         <v>14.0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C23" t="n">
         <v>23.0</v>
@@ -18690,15 +19905,18 @@
         <v>6.0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -18746,15 +19964,18 @@
         <v>11.0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C25" t="n">
         <v>10.0</v>
@@ -18802,6 +20023,9 @@
         <v>15.0</v>
       </c>
       <c r="R25" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S25" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -18821,7 +20045,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18866,18 +20090,21 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>114</v>
       </c>
+      <c r="S1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C2" t="n">
         <v>17.0</v>
@@ -18925,15 +20152,18 @@
         <v>16.0</v>
       </c>
       <c r="R2" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -18981,15 +20211,18 @@
         <v>15.0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -19038,14 +20271,17 @@
       </c>
       <c r="R4" t="n">
         <v>8.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -19094,14 +20330,17 @@
       </c>
       <c r="R5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C6" t="n">
         <v>18.0</v>
@@ -19149,15 +20388,18 @@
         <v>6.0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -19205,15 +20447,18 @@
         <v>5.0</v>
       </c>
       <c r="R7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -19261,15 +20506,18 @@
         <v>13.0</v>
       </c>
       <c r="R8" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -19317,15 +20565,18 @@
         <v>12.0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C10" t="n">
         <v>19.0</v>
@@ -19373,15 +20624,18 @@
         <v>10.0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -19431,13 +20685,16 @@
       <c r="R11" t="n">
         <v>22.0</v>
       </c>
+      <c r="S11" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C12" t="n">
         <v>20.0</v>
@@ -19487,13 +20744,16 @@
       <c r="R12" t="n">
         <v>19.0</v>
       </c>
+      <c r="S12" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C13" t="n">
         <v>21.0</v>
@@ -19541,15 +20801,18 @@
         <v>17.0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -19599,13 +20862,16 @@
       <c r="R14" t="n">
         <v>23.0</v>
       </c>
+      <c r="S14" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -19653,15 +20919,18 @@
         <v>1.0</v>
       </c>
       <c r="R15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C16" t="n">
         <v>15.0</v>
@@ -19710,14 +20979,17 @@
       </c>
       <c r="R16" t="n">
         <v>18.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -19767,13 +21039,16 @@
       <c r="R17" t="n">
         <v>20.0</v>
       </c>
+      <c r="S17" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -19821,15 +21096,18 @@
         <v>3.0</v>
       </c>
       <c r="R18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S18" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -19877,15 +21155,18 @@
         <v>9.0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C20" t="n">
         <v>16.0</v>
@@ -19935,13 +21216,16 @@
       <c r="R20" t="n">
         <v>24.0</v>
       </c>
+      <c r="S20" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -19989,15 +21273,18 @@
         <v>14.0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -20045,15 +21332,18 @@
         <v>7.0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -20101,15 +21391,18 @@
         <v>2.0</v>
       </c>
       <c r="R23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -20159,13 +21452,16 @@
       <c r="R24" t="n">
         <v>21.0</v>
       </c>
+      <c r="S24" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C25" t="n">
         <v>8.0</v>
@@ -20213,7 +21509,10 @@
         <v>11.0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -20232,7 +21531,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -20270,13 +21569,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -20314,13 +21616,16 @@
       <c r="N2" t="n">
         <v>19.0</v>
       </c>
+      <c r="O2" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -20358,13 +21663,16 @@
       <c r="N3" t="n">
         <v>20.0</v>
       </c>
+      <c r="O3" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C4" t="n">
         <v>14.0</v>
@@ -20401,14 +21709,17 @@
       </c>
       <c r="N4" t="n">
         <v>16.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C5" t="n">
         <v>15.0</v>
@@ -20446,13 +21757,16 @@
       <c r="N5" t="n">
         <v>17.0</v>
       </c>
+      <c r="O5" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C6" t="n">
         <v>16.0</v>
@@ -20489,14 +21803,17 @@
       </c>
       <c r="N6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -20532,15 +21849,18 @@
         <v>3.0</v>
       </c>
       <c r="N7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -20577,14 +21897,17 @@
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -20620,15 +21943,18 @@
         <v>2.0</v>
       </c>
       <c r="N9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -20665,14 +21991,17 @@
       </c>
       <c r="N10" t="n">
         <v>9.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -20708,15 +22037,18 @@
         <v>4.0</v>
       </c>
       <c r="N11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -20753,14 +22085,17 @@
       </c>
       <c r="N12" t="n">
         <v>7.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -20797,14 +22132,17 @@
       </c>
       <c r="N13" t="n">
         <v>13.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -20842,13 +22180,16 @@
       <c r="N14" t="n">
         <v>15.0</v>
       </c>
+      <c r="O14" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -20885,14 +22226,17 @@
       </c>
       <c r="N15" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -20928,15 +22272,18 @@
         <v>1.0</v>
       </c>
       <c r="N16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -20974,13 +22321,16 @@
       <c r="N17" t="n">
         <v>14.0</v>
       </c>
+      <c r="O17" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -21016,15 +22366,18 @@
         <v>6.0</v>
       </c>
       <c r="N18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O18" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -21062,13 +22415,16 @@
       <c r="N19" t="n">
         <v>18.0</v>
       </c>
+      <c r="O19" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -21105,14 +22461,17 @@
       </c>
       <c r="N20" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -21149,6 +22508,9 @@
       </c>
       <c r="N21" t="n">
         <v>12.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="469">
   <si>
     <t>b1_teams</t>
   </si>
@@ -83,6 +83,9 @@
     <t>X15</t>
   </si>
   <si>
+    <t>X16</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -377,9 +380,6 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X16</t>
-  </si>
-  <si>
     <t>X17</t>
   </si>
   <si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
   </si>
   <si>
     <t>21</t>
@@ -1537,13 +1540,16 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -1589,14 +1595,17 @@
       </c>
       <c r="Q2" t="n">
         <v>10.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1641,15 +1650,18 @@
         <v>2.0</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -1695,14 +1707,17 @@
       </c>
       <c r="Q4" t="n">
         <v>11.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1747,15 +1762,18 @@
         <v>13.0</v>
       </c>
       <c r="Q5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1801,14 +1819,17 @@
       </c>
       <c r="Q6" t="n">
         <v>3.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -1853,15 +1874,18 @@
         <v>15.0</v>
       </c>
       <c r="Q7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -1906,15 +1930,18 @@
         <v>1.0</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>8.0</v>
@@ -1960,14 +1987,17 @@
       </c>
       <c r="Q9" t="n">
         <v>6.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -2012,15 +2042,18 @@
         <v>16.0</v>
       </c>
       <c r="Q10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -2065,15 +2098,18 @@
         <v>10.0</v>
       </c>
       <c r="Q11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R11" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -2118,15 +2154,18 @@
         <v>14.0</v>
       </c>
       <c r="Q12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R12" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -2172,14 +2211,17 @@
       </c>
       <c r="Q13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -2225,14 +2267,17 @@
       </c>
       <c r="Q14" t="n">
         <v>17.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>9.0</v>
@@ -2278,14 +2323,17 @@
       </c>
       <c r="Q15" t="n">
         <v>9.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -2331,14 +2379,17 @@
       </c>
       <c r="Q16" t="n">
         <v>4.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -2384,14 +2435,17 @@
       </c>
       <c r="Q17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -2437,14 +2491,17 @@
       </c>
       <c r="Q18" t="n">
         <v>18.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -2489,6 +2546,9 @@
         <v>7.0</v>
       </c>
       <c r="Q19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R19" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -2508,7 +2568,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2549,13 +2609,16 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C2" t="n">
         <v>15.0</v>
@@ -2595,14 +2658,17 @@
       </c>
       <c r="O2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -2643,13 +2709,16 @@
       <c r="O3" t="n">
         <v>17.0</v>
       </c>
+      <c r="P3" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -2689,14 +2758,17 @@
       </c>
       <c r="O4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -2736,14 +2808,17 @@
       </c>
       <c r="O5" t="n">
         <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -2782,15 +2857,18 @@
         <v>7.0</v>
       </c>
       <c r="O6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2829,15 +2907,18 @@
         <v>14.0</v>
       </c>
       <c r="O7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2877,14 +2958,17 @@
       </c>
       <c r="O8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -2923,15 +3007,18 @@
         <v>8.0</v>
       </c>
       <c r="O9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -2971,14 +3058,17 @@
       </c>
       <c r="O10" t="n">
         <v>14.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -3018,14 +3108,17 @@
       </c>
       <c r="O11" t="n">
         <v>2.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3064,15 +3157,18 @@
         <v>11.0</v>
       </c>
       <c r="O12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -3113,13 +3209,16 @@
       <c r="O13" t="n">
         <v>19.0</v>
       </c>
+      <c r="P13" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -3160,13 +3259,16 @@
       <c r="O14" t="n">
         <v>20.0</v>
       </c>
+      <c r="P14" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -3206,14 +3308,17 @@
       </c>
       <c r="O15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -3254,13 +3359,16 @@
       <c r="O16" t="n">
         <v>11.0</v>
       </c>
+      <c r="P16" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -3301,13 +3409,16 @@
       <c r="O17" t="n">
         <v>13.0</v>
       </c>
+      <c r="P17" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -3348,13 +3459,16 @@
       <c r="O18" t="n">
         <v>18.0</v>
       </c>
+      <c r="P18" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -3395,13 +3509,16 @@
       <c r="O19" t="n">
         <v>3.0</v>
       </c>
+      <c r="P19" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -3442,13 +3559,16 @@
       <c r="O20" t="n">
         <v>15.0</v>
       </c>
+      <c r="P20" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -3487,6 +3607,9 @@
         <v>5.0</v>
       </c>
       <c r="O21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P21" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -3506,7 +3629,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3538,13 +3661,19 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3574,15 +3703,21 @@
         <v>2.0</v>
       </c>
       <c r="L2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -3612,15 +3747,21 @@
         <v>6.0</v>
       </c>
       <c r="L3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -3650,15 +3791,21 @@
         <v>9.0</v>
       </c>
       <c r="L4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -3689,14 +3836,20 @@
       </c>
       <c r="L5" t="n">
         <v>8.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -3726,15 +3879,21 @@
         <v>11.0</v>
       </c>
       <c r="L6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -3765,14 +3924,20 @@
       </c>
       <c r="L7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -3802,15 +3967,21 @@
         <v>10.0</v>
       </c>
       <c r="L8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -3840,15 +4011,21 @@
         <v>14.0</v>
       </c>
       <c r="L9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -3879,14 +4056,20 @@
       </c>
       <c r="L10" t="n">
         <v>12.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -3916,15 +4099,21 @@
         <v>4.0</v>
       </c>
       <c r="L11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3954,15 +4143,21 @@
         <v>1.0</v>
       </c>
       <c r="L12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -3993,14 +4188,20 @@
       </c>
       <c r="L13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -4030,15 +4231,21 @@
         <v>5.0</v>
       </c>
       <c r="L14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4068,6 +4275,12 @@
         <v>3.0</v>
       </c>
       <c r="L15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N15" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -4087,7 +4300,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4125,13 +4338,19 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4168,14 +4387,20 @@
       </c>
       <c r="N2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -4211,15 +4436,21 @@
         <v>13.0</v>
       </c>
       <c r="N3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P3" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -4257,13 +4488,19 @@
       <c r="N4" t="n">
         <v>19.0</v>
       </c>
+      <c r="O4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -4299,15 +4536,21 @@
         <v>12.0</v>
       </c>
       <c r="N5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4344,14 +4587,20 @@
       </c>
       <c r="N6" t="n">
         <v>13.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -4388,14 +4637,20 @@
       </c>
       <c r="N7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -4432,14 +4687,20 @@
       </c>
       <c r="N8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -4476,14 +4737,20 @@
       </c>
       <c r="N9" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" t="n">
         <v>14.0</v>
@@ -4521,13 +4788,19 @@
       <c r="N10" t="n">
         <v>17.0</v>
       </c>
+      <c r="O10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -4563,15 +4836,21 @@
         <v>2.0</v>
       </c>
       <c r="N11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -4609,13 +4888,19 @@
       <c r="N12" t="n">
         <v>15.0</v>
       </c>
+      <c r="O12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -4651,15 +4936,21 @@
         <v>1.0</v>
       </c>
       <c r="N13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -4696,14 +4987,20 @@
       </c>
       <c r="N14" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -4740,14 +5037,20 @@
       </c>
       <c r="N15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -4785,13 +5088,19 @@
       <c r="N16" t="n">
         <v>18.0</v>
       </c>
+      <c r="O16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -4828,14 +5137,20 @@
       </c>
       <c r="N17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -4872,14 +5187,20 @@
       </c>
       <c r="N18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C19" t="n">
         <v>10.0</v>
@@ -4915,15 +5236,21 @@
         <v>10.0</v>
       </c>
       <c r="N19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P19" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -4961,13 +5288,19 @@
       <c r="N20" t="n">
         <v>8.0</v>
       </c>
+      <c r="O20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -5003,6 +5336,12 @@
         <v>19.0</v>
       </c>
       <c r="N21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -5022,7 +5361,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5057,13 +5396,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5097,14 +5439,17 @@
       </c>
       <c r="M2" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -5138,14 +5483,17 @@
       </c>
       <c r="M3" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -5178,15 +5526,18 @@
         <v>16.0</v>
       </c>
       <c r="M4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -5220,14 +5571,17 @@
       </c>
       <c r="M5" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -5260,15 +5614,18 @@
         <v>10.0</v>
       </c>
       <c r="M6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -5301,15 +5658,18 @@
         <v>13.0</v>
       </c>
       <c r="M7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N7" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -5344,13 +5704,16 @@
       <c r="M8" t="n">
         <v>18.0</v>
       </c>
+      <c r="N8" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -5384,14 +5747,17 @@
       </c>
       <c r="M9" t="n">
         <v>15.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -5424,15 +5790,18 @@
         <v>1.0</v>
       </c>
       <c r="M10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -5465,15 +5834,18 @@
         <v>2.0</v>
       </c>
       <c r="M11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5508,13 +5880,16 @@
       <c r="M12" t="n">
         <v>13.0</v>
       </c>
+      <c r="N12" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -5548,14 +5923,17 @@
       </c>
       <c r="M13" t="n">
         <v>14.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -5589,14 +5967,17 @@
       </c>
       <c r="M14" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -5631,13 +6012,16 @@
       <c r="M15" t="n">
         <v>20.0</v>
       </c>
+      <c r="N15" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -5672,13 +6056,16 @@
       <c r="M16" t="n">
         <v>16.0</v>
       </c>
+      <c r="N16" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -5712,14 +6099,17 @@
       </c>
       <c r="M17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -5753,14 +6143,17 @@
       </c>
       <c r="M18" t="n">
         <v>12.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -5795,13 +6188,16 @@
       <c r="M19" t="n">
         <v>9.0</v>
       </c>
+      <c r="N19" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -5836,13 +6232,16 @@
       <c r="M20" t="n">
         <v>3.0</v>
       </c>
+      <c r="N20" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -5875,6 +6274,9 @@
         <v>19.0</v>
       </c>
       <c r="M21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N21" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -5894,7 +6296,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5932,13 +6334,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5975,14 +6380,17 @@
       </c>
       <c r="N2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6019,14 +6427,17 @@
       </c>
       <c r="N3" t="n">
         <v>3.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -6063,14 +6474,17 @@
       </c>
       <c r="N4" t="n">
         <v>16.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -6106,15 +6520,18 @@
         <v>10.0</v>
       </c>
       <c r="N5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -6151,14 +6568,17 @@
       </c>
       <c r="N6" t="n">
         <v>17.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -6195,14 +6615,17 @@
       </c>
       <c r="N7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -6238,15 +6661,18 @@
         <v>11.0</v>
       </c>
       <c r="N8" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -6282,15 +6708,18 @@
         <v>15.0</v>
       </c>
       <c r="N9" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C10" t="n">
         <v>7.0</v>
@@ -6326,15 +6755,18 @@
         <v>12.0</v>
       </c>
       <c r="N10" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -6370,15 +6802,18 @@
         <v>6.0</v>
       </c>
       <c r="N11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -6414,15 +6849,18 @@
         <v>13.0</v>
       </c>
       <c r="N12" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -6458,15 +6896,18 @@
         <v>3.0</v>
       </c>
       <c r="N13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C14" t="n">
         <v>9.0</v>
@@ -6502,15 +6943,18 @@
         <v>7.0</v>
       </c>
       <c r="N14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O14" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -6547,14 +6991,17 @@
       </c>
       <c r="N15" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -6590,15 +7037,18 @@
         <v>8.0</v>
       </c>
       <c r="N16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O16" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -6634,15 +7084,18 @@
         <v>14.0</v>
       </c>
       <c r="N17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O17" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -6678,15 +7131,18 @@
         <v>18.0</v>
       </c>
       <c r="N18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="O18" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -6722,6 +7178,9 @@
         <v>9.0</v>
       </c>
       <c r="N19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -6741,7 +7200,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6776,13 +7235,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -6816,14 +7278,17 @@
       </c>
       <c r="M2" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -6856,15 +7321,18 @@
         <v>1.0</v>
       </c>
       <c r="M3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -6898,14 +7366,17 @@
       </c>
       <c r="M4" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -6938,15 +7409,18 @@
         <v>5.0</v>
       </c>
       <c r="M5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -6980,14 +7454,17 @@
       </c>
       <c r="M6" t="n">
         <v>11.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -7021,14 +7498,17 @@
       </c>
       <c r="M7" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -7061,15 +7541,18 @@
         <v>14.0</v>
       </c>
       <c r="M8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -7103,14 +7586,17 @@
       </c>
       <c r="M9" t="n">
         <v>15.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -7144,14 +7630,17 @@
       </c>
       <c r="M10" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -7184,15 +7673,18 @@
         <v>17.0</v>
       </c>
       <c r="M11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -7225,15 +7717,18 @@
         <v>18.0</v>
       </c>
       <c r="M12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -7267,14 +7762,17 @@
       </c>
       <c r="M13" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -7308,14 +7806,17 @@
       </c>
       <c r="M14" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -7348,15 +7849,18 @@
         <v>12.0</v>
       </c>
       <c r="M15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N15" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7390,14 +7894,17 @@
       </c>
       <c r="M16" t="n">
         <v>16.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -7431,14 +7938,17 @@
       </c>
       <c r="M17" t="n">
         <v>2.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -7472,14 +7982,17 @@
       </c>
       <c r="M18" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -7512,6 +8025,9 @@
         <v>13.0</v>
       </c>
       <c r="M19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="N19" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -7531,7 +8047,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7569,13 +8085,19 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -7612,14 +8134,20 @@
       </c>
       <c r="N2" t="n">
         <v>12.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -7656,14 +8184,20 @@
       </c>
       <c r="N3" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -7700,14 +8234,20 @@
       </c>
       <c r="N4" t="n">
         <v>3.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -7744,14 +8284,20 @@
       </c>
       <c r="N5" t="n">
         <v>2.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -7788,14 +8334,20 @@
       </c>
       <c r="N6" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -7833,13 +8385,19 @@
       <c r="N7" t="n">
         <v>17.0</v>
       </c>
+      <c r="O7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -7876,14 +8434,20 @@
       </c>
       <c r="N8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -7921,13 +8485,19 @@
       <c r="N9" t="n">
         <v>20.0</v>
       </c>
+      <c r="O9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -7964,14 +8534,20 @@
       </c>
       <c r="N10" t="n">
         <v>16.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -8009,13 +8585,19 @@
       <c r="N11" t="n">
         <v>13.0</v>
       </c>
+      <c r="O11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C12" t="n">
         <v>18.0</v>
@@ -8052,14 +8634,20 @@
       </c>
       <c r="N12" t="n">
         <v>18.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -8096,14 +8684,20 @@
       </c>
       <c r="N13" t="n">
         <v>14.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -8139,15 +8733,21 @@
         <v>8.0</v>
       </c>
       <c r="N14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P14" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -8184,14 +8784,20 @@
       </c>
       <c r="N15" t="n">
         <v>1.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -8229,13 +8835,19 @@
       <c r="N16" t="n">
         <v>19.0</v>
       </c>
+      <c r="O16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -8272,14 +8884,20 @@
       </c>
       <c r="N17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -8316,14 +8934,20 @@
       </c>
       <c r="N18" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -8361,13 +8985,19 @@
       <c r="N19" t="n">
         <v>11.0</v>
       </c>
+      <c r="O19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -8403,15 +9033,21 @@
         <v>10.0</v>
       </c>
       <c r="N20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P20" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -8447,6 +9083,12 @@
         <v>7.0</v>
       </c>
       <c r="N21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P21" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -8466,7 +9108,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8510,13 +9152,16 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -8558,15 +9203,18 @@
         <v>1.0</v>
       </c>
       <c r="P2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -8609,14 +9257,17 @@
       </c>
       <c r="P3" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -8659,14 +9310,17 @@
       </c>
       <c r="P4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -8708,15 +9362,18 @@
         <v>3.0</v>
       </c>
       <c r="P5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -8759,14 +9416,17 @@
       </c>
       <c r="P6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -8808,15 +9468,18 @@
         <v>4.0</v>
       </c>
       <c r="P7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -8859,14 +9522,17 @@
       </c>
       <c r="P8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -8909,14 +9575,17 @@
       </c>
       <c r="P9" t="n">
         <v>10.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -8960,13 +9629,16 @@
       <c r="P10" t="n">
         <v>21.0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -9008,15 +9680,18 @@
         <v>2.0</v>
       </c>
       <c r="P11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -9060,13 +9735,16 @@
       <c r="P12" t="n">
         <v>13.0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -9109,14 +9787,17 @@
       </c>
       <c r="P13" t="n">
         <v>6.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -9160,13 +9841,16 @@
       <c r="P14" t="n">
         <v>18.0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C15" t="n">
         <v>19.0</v>
@@ -9210,13 +9894,16 @@
       <c r="P15" t="n">
         <v>22.0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -9260,13 +9947,16 @@
       <c r="P16" t="n">
         <v>20.0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -9310,13 +10000,16 @@
       <c r="P17" t="n">
         <v>19.0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -9360,13 +10053,16 @@
       <c r="P18" t="n">
         <v>14.0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -9410,13 +10106,16 @@
       <c r="P19" t="n">
         <v>16.0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -9458,15 +10157,18 @@
         <v>10.0</v>
       </c>
       <c r="P20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -9510,13 +10212,16 @@
       <c r="P21" t="n">
         <v>17.0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -9559,14 +10264,17 @@
       </c>
       <c r="P22" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C23" t="n">
         <v>14.0</v>
@@ -9609,6 +10317,9 @@
       </c>
       <c r="P23" t="n">
         <v>15.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -9627,7 +10338,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9668,13 +10379,19 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -9713,15 +10430,21 @@
         <v>4.0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -9760,15 +10483,21 @@
         <v>1.0</v>
       </c>
       <c r="O3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -9807,15 +10536,21 @@
         <v>11.0</v>
       </c>
       <c r="O4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -9854,15 +10589,21 @@
         <v>8.0</v>
       </c>
       <c r="O5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -9901,15 +10642,21 @@
         <v>3.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -9949,14 +10696,20 @@
       </c>
       <c r="O7" t="n">
         <v>10.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -9995,15 +10748,21 @@
         <v>6.0</v>
       </c>
       <c r="O8" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -10043,14 +10802,20 @@
       </c>
       <c r="O9" t="n">
         <v>8.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -10089,15 +10854,21 @@
         <v>2.0</v>
       </c>
       <c r="O10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10137,14 +10908,20 @@
       </c>
       <c r="O11" t="n">
         <v>12.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -10184,14 +10961,20 @@
       </c>
       <c r="O12" t="n">
         <v>9.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -10230,7 +11013,13 @@
         <v>5.0</v>
       </c>
       <c r="O13" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -10249,7 +11038,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10290,13 +11079,16 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -10336,14 +11128,17 @@
       </c>
       <c r="O2" t="n">
         <v>10.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -10382,15 +11177,18 @@
         <v>1.0</v>
       </c>
       <c r="O3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -10429,15 +11227,18 @@
         <v>8.0</v>
       </c>
       <c r="O4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -10477,14 +11278,17 @@
       </c>
       <c r="O5" t="n">
         <v>6.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -10524,14 +11328,17 @@
       </c>
       <c r="O6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -10571,14 +11378,17 @@
       </c>
       <c r="O7" t="n">
         <v>2.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C8" t="n">
         <v>7.0</v>
@@ -10618,14 +11428,17 @@
       </c>
       <c r="O8" t="n">
         <v>3.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -10665,14 +11478,17 @@
       </c>
       <c r="O9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -10712,14 +11528,17 @@
       </c>
       <c r="O10" t="n">
         <v>4.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10759,6 +11578,9 @@
       </c>
       <c r="O11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -10777,7 +11599,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10815,13 +11637,19 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -10858,14 +11686,20 @@
       </c>
       <c r="N2" t="n">
         <v>12.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -10902,14 +11736,20 @@
       </c>
       <c r="N3" t="n">
         <v>2.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10945,15 +11785,21 @@
         <v>17.0</v>
       </c>
       <c r="N4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -10990,14 +11836,20 @@
       </c>
       <c r="N5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -11034,14 +11886,20 @@
       </c>
       <c r="N6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -11078,14 +11936,20 @@
       </c>
       <c r="N7" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -11122,14 +11986,20 @@
       </c>
       <c r="N8" t="n">
         <v>3.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -11166,14 +12036,20 @@
       </c>
       <c r="N9" t="n">
         <v>14.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -11210,14 +12086,20 @@
       </c>
       <c r="N10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -11254,14 +12136,20 @@
       </c>
       <c r="N11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -11298,14 +12186,20 @@
       </c>
       <c r="N12" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -11342,14 +12236,20 @@
       </c>
       <c r="N13" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -11385,15 +12285,21 @@
         <v>10.0</v>
       </c>
       <c r="N14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P14" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -11429,15 +12335,21 @@
         <v>18.0</v>
       </c>
       <c r="N15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -11473,15 +12385,21 @@
         <v>16.0</v>
       </c>
       <c r="N16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P16" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -11518,14 +12436,20 @@
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -11562,14 +12486,20 @@
       </c>
       <c r="N18" t="n">
         <v>9.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="n">
         <v>11.0</v>
@@ -11606,6 +12536,12 @@
       </c>
       <c r="N19" t="n">
         <v>13.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -11624,7 +12560,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11665,13 +12601,16 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -11710,15 +12649,18 @@
         <v>8.0</v>
       </c>
       <c r="O2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P2" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -11758,14 +12700,17 @@
       </c>
       <c r="O3" t="n">
         <v>4.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -11804,15 +12749,18 @@
         <v>9.0</v>
       </c>
       <c r="O4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -11851,15 +12799,18 @@
         <v>1.0</v>
       </c>
       <c r="O5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -11898,15 +12849,18 @@
         <v>3.0</v>
       </c>
       <c r="O6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11945,15 +12899,18 @@
         <v>2.0</v>
       </c>
       <c r="O7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -11993,14 +12950,17 @@
       </c>
       <c r="O8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -12040,14 +13000,17 @@
       </c>
       <c r="O9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -12086,15 +13049,18 @@
         <v>10.0</v>
       </c>
       <c r="O10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12134,6 +13100,9 @@
       </c>
       <c r="O11" t="n">
         <v>8.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -12152,7 +13121,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12190,13 +13159,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -12232,15 +13204,18 @@
         <v>10.0</v>
       </c>
       <c r="N2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O2" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -12277,14 +13252,17 @@
       </c>
       <c r="N3" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -12321,14 +13299,17 @@
       </c>
       <c r="N4" t="n">
         <v>7.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -12364,15 +13345,18 @@
         <v>1.0</v>
       </c>
       <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -12408,15 +13392,18 @@
         <v>3.0</v>
       </c>
       <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -12453,14 +13440,17 @@
       </c>
       <c r="N7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -12497,14 +13487,17 @@
       </c>
       <c r="N8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -12541,14 +13534,17 @@
       </c>
       <c r="N9" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -12584,15 +13580,18 @@
         <v>2.0</v>
       </c>
       <c r="N10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -12628,6 +13627,9 @@
         <v>7.0</v>
       </c>
       <c r="N11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -12647,7 +13649,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12682,13 +13684,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -12722,14 +13727,17 @@
       </c>
       <c r="M2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -12762,15 +13770,18 @@
         <v>10.0</v>
       </c>
       <c r="M3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N3" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -12803,15 +13814,18 @@
         <v>17.0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -12845,14 +13859,17 @@
       </c>
       <c r="M5" t="n">
         <v>12.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12886,14 +13903,17 @@
       </c>
       <c r="M6" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -12927,14 +13947,17 @@
       </c>
       <c r="M7" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -12967,15 +13990,18 @@
         <v>1.0</v>
       </c>
       <c r="M8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -13009,14 +14035,17 @@
       </c>
       <c r="M9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -13050,14 +14079,17 @@
       </c>
       <c r="M10" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -13091,14 +14123,17 @@
       </c>
       <c r="M11" t="n">
         <v>17.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -13133,13 +14168,16 @@
       <c r="M12" t="n">
         <v>15.0</v>
       </c>
+      <c r="N12" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -13172,15 +14210,18 @@
         <v>18.0</v>
       </c>
       <c r="M13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N13" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -13213,15 +14254,18 @@
         <v>12.0</v>
       </c>
       <c r="M14" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -13256,13 +14300,16 @@
       <c r="M15" t="n">
         <v>11.0</v>
       </c>
+      <c r="N15" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -13297,13 +14344,16 @@
       <c r="M16" t="n">
         <v>7.0</v>
       </c>
+      <c r="N16" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -13336,15 +14386,18 @@
         <v>8.0</v>
       </c>
       <c r="M17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N17" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -13378,14 +14431,17 @@
       </c>
       <c r="M18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -13419,14 +14475,17 @@
       </c>
       <c r="M19" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -13459,6 +14518,9 @@
         <v>19.0</v>
       </c>
       <c r="M20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N20" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -13478,7 +14540,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13522,13 +14584,19 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -13570,15 +14638,21 @@
         <v>17.0</v>
       </c>
       <c r="P2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -13621,14 +14695,20 @@
       </c>
       <c r="P3" t="n">
         <v>10.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13670,15 +14750,21 @@
         <v>1.0</v>
       </c>
       <c r="P4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -13721,14 +14807,20 @@
       </c>
       <c r="P5" t="n">
         <v>6.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -13771,14 +14863,20 @@
       </c>
       <c r="P6" t="n">
         <v>16.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -13820,15 +14918,21 @@
         <v>3.0</v>
       </c>
       <c r="P7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -13870,15 +14974,21 @@
         <v>5.0</v>
       </c>
       <c r="P8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -13921,14 +15031,20 @@
       </c>
       <c r="P9" t="n">
         <v>11.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -13971,14 +15087,20 @@
       </c>
       <c r="P10" t="n">
         <v>5.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14021,14 +15143,20 @@
       </c>
       <c r="P11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -14071,14 +15199,20 @@
       </c>
       <c r="P12" t="n">
         <v>8.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -14121,14 +15255,20 @@
       </c>
       <c r="P13" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -14171,14 +15311,20 @@
       </c>
       <c r="P14" t="n">
         <v>15.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -14221,14 +15367,20 @@
       </c>
       <c r="P15" t="n">
         <v>13.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -14271,14 +15423,20 @@
       </c>
       <c r="P16" t="n">
         <v>3.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -14321,14 +15479,20 @@
       </c>
       <c r="P17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -14371,14 +15535,20 @@
       </c>
       <c r="P18" t="n">
         <v>17.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -14421,6 +15591,12 @@
       </c>
       <c r="P19" t="n">
         <v>14.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -14439,7 +15615,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14480,13 +15656,16 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -14525,15 +15704,18 @@
         <v>2.0</v>
       </c>
       <c r="O2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" t="n">
         <v>13.0</v>
@@ -14572,15 +15754,18 @@
         <v>15.0</v>
       </c>
       <c r="O3" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -14619,15 +15804,18 @@
         <v>12.0</v>
       </c>
       <c r="O4" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -14666,15 +15854,18 @@
         <v>10.0</v>
       </c>
       <c r="O5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -14713,15 +15904,18 @@
         <v>7.0</v>
       </c>
       <c r="O6" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14760,15 +15954,18 @@
         <v>4.0</v>
       </c>
       <c r="O7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -14807,15 +16004,18 @@
         <v>13.0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -14854,15 +16054,18 @@
         <v>14.0</v>
       </c>
       <c r="O9" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -14901,15 +16104,18 @@
         <v>8.0</v>
       </c>
       <c r="O10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -14948,15 +16154,18 @@
         <v>19.0</v>
       </c>
       <c r="O11" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -14997,13 +16206,16 @@
       <c r="O12" t="n">
         <v>18.0</v>
       </c>
+      <c r="P12" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -15042,15 +16254,18 @@
         <v>9.0</v>
       </c>
       <c r="O13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P13" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -15089,15 +16304,18 @@
         <v>1.0</v>
       </c>
       <c r="O14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -15138,13 +16356,16 @@
       <c r="O15" t="n">
         <v>5.0</v>
       </c>
+      <c r="P15" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -15184,14 +16405,17 @@
       </c>
       <c r="O16" t="n">
         <v>4.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -15230,15 +16454,18 @@
         <v>20.0</v>
       </c>
       <c r="O17" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -15278,14 +16505,17 @@
       </c>
       <c r="O18" t="n">
         <v>17.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -15325,14 +16555,17 @@
       </c>
       <c r="O19" t="n">
         <v>3.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -15371,15 +16604,18 @@
         <v>11.0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -15418,7 +16654,10 @@
         <v>18.0</v>
       </c>
       <c r="O21" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -15437,7 +16676,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15485,7 +16724,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>115</v>
@@ -15496,13 +16735,16 @@
       <c r="U1" t="s">
         <v>117</v>
       </c>
+      <c r="V1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -15559,15 +16801,18 @@
         <v>12.0</v>
       </c>
       <c r="U2" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -15624,15 +16869,18 @@
         <v>2.0</v>
       </c>
       <c r="U3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -15689,15 +16937,18 @@
         <v>14.0</v>
       </c>
       <c r="U4" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -15756,13 +17007,16 @@
       <c r="U5" t="n">
         <v>15.0</v>
       </c>
+      <c r="V5" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -15819,15 +17073,18 @@
         <v>1.0</v>
       </c>
       <c r="U6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -15884,15 +17141,18 @@
         <v>17.0</v>
       </c>
       <c r="U7" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -15949,15 +17209,18 @@
         <v>18.0</v>
       </c>
       <c r="U8" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="n">
         <v>19.0</v>
@@ -16016,13 +17279,16 @@
       <c r="U9" t="n">
         <v>24.0</v>
       </c>
+      <c r="V9" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -16079,15 +17345,18 @@
         <v>19.0</v>
       </c>
       <c r="U10" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16144,15 +17413,18 @@
         <v>10.0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -16209,15 +17481,18 @@
         <v>20.0</v>
       </c>
       <c r="U12" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -16274,15 +17549,18 @@
         <v>9.0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="n">
         <v>20.0</v>
@@ -16339,15 +17617,18 @@
         <v>5.0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -16404,15 +17685,18 @@
         <v>7.0</v>
       </c>
       <c r="U15" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" t="n">
         <v>21.0</v>
@@ -16469,15 +17753,18 @@
         <v>4.0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="n">
         <v>22.0</v>
@@ -16534,15 +17821,18 @@
         <v>11.0</v>
       </c>
       <c r="U17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -16599,15 +17889,18 @@
         <v>16.0</v>
       </c>
       <c r="U18" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="n">
         <v>23.0</v>
@@ -16666,13 +17959,16 @@
       <c r="U19" t="n">
         <v>3.0</v>
       </c>
+      <c r="V19" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
         <v>24.0</v>
@@ -16729,15 +18025,18 @@
         <v>21.0</v>
       </c>
       <c r="U20" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -16794,15 +18093,18 @@
         <v>13.0</v>
       </c>
       <c r="U21" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -16861,13 +18163,16 @@
       <c r="U22" t="n">
         <v>8.0</v>
       </c>
+      <c r="V22" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -16924,15 +18229,18 @@
         <v>6.0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" t="n">
         <v>16.0</v>
@@ -16989,15 +18297,18 @@
         <v>23.0</v>
       </c>
       <c r="U24" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C25" t="n">
         <v>17.0</v>
@@ -17054,7 +18365,10 @@
         <v>22.0</v>
       </c>
       <c r="U25" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -17073,7 +18387,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17121,7 +18435,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>115</v>
@@ -17129,10 +18443,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -17188,10 +18502,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" t="n">
         <v>18.0</v>
@@ -17247,10 +18561,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -17306,10 +18620,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
         <v>19.0</v>
@@ -17365,10 +18679,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -17424,10 +18738,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -17478,15 +18792,15 @@
         <v>17.0</v>
       </c>
       <c r="S7" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -17542,10 +18856,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>21.0</v>
@@ -17601,10 +18915,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -17660,10 +18974,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="n">
         <v>11.0</v>
@@ -17714,15 +19028,15 @@
         <v>10.0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
         <v>22.0</v>
@@ -17778,10 +19092,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -17837,10 +19151,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -17896,10 +19210,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -17950,15 +19264,15 @@
         <v>13.0</v>
       </c>
       <c r="S15" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="n">
         <v>23.0</v>
@@ -18014,10 +19328,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -18073,10 +19387,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
         <v>24.0</v>
@@ -18127,15 +19441,15 @@
         <v>19.0</v>
       </c>
       <c r="S18" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="n">
         <v>4.0</v>
@@ -18191,10 +19505,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -18250,10 +19564,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -18309,10 +19623,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="n">
         <v>15.0</v>
@@ -18368,10 +19682,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
         <v>16.0</v>
@@ -18427,10 +19741,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="n">
         <v>17.0</v>
@@ -18481,15 +19795,15 @@
         <v>12.0</v>
       </c>
       <c r="S24" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -18559,7 +19873,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18607,7 +19921,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>115</v>
@@ -18615,10 +19929,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -18669,15 +19983,15 @@
         <v>14.0</v>
       </c>
       <c r="S2" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -18733,10 +20047,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" t="n">
         <v>11.0</v>
@@ -18787,15 +20101,15 @@
         <v>5.0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -18851,10 +20165,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -18910,10 +20224,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -18964,15 +20278,15 @@
         <v>19.0</v>
       </c>
       <c r="S7" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -19028,10 +20342,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -19087,10 +20401,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" t="n">
         <v>17.0</v>
@@ -19141,15 +20455,15 @@
         <v>20.0</v>
       </c>
       <c r="S10" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" t="n">
         <v>18.0</v>
@@ -19205,10 +20519,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -19259,15 +20573,15 @@
         <v>21.0</v>
       </c>
       <c r="S12" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C13" t="n">
         <v>19.0</v>
@@ -19318,15 +20632,15 @@
         <v>22.0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -19382,10 +20696,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" t="n">
         <v>20.0</v>
@@ -19441,10 +20755,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" t="n">
         <v>13.0</v>
@@ -19500,10 +20814,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -19559,10 +20873,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
@@ -19613,15 +20927,15 @@
         <v>23.0</v>
       </c>
       <c r="S18" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -19677,10 +20991,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" t="n">
         <v>9.0</v>
@@ -19736,10 +21050,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -19790,15 +21104,15 @@
         <v>17.0</v>
       </c>
       <c r="S21" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="n">
         <v>14.0</v>
@@ -19854,10 +21168,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" t="n">
         <v>23.0</v>
@@ -19908,15 +21222,15 @@
         <v>8.0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -19972,10 +21286,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" t="n">
         <v>10.0</v>
@@ -20045,7 +21359,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -20093,18 +21407,21 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>115</v>
       </c>
+      <c r="T1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" t="n">
         <v>17.0</v>
@@ -20157,13 +21474,16 @@
       <c r="S2" t="n">
         <v>15.0</v>
       </c>
+      <c r="T2" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -20216,13 +21536,16 @@
       <c r="S3" t="n">
         <v>17.0</v>
       </c>
+      <c r="T3" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -20273,15 +21596,18 @@
         <v>8.0</v>
       </c>
       <c r="S4" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -20332,15 +21658,18 @@
         <v>5.0</v>
       </c>
       <c r="S5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T5" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" t="n">
         <v>18.0</v>
@@ -20391,15 +21720,18 @@
         <v>9.0</v>
       </c>
       <c r="S6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -20450,15 +21782,18 @@
         <v>3.0</v>
       </c>
       <c r="S7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -20509,15 +21844,18 @@
         <v>10.0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -20570,13 +21908,16 @@
       <c r="S9" t="n">
         <v>14.0</v>
       </c>
+      <c r="T9" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C10" t="n">
         <v>19.0</v>
@@ -20627,15 +21968,18 @@
         <v>12.0</v>
       </c>
       <c r="S10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C11" t="n">
         <v>13.0</v>
@@ -20688,13 +22032,16 @@
       <c r="S11" t="n">
         <v>23.0</v>
       </c>
+      <c r="T11" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C12" t="n">
         <v>20.0</v>
@@ -20747,13 +22094,16 @@
       <c r="S12" t="n">
         <v>18.0</v>
       </c>
+      <c r="T12" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C13" t="n">
         <v>21.0</v>
@@ -20806,13 +22156,16 @@
       <c r="S13" t="n">
         <v>16.0</v>
       </c>
+      <c r="T13" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -20865,13 +22218,16 @@
       <c r="S14" t="n">
         <v>21.0</v>
       </c>
+      <c r="T14" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -20923,14 +22279,17 @@
       </c>
       <c r="S15" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C16" t="n">
         <v>15.0</v>
@@ -20983,13 +22342,16 @@
       <c r="S16" t="n">
         <v>19.0</v>
       </c>
+      <c r="T16" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -21042,13 +22404,16 @@
       <c r="S17" t="n">
         <v>20.0</v>
       </c>
+      <c r="T17" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -21100,14 +22465,17 @@
       </c>
       <c r="S18" t="n">
         <v>4.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -21160,13 +22528,16 @@
       <c r="S19" t="n">
         <v>6.0</v>
       </c>
+      <c r="T19" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
         <v>16.0</v>
@@ -21219,13 +22590,16 @@
       <c r="S20" t="n">
         <v>24.0</v>
       </c>
+      <c r="T20" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" t="n">
         <v>6.0</v>
@@ -21277,14 +22651,17 @@
       </c>
       <c r="S21" t="n">
         <v>13.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" t="n">
         <v>23.0</v>
@@ -21337,13 +22714,16 @@
       <c r="S22" t="n">
         <v>5.0</v>
       </c>
+      <c r="T22" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C23" t="n">
         <v>7.0</v>
@@ -21395,14 +22775,17 @@
       </c>
       <c r="S23" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C24" t="n">
         <v>24.0</v>
@@ -21455,13 +22838,16 @@
       <c r="S24" t="n">
         <v>22.0</v>
       </c>
+      <c r="T24" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25" t="n">
         <v>8.0</v>
@@ -21512,7 +22898,10 @@
         <v>11.0</v>
       </c>
       <c r="S25" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -21531,7 +22920,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -21572,13 +22961,16 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -21619,13 +23011,16 @@
       <c r="O2" t="n">
         <v>19.0</v>
       </c>
+      <c r="P2" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -21666,13 +23061,16 @@
       <c r="O3" t="n">
         <v>20.0</v>
       </c>
+      <c r="P3" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C4" t="n">
         <v>14.0</v>
@@ -21711,15 +23109,18 @@
         <v>16.0</v>
       </c>
       <c r="O4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C5" t="n">
         <v>15.0</v>
@@ -21760,13 +23161,16 @@
       <c r="O5" t="n">
         <v>17.0</v>
       </c>
+      <c r="P5" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" t="n">
         <v>16.0</v>
@@ -21805,15 +23209,18 @@
         <v>8.0</v>
       </c>
       <c r="O6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -21852,15 +23259,18 @@
         <v>2.0</v>
       </c>
       <c r="O7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -21899,15 +23309,18 @@
         <v>6.0</v>
       </c>
       <c r="O8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -21947,14 +23360,17 @@
       </c>
       <c r="O9" t="n">
         <v>3.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -21993,15 +23409,18 @@
         <v>9.0</v>
       </c>
       <c r="O10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P10" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -22040,15 +23459,18 @@
         <v>5.0</v>
       </c>
       <c r="O11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -22087,15 +23509,18 @@
         <v>7.0</v>
       </c>
       <c r="O12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -22134,15 +23559,18 @@
         <v>13.0</v>
       </c>
       <c r="O13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P13" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -22183,13 +23611,16 @@
       <c r="O14" t="n">
         <v>16.0</v>
       </c>
+      <c r="P14" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -22228,15 +23659,18 @@
         <v>11.0</v>
       </c>
       <c r="O15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -22275,15 +23709,18 @@
         <v>1.0</v>
       </c>
       <c r="O16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -22324,13 +23761,16 @@
       <c r="O17" t="n">
         <v>12.0</v>
       </c>
+      <c r="P17" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -22370,14 +23810,17 @@
       </c>
       <c r="O18" t="n">
         <v>4.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" t="n">
         <v>19.0</v>
@@ -22418,13 +23861,16 @@
       <c r="O19" t="n">
         <v>18.0</v>
       </c>
+      <c r="P19" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -22464,14 +23910,17 @@
       </c>
       <c r="O20" t="n">
         <v>11.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -22510,6 +23959,9 @@
         <v>12.0</v>
       </c>
       <c r="O21" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P21" t="n">
         <v>13.0</v>
       </c>
     </row>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="470">
   <si>
     <t>b1_teams</t>
   </si>
@@ -86,6 +86,9 @@
     <t>X16</t>
   </si>
   <si>
+    <t>X17</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -380,9 +383,6 @@
     <t>e1_teams</t>
   </si>
   <si>
-    <t>X17</t>
-  </si>
-  <si>
     <t>X18</t>
   </si>
   <si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
   </si>
   <si>
     <t>21</t>
@@ -1543,13 +1546,16 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -1597,15 +1603,18 @@
         <v>10.0</v>
       </c>
       <c r="R2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S2" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1654,14 +1663,17 @@
       </c>
       <c r="R3" t="n">
         <v>2.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -1709,15 +1721,18 @@
         <v>11.0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1765,15 +1780,18 @@
         <v>12.0</v>
       </c>
       <c r="R5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S5" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1821,15 +1839,18 @@
         <v>3.0</v>
       </c>
       <c r="R6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -1877,15 +1898,18 @@
         <v>15.0</v>
       </c>
       <c r="R7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -1933,15 +1957,18 @@
         <v>1.0</v>
       </c>
       <c r="R8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>8.0</v>
@@ -1989,15 +2016,18 @@
         <v>6.0</v>
       </c>
       <c r="R9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
         <v>15.0</v>
@@ -2046,14 +2076,17 @@
       </c>
       <c r="R10" t="n">
         <v>16.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -2101,15 +2134,18 @@
         <v>13.0</v>
       </c>
       <c r="R11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S11" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -2157,15 +2193,18 @@
         <v>14.0</v>
       </c>
       <c r="R12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S12" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -2213,15 +2252,18 @@
         <v>7.0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -2269,15 +2311,18 @@
         <v>17.0</v>
       </c>
       <c r="R14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>9.0</v>
@@ -2325,15 +2370,18 @@
         <v>9.0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -2382,14 +2430,17 @@
       </c>
       <c r="R16" t="n">
         <v>3.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -2437,15 +2488,18 @@
         <v>5.0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -2494,14 +2548,17 @@
       </c>
       <c r="R18" t="n">
         <v>17.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -2549,7 +2606,10 @@
         <v>8.0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2628,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2612,13 +2672,16 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C2" t="n">
         <v>15.0</v>
@@ -2660,15 +2723,18 @@
         <v>4.0</v>
       </c>
       <c r="P2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C3" t="n">
         <v>16.0</v>
@@ -2712,13 +2778,16 @@
       <c r="P3" t="n">
         <v>14.0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -2761,14 +2830,17 @@
       </c>
       <c r="P4" t="n">
         <v>11.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -2810,15 +2882,18 @@
         <v>1.0</v>
       </c>
       <c r="P5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -2861,14 +2936,17 @@
       </c>
       <c r="P6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2910,15 +2988,18 @@
         <v>16.0</v>
       </c>
       <c r="P7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -2961,14 +3042,17 @@
       </c>
       <c r="P8" t="n">
         <v>3.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -3011,14 +3095,17 @@
       </c>
       <c r="P9" t="n">
         <v>8.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -3061,14 +3148,17 @@
       </c>
       <c r="P10" t="n">
         <v>13.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -3110,15 +3200,18 @@
         <v>2.0</v>
       </c>
       <c r="P11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -3161,14 +3254,17 @@
       </c>
       <c r="P12" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C13" t="n">
         <v>18.0</v>
@@ -3212,13 +3308,16 @@
       <c r="P13" t="n">
         <v>17.0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -3262,13 +3361,16 @@
       <c r="P14" t="n">
         <v>20.0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -3311,14 +3413,17 @@
       </c>
       <c r="P15" t="n">
         <v>9.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -3362,13 +3467,16 @@
       <c r="P16" t="n">
         <v>10.0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C17" t="n">
         <v>11.0</v>
@@ -3412,13 +3520,16 @@
       <c r="P17" t="n">
         <v>15.0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -3462,13 +3573,16 @@
       <c r="P18" t="n">
         <v>19.0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -3512,13 +3626,16 @@
       <c r="P19" t="n">
         <v>4.0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C20" t="n">
         <v>20.0</v>
@@ -3562,13 +3679,16 @@
       <c r="P20" t="n">
         <v>18.0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" t="n">
         <v>14.0</v>
@@ -3611,6 +3731,9 @@
       </c>
       <c r="P21" t="n">
         <v>6.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3752,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3667,13 +3790,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3709,15 +3835,18 @@
         <v>2.0</v>
       </c>
       <c r="N2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -3753,15 +3882,18 @@
         <v>6.0</v>
       </c>
       <c r="N3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -3797,15 +3929,18 @@
         <v>9.0</v>
       </c>
       <c r="N4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -3842,14 +3977,17 @@
       </c>
       <c r="N5" t="n">
         <v>7.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -3886,14 +4024,17 @@
       </c>
       <c r="N6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C7" t="n">
         <v>10.0</v>
@@ -3930,14 +4071,17 @@
       </c>
       <c r="N7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -3974,14 +4118,17 @@
       </c>
       <c r="N8" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -4018,14 +4165,17 @@
       </c>
       <c r="N9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -4062,14 +4212,17 @@
       </c>
       <c r="N10" t="n">
         <v>14.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -4105,15 +4258,18 @@
         <v>3.0</v>
       </c>
       <c r="N11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -4149,15 +4305,18 @@
         <v>1.0</v>
       </c>
       <c r="N12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -4194,14 +4353,17 @@
       </c>
       <c r="N13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -4238,14 +4400,17 @@
       </c>
       <c r="N14" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4282,6 +4447,9 @@
       </c>
       <c r="N15" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -4300,7 +4468,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4344,13 +4512,16 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4393,14 +4564,17 @@
       </c>
       <c r="P2" t="n">
         <v>5.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C3" t="n">
         <v>11.0</v>
@@ -4443,14 +4617,17 @@
       </c>
       <c r="P3" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -4494,13 +4671,16 @@
       <c r="P4" t="n">
         <v>18.0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -4543,14 +4723,17 @@
       </c>
       <c r="P5" t="n">
         <v>14.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4593,14 +4776,17 @@
       </c>
       <c r="P6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -4643,14 +4829,17 @@
       </c>
       <c r="P7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -4693,14 +4882,17 @@
       </c>
       <c r="P8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -4743,14 +4935,17 @@
       </c>
       <c r="P9" t="n">
         <v>2.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C10" t="n">
         <v>14.0</v>
@@ -4794,13 +4989,16 @@
       <c r="P10" t="n">
         <v>16.0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -4843,14 +5041,17 @@
       </c>
       <c r="P11" t="n">
         <v>3.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -4894,13 +5095,16 @@
       <c r="P12" t="n">
         <v>15.0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -4942,15 +5146,18 @@
         <v>1.0</v>
       </c>
       <c r="P13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -4992,15 +5199,18 @@
         <v>6.0</v>
       </c>
       <c r="P14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -5043,14 +5253,17 @@
       </c>
       <c r="P15" t="n">
         <v>11.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -5094,13 +5307,16 @@
       <c r="P16" t="n">
         <v>19.0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -5143,14 +5359,17 @@
       </c>
       <c r="P17" t="n">
         <v>13.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C18" t="n">
         <v>9.0</v>
@@ -5192,15 +5411,18 @@
         <v>17.0</v>
       </c>
       <c r="P18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C19" t="n">
         <v>10.0</v>
@@ -5242,15 +5464,18 @@
         <v>10.0</v>
       </c>
       <c r="P19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -5294,13 +5519,16 @@
       <c r="P20" t="n">
         <v>8.0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -5342,6 +5570,9 @@
         <v>20.0</v>
       </c>
       <c r="P21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -5361,7 +5592,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5399,13 +5630,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5442,14 +5676,17 @@
       </c>
       <c r="N2" t="n">
         <v>6.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -5486,14 +5723,17 @@
       </c>
       <c r="N3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -5530,14 +5770,17 @@
       </c>
       <c r="N4" t="n">
         <v>17.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -5573,15 +5816,18 @@
         <v>8.0</v>
       </c>
       <c r="N5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O5" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -5617,15 +5863,18 @@
         <v>10.0</v>
       </c>
       <c r="N6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -5661,15 +5910,18 @@
         <v>11.0</v>
       </c>
       <c r="N7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -5707,13 +5959,16 @@
       <c r="N8" t="n">
         <v>16.0</v>
       </c>
+      <c r="O8" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -5750,14 +6005,17 @@
       </c>
       <c r="N9" t="n">
         <v>18.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -5793,15 +6051,18 @@
         <v>1.0</v>
       </c>
       <c r="N10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
@@ -5838,14 +6099,17 @@
       </c>
       <c r="N11" t="n">
         <v>2.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5883,13 +6147,16 @@
       <c r="N12" t="n">
         <v>15.0</v>
       </c>
+      <c r="O12" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -5925,15 +6192,18 @@
         <v>14.0</v>
       </c>
       <c r="N13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -5970,14 +6240,17 @@
       </c>
       <c r="N14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -6015,13 +6288,16 @@
       <c r="N15" t="n">
         <v>20.0</v>
       </c>
+      <c r="O15" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -6059,13 +6335,16 @@
       <c r="N16" t="n">
         <v>14.0</v>
       </c>
+      <c r="O16" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -6102,14 +6381,17 @@
       </c>
       <c r="N17" t="n">
         <v>3.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -6146,14 +6428,17 @@
       </c>
       <c r="N18" t="n">
         <v>13.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -6191,13 +6476,16 @@
       <c r="N19" t="n">
         <v>9.0</v>
       </c>
+      <c r="O19" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -6235,13 +6523,16 @@
       <c r="N20" t="n">
         <v>4.0</v>
       </c>
+      <c r="O20" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -6277,6 +6568,9 @@
         <v>19.0</v>
       </c>
       <c r="N21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="O21" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -6296,7 +6590,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6337,13 +6631,16 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -6383,14 +6680,17 @@
       </c>
       <c r="O2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6429,15 +6729,18 @@
         <v>3.0</v>
       </c>
       <c r="O3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -6476,15 +6779,18 @@
         <v>16.0</v>
       </c>
       <c r="O4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -6524,14 +6830,17 @@
       </c>
       <c r="O5" t="n">
         <v>12.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -6570,15 +6879,18 @@
         <v>17.0</v>
       </c>
       <c r="O6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -6617,15 +6929,18 @@
         <v>5.0</v>
       </c>
       <c r="O7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -6665,14 +6980,17 @@
       </c>
       <c r="O8" t="n">
         <v>13.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -6712,14 +7030,17 @@
       </c>
       <c r="O9" t="n">
         <v>10.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C10" t="n">
         <v>7.0</v>
@@ -6759,14 +7080,17 @@
       </c>
       <c r="O10" t="n">
         <v>14.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -6805,15 +7129,18 @@
         <v>8.0</v>
       </c>
       <c r="O11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -6853,14 +7180,17 @@
       </c>
       <c r="O12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C13" t="n">
         <v>5.0</v>
@@ -6900,14 +7230,17 @@
       </c>
       <c r="O13" t="n">
         <v>2.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C14" t="n">
         <v>9.0</v>
@@ -6946,15 +7279,18 @@
         <v>6.0</v>
       </c>
       <c r="O14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P14" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -6993,15 +7329,18 @@
         <v>4.0</v>
       </c>
       <c r="O15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C16" t="n">
         <v>10.0</v>
@@ -7040,15 +7379,18 @@
         <v>7.0</v>
       </c>
       <c r="O16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P16" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -7088,14 +7430,17 @@
       </c>
       <c r="O17" t="n">
         <v>15.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -7134,15 +7479,18 @@
         <v>18.0</v>
       </c>
       <c r="O18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P18" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -7182,6 +7530,9 @@
       </c>
       <c r="O19" t="n">
         <v>9.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -7200,7 +7551,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7238,13 +7589,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -7280,15 +7634,18 @@
         <v>8.0</v>
       </c>
       <c r="N2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O2" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -7324,15 +7681,18 @@
         <v>1.0</v>
       </c>
       <c r="N3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -7369,14 +7729,17 @@
       </c>
       <c r="N4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -7413,14 +7776,17 @@
       </c>
       <c r="N5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C6" t="n">
         <v>13.0</v>
@@ -7457,14 +7823,17 @@
       </c>
       <c r="N6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -7501,14 +7870,17 @@
       </c>
       <c r="N7" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -7545,14 +7917,17 @@
       </c>
       <c r="N8" t="n">
         <v>14.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -7588,15 +7963,18 @@
         <v>15.0</v>
       </c>
       <c r="N9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -7632,15 +8010,18 @@
         <v>5.0</v>
       </c>
       <c r="N10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -7676,15 +8057,18 @@
         <v>17.0</v>
       </c>
       <c r="N11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -7720,15 +8104,18 @@
         <v>18.0</v>
       </c>
       <c r="N12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="O12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -7765,14 +8152,17 @@
       </c>
       <c r="N13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -7808,15 +8198,18 @@
         <v>3.0</v>
       </c>
       <c r="N14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -7853,14 +8246,17 @@
       </c>
       <c r="N15" t="n">
         <v>12.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7897,14 +8293,17 @@
       </c>
       <c r="N16" t="n">
         <v>15.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -7940,15 +8339,18 @@
         <v>2.0</v>
       </c>
       <c r="N17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -7985,14 +8387,17 @@
       </c>
       <c r="N18" t="n">
         <v>5.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -8028,6 +8433,9 @@
         <v>13.0</v>
       </c>
       <c r="N19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -8047,7 +8455,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8094,10 +8502,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -8144,10 +8552,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -8194,10 +8602,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -8244,10 +8652,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -8294,10 +8702,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -8344,10 +8752,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -8394,10 +8802,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -8444,10 +8852,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -8494,10 +8902,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -8544,10 +8952,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -8594,10 +9002,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C12" t="n">
         <v>18.0</v>
@@ -8644,10 +9052,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -8694,10 +9102,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -8744,10 +9152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -8794,10 +9202,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -8844,10 +9252,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -8894,10 +9302,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -8944,10 +9352,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -8994,10 +9402,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -9044,10 +9452,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -9108,7 +9516,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9158,10 +9566,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -9211,10 +9619,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -9264,10 +9672,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -9317,10 +9725,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -9370,10 +9778,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
@@ -9423,10 +9831,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -9476,10 +9884,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -9529,10 +9937,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -9582,10 +9990,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -9635,10 +10043,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -9688,10 +10096,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C12" t="n">
         <v>17.0</v>
@@ -9741,10 +10149,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -9794,10 +10202,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C14" t="n">
         <v>18.0</v>
@@ -9847,10 +10255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C15" t="n">
         <v>19.0</v>
@@ -9900,10 +10308,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C16" t="n">
         <v>12.0</v>
@@ -9953,10 +10361,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -10006,10 +10414,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -10059,10 +10467,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C19" t="n">
         <v>21.0</v>
@@ -10112,10 +10520,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -10165,10 +10573,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C21" t="n">
         <v>22.0</v>
@@ -10218,10 +10626,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -10271,10 +10679,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C23" t="n">
         <v>14.0</v>
@@ -10338,7 +10746,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10385,13 +10793,16 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -10436,15 +10847,18 @@
         <v>3.0</v>
       </c>
       <c r="Q2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -10489,15 +10903,18 @@
         <v>1.0</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -10543,14 +10960,17 @@
       </c>
       <c r="Q4" t="n">
         <v>11.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -10595,15 +11015,18 @@
         <v>5.0</v>
       </c>
       <c r="Q5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -10648,15 +11071,18 @@
         <v>6.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
@@ -10702,14 +11128,17 @@
       </c>
       <c r="Q7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -10754,15 +11183,18 @@
         <v>4.0</v>
       </c>
       <c r="Q8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -10807,15 +11239,18 @@
         <v>9.0</v>
       </c>
       <c r="Q9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R9" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -10860,15 +11295,18 @@
         <v>2.0</v>
       </c>
       <c r="Q10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10914,14 +11352,17 @@
       </c>
       <c r="Q11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -10966,15 +11407,18 @@
         <v>7.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -11019,7 +11463,10 @@
         <v>8.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -11038,7 +11485,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11082,13 +11529,19 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -11130,15 +11583,21 @@
         <v>10.0</v>
       </c>
       <c r="P2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -11180,15 +11639,21 @@
         <v>1.0</v>
       </c>
       <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -11230,15 +11695,21 @@
         <v>8.0</v>
       </c>
       <c r="P4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -11280,15 +11751,21 @@
         <v>6.0</v>
       </c>
       <c r="P5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -11330,15 +11807,21 @@
         <v>9.0</v>
       </c>
       <c r="P6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -11381,14 +11864,20 @@
       </c>
       <c r="P7" t="n">
         <v>3.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C8" t="n">
         <v>7.0</v>
@@ -11431,14 +11920,20 @@
       </c>
       <c r="P8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -11481,14 +11976,20 @@
       </c>
       <c r="P9" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -11531,14 +12032,20 @@
       </c>
       <c r="P10" t="n">
         <v>6.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -11581,6 +12088,12 @@
       </c>
       <c r="P11" t="n">
         <v>5.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -11599,7 +12112,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11643,13 +12156,16 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -11692,14 +12208,17 @@
       </c>
       <c r="P2" t="n">
         <v>13.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -11741,15 +12260,18 @@
         <v>1.0</v>
       </c>
       <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11791,15 +12313,18 @@
         <v>17.0</v>
       </c>
       <c r="P4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -11842,14 +12367,17 @@
       </c>
       <c r="P5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -11891,15 +12419,18 @@
         <v>5.0</v>
       </c>
       <c r="P6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -11942,14 +12473,17 @@
       </c>
       <c r="P7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -11991,15 +12525,18 @@
         <v>2.0</v>
       </c>
       <c r="P8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -12042,14 +12579,17 @@
       </c>
       <c r="P9" t="n">
         <v>16.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -12092,14 +12632,17 @@
       </c>
       <c r="P10" t="n">
         <v>10.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -12142,14 +12685,17 @@
       </c>
       <c r="P11" t="n">
         <v>14.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -12192,14 +12738,17 @@
       </c>
       <c r="P12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -12242,14 +12791,17 @@
       </c>
       <c r="P13" t="n">
         <v>9.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n">
         <v>8.0</v>
@@ -12292,14 +12844,17 @@
       </c>
       <c r="P14" t="n">
         <v>6.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -12341,15 +12896,18 @@
         <v>18.0</v>
       </c>
       <c r="P15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -12392,14 +12950,17 @@
       </c>
       <c r="P16" t="n">
         <v>15.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -12442,14 +13003,17 @@
       </c>
       <c r="P17" t="n">
         <v>3.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -12492,14 +13056,17 @@
       </c>
       <c r="P18" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="n">
         <v>11.0</v>
@@ -12542,6 +13109,9 @@
       </c>
       <c r="P19" t="n">
         <v>8.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -12560,7 +13130,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12604,13 +13174,19 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -12652,15 +13228,21 @@
         <v>6.0</v>
       </c>
       <c r="P2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -12702,15 +13284,21 @@
         <v>4.0</v>
       </c>
       <c r="P3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R3" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -12752,15 +13340,21 @@
         <v>9.0</v>
       </c>
       <c r="P4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -12802,15 +13396,21 @@
         <v>1.0</v>
       </c>
       <c r="P5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -12853,14 +13453,20 @@
       </c>
       <c r="P6" t="n">
         <v>3.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12903,14 +13509,20 @@
       </c>
       <c r="P7" t="n">
         <v>2.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -12952,15 +13564,21 @@
         <v>7.0</v>
       </c>
       <c r="P8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -13002,15 +13620,21 @@
         <v>5.0</v>
       </c>
       <c r="P9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -13052,15 +13676,21 @@
         <v>10.0</v>
       </c>
       <c r="P10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13102,6 +13732,12 @@
         <v>8.0</v>
       </c>
       <c r="P11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R11" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -13121,7 +13757,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13162,13 +13798,19 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -13208,14 +13850,20 @@
       </c>
       <c r="O2" t="n">
         <v>9.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -13255,14 +13903,20 @@
       </c>
       <c r="O3" t="n">
         <v>7.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -13302,14 +13956,20 @@
       </c>
       <c r="O4" t="n">
         <v>8.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -13348,15 +14008,21 @@
         <v>1.0</v>
       </c>
       <c r="O5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -13396,14 +14062,20 @@
       </c>
       <c r="O6" t="n">
         <v>3.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -13443,14 +14115,20 @@
       </c>
       <c r="O7" t="n">
         <v>4.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -13489,15 +14167,21 @@
         <v>8.0</v>
       </c>
       <c r="O8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -13536,15 +14220,21 @@
         <v>4.0</v>
       </c>
       <c r="O9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -13583,15 +14273,21 @@
         <v>2.0</v>
       </c>
       <c r="O10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -13630,6 +14326,12 @@
         <v>6.0</v>
       </c>
       <c r="O11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -13649,7 +14351,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13687,13 +14389,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -13729,15 +14434,18 @@
         <v>2.0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -13773,15 +14481,18 @@
         <v>9.0</v>
       </c>
       <c r="N3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -13818,14 +14529,17 @@
       </c>
       <c r="N4" t="n">
         <v>13.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -13861,15 +14575,18 @@
         <v>12.0</v>
       </c>
       <c r="N5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O5" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13905,15 +14622,18 @@
         <v>4.0</v>
       </c>
       <c r="N6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -13949,15 +14669,18 @@
         <v>3.0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -13993,15 +14716,18 @@
         <v>1.0</v>
       </c>
       <c r="N8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -14037,15 +14763,18 @@
         <v>5.0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -14081,15 +14810,18 @@
         <v>10.0</v>
       </c>
       <c r="N10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -14126,14 +14858,17 @@
       </c>
       <c r="N11" t="n">
         <v>14.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
@@ -14171,13 +14906,16 @@
       <c r="N12" t="n">
         <v>16.0</v>
       </c>
+      <c r="O12" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -14213,15 +14951,18 @@
         <v>18.0</v>
       </c>
       <c r="N13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -14258,14 +14999,17 @@
       </c>
       <c r="N14" t="n">
         <v>15.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -14303,13 +15047,16 @@
       <c r="N15" t="n">
         <v>12.0</v>
       </c>
+      <c r="O15" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C16" t="n">
         <v>19.0</v>
@@ -14347,13 +15094,16 @@
       <c r="N16" t="n">
         <v>5.0</v>
       </c>
+      <c r="O16" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -14390,14 +15140,17 @@
       </c>
       <c r="N17" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C18" t="n">
         <v>11.0</v>
@@ -14433,15 +15186,18 @@
         <v>16.0</v>
       </c>
       <c r="N18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O18" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -14477,15 +15233,18 @@
         <v>6.0</v>
       </c>
       <c r="N19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C20" t="n">
         <v>12.0</v>
@@ -14521,6 +15280,9 @@
         <v>19.0</v>
       </c>
       <c r="N20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="O20" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -14540,7 +15302,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14590,13 +15352,16 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -14645,14 +15410,17 @@
       </c>
       <c r="R2" t="n">
         <v>18.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -14701,14 +15469,17 @@
       </c>
       <c r="R3" t="n">
         <v>11.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -14756,15 +15527,18 @@
         <v>1.0</v>
       </c>
       <c r="R4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -14813,14 +15587,17 @@
       </c>
       <c r="R5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -14869,14 +15646,17 @@
       </c>
       <c r="R6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -14924,15 +15704,18 @@
         <v>2.0</v>
       </c>
       <c r="R7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -14981,14 +15764,17 @@
       </c>
       <c r="R8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -15037,14 +15823,17 @@
       </c>
       <c r="R9" t="n">
         <v>12.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -15092,15 +15881,18 @@
         <v>3.0</v>
       </c>
       <c r="R10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15148,15 +15940,18 @@
         <v>7.0</v>
       </c>
       <c r="R11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S11" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -15205,14 +16000,17 @@
       </c>
       <c r="R12" t="n">
         <v>6.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" t="n">
         <v>16.0</v>
@@ -15261,14 +16059,17 @@
       </c>
       <c r="R13" t="n">
         <v>13.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
@@ -15317,14 +16118,17 @@
       </c>
       <c r="R14" t="n">
         <v>14.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="n">
         <v>18.0</v>
@@ -15373,14 +16177,17 @@
       </c>
       <c r="R15" t="n">
         <v>15.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -15428,15 +16235,18 @@
         <v>5.0</v>
       </c>
       <c r="R16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S16" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -15485,14 +16295,17 @@
       </c>
       <c r="R17" t="n">
         <v>10.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -15541,14 +16354,17 @@
       </c>
       <c r="R18" t="n">
         <v>16.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -15596,6 +16412,9 @@
         <v>17.0</v>
       </c>
       <c r="R19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S19" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -15615,7 +16434,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15659,13 +16478,16 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -15707,15 +16529,18 @@
         <v>2.0</v>
       </c>
       <c r="P2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="n">
         <v>13.0</v>
@@ -15757,15 +16582,18 @@
         <v>16.0</v>
       </c>
       <c r="P3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -15807,15 +16635,18 @@
         <v>15.0</v>
       </c>
       <c r="P4" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -15857,15 +16688,18 @@
         <v>9.0</v>
       </c>
       <c r="P5" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -15907,15 +16741,18 @@
         <v>6.0</v>
       </c>
       <c r="P6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -15957,15 +16794,18 @@
         <v>7.0</v>
       </c>
       <c r="P7" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" t="n">
         <v>14.0</v>
@@ -16007,15 +16847,18 @@
         <v>10.0</v>
       </c>
       <c r="P8" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="n">
         <v>15.0</v>
@@ -16057,15 +16900,18 @@
         <v>13.0</v>
       </c>
       <c r="P9" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" t="n">
         <v>10.0</v>
@@ -16107,15 +16953,18 @@
         <v>8.0</v>
       </c>
       <c r="P10" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -16157,15 +17006,18 @@
         <v>12.0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" t="n">
         <v>11.0</v>
@@ -16207,15 +17059,18 @@
         <v>18.0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" t="n">
         <v>12.0</v>
@@ -16257,15 +17112,18 @@
         <v>11.0</v>
       </c>
       <c r="P13" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -16307,15 +17165,18 @@
         <v>1.0</v>
       </c>
       <c r="P14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -16359,13 +17220,16 @@
       <c r="P15" t="n">
         <v>5.0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
         <v>7.0</v>
@@ -16407,15 +17271,18 @@
         <v>4.0</v>
       </c>
       <c r="P16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -16457,15 +17324,18 @@
         <v>19.0</v>
       </c>
       <c r="P17" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -16507,15 +17377,18 @@
         <v>17.0</v>
       </c>
       <c r="P18" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" t="n">
         <v>8.0</v>
@@ -16557,15 +17430,18 @@
         <v>3.0</v>
       </c>
       <c r="P19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" t="n">
         <v>19.0</v>
@@ -16607,15 +17483,18 @@
         <v>14.0</v>
       </c>
       <c r="P20" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>
@@ -16657,6 +17536,9 @@
         <v>20.0</v>
       </c>
       <c r="P21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -16676,7 +17558,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16727,7 +17609,7 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
         <v>116</v>
@@ -16738,13 +17620,16 @@
       <c r="V1" t="s">
         <v>118</v>
       </c>
+      <c r="W1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -16806,13 +17691,16 @@
       <c r="V2" t="n">
         <v>10.0</v>
       </c>
+      <c r="W2" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -16872,15 +17760,18 @@
         <v>2.0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -16942,13 +17833,16 @@
       <c r="V4" t="n">
         <v>21.0</v>
       </c>
+      <c r="W4" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n">
         <v>18.0</v>
@@ -17008,15 +17902,18 @@
         <v>15.0</v>
       </c>
       <c r="V5" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22